--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QUEST_TABLE" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QUEST_GOAL</t>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUEST_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIALOGUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOICE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_INITIAL_QUEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수프 가게 주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌레가 무서운 아저씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향수 가게 아가씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장식 판매점 주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡화 도구점 손님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료수 가게 손님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINK_DLG1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -45,15 +97,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUEST_TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIALOGUE</t>
+    <t>CHOICE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINK_DLG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짭짤한 소금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 그런대요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살 물품을 미리 정해놔요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화해를 위한 꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활기찬 오렌지 주스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼자서 할게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신기한 맛을 내는 양념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람이 많을수록 좋아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당황하셨겠어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고 싶을 때 사요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견 정리를 위한 종이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차분한 레몬 주스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINK_DIALOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무엇을 마지막으로 넣으면 최고의 스프가 될까요?</t>
+  </si>
+  <si>
+    <t>오! 재밌는 생각이에요.</t>
+  </si>
+  <si>
+    <t>요정님 덕분에 맛있는 스프가 될 것 같아요!</t>
+  </si>
+  <si>
+    <t>잡아준다고?</t>
+  </si>
+  <si>
+    <t>혹시 도움이 필요하나?</t>
+  </si>
+  <si>
+    <t>정령이니까 마법으로 잡을 수 있지 않을까?</t>
+  </si>
+  <si>
+    <t>나도 그 이유를 알고 싶네.</t>
+  </si>
+  <si>
+    <t>정말 당황스러웠어.</t>
+  </si>
+  <si>
+    <t>오, 맞다. 정령이면 마법을 사용할 수 있지?</t>
+  </si>
+  <si>
+    <t>나를 도와줄 수 있을 것 같은데!</t>
+  </si>
+  <si>
+    <t>당신, 계획된 소비를 하는 편?</t>
+  </si>
+  <si>
+    <t>현명한 소비 습관이네.</t>
+  </si>
+  <si>
+    <t>낭만적인 소비 습관이네.</t>
+  </si>
+  <si>
+    <t>흐응. 오늘 향수를 살 것 같지는 않고.</t>
+  </si>
+  <si>
+    <t>고마워, 작은 친구.</t>
+  </si>
+  <si>
+    <t>아… 목이 말라라.</t>
+  </si>
+  <si>
+    <t>마음까지 활기차지는 오렌지 향이네요.</t>
+  </si>
+  <si>
+    <t>음… 맛이 정말 좋아요!</t>
+  </si>
+  <si>
+    <t>이제 제가 무엇을 해야 할지 알겠어요!</t>
+  </si>
+  <si>
+    <t>나를 도와주지 않을래요?&lt;br&gt;재료를 수프에 넣으면 되는 일이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적힌 재료를 찾아 넣은 후 끓이는 것 잊지말아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오! 맛있는 생각이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제는 즐거워 보이지만… 아직 낯을 가려서 말이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩌면 좋을까… 나를 도와줄 물건을 찾아줄래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩌면 좋지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화해를 위한 꽃…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견 정리를 위한 종이…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구랑 싸웠어.&lt;br&gt;서로의 말이 맞다는 이야기만 반복중이야…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 손님이 이렇게 몰려오다니!&lt;br&gt;수프를 다 완성하지 못했는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 맛이 살짝 아쉬운 걸요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가에게 말을 걸어볼까요&lt;br&gt;아니면 혼자만의 시간을 즐길까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저의 고민을 해결해 줄 음료수를 가져다줄래요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워요. 요정님.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수프를 완성해라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌레를 잡아라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 장식으로 통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향수를 사겠니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈등을 멈추는 법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 필요한 음료수는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUEST_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEFORE_DIALOGUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOING_DIALOGUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPLETE_DIALOGUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,111 +338,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LEAD_QUEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAIN_QUEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경일과 인사하라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경일 앞에서 LT/RT 버튼을 누르세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무를 획득하라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무 1개를 획득하세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUEST_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MBTI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요? /n나무하나만 주실래요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무 감사합니다. /n어디 가시나봐요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람이 많은 곳으로 가는군요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람이 적은 곳으로 가는군요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHOICE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHOICE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINK_DIALOG1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINK_DIALOG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHOICE3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINK_DIALOG3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람이 많은 곳으로 갑니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람이 적은 곳으로 갑니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINK_DIALOG_CHOICE</t>
+    <t>벌레는 정말 끔찍해…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님이 만족하셨으면 좋겠네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 향기를 원한다면 언제든지 들려.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화해하는 게 좋을까,&lt;br&gt;의견을 정리하는 게 좋을까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 생각했어. 어차피 모두 도망갔거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어차피 너 혼자 잡아야 해! 모두 도망갔거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 나 좀 도와줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윗줄은 빨간색으로 아랫줄은 초록색으로&lt;br&gt;보여달라지 뭐야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰일이네. 조금 있으면 까다로운 손님이 오시는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래, 이거면 우리의 싸움을 멈출 수 있어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으으… 끔찍해! 벌레들이 가게 안으로 들어갔어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별한 음료수를 마시면&lt;br&gt;고민이 해결될 것 같아요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음이 차분해지는 레몬 향이네요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,11 +433,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,77 +738,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>301000</v>
+        <v>301501</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="C2" s="1">
+        <v>300501</v>
+      </c>
+      <c r="D2" s="2">
+        <v>300501</v>
       </c>
       <c r="E2" s="1">
-        <v>300000</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -578,51 +817,191 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>304000</v>
+        <v>304501</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>304503</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>304504</v>
       </c>
       <c r="K2" s="1">
-        <v>301001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>301001</v>
+        <v>301502</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="C3" s="1">
+        <v>300502</v>
+      </c>
+      <c r="D3" s="2">
+        <v>300502</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>304001</v>
+        <v>304509</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>301000</v>
+        <v>304515</v>
       </c>
       <c r="K3" s="1">
-        <v>301002</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>301503</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2">
+        <v>300503</v>
+      </c>
+      <c r="D4" s="2">
+        <v>300503</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>304516</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>304522</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>301504</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2">
+        <v>300504</v>
+      </c>
+      <c r="D5" s="2">
+        <v>300504</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>304523</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>304528</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>301505</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2">
+        <v>300505</v>
+      </c>
+      <c r="D6" s="2">
+        <v>300505</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>105069</v>
+      </c>
+      <c r="G6" s="1">
+        <v>105070</v>
+      </c>
+      <c r="H6" s="1">
+        <v>304529</v>
+      </c>
+      <c r="I6" s="1">
+        <v>304531</v>
+      </c>
+      <c r="J6" s="1">
+        <v>304532</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>301506</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2">
+        <v>300506</v>
+      </c>
+      <c r="D7" s="2">
+        <v>300506</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>105107</v>
+      </c>
+      <c r="G7" s="1">
+        <v>105108</v>
+      </c>
+      <c r="H7" s="1">
+        <v>304537</v>
+      </c>
+      <c r="I7" s="1">
+        <v>304540</v>
+      </c>
+      <c r="J7" s="1">
+        <v>304541</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -633,121 +1012,988 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="11" width="9" style="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>304501</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300501</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1">
+        <v>304502</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>304502</v>
+      </c>
+      <c r="B3" s="1">
+        <v>300501</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>304503</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300501</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>304504</v>
+      </c>
+      <c r="B5" s="1">
+        <v>300501</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1">
+        <v>304505</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>304505</v>
+      </c>
+      <c r="B6" s="1">
+        <v>300501</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>304000</v>
-      </c>
-      <c r="B2" s="1">
-        <v>300000</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>304001</v>
-      </c>
-      <c r="B3" s="1">
-        <v>300001</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1">
-        <v>302000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>304002</v>
-      </c>
-      <c r="B4" s="1">
-        <v>300001</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>304003</v>
-      </c>
-      <c r="B5" s="1">
-        <v>300001</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
+      <c r="D6" s="1">
+        <v>302501</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>304506</v>
+      </c>
+      <c r="B7" s="1">
+        <v>300501</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1">
+        <v>304508</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>304507</v>
+      </c>
+      <c r="B8" s="1">
+        <v>300501</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1">
+        <v>304508</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>304508</v>
+      </c>
+      <c r="B9" s="1">
+        <v>300501</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>304509</v>
+      </c>
+      <c r="B10" s="1">
+        <v>300502</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1">
+        <v>304510</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>304510</v>
+      </c>
+      <c r="B11" s="1">
+        <v>300502</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1">
+        <v>304511</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>304511</v>
+      </c>
+      <c r="B12" s="1">
+        <v>300502</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
+        <v>302502</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>304512</v>
+      </c>
+      <c r="B13" s="1">
+        <v>300502</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="1">
+        <v>304514</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>304513</v>
+      </c>
+      <c r="B14" s="1">
+        <v>300502</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1">
+        <v>304514</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>304514</v>
+      </c>
+      <c r="B15" s="1">
+        <v>300502</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>304515</v>
+      </c>
+      <c r="B16" s="2">
+        <v>300502</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>304516</v>
+      </c>
+      <c r="B17" s="2">
+        <v>300503</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="1">
+        <v>304517</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>304517</v>
+      </c>
+      <c r="B18" s="1">
+        <v>300503</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="1">
+        <v>302503</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>304518</v>
+      </c>
+      <c r="B19" s="1">
+        <v>300503</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>304520</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>304519</v>
+      </c>
+      <c r="B20" s="1">
+        <v>300503</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2">
+        <v>304520</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>304520</v>
+      </c>
+      <c r="B21" s="1">
+        <v>300503</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1">
+        <v>304521</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>304521</v>
+      </c>
+      <c r="B22" s="2">
+        <v>300503</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>304522</v>
+      </c>
+      <c r="B23" s="2">
+        <v>300503</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>304523</v>
+      </c>
+      <c r="B24" s="1">
+        <v>300504</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1">
+        <v>302504</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>304524</v>
+      </c>
+      <c r="B25" s="1">
+        <v>300504</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1">
+        <v>304526</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>304525</v>
+      </c>
+      <c r="B26" s="1">
+        <v>300504</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1">
+        <v>304526</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>304526</v>
+      </c>
+      <c r="B27" s="2">
+        <v>300504</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1">
+        <v>304527</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>304527</v>
+      </c>
+      <c r="B28" s="2">
+        <v>300504</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>304528</v>
+      </c>
+      <c r="B29" s="2">
+        <v>300504</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>304529</v>
+      </c>
+      <c r="B30" s="1">
+        <v>300505</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1">
+        <v>304530</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>304530</v>
+      </c>
+      <c r="B31" s="1">
+        <v>300505</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>304531</v>
+      </c>
+      <c r="B32" s="1">
+        <v>300505</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>304532</v>
+      </c>
+      <c r="B33" s="1">
+        <v>300505</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1">
+        <v>302505</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>304533</v>
+      </c>
+      <c r="B34" s="1">
+        <v>300505</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="1">
+        <v>304535</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>304534</v>
+      </c>
+      <c r="B35" s="2">
+        <v>300505</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="1">
+        <v>304535</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>304535</v>
+      </c>
+      <c r="B36" s="2">
+        <v>300505</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="1">
+        <v>304536</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>304536</v>
+      </c>
+      <c r="B37" s="2">
+        <v>300505</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>304537</v>
+      </c>
+      <c r="B38" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="1">
+        <v>304538</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>304538</v>
+      </c>
+      <c r="B39" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="1">
+        <v>304539</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>304539</v>
+      </c>
+      <c r="B40" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>304540</v>
+      </c>
+      <c r="B41" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>304541</v>
+      </c>
+      <c r="B42" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="1">
+        <v>302506</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>304542</v>
+      </c>
+      <c r="B43" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="1">
+        <v>304544</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>304543</v>
+      </c>
+      <c r="B44" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="1">
+        <v>304544</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>304544</v>
+      </c>
+      <c r="B45" s="2">
+        <v>300506</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="1">
+        <v>304545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>304545</v>
+      </c>
+      <c r="B46" s="2">
+        <v>300506</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="1">
+        <v>304546</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>304546</v>
+      </c>
+      <c r="B47" s="2">
+        <v>300506</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -759,68 +2005,225 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>302501</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
+        <v>304506</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1">
+        <v>304507</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>302502</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>304512</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1">
+        <v>304513</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>302503</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1">
+        <v>304518</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1">
+        <v>304519</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>302504</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>304524</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>304525</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>302505</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C6" s="1">
+        <v>304533</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>304534</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>302506</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>302000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1">
-        <v>304002</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1">
-        <v>304003</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
+      <c r="C7" s="1">
+        <v>304542</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>304543</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -831,45 +2234,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>300000</v>
+        <v>300501</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>301501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>300001</v>
+        <v>300502</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>301502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>300503</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>301503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>300504</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>301504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>300505</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>300506</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>301506</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QUEST_TABLE" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,79 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>KGA</author>
+  </authors>
+  <commentList>
+    <comment ref="K9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">별
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>별</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>별</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>별</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="201">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +458,353 @@
   </si>
   <si>
     <t>마음이 차분해지는 레몬 향이네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬마 정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일 애호가 아저씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동법 익히기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 사용법 익히기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼 사용법 익히기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 줍기 익히기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 이동해보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합해보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요정의 집 문 열기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떠나기 전에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간계로 가려면 시험을 봐야 하거든.</t>
+  </si>
+  <si>
+    <t>흠흠, 좋아. 이제 잘 들리겠네.</t>
+  </si>
+  <si>
+    <t>우선 인간계로 가는 시험장은 저 앞에 있어.</t>
+  </si>
+  <si>
+    <t>먼저 가있을 테니, 천천히 와!</t>
+  </si>
+  <si>
+    <t>응? 길을 잃으면 어떻게 하냐고?</t>
+  </si>
+  <si>
+    <t>지도를 들고 있는 상태에서 트리거 키를 누르면 지도를 전환할 수 있지.</t>
+  </si>
+  <si>
+    <t>우리 정령들이 인간이 되기 위해서는&lt;br&gt;인간 세계를 경험해 봐야 하지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 좀 멀리 있어서&lt;br&gt;내 말이 잘 안들릴까 걱정이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동은 좌측 스틱으로,&lt;br&gt;말을 걸 때는 나를 조준해서&lt;br&gt;트리거를 누르면 돼!</t>
+  </si>
+  <si>
+    <t>내가 안내해줄게!&lt;br&gt;이 앞으로 쭉 가면 되거든!</t>
+  </si>
+  <si>
+    <t>왼손으로든, 오른손으로든, 잡을 수 있지.&lt;br&gt;양손도 되고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 먼저 가있을게!&lt;br&gt;지도를 보고 따라와서 말을 걸어줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 직접 도끼로 베어야 할 것 같아!</t>
+  </si>
+  <si>
+    <t>어디긴, 바로 네 오른쪽 허리에 있지.</t>
+  </si>
+  <si>
+    <t>오, 생각보다 빨리 왔구나.&lt;br&gt;지도가 참 편리하지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 문제가 생겼어.&lt;br&gt;시험장에 가는 길이 커다란 나무로 막혀 있네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만, 보다시피 나는 손발이 없거든&lt;br&gt;너가 마침 도끼를 가지고 있네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 상태에서 나무를 베면 쓰러질 거야!&lt;br&gt;한 세 번 정도 휘두르면 될 것 같아.</t>
+  </si>
+  <si>
+    <t>나무를 베면 다시 말을 걸어줘!</t>
+  </si>
+  <si>
+    <t>도끼는 네 오른쪽 허리에 있어.&lt;br&gt;그랩 버튼을 꾹 누르면 잡을 수 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼를 잡은 손으로 트리거를 누르고 있으면&lt;br&gt;도끼를 사용할 수 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나한테 가까이 와서 말 좀 걸어줄래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼, 나는 저 앞에서 기다리고 있을게.</t>
+  </si>
+  <si>
+    <t>어? 목재를 깜빡했구나!</t>
+  </si>
+  <si>
+    <t>이렇게 떨어진 아이템은 그랩 버튼으로&lt;br&gt;집을 수 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목재가 없으면 이 앞으로 나아갈 수 없어.&lt;br&gt;다시 돌아가서 주워 올 수 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 장치를 풀려면 횃불이 필요하겠는걸…</t>
+  </si>
+  <si>
+    <t>아까 너만의 공간이 있다고 했었지?&lt;br&gt;그 공간을 바로 "인벤토리" 라고 해.</t>
+  </si>
+  <si>
+    <t>인벤토리에서는 너가 가진 아이템들을&lt;br&gt;확인할 수 있지.</t>
+  </si>
+  <si>
+    <t>인벤토리는 아이템을 들고서 들어갈 수 있고,&lt;br&gt;나올때도 들고서 나올 수 있어!</t>
+  </si>
+  <si>
+    <t>또한, 인벤토리 안에서&lt;br&gt;2개에서 3개의 아이템으로&lt;br&gt;또 다른 아이템을 만들 수 있지</t>
+  </si>
+  <si>
+    <t>다시 나가서 들고와야겠는걸…&lt;br&gt;Y 버튼을 누르면 다시 나갈 수 있어.</t>
+  </si>
+  <si>
+    <t>정령이 아닌 자들은 들어오지 못하도록&lt;br&gt;특별한 장치가 있는 모양이야.</t>
+  </si>
+  <si>
+    <t>오, 왔구나!</t>
+  </si>
+  <si>
+    <t>망치를 누르면 조합이 진행돼.</t>
+  </si>
+  <si>
+    <t>"횃불" 아이템이 등장할 거야!</t>
+  </si>
+  <si>
+    <t>음, 아직 횃불이 없는 것 같은데?</t>
+  </si>
+  <si>
+    <t>여기가 바로 너만의 공간&lt;br&gt;인벤토리야!</t>
+  </si>
+  <si>
+    <t>앞에 나무상자 보이지?&lt;br&gt;저 상자가 바로 너가 가지고 있는&lt;br&gt;아이템이 들어있는 곳이야.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그 옆에는 나무나 돌멩이&lt;br&gt;즉, 자원 아이템이 들어있는&lt;br&gt;주머니라고 할 수 있지. </t>
+  </si>
+  <si>
+    <t>저 옆에 있는 테이블은&lt;br&gt;조합 테이블이야.</t>
+  </si>
+  <si>
+    <t>조합 테이블에 재료가 되는 아이템을&lt;br&gt;테이블 위에 올려놓고</t>
+  </si>
+  <si>
+    <t>우선, 우리한테 필요한 아이템은&lt;br&gt;"횃불"이니까 목재와 기름이&lt;br&gt;필요하겠네.</t>
+  </si>
+  <si>
+    <t>조합 테이블에&lt;br&gt;목재와 기름을 올려놓고 망치를 누르면</t>
+  </si>
+  <si>
+    <t>횃불을 만들었네!&lt;br&gt;이제 Y 버튼을 눌러 인벤토리 밖으로 나가자.&lt;br&gt;문 앞에서 만나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불을 가져왔구나!</t>
+  </si>
+  <si>
+    <t>노크는 정령만이 가지고 있는 마법으로 해야해!</t>
+  </si>
+  <si>
+    <t>B 버튼으로 횃불을 불러낸 후 잡아서 트리거 키로 불을 키자!</t>
+  </si>
+  <si>
+    <t>그 횃불은 B 버튼으로&lt;br&gt;불러낼 수 있어.</t>
+  </si>
+  <si>
+    <t>횃불을 잡는 중에 트리거 키를 누르면&lt;br&gt;횃불의 불을 키고 끌 수 있지.</t>
+  </si>
+  <si>
+    <t>B 버튼을 누르거나&lt;br&gt;손에서 놓으면 횃불을 다시 넣을 수 있어!</t>
+  </si>
+  <si>
+    <t>손에 아무것도 없는 상태에서&lt;br&gt;트리거 키를 꾹 누르고 놓으면&lt;br&gt;마법을 발사할 수 있어.</t>
+  </si>
+  <si>
+    <t>화로에 불을 붙였다면&lt;br&gt;맨 손 상태에서 트리거 키를 꾹~ 누른 후&lt;br&gt;놓아서 노크를 해볼까?</t>
+  </si>
+  <si>
+    <t>불이 켜져 있는 횃불로&lt;br&gt;두개의 화로에 불은 붙인 다음&lt;br&gt;노크를 하면 문이 열릴거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간이 되고 싶다는 그 정령이 바로 너냐?</t>
+  </si>
+  <si>
+    <t>바로 인간 세계로 보내줄 수 는 없고… 흠…</t>
+  </si>
+  <si>
+    <t>바구니에 잘 담아서 가져오라고!</t>
+  </si>
+  <si>
+    <t>참고로 말하자면&lt;br&gt;이 시험장과 같은 "퍼즐"들은</t>
+  </si>
+  <si>
+    <t>한 번 깨기 전 까지는&lt;br&gt;절대로 밖으로 나갈 수 없지.</t>
+  </si>
+  <si>
+    <t>맞아, 정말 설레는 일이지!</t>
+  </si>
+  <si>
+    <t>너무 걱정하지마! 분명 잘할거니까.</t>
+  </si>
+  <si>
+    <t>조심히 가. 안녕!</t>
+  </si>
+  <si>
+    <t>시험장 통과를 축하해!&lt;br&gt;앗! 그건 별이잖아!</t>
+  </si>
+  <si>
+    <t>우리 같은 정령이 인간이 되기 위해서는&lt;br&gt;인간 세계에서 별을 모아야 해.</t>
+  </si>
+  <si>
+    <t>별은 사람들을 도와주거나,&lt;br&gt;곳곳에 숨겨져 있는 퍼즐을 풀면&lt;br&gt;얻을 수 있어!</t>
+  </si>
+  <si>
+    <t>그렇다고 별이 소모되지는 않으니까&lt;br&gt;걱정하지마!</t>
+  </si>
+  <si>
+    <t>앞으로는 모르는 사람들을&lt;br&gt;잔뜩 만나게 될텐데. 기분이 어때?</t>
+  </si>
+  <si>
+    <t>장소에 관련된 별의 정보는&lt;br&gt;지도에서 확인할 수 있을거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 개수의 별을 모아야&lt;br&gt;지나갈 수 있는 장소도 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕! 너도 인간이 되려고 왔구나!</t>
+  </si>
+  <si>
+    <t>나는 너가 인간 세계에 잘 도착하게끔 도와줄&lt;br&gt;"티피" 라고 해!</t>
+  </si>
+  <si>
+    <t>아, 이동 스틱을 누르면, 짧은 거리를&lt;br&gt;순간이동 하는 방법으로&lt;br&gt;이동할 수 있어!</t>
+  </si>
+  <si>
+    <t>그럴 땐 지도를 확인하면 돼!&lt;br&gt;지도는 왼쪽 허리에 있어.</t>
+  </si>
+  <si>
+    <t>좋았어!&lt;br&gt;이제 이 앞으로 지나갈 수 있겠네.</t>
+  </si>
+  <si>
+    <t>앗, 그러고 보니 나무가 쓰러지면서&lt;br&gt;뭔가가 떨어졌어!</t>
+  </si>
+  <si>
+    <t>이건… 목재구나!&lt;br&gt;일단 주워 놓는게 어떨까?&lt;br&gt;어디에 쓰일 지 모르니깐 말이야.</t>
+  </si>
+  <si>
+    <t>아이템을 집은 상태에서 A 버튼을 누르면&lt;br&gt;너만의 공간에 저장할 수 있어!</t>
+  </si>
+  <si>
+    <t>목재 주워 오는 거.&lt;br&gt;잊어버리면 안 돼!</t>
+  </si>
+  <si>
+    <t>주워오면 나한테 말을 다시 걸어줘!</t>
+  </si>
+  <si>
+    <t>왔구나!&lt;br&gt;여기가 바로 인간계로 가는 시험장이야.</t>
+  </si>
+  <si>
+    <t>오, 마침 저기 기름이 있네.&lt;br&gt;가지고 있는 목재와 조합할 수 있겠는데!</t>
+  </si>
+  <si>
+    <t>나는 내 마법으로 네 인벤토리에&lt;br&gt;들어가 있을게!</t>
+  </si>
+  <si>
+    <t>아, 기름을 인벤토리에 꼭 가지고 와야 해!&lt;br&gt;인벤토리는 Y 버튼으로 들어갈 수 있어!</t>
+  </si>
+  <si>
+    <t>앗, 기름을 깜빡했구나!</t>
+  </si>
+  <si>
+    <t>기름을 꼭 들고와야해!</t>
+  </si>
+  <si>
+    <t>햇불을 만들고 나면&lt;br&gt;말을 걸어줘!</t>
+  </si>
+  <si>
+    <t>드디어 문이 열렸어!&lt;br&gt;안으로 들어가보자구.</t>
+  </si>
+  <si>
+    <t>반갑다!&lt;br&gt;시험장에 온 것을 환영하지!</t>
+  </si>
+  <si>
+    <t>그래! 나에게 사과와 바나나를&lt;br&gt;가져와 준다면 시험을 통과시켜 주지!</t>
+  </si>
+  <si>
+    <t>그 말은 즉,&lt;br&gt;나에게 사과와 바나나를 주기 전까지&lt;br&gt;너는 나갈 수 없다는 말이다!</t>
+  </si>
+  <si>
+    <t>자, 어서 사과와 바나나가 담긴&lt;br&gt;과일 바구니를 가져와라!</t>
+  </si>
+  <si>
+    <t>오! 사과와 바나나를 가져왔군!&lt;br&gt;그럼 약속대로 출구문을 열어주도록 하지!</t>
+  </si>
+  <si>
+    <t>시험은 통과다!&lt;br&gt;그럼 잘 가라!</t>
+  </si>
+  <si>
+    <t>너무 설레!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 걱정돼.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +827,29 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -433,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,6 +894,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,21 +1211,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.25" style="1" bestFit="1" customWidth="1"/>
@@ -759,7 +1234,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -794,21 +1269,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>301501</v>
+        <v>301100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1">
-        <v>300501</v>
-      </c>
-      <c r="D2" s="2">
-        <v>300501</v>
+        <v>300100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>300100</v>
       </c>
       <c r="E2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -817,30 +1292,30 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>304501</v>
+        <v>304100</v>
       </c>
       <c r="I2" s="1">
-        <v>304503</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>304504</v>
+        <v>304108</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>301502</v>
+        <v>301101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1">
-        <v>300502</v>
+        <v>98</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300100</v>
       </c>
       <c r="D3" s="2">
-        <v>300502</v>
+        <v>300100</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -852,177 +1327,494 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>304117</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>301102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2">
+        <v>300100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>300100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>304125</v>
+      </c>
+      <c r="J4" s="1">
+        <v>304126</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>301103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>300100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>300100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100002</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>304133</v>
+      </c>
+      <c r="J5" s="1">
+        <v>304136</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>301104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2">
+        <v>300100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>300100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100004</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>304146</v>
+      </c>
+      <c r="J6" s="1">
+        <v>304150</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>301105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2">
+        <v>300100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>300100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100005</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>304160</v>
+      </c>
+      <c r="J7" s="1">
+        <v>304162</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>301106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2">
+        <v>300100</v>
+      </c>
+      <c r="D8" s="2">
+        <v>300100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>304163</v>
+      </c>
+      <c r="I8" s="1">
+        <v>304170</v>
+      </c>
+      <c r="J8" s="1">
+        <v>304172</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>301107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="2">
+        <v>300101</v>
+      </c>
+      <c r="D9" s="2">
+        <v>300101</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>101003</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>304173</v>
+      </c>
+      <c r="I9" s="1">
+        <v>304181</v>
+      </c>
+      <c r="J9" s="1">
+        <v>304182</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>301108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="2">
+        <v>300100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>300100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>304184</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>304193</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>301501</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1">
+        <v>300501</v>
+      </c>
+      <c r="D11" s="2">
+        <v>300501</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>304501</v>
+      </c>
+      <c r="I11" s="1">
+        <v>304503</v>
+      </c>
+      <c r="J11" s="1">
+        <v>304504</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>301502</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>300502</v>
+      </c>
+      <c r="D12" s="2">
+        <v>300502</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>304509</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
         <v>304515</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
         <v>301503</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C13" s="2">
         <v>300503</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D13" s="2">
         <v>300503</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>304516</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
         <v>304522</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
         <v>301504</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C14" s="2">
         <v>300504</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D14" s="2">
         <v>300504</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
         <v>304523</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
         <v>304528</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
         <v>301505</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C15" s="2">
         <v>300505</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D15" s="2">
         <v>300505</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F15" s="1">
         <v>105069</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G15" s="1">
         <v>105070</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H15" s="1">
         <v>304529</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I15" s="1">
         <v>304531</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J15" s="1">
         <v>304532</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
         <v>301506</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C16" s="2">
         <v>300506</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D16" s="2">
         <v>300506</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F16" s="1">
         <v>105107</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G16" s="1">
         <v>105108</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H16" s="1">
         <v>304537</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I16" s="1">
         <v>304540</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J16" s="1">
         <v>304541</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K16" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
@@ -1030,7 +1822,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1051,948 +1843,2901 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>304100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300100</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="10">
+        <v>304101</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>304101</v>
+      </c>
+      <c r="B3" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="10">
+        <v>304102</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>304102</v>
+      </c>
+      <c r="B4" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="10">
+        <v>304103</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>304103</v>
+      </c>
+      <c r="B5" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="10">
+        <v>304104</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>304104</v>
+      </c>
+      <c r="B6" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="10">
+        <v>304105</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>304105</v>
+      </c>
+      <c r="B7" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="10">
+        <v>304106</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>304106</v>
+      </c>
+      <c r="B8" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="10">
+        <v>304107</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>304107</v>
+      </c>
+      <c r="B9" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>304108</v>
+      </c>
+      <c r="B10" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="11">
+        <v>304109</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>304109</v>
+      </c>
+      <c r="B11" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="11">
+        <v>304110</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>304110</v>
+      </c>
+      <c r="B12" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="11">
+        <v>304111</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
+        <v>304111</v>
+      </c>
+      <c r="B13" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="11">
+        <v>304112</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>304112</v>
+      </c>
+      <c r="B14" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="11">
+        <v>304113</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
+        <v>304113</v>
+      </c>
+      <c r="B15" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="11">
+        <v>304114</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
+        <v>304114</v>
+      </c>
+      <c r="B16" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="11">
+        <v>304115</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
+        <v>304115</v>
+      </c>
+      <c r="B17" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="11">
+        <v>304116</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
+        <v>304116</v>
+      </c>
+      <c r="B18" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
+        <v>304117</v>
+      </c>
+      <c r="B19" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="12">
+        <v>304118</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
+        <v>304118</v>
+      </c>
+      <c r="B20" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="12">
+        <v>304119</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
+        <v>304119</v>
+      </c>
+      <c r="B21" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="12">
+        <v>304120</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
+        <v>304120</v>
+      </c>
+      <c r="B22" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="12">
+        <v>304121</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
+        <v>304121</v>
+      </c>
+      <c r="B23" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="12">
+        <v>304122</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
+        <v>304122</v>
+      </c>
+      <c r="B24" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="12">
+        <v>304123</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
+        <v>304123</v>
+      </c>
+      <c r="B25" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="12">
+        <v>304124</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
+        <v>304124</v>
+      </c>
+      <c r="B26" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2">
+        <v>304125</v>
+      </c>
+      <c r="B27" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="12">
+        <v>304122</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
+        <v>304126</v>
+      </c>
+      <c r="B28" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="13">
+        <v>304127</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2">
+        <v>304127</v>
+      </c>
+      <c r="B29" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="13">
+        <v>304128</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2">
+        <v>304128</v>
+      </c>
+      <c r="B30" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="13">
+        <v>304129</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2">
+        <v>304129</v>
+      </c>
+      <c r="B31" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="13">
+        <v>304130</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2">
+        <v>304130</v>
+      </c>
+      <c r="B32" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="13">
+        <v>304131</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
+        <v>304131</v>
+      </c>
+      <c r="B33" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="13">
+        <v>304132</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
+        <v>304132</v>
+      </c>
+      <c r="B34" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
+        <v>304133</v>
+      </c>
+      <c r="B35" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="13">
+        <v>304134</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
+        <v>304134</v>
+      </c>
+      <c r="B36" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="13">
+        <v>304135</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
+        <v>304135</v>
+      </c>
+      <c r="B37" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
+        <v>304136</v>
+      </c>
+      <c r="B38" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="14">
+        <v>304137</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
+        <v>304137</v>
+      </c>
+      <c r="B39" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="14">
+        <v>304138</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
+        <v>304138</v>
+      </c>
+      <c r="B40" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="14">
+        <v>304139</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
+        <v>304139</v>
+      </c>
+      <c r="B41" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="14">
+        <v>304140</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
+        <v>304140</v>
+      </c>
+      <c r="B42" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="14">
+        <v>304141</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
+        <v>304141</v>
+      </c>
+      <c r="B43" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="14">
+        <v>304142</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2">
+        <v>304142</v>
+      </c>
+      <c r="B44" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="14">
+        <v>304143</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2">
+        <v>304143</v>
+      </c>
+      <c r="B45" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="14">
+        <v>304144</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2">
+        <v>304144</v>
+      </c>
+      <c r="B46" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="14">
+        <v>304145</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2">
+        <v>304145</v>
+      </c>
+      <c r="B47" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2">
+        <v>304146</v>
+      </c>
+      <c r="B48" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="14">
+        <v>304147</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2">
+        <v>304147</v>
+      </c>
+      <c r="B49" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="14">
+        <v>304148</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
+        <v>304148</v>
+      </c>
+      <c r="B50" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2">
+        <v>304149</v>
+      </c>
+      <c r="B51" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="14">
+        <v>304150</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2">
+        <v>304150</v>
+      </c>
+      <c r="B52" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="15">
+        <v>304151</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2">
+        <v>304151</v>
+      </c>
+      <c r="B53" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="18">
+        <v>304152</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2">
+        <v>304152</v>
+      </c>
+      <c r="B54" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="18">
+        <v>304153</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="2">
+        <v>304153</v>
+      </c>
+      <c r="B55" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="18">
+        <v>304154</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="2">
+        <v>304154</v>
+      </c>
+      <c r="B56" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="18">
+        <v>304155</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="2">
+        <v>304155</v>
+      </c>
+      <c r="B57" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="18">
+        <v>304156</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="2">
+        <v>304156</v>
+      </c>
+      <c r="B58" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="18">
+        <v>304157</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="2">
+        <v>304157</v>
+      </c>
+      <c r="B59" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="18">
+        <v>304158</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="2">
+        <v>304158</v>
+      </c>
+      <c r="B60" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="18">
+        <v>304159</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="2">
+        <v>304159</v>
+      </c>
+      <c r="B61" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="2">
+        <v>304160</v>
+      </c>
+      <c r="B62" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="15">
+        <v>304157</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="2">
+        <v>304161</v>
+      </c>
+      <c r="B63" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="2">
+        <v>304162</v>
+      </c>
+      <c r="B64" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="16">
+        <v>304163</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="2">
+        <v>304163</v>
+      </c>
+      <c r="B65" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="16">
+        <v>304164</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="2">
+        <v>304164</v>
+      </c>
+      <c r="B66" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="18">
+        <v>304165</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="2">
+        <v>304165</v>
+      </c>
+      <c r="B67" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="18">
+        <v>304166</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="2">
+        <v>304166</v>
+      </c>
+      <c r="B68" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="18">
+        <v>304167</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="2">
+        <v>304167</v>
+      </c>
+      <c r="B69" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="18">
+        <v>304168</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="2">
+        <v>304168</v>
+      </c>
+      <c r="B70" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" s="16">
+        <v>0</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="2">
+        <v>304169</v>
+      </c>
+      <c r="B71" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="16">
+        <v>304170</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="2">
+        <v>304170</v>
+      </c>
+      <c r="B72" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="16">
+        <v>0</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="2">
+        <v>304171</v>
+      </c>
+      <c r="B73" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="16">
+        <v>0</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="2">
+        <v>304172</v>
+      </c>
+      <c r="B74" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="17">
+        <v>304173</v>
+      </c>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="2">
+        <v>304173</v>
+      </c>
+      <c r="B75" s="1">
+        <v>300101</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="17">
+        <v>304174</v>
+      </c>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="2">
+        <v>304174</v>
+      </c>
+      <c r="B76" s="2">
+        <v>300101</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="18">
+        <v>304175</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="2">
+        <v>304175</v>
+      </c>
+      <c r="B77" s="2">
+        <v>300101</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" s="18">
+        <v>304176</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="2">
+        <v>304176</v>
+      </c>
+      <c r="B78" s="2">
+        <v>300101</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="18">
+        <v>304177</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="2">
+        <v>304177</v>
+      </c>
+      <c r="B79" s="2">
+        <v>300101</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="18">
+        <v>304178</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="2">
+        <v>304178</v>
+      </c>
+      <c r="B80" s="2">
+        <v>300101</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="18">
+        <v>304179</v>
+      </c>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="2">
+        <v>304179</v>
+      </c>
+      <c r="B81" s="2">
+        <v>300101</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="18">
+        <v>304180</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="2">
+        <v>304180</v>
+      </c>
+      <c r="B82" s="2">
+        <v>300101</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" s="17">
+        <v>0</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="2">
+        <v>304181</v>
+      </c>
+      <c r="B83" s="2">
+        <v>300101</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="17">
+        <v>304182</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="2">
+        <v>304182</v>
+      </c>
+      <c r="B84" s="2">
+        <v>300101</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D84" s="17">
+        <v>0</v>
+      </c>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="2">
+        <v>304183</v>
+      </c>
+      <c r="B85" s="2">
+        <v>300101</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="18">
+        <v>304184</v>
+      </c>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="2">
+        <v>304184</v>
+      </c>
+      <c r="B86" s="1">
+        <v>300100</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="18">
+        <v>304185</v>
+      </c>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="2">
+        <v>304185</v>
+      </c>
+      <c r="B87" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" s="18">
+        <v>304186</v>
+      </c>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="2">
+        <v>304186</v>
+      </c>
+      <c r="B88" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="18">
+        <v>304187</v>
+      </c>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="2">
+        <v>304187</v>
+      </c>
+      <c r="B89" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" s="18">
+        <v>304188</v>
+      </c>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="2">
+        <v>304188</v>
+      </c>
+      <c r="B90" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" s="18">
+        <v>304189</v>
+      </c>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="2">
+        <v>304189</v>
+      </c>
+      <c r="B91" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" s="18">
+        <v>302100</v>
+      </c>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="2">
+        <v>304190</v>
+      </c>
+      <c r="B92" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="18">
+        <v>304192</v>
+      </c>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="2">
+        <v>304191</v>
+      </c>
+      <c r="B93" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" s="18">
+        <v>304192</v>
+      </c>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="2">
+        <v>304192</v>
+      </c>
+      <c r="B94" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="18">
+        <v>0</v>
+      </c>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
         <v>304501</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B95" s="1">
         <v>300501</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C95" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D95" s="1">
         <v>304502</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
         <v>304502</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B96" s="1">
         <v>300501</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
         <v>304503</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B97" s="1">
         <v>300501</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C97" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
         <v>304504</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B98" s="1">
         <v>300501</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C98" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D98" s="1">
         <v>304505</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
         <v>304505</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B99" s="1">
         <v>300501</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D99" s="1">
         <v>302501</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
         <v>304506</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B100" s="1">
         <v>300501</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C100" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D100" s="1">
         <v>304508</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
         <v>304507</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B101" s="1">
         <v>300501</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C101" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D101" s="1">
         <v>304508</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
         <v>304508</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B102" s="1">
         <v>300501</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
         <v>304509</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B103" s="1">
         <v>300502</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C103" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D103" s="1">
         <v>304510</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
         <v>304510</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B104" s="1">
         <v>300502</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C104" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D104" s="1">
         <v>304511</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
         <v>304511</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B105" s="1">
         <v>300502</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C105" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D105" s="1">
         <v>302502</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
         <v>304512</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B106" s="1">
         <v>300502</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D106" s="1">
         <v>304514</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
         <v>304513</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B107" s="1">
         <v>300502</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D107" s="1">
         <v>304514</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
         <v>304514</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B108" s="1">
         <v>300502</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
         <v>304515</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B109" s="2">
         <v>300502</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
         <v>304516</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B110" s="2">
         <v>300503</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D110" s="1">
         <v>304517</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
         <v>304517</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B111" s="1">
         <v>300503</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C111" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D111" s="1">
         <v>302503</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
         <v>304518</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B112" s="1">
         <v>300503</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C112" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D112" s="1">
         <v>304520</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
         <v>304519</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B113" s="1">
         <v>300503</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C113" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D113" s="2">
         <v>304520</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
         <v>304520</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B114" s="1">
         <v>300503</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C114" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D114" s="1">
         <v>304521</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
         <v>304521</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B115" s="2">
         <v>300503</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C115" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
         <v>304522</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B116" s="2">
         <v>300503</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
         <v>304523</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B117" s="1">
         <v>300504</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C117" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D117" s="1">
         <v>302504</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
         <v>304524</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B118" s="1">
         <v>300504</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C118" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D118" s="1">
         <v>304526</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
         <v>304525</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B119" s="1">
         <v>300504</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D119" s="1">
         <v>304526</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
         <v>304526</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B120" s="2">
         <v>300504</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C120" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D120" s="1">
         <v>304527</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
         <v>304527</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B121" s="2">
         <v>300504</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
         <v>304528</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B122" s="2">
         <v>300504</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
         <v>304529</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B123" s="1">
         <v>300505</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C123" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D123" s="1">
         <v>304530</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
         <v>304530</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B124" s="1">
         <v>300505</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
         <v>304531</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B125" s="1">
         <v>300505</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
         <v>304532</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B126" s="1">
         <v>300505</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C126" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D126" s="1">
         <v>302505</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
         <v>304533</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B127" s="1">
         <v>300505</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C127" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D127" s="1">
         <v>304535</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
         <v>304534</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B128" s="2">
         <v>300505</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C128" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D128" s="1">
         <v>304535</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
         <v>304535</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B129" s="2">
         <v>300505</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C129" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D129" s="1">
         <v>304536</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
         <v>304536</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B130" s="2">
         <v>300505</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C130" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
         <v>304537</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B131" s="1">
         <v>300506</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D131" s="1">
         <v>304538</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
         <v>304538</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B132" s="1">
         <v>300506</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C132" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D132" s="1">
         <v>304539</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
         <v>304539</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B133" s="1">
         <v>300506</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C133" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
         <v>304540</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B134" s="1">
         <v>300506</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C134" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
         <v>304541</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B135" s="1">
         <v>300506</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C135" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D135" s="1">
         <v>302506</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
         <v>304542</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B136" s="1">
         <v>300506</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C136" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D136" s="1">
         <v>304544</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
         <v>304543</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B137" s="1">
         <v>300506</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C137" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D137" s="1">
         <v>304544</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="2">
         <v>304544</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B138" s="2">
         <v>300506</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C138" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D138" s="1">
         <v>304545</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="139" spans="1:11">
+      <c r="A139" s="2">
         <v>304545</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B139" s="2">
         <v>300506</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C139" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D139" s="1">
         <v>304546</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="140" spans="1:11">
+      <c r="A140" s="2">
         <v>304546</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B140" s="2">
         <v>300506</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C140" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D140" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2005,13 +4750,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="1" bestFit="1" customWidth="1"/>
@@ -2023,7 +4768,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2052,177 +4797,206 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
+        <v>302100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="1">
+        <v>304191</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1">
+        <v>304192</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>302501</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>304506</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
         <v>304507</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>302502</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>304512</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G4" s="1">
         <v>304513</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>302503</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>304518</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <v>304519</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>302504</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>304524</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1">
-        <v>304525</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>302505</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1">
-        <v>304533</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
-        <v>304534</v>
+        <v>304525</v>
       </c>
       <c r="H6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
+        <v>302505</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>304533</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1">
+        <v>304534</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>302506</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>304542</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>304543</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2234,13 +5008,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
@@ -2248,7 +5022,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2259,69 +5033,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
+        <v>300100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1">
+        <v>301100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>300101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1">
+        <v>301107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>300501</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C4" s="1">
         <v>301501</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
         <v>300502</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C5" s="1">
         <v>301502</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>300503</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C6" s="1">
         <v>301503</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>300504</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="1">
         <v>301504</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>300505</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8" s="1">
         <v>301505</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
         <v>300506</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="1">
         <v>301506</v>
       </c>
     </row>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="QUEST_TABLE" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K15" authorId="0" shapeId="0">
+    <comment ref="K12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,12 +93,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="K17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>별</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="208">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,6 +820,29 @@
   </si>
   <si>
     <t>조금 걱정돼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시회에 출품할&lt;br&gt;옷이 필요해!&lt;br&gt;주제는 꽃이야.</t>
+  </si>
+  <si>
+    <t>3개중에 2개는 이미 만들었는데&lt;br&gt;하나를 아직 못만들었네.</t>
+  </si>
+  <si>
+    <t>여기 옷감을 줄테니까&lt;br&gt;나를 도와주지 않을래?</t>
+  </si>
+  <si>
+    <t>어떤 색의 옷감이 좋을까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 멋진 색인걸!&lt;br&gt;이대로 전시회에 &lt;br&gt;출품하면 되겠다.</t>
+  </si>
+  <si>
+    <t>멋진 색의 옷감을&lt;br&gt;만들어줘서 고마워!</t>
+  </si>
+  <si>
+    <t>꽃으로 만든 옷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1212,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1584,88 +1622,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>301501</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1">
-        <v>300501</v>
+    <row r="11" spans="1:11" s="2" customFormat="1">
+      <c r="A11" s="2">
+        <v>301207</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="2">
+        <v>300207</v>
       </c>
       <c r="D11" s="2">
-        <v>300501</v>
-      </c>
-      <c r="E11" s="1">
+        <v>300207</v>
+      </c>
+      <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>304501</v>
-      </c>
-      <c r="I11" s="1">
-        <v>304503</v>
-      </c>
-      <c r="J11" s="1">
-        <v>304504</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>304247</v>
+      </c>
+      <c r="I11" s="2">
+        <v>304250</v>
+      </c>
+      <c r="J11" s="2">
+        <v>304251</v>
+      </c>
+      <c r="K11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
+        <v>301501</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1">
+        <v>300501</v>
+      </c>
+      <c r="D12" s="2">
+        <v>300501</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>304501</v>
+      </c>
+      <c r="I12" s="1">
+        <v>304503</v>
+      </c>
+      <c r="J12" s="1">
+        <v>304504</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
         <v>301502</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>300502</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>300502</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>304509</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>304515</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
-        <v>301503</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="2">
-        <v>300503</v>
-      </c>
-      <c r="D13" s="2">
-        <v>300503</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
@@ -1677,13 +1715,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>304516</v>
+        <v>304509</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>304522</v>
+        <v>304515</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1691,16 +1729,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
-        <v>301504</v>
+        <v>301503</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2">
-        <v>300504</v>
+        <v>300503</v>
       </c>
       <c r="D14" s="2">
-        <v>300504</v>
+        <v>300503</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -1712,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>304523</v>
+        <v>304516</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>304528</v>
+        <v>304522</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1726,34 +1764,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
-        <v>301505</v>
+        <v>301504</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2">
-        <v>300505</v>
+        <v>300504</v>
       </c>
       <c r="D15" s="2">
-        <v>300505</v>
+        <v>300504</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1">
-        <v>105069</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>105070</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>304529</v>
+        <v>304523</v>
       </c>
       <c r="I15" s="1">
-        <v>304531</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>304532</v>
+        <v>304528</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1761,36 +1799,71 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
-        <v>301506</v>
+        <v>301505</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2">
-        <v>300506</v>
+        <v>300505</v>
       </c>
       <c r="D16" s="2">
-        <v>300506</v>
+        <v>300505</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="F16" s="1">
+        <v>105069</v>
+      </c>
+      <c r="G16" s="1">
+        <v>105070</v>
+      </c>
+      <c r="H16" s="1">
+        <v>304529</v>
+      </c>
+      <c r="I16" s="1">
+        <v>304531</v>
+      </c>
+      <c r="J16" s="1">
+        <v>304532</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
+        <v>301506</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2">
+        <v>300506</v>
+      </c>
+      <c r="D17" s="2">
+        <v>300506</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
         <v>105107</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <v>105108</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="1">
         <v>304537</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="1">
         <v>304540</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J17" s="1">
         <v>304541</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1804,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3502,7 +3575,7 @@
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:12">
       <c r="A81" s="2">
         <v>304179</v>
       </c>
@@ -3523,7 +3596,7 @@
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:12">
       <c r="A82" s="2">
         <v>304180</v>
       </c>
@@ -3544,7 +3617,7 @@
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:12">
       <c r="A83" s="2">
         <v>304181</v>
       </c>
@@ -3565,7 +3638,7 @@
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:12">
       <c r="A84" s="2">
         <v>304182</v>
       </c>
@@ -3586,7 +3659,7 @@
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:12">
       <c r="A85" s="2">
         <v>304183</v>
       </c>
@@ -3607,7 +3680,7 @@
       <c r="J85" s="18"/>
       <c r="K85" s="18"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:12">
       <c r="A86" s="2">
         <v>304184</v>
       </c>
@@ -3628,7 +3701,7 @@
       <c r="J86" s="18"/>
       <c r="K86" s="18"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:12">
       <c r="A87" s="2">
         <v>304185</v>
       </c>
@@ -3649,7 +3722,7 @@
       <c r="J87" s="18"/>
       <c r="K87" s="18"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:12">
       <c r="A88" s="2">
         <v>304186</v>
       </c>
@@ -3670,7 +3743,7 @@
       <c r="J88" s="18"/>
       <c r="K88" s="18"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:12">
       <c r="A89" s="2">
         <v>304187</v>
       </c>
@@ -3691,7 +3764,7 @@
       <c r="J89" s="18"/>
       <c r="K89" s="18"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:12">
       <c r="A90" s="2">
         <v>304188</v>
       </c>
@@ -3712,7 +3785,7 @@
       <c r="J90" s="18"/>
       <c r="K90" s="18"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:12">
       <c r="A91" s="2">
         <v>304189</v>
       </c>
@@ -3733,7 +3806,7 @@
       <c r="J91" s="18"/>
       <c r="K91" s="18"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="A92" s="2">
         <v>304190</v>
       </c>
@@ -3754,7 +3827,7 @@
       <c r="J92" s="18"/>
       <c r="K92" s="18"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:12">
       <c r="A93" s="2">
         <v>304191</v>
       </c>
@@ -3775,7 +3848,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="18"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:12">
       <c r="A94" s="2">
         <v>304192</v>
       </c>
@@ -3796,162 +3869,168 @@
       <c r="J94" s="18"/>
       <c r="K94" s="18"/>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1">
+    <row r="95" spans="1:12" s="2" customFormat="1">
+      <c r="A95" s="2">
+        <v>304247</v>
+      </c>
+      <c r="B95" s="2">
+        <v>300207</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" s="18">
+        <v>304248</v>
+      </c>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="1:12" s="2" customFormat="1">
+      <c r="A96" s="2">
+        <v>304248</v>
+      </c>
+      <c r="B96" s="2">
+        <v>300207</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D96" s="18">
+        <v>304249</v>
+      </c>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="1:12" s="2" customFormat="1">
+      <c r="A97" s="2">
+        <v>304249</v>
+      </c>
+      <c r="B97" s="2">
+        <v>300207</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="18">
+        <v>0</v>
+      </c>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="1:12" s="2" customFormat="1">
+      <c r="A98" s="2">
+        <v>304250</v>
+      </c>
+      <c r="B98" s="2">
+        <v>300207</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" s="18">
+        <v>0</v>
+      </c>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="1:12" s="2" customFormat="1">
+      <c r="A99" s="2">
+        <v>304251</v>
+      </c>
+      <c r="B99" s="2">
+        <v>300207</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="18">
+        <v>304252</v>
+      </c>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99"/>
+    </row>
+    <row r="100" spans="1:12" s="2" customFormat="1">
+      <c r="A100" s="2">
+        <v>304252</v>
+      </c>
+      <c r="B100" s="2">
+        <v>300207</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" s="18">
+        <v>0</v>
+      </c>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1">
         <v>304501</v>
-      </c>
-      <c r="B95" s="1">
-        <v>300501</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D95" s="1">
-        <v>304502</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1">
-        <v>304502</v>
-      </c>
-      <c r="B96" s="1">
-        <v>300501</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0</v>
-      </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1">
-        <v>304503</v>
-      </c>
-      <c r="B97" s="1">
-        <v>300501</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0</v>
-      </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1">
-        <v>304504</v>
-      </c>
-      <c r="B98" s="1">
-        <v>300501</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D98" s="1">
-        <v>304505</v>
-      </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1">
-        <v>304505</v>
-      </c>
-      <c r="B99" s="1">
-        <v>300501</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" s="1">
-        <v>302501</v>
-      </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1">
-        <v>304506</v>
-      </c>
-      <c r="B100" s="1">
-        <v>300501</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D100" s="1">
-        <v>304508</v>
-      </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1">
-        <v>304507</v>
       </c>
       <c r="B101" s="1">
         <v>300501</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>35</v>
+      <c r="C101" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D101" s="1">
-        <v>304508</v>
-      </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-    </row>
-    <row r="102" spans="1:11">
+        <v>304502</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
-        <v>304508</v>
+        <v>304502</v>
       </c>
       <c r="B102" s="1">
         <v>300501</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -3964,18 +4043,18 @@
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
-        <v>304509</v>
+        <v>304503</v>
       </c>
       <c r="B103" s="1">
-        <v>300502</v>
+        <v>300501</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D103" s="1">
-        <v>304510</v>
+        <v>0</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -3985,18 +4064,18 @@
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:12">
       <c r="A104" s="1">
-        <v>304510</v>
+        <v>304504</v>
       </c>
       <c r="B104" s="1">
-        <v>300502</v>
+        <v>300501</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D104" s="1">
-        <v>304511</v>
+        <v>304505</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -4006,18 +4085,18 @@
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
-        <v>304511</v>
+        <v>304505</v>
       </c>
       <c r="B105" s="1">
-        <v>300502</v>
+        <v>300501</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D105" s="1">
-        <v>302502</v>
+        <v>302501</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -4027,18 +4106,18 @@
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:12">
       <c r="A106" s="1">
-        <v>304512</v>
+        <v>304506</v>
       </c>
       <c r="B106" s="1">
-        <v>300502</v>
+        <v>300501</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D106" s="1">
-        <v>304514</v>
+        <v>304508</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -4048,18 +4127,18 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
-        <v>304513</v>
+        <v>304507</v>
       </c>
       <c r="B107" s="1">
-        <v>300502</v>
+        <v>300501</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="D107" s="1">
-        <v>304514</v>
+        <v>304508</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -4069,15 +4148,15 @@
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:12">
       <c r="A108" s="1">
-        <v>304514</v>
+        <v>304508</v>
       </c>
       <c r="B108" s="1">
-        <v>300502</v>
+        <v>300501</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
@@ -4090,18 +4169,18 @@
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
-        <v>304515</v>
-      </c>
-      <c r="B109" s="2">
+        <v>304509</v>
+      </c>
+      <c r="B109" s="1">
         <v>300502</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>82</v>
+      <c r="C109" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D109" s="1">
-        <v>0</v>
+        <v>304510</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -4111,18 +4190,18 @@
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
-        <v>304516</v>
-      </c>
-      <c r="B110" s="2">
-        <v>300503</v>
+        <v>304510</v>
+      </c>
+      <c r="B110" s="1">
+        <v>300502</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D110" s="1">
-        <v>304517</v>
+        <v>304511</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -4132,18 +4211,18 @@
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:12">
       <c r="A111" s="1">
-        <v>304517</v>
+        <v>304511</v>
       </c>
       <c r="B111" s="1">
-        <v>300503</v>
+        <v>300502</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D111" s="1">
-        <v>302503</v>
+        <v>302502</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -4153,18 +4232,18 @@
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
-        <v>304518</v>
+        <v>304512</v>
       </c>
       <c r="B112" s="1">
-        <v>300503</v>
+        <v>300502</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D112" s="1">
-        <v>304520</v>
+        <v>304514</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -4176,16 +4255,16 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1">
-        <v>304519</v>
+        <v>304513</v>
       </c>
       <c r="B113" s="1">
-        <v>300503</v>
+        <v>300502</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D113" s="2">
-        <v>304520</v>
+        <v>87</v>
+      </c>
+      <c r="D113" s="1">
+        <v>304514</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -4197,16 +4276,16 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1">
-        <v>304520</v>
+        <v>304514</v>
       </c>
       <c r="B114" s="1">
-        <v>300503</v>
+        <v>300502</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D114" s="1">
-        <v>304521</v>
+        <v>0</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -4218,13 +4297,13 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1">
-        <v>304521</v>
+        <v>304515</v>
       </c>
       <c r="B115" s="2">
-        <v>300503</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>43</v>
+        <v>300502</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -4239,16 +4318,16 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1">
-        <v>304522</v>
+        <v>304516</v>
       </c>
       <c r="B116" s="2">
         <v>300503</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>83</v>
+      <c r="C116" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D116" s="1">
-        <v>0</v>
+        <v>304517</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -4260,16 +4339,16 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1">
-        <v>304523</v>
+        <v>304517</v>
       </c>
       <c r="B117" s="1">
-        <v>300504</v>
+        <v>300503</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D117" s="1">
-        <v>302504</v>
+        <v>302503</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -4281,16 +4360,16 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1">
-        <v>304524</v>
+        <v>304518</v>
       </c>
       <c r="B118" s="1">
-        <v>300504</v>
+        <v>300503</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D118" s="1">
-        <v>304526</v>
+        <v>304520</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -4302,16 +4381,16 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1">
-        <v>304525</v>
+        <v>304519</v>
       </c>
       <c r="B119" s="1">
-        <v>300504</v>
+        <v>300503</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D119" s="1">
-        <v>304526</v>
+        <v>41</v>
+      </c>
+      <c r="D119" s="2">
+        <v>304520</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -4323,16 +4402,16 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1">
-        <v>304526</v>
-      </c>
-      <c r="B120" s="2">
-        <v>300504</v>
+        <v>304520</v>
+      </c>
+      <c r="B120" s="1">
+        <v>300503</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D120" s="1">
-        <v>304527</v>
+        <v>304521</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -4344,13 +4423,13 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="1">
-        <v>304527</v>
+        <v>304521</v>
       </c>
       <c r="B121" s="2">
-        <v>300504</v>
+        <v>300503</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -4365,13 +4444,13 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="1">
-        <v>304528</v>
+        <v>304522</v>
       </c>
       <c r="B122" s="2">
-        <v>300504</v>
+        <v>300503</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
@@ -4386,16 +4465,16 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="1">
-        <v>304529</v>
+        <v>304523</v>
       </c>
       <c r="B123" s="1">
-        <v>300505</v>
+        <v>300504</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D123" s="1">
-        <v>304530</v>
+        <v>302504</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -4407,16 +4486,16 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="1">
-        <v>304530</v>
+        <v>304524</v>
       </c>
       <c r="B124" s="1">
-        <v>300505</v>
+        <v>300504</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D124" s="1">
-        <v>0</v>
+        <v>304526</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -4428,16 +4507,16 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="1">
-        <v>304531</v>
+        <v>304525</v>
       </c>
       <c r="B125" s="1">
-        <v>300505</v>
+        <v>300504</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D125" s="1">
-        <v>0</v>
+        <v>304526</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -4449,16 +4528,16 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="1">
-        <v>304532</v>
-      </c>
-      <c r="B126" s="1">
-        <v>300505</v>
+        <v>304526</v>
+      </c>
+      <c r="B126" s="2">
+        <v>300504</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D126" s="1">
-        <v>302505</v>
+        <v>304527</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -4470,16 +4549,16 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="1">
-        <v>304533</v>
-      </c>
-      <c r="B127" s="1">
-        <v>300505</v>
+        <v>304527</v>
+      </c>
+      <c r="B127" s="2">
+        <v>300504</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D127" s="1">
-        <v>304535</v>
+        <v>0</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -4491,16 +4570,16 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="1">
-        <v>304534</v>
+        <v>304528</v>
       </c>
       <c r="B128" s="2">
-        <v>300505</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>60</v>
+        <v>300504</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D128" s="1">
-        <v>304535</v>
+        <v>0</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -4512,16 +4591,16 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="1">
-        <v>304535</v>
-      </c>
-      <c r="B129" s="2">
+        <v>304529</v>
+      </c>
+      <c r="B129" s="1">
         <v>300505</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D129" s="1">
-        <v>304536</v>
+        <v>304530</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -4533,13 +4612,13 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="1">
-        <v>304536</v>
-      </c>
-      <c r="B130" s="2">
+        <v>304530</v>
+      </c>
+      <c r="B130" s="1">
         <v>300505</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
@@ -4554,16 +4633,16 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="1">
-        <v>304537</v>
+        <v>304531</v>
       </c>
       <c r="B131" s="1">
-        <v>300506</v>
+        <v>300505</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D131" s="1">
-        <v>304538</v>
+        <v>0</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -4575,16 +4654,16 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="1">
-        <v>304538</v>
+        <v>304532</v>
       </c>
       <c r="B132" s="1">
-        <v>300506</v>
+        <v>300505</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D132" s="1">
-        <v>304539</v>
+        <v>302505</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -4596,16 +4675,16 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="1">
-        <v>304539</v>
+        <v>304533</v>
       </c>
       <c r="B133" s="1">
-        <v>300506</v>
+        <v>300505</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D133" s="1">
-        <v>0</v>
+        <v>304535</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -4617,16 +4696,16 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="1">
-        <v>304540</v>
-      </c>
-      <c r="B134" s="1">
-        <v>300506</v>
+        <v>304534</v>
+      </c>
+      <c r="B134" s="2">
+        <v>300505</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D134" s="1">
-        <v>0</v>
+        <v>304535</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -4638,16 +4717,16 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="1">
-        <v>304541</v>
-      </c>
-      <c r="B135" s="1">
-        <v>300506</v>
+        <v>304535</v>
+      </c>
+      <c r="B135" s="2">
+        <v>300505</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D135" s="1">
-        <v>302506</v>
+        <v>304536</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -4659,16 +4738,16 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="1">
-        <v>304542</v>
-      </c>
-      <c r="B136" s="1">
-        <v>300506</v>
+        <v>304536</v>
+      </c>
+      <c r="B136" s="2">
+        <v>300505</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D136" s="1">
-        <v>304544</v>
+        <v>0</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -4680,16 +4759,16 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="1">
-        <v>304543</v>
+        <v>304537</v>
       </c>
       <c r="B137" s="1">
         <v>300506</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D137" s="1">
-        <v>304544</v>
+        <v>304538</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -4700,44 +4779,170 @@
       <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="2">
+      <c r="A138" s="1">
+        <v>304538</v>
+      </c>
+      <c r="B138" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D138" s="1">
+        <v>304539</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>304539</v>
+      </c>
+      <c r="B139" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>304540</v>
+      </c>
+      <c r="B140" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1">
+        <v>304541</v>
+      </c>
+      <c r="B141" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D141" s="1">
+        <v>302506</v>
+      </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
+        <v>304542</v>
+      </c>
+      <c r="B142" s="1">
+        <v>300506</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D142" s="1">
         <v>304544</v>
       </c>
-      <c r="B138" s="2">
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>304543</v>
+      </c>
+      <c r="B143" s="1">
         <v>300506</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C143" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D143" s="1">
+        <v>304544</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="2">
+        <v>304544</v>
+      </c>
+      <c r="B144" s="2">
+        <v>300506</v>
+      </c>
+      <c r="C144" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D144" s="1">
         <v>304545</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="2">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>304545</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B145" s="2">
         <v>300506</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C145" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D145" s="1">
         <v>304546</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="2">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>304546</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B146" s="2">
         <v>300506</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C146" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D146" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QUEST_TABLE" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="209">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -843,6 +843,10 @@
   </si>
   <si>
     <t>꽃으로 만든 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민중인 재봉사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1879,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5213,10 +5217,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5260,69 +5264,80 @@
         <v>301107</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>300501</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>301501</v>
+    <row r="4" spans="1:3" s="2" customFormat="1">
+      <c r="A4" s="2">
+        <v>300207</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="2">
+        <v>301207</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>300502</v>
+        <v>300501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>301502</v>
+        <v>301501</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>300503</v>
+        <v>300502</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>301503</v>
+        <v>301502</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>300504</v>
+        <v>300503</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>301504</v>
+        <v>301503</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>300505</v>
+        <v>300504</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>301505</v>
+        <v>301504</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
+        <v>300505</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>300506</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>301506</v>
       </c>
     </row>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\유니티\231218S_Project\Project_S\Project_S\Assets\_JSH\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QUEST_TABLE" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="234">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -843,6 +843,110 @@
   </si>
   <si>
     <t>꽃으로 만든 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 정령이여...&lt;br&gt;저는 정령들의 여신이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 세상은 어땠나요?&lt;br&gt;당신의 감상을 말해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랬군요. 당신의 경험은 소중하죠.&lt;br&gt;인간이 되어서도&lt;br&gt;그건 마찬가지일 거예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 이곳에서 겪은 일들은&lt;br&gt;인간이 되어서도 당신이라는&lt;br&gt;사람을 만들어 나가겠죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 좋은 답변이군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 이곳에서 지내면서&lt;br&gt;별이라는 것을 모았을 거에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 이 별이라는 것은&lt;br&gt;당신이 인간의 마음을 알게 될 때&lt;br&gt;그것이 형체화 된 것이랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇기 때문에 그 별의 다른 이름은&lt;br&gt;마음의 조각이라고 하죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어때요, 참 흥미롭지 않나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후, 좋습니다.&lt;br&gt;사실은 비밀 같은 건 아니거든요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 인간이 되기 위한 시련을&lt;br&gt;모두 마쳤습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 곧 당신은 진짜 인간이 되어&lt;br&gt;사람들과 함께 살아가게 될 거에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또한 당신이 인간 세상에서&lt;br&gt;해왔던 일들, 겪었던 일들을 바탕으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간이 된 당신이&lt;br&gt;어떻게 살아갈 건지 생각해보셨나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 드리는 인간성은&lt;br&gt;그저 안내 역할을 할 뿐입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 고생하셨어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 또한 당신과 같은 정령,&lt;br&gt;아니, 인간과 만나서 참 다행입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부디, 인간이 되어&lt;br&gt;그대만의 삶을 살아가길 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이곳에서 인간이 되려는&lt;br&gt;정령들을 인도하고 있죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 인간 세상에서&lt;br&gt;많은 사람들을 도왔죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면서 어떠한 것을 느꼈는지&lt;br&gt;물어봐도 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 인간성을&lt;br&gt;가지게 될 지 정하는 것이&lt;br&gt;제가 해야 하는 일이랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 좋은걸요.&lt;br&gt;어떻게 살아갈 것인지는&lt;br&gt;이제 당신의 자유죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이제 작별의 시간이네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕히,&lt;br&gt;이 세상에서 가장 인간다운 정령이여…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여신님</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,7 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,6 +1073,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1877,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="B148" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4918,7 +5028,7 @@
         <v>304545</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>304545</v>
       </c>
@@ -4932,7 +5042,7 @@
         <v>304546</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>304546</v>
       </c>
@@ -4945,6 +5055,571 @@
       <c r="D146" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1">
+        <v>304600</v>
+      </c>
+      <c r="B147" s="1">
+        <v>300600</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D147" s="18">
+        <v>304601</v>
+      </c>
+      <c r="E147" s="18"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1">
+        <v>304601</v>
+      </c>
+      <c r="B148" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D148" s="19">
+        <v>304602</v>
+      </c>
+      <c r="E148" s="18"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="2">
+        <v>304602</v>
+      </c>
+      <c r="B149" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D149" s="19">
+        <v>302600</v>
+      </c>
+      <c r="E149" s="18"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="2">
+        <v>304603</v>
+      </c>
+      <c r="B150" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D150" s="18">
+        <v>304604</v>
+      </c>
+      <c r="E150" s="18"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="2">
+        <v>304604</v>
+      </c>
+      <c r="B151" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D151" s="18">
+        <v>304605</v>
+      </c>
+      <c r="E151" s="18"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="2">
+        <v>304605</v>
+      </c>
+      <c r="B152" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D152" s="18">
+        <v>304606</v>
+      </c>
+      <c r="E152" s="18"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="2">
+        <v>304606</v>
+      </c>
+      <c r="B153" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D153" s="18">
+        <v>302601</v>
+      </c>
+      <c r="E153" s="18"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="2">
+        <v>304607</v>
+      </c>
+      <c r="B154" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D154" s="19">
+        <v>304608</v>
+      </c>
+      <c r="E154" s="18"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="2">
+        <v>304608</v>
+      </c>
+      <c r="B155" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D155" s="18">
+        <v>304609</v>
+      </c>
+      <c r="E155" s="18"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="2">
+        <v>304609</v>
+      </c>
+      <c r="B156" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D156" s="18">
+        <v>304610</v>
+      </c>
+      <c r="E156" s="18"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="2">
+        <v>304610</v>
+      </c>
+      <c r="B157" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D157" s="18">
+        <v>304611</v>
+      </c>
+      <c r="E157" s="18"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="2">
+        <v>304611</v>
+      </c>
+      <c r="B158" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D158" s="18">
+        <v>302602</v>
+      </c>
+      <c r="E158" s="18"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="2">
+        <v>304612</v>
+      </c>
+      <c r="B159" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D159" s="18">
+        <v>304613</v>
+      </c>
+      <c r="E159" s="18"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="2">
+        <v>304613</v>
+      </c>
+      <c r="B160" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D160" s="18">
+        <v>304614</v>
+      </c>
+      <c r="E160" s="18"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="2">
+        <v>304614</v>
+      </c>
+      <c r="B161" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D161" s="18">
+        <v>304615</v>
+      </c>
+      <c r="E161" s="18"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="2">
+        <v>304615</v>
+      </c>
+      <c r="B162" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D162" s="18">
+        <v>304616</v>
+      </c>
+      <c r="E162" s="18"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="2">
+        <v>304616</v>
+      </c>
+      <c r="B163" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D163" s="18">
+        <v>304617</v>
+      </c>
+      <c r="E163" s="18"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="2">
+        <v>304617</v>
+      </c>
+      <c r="B164" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D164" s="18">
+        <v>302603</v>
+      </c>
+      <c r="E164" s="18"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="2">
+        <v>304618</v>
+      </c>
+      <c r="B165" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D165" s="18">
+        <v>304619</v>
+      </c>
+      <c r="E165" s="18"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="2">
+        <v>304619</v>
+      </c>
+      <c r="B166" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D166" s="18">
+        <v>304620</v>
+      </c>
+      <c r="E166" s="18"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="2">
+        <v>304620</v>
+      </c>
+      <c r="B167" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D167" s="18">
+        <v>304621</v>
+      </c>
+      <c r="E167" s="18"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="2">
+        <v>304621</v>
+      </c>
+      <c r="B168" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D168" s="18">
+        <v>304622</v>
+      </c>
+      <c r="E168" s="18"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="2">
+        <v>304622</v>
+      </c>
+      <c r="B169" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D169" s="18">
+        <v>304623</v>
+      </c>
+      <c r="E169" s="18"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="2">
+        <v>304623</v>
+      </c>
+      <c r="B170" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D170" s="18">
+        <v>304624</v>
+      </c>
+      <c r="E170" s="18"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1">
+        <v>304624</v>
+      </c>
+      <c r="B171" s="2">
+        <v>300600</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D171" s="18">
+        <v>0</v>
+      </c>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="18">
+        <v>302600</v>
+      </c>
+      <c r="B172" s="10"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="18"/>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="18">
+        <v>302601</v>
+      </c>
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="18">
+        <v>302602</v>
+      </c>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="18">
+        <v>302603</v>
+      </c>
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4955,10 +5630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A9" sqref="A9:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4973,7 +5648,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5002,7 +5677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>302100</v>
       </c>
@@ -5031,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>302501</v>
       </c>
@@ -5060,7 +5735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>302502</v>
       </c>
@@ -5089,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>302503</v>
       </c>
@@ -5118,7 +5793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>302504</v>
       </c>
@@ -5147,7 +5822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>302505</v>
       </c>
@@ -5176,7 +5851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>302506</v>
       </c>
@@ -5204,6 +5879,102 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="18"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="18"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="18"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5213,10 +5984,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5326,6 +6097,17 @@
         <v>301506</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10">
+        <v>300600</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="1">
+        <v>301507</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QUEST_TABLE" sheetId="1" r:id="rId1"/>
@@ -26,34 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>KGA</author>
-  </authors>
-  <commentList>
-    <comment ref="K13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">별
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="444">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인벤토리 이동해보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조합해보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1329,9 +1299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동은 좌측 스틱으로,&lt;br&gt;말을 걸 때는 나를 조준해서&lt;br&gt;X나 Y 버튼을 누르면 돼!</t>
-  </si>
-  <si>
     <t>그럴 땐 지도를 확인하면 돼 !&lt;br&gt;지도는 왼쪽 허리에 있어.</t>
   </si>
   <si>
@@ -1742,6 +1709,10 @@
   </si>
   <si>
     <t>생각도&lt;br&gt;못했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동은 좌측 스틱으로,&lt;br&gt;말을 걸 때는 나를 조준해서&lt;br&gt;X나 A 버튼을 누르면 돼!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1749,7 +1720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1764,14 +1735,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2100,11 +2063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2163,7 +2126,7 @@
         <v>301000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2">
         <v>300000</v>
@@ -2198,7 +2161,7 @@
         <v>301001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2">
         <v>300001</v>
@@ -2233,7 +2196,7 @@
         <v>301002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2">
         <v>300002</v>
@@ -2268,7 +2231,7 @@
         <v>301003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2">
         <v>300003</v>
@@ -2464,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>304146</v>
+        <v>304149</v>
       </c>
       <c r="J10" s="1">
-        <v>304150</v>
+        <v>304151</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2487,22 +2450,22 @@
         <v>300100</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1">
-        <v>100005</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>304161</v>
+        <v>304158</v>
       </c>
       <c r="J11" s="1">
-        <v>304162</v>
+        <v>304160</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2516,28 +2479,28 @@
         <v>33</v>
       </c>
       <c r="C12" s="2">
-        <v>300100</v>
+        <v>300101</v>
       </c>
       <c r="D12" s="2">
-        <v>300100</v>
+        <v>300101</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>101003</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>304163</v>
+        <v>304161</v>
       </c>
       <c r="I12" s="1">
+        <v>304169</v>
+      </c>
+      <c r="J12" s="1">
         <v>304170</v>
-      </c>
-      <c r="J12" s="1">
-        <v>304172</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -2551,63 +2514,63 @@
         <v>34</v>
       </c>
       <c r="C13" s="2">
-        <v>300101</v>
+        <v>300100</v>
       </c>
       <c r="D13" s="2">
-        <v>300101</v>
+        <v>300100</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>101003</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>304173</v>
+        <v>304172</v>
       </c>
       <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
         <v>304181</v>
       </c>
-      <c r="J13" s="1">
-        <v>304182</v>
-      </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>301108</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>301200</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C14" s="2">
-        <v>300100</v>
+        <v>300200</v>
       </c>
       <c r="D14" s="2">
-        <v>300100</v>
-      </c>
-      <c r="E14" s="1">
+        <v>300200</v>
+      </c>
+      <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>304184</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>304193</v>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>304200</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>304206</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2615,16 +2578,16 @@
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>301200</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>301201</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="2">
-        <v>300200</v>
-      </c>
-      <c r="D15" s="2">
-        <v>300200</v>
+      <c r="C15" s="4">
+        <v>300201</v>
+      </c>
+      <c r="D15" s="4">
+        <v>300201</v>
       </c>
       <c r="E15" s="2">
         <v>3</v>
@@ -2636,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>304200</v>
+        <v>304207</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>304206</v>
+        <v>304212</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -2650,16 +2613,16 @@
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>301201</v>
+        <v>301202</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="4">
-        <v>300201</v>
-      </c>
-      <c r="D16" s="4">
-        <v>300201</v>
+      <c r="C16" s="2">
+        <v>300202</v>
+      </c>
+      <c r="D16" s="2">
+        <v>300202</v>
       </c>
       <c r="E16" s="2">
         <v>3</v>
@@ -2671,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>304207</v>
+        <v>304213</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>304212</v>
+        <v>304218</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -2685,16 +2648,16 @@
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>301202</v>
+        <v>301203</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="2">
-        <v>300202</v>
-      </c>
-      <c r="D17" s="2">
-        <v>300202</v>
+      <c r="C17" s="4">
+        <v>300203</v>
+      </c>
+      <c r="D17" s="4">
+        <v>300203</v>
       </c>
       <c r="E17" s="2">
         <v>3</v>
@@ -2706,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>304213</v>
+        <v>304219</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>304218</v>
+        <v>304223</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -2720,34 +2683,34 @@
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>301203</v>
+        <v>301204</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="4">
-        <v>300203</v>
-      </c>
-      <c r="D18" s="4">
-        <v>300203</v>
+      <c r="C18" s="2">
+        <v>300204</v>
+      </c>
+      <c r="D18" s="2">
+        <v>300204</v>
       </c>
       <c r="E18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>103200</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>103201</v>
       </c>
       <c r="H18" s="2">
-        <v>304219</v>
+        <v>304224</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>304225</v>
       </c>
       <c r="J18" s="2">
-        <v>304223</v>
+        <v>304226</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -2755,121 +2718,121 @@
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>301204</v>
+        <v>301205</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="2">
-        <v>300204</v>
-      </c>
-      <c r="D19" s="2">
-        <v>300204</v>
+      <c r="C19" s="4">
+        <v>300205</v>
+      </c>
+      <c r="D19" s="4">
+        <v>300205</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="2">
-        <v>103200</v>
+        <v>106030</v>
       </c>
       <c r="G19" s="2">
-        <v>103201</v>
+        <v>106031</v>
       </c>
       <c r="H19" s="2">
-        <v>304224</v>
+        <v>304231</v>
       </c>
       <c r="I19" s="2">
-        <v>304225</v>
+        <v>304233</v>
       </c>
       <c r="J19" s="2">
-        <v>304226</v>
+        <v>304234</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>402013</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>301205</v>
+        <v>301206</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="4">
-        <v>300205</v>
-      </c>
-      <c r="D20" s="4">
-        <v>300205</v>
+      <c r="C20" s="2">
+        <v>300206</v>
+      </c>
+      <c r="D20" s="2">
+        <v>300206</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>106030</v>
+        <v>105003</v>
       </c>
       <c r="G20" s="2">
-        <v>106031</v>
+        <v>105004</v>
       </c>
       <c r="H20" s="2">
-        <v>304231</v>
+        <v>304238</v>
       </c>
       <c r="I20" s="2">
-        <v>304233</v>
+        <v>304241</v>
       </c>
       <c r="J20" s="2">
-        <v>304234</v>
+        <v>304242</v>
       </c>
       <c r="K20" s="2">
-        <v>402013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>301206</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>80</v>
+        <v>301207</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C21" s="2">
-        <v>300206</v>
+        <v>300207</v>
       </c>
       <c r="D21" s="2">
-        <v>300206</v>
+        <v>300207</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2">
-        <v>105003</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>105004</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>304238</v>
+        <v>304247</v>
       </c>
       <c r="I21" s="2">
-        <v>304241</v>
+        <v>304250</v>
       </c>
       <c r="J21" s="2">
-        <v>304242</v>
+        <v>304251</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>402006</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>301207</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2">
-        <v>300207</v>
-      </c>
-      <c r="D22" s="2">
-        <v>300207</v>
+        <v>301301</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="4">
+        <v>300301</v>
+      </c>
+      <c r="D22" s="4">
+        <v>300301</v>
       </c>
       <c r="E22" s="2">
         <v>4</v>
@@ -2881,33 +2844,33 @@
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>304247</v>
+        <v>304307</v>
       </c>
       <c r="I22" s="2">
-        <v>304250</v>
+        <v>304309</v>
       </c>
       <c r="J22" s="2">
-        <v>304251</v>
+        <v>304310</v>
       </c>
       <c r="K22" s="2">
-        <v>402006</v>
+        <v>402008</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>301301</v>
+        <v>301302</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="4">
-        <v>300301</v>
+        <v>300302</v>
       </c>
       <c r="D23" s="4">
-        <v>300301</v>
+        <v>300302</v>
       </c>
       <c r="E23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2915,31 +2878,31 @@
       <c r="G23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" s="2">
-        <v>304307</v>
-      </c>
-      <c r="I23" s="2">
-        <v>304309</v>
-      </c>
-      <c r="J23" s="2">
-        <v>304310</v>
-      </c>
-      <c r="K23" s="2">
-        <v>402008</v>
+      <c r="H23" s="4">
+        <v>304314</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>304318</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>301302</v>
+        <v>301400</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C24" s="4">
-        <v>300302</v>
+        <v>300400</v>
       </c>
       <c r="D24" s="4">
-        <v>300302</v>
+        <v>300400</v>
       </c>
       <c r="E24" s="2">
         <v>3</v>
@@ -2951,13 +2914,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <v>304314</v>
+        <v>304400</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>304318</v>
+        <v>304406</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -2965,19 +2928,19 @@
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>301400</v>
+        <v>301401</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="4">
-        <v>300400</v>
+        <v>300401</v>
       </c>
       <c r="D25" s="4">
-        <v>300400</v>
+        <v>300401</v>
       </c>
       <c r="E25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2986,33 +2949,33 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <v>304400</v>
+        <v>304407</v>
       </c>
       <c r="I25" s="5">
-        <v>0</v>
+        <v>304408</v>
       </c>
       <c r="J25" s="4">
-        <v>304406</v>
+        <v>304409</v>
       </c>
       <c r="K25" s="4">
-        <v>0</v>
+        <v>403003</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>301401</v>
+        <v>301402</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="4">
-        <v>300401</v>
+        <v>300402</v>
       </c>
       <c r="D26" s="4">
-        <v>300401</v>
+        <v>300402</v>
       </c>
       <c r="E26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -3021,118 +2984,118 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <v>304407</v>
+        <v>304414</v>
       </c>
       <c r="I26" s="5">
-        <v>304408</v>
+        <v>0</v>
       </c>
       <c r="J26" s="4">
-        <v>304409</v>
+        <v>304419</v>
       </c>
       <c r="K26" s="4">
-        <v>403003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>301402</v>
+        <v>301404</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C27" s="4">
-        <v>300402</v>
+        <v>300404</v>
       </c>
       <c r="D27" s="4">
-        <v>300402</v>
+        <v>300404</v>
       </c>
       <c r="E27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>106024</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>106025</v>
       </c>
       <c r="H27" s="4">
-        <v>304414</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
+        <v>304427</v>
+      </c>
+      <c r="I27" s="4">
+        <v>304431</v>
       </c>
       <c r="J27" s="4">
-        <v>304419</v>
+        <v>304432</v>
       </c>
       <c r="K27" s="4">
-        <v>0</v>
+        <v>403002</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>301404</v>
+        <v>301405</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="4">
-        <v>300404</v>
+        <v>300405</v>
       </c>
       <c r="D28" s="4">
-        <v>300404</v>
+        <v>300405</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>106024</v>
+        <v>103202</v>
       </c>
       <c r="G28" s="2">
-        <v>106025</v>
+        <v>103203</v>
       </c>
       <c r="H28" s="4">
-        <v>304427</v>
+        <v>304436</v>
       </c>
       <c r="I28" s="4">
-        <v>304431</v>
+        <v>304438</v>
       </c>
       <c r="J28" s="4">
-        <v>304432</v>
+        <v>304439</v>
       </c>
       <c r="K28" s="4">
-        <v>403002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>301405</v>
+        <v>301406</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="4">
-        <v>300405</v>
+        <v>300406</v>
       </c>
       <c r="D29" s="4">
-        <v>300405</v>
+        <v>300406</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="2">
-        <v>103202</v>
+        <v>103204</v>
       </c>
       <c r="G29" s="2">
-        <v>103203</v>
+        <v>103205</v>
       </c>
       <c r="H29" s="4">
-        <v>304436</v>
+        <v>304444</v>
       </c>
       <c r="I29" s="4">
-        <v>304438</v>
+        <v>304445</v>
       </c>
       <c r="J29" s="4">
-        <v>304439</v>
+        <v>304446</v>
       </c>
       <c r="K29" s="4">
         <v>0</v>
@@ -3140,54 +3103,54 @@
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>301406</v>
+        <v>301407</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="4">
-        <v>300406</v>
+        <v>300407</v>
       </c>
       <c r="D30" s="4">
-        <v>300406</v>
+        <v>300407</v>
       </c>
       <c r="E30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2">
-        <v>103204</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>103205</v>
+        <v>0</v>
       </c>
       <c r="H30" s="4">
-        <v>304444</v>
-      </c>
-      <c r="I30" s="4">
-        <v>304445</v>
+        <v>304450</v>
+      </c>
+      <c r="I30" s="5">
+        <v>304451</v>
       </c>
       <c r="J30" s="4">
-        <v>304446</v>
+        <v>304452</v>
       </c>
       <c r="K30" s="4">
-        <v>0</v>
+        <v>402012</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>301407</v>
+        <v>301500</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="4">
-        <v>300407</v>
-      </c>
-      <c r="D31" s="4">
-        <v>300407</v>
+      <c r="C31" s="2">
+        <v>300500</v>
+      </c>
+      <c r="D31" s="2">
+        <v>300500</v>
       </c>
       <c r="E31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -3196,65 +3159,65 @@
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <v>304450</v>
+        <v>304500</v>
       </c>
       <c r="I31" s="5">
-        <v>304451</v>
+        <v>0</v>
       </c>
       <c r="J31" s="4">
-        <v>304452</v>
+        <v>304505</v>
       </c>
       <c r="K31" s="4">
-        <v>402012</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>301500</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>301501</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="2">
-        <v>300500</v>
+        <v>300501</v>
       </c>
       <c r="D32" s="2">
-        <v>300500</v>
-      </c>
-      <c r="E32" s="2">
+        <v>300501</v>
+      </c>
+      <c r="E32" s="1">
         <v>3</v>
       </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>304500</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>304505</v>
-      </c>
-      <c r="K32" s="4">
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>304506</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>304510</v>
+      </c>
+      <c r="K32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>301501</v>
+        <v>301502</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="2">
-        <v>300501</v>
+        <v>300502</v>
       </c>
       <c r="D33" s="2">
-        <v>300501</v>
+        <v>300502</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -3266,30 +3229,30 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>304506</v>
+        <v>304511</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>304510</v>
+        <v>304515</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>301502</v>
+      <c r="A34" s="2">
+        <v>301503</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="2">
-        <v>300502</v>
+        <v>300503</v>
       </c>
       <c r="D34" s="2">
-        <v>300502</v>
+        <v>300504</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -3301,27 +3264,27 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>304511</v>
+        <v>304516</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>304515</v>
+        <v>304517</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>402011</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>301503</v>
+        <v>301504</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C35" s="2">
-        <v>300503</v>
+        <v>300504</v>
       </c>
       <c r="D35" s="2">
         <v>300504</v>
@@ -3336,30 +3299,30 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>304516</v>
+        <v>304522</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>304517</v>
+        <v>304525</v>
       </c>
       <c r="K35" s="1">
-        <v>402011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>301504</v>
+        <v>301600</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="2">
-        <v>300504</v>
-      </c>
-      <c r="D36" s="2">
-        <v>300504</v>
+      <c r="C36" s="4">
+        <v>300600</v>
+      </c>
+      <c r="D36" s="4">
+        <v>300600</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -3371,50 +3334,15 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>304522</v>
+        <v>304600</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>304525</v>
+        <v>304624</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>301600</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="4">
-        <v>300600</v>
-      </c>
-      <c r="D37" s="4">
-        <v>300600</v>
-      </c>
-      <c r="E37" s="1">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>304600</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>304624</v>
-      </c>
-      <c r="K37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3422,7 +3350,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3430,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A260" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3475,7 +3402,7 @@
         <v>300000</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -3497,7 +3424,7 @@
         <v>300000</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -3519,7 +3446,7 @@
         <v>300000</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4">
         <v>304003</v>
@@ -3541,7 +3468,7 @@
         <v>300000</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4">
         <v>302000</v>
@@ -3563,7 +3490,7 @@
         <v>300000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4">
         <v>304005</v>
@@ -3585,7 +3512,7 @@
         <v>300000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -3607,7 +3534,7 @@
         <v>300001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -3629,7 +3556,7 @@
         <v>300001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -3651,7 +3578,7 @@
         <v>300001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4">
         <v>304009</v>
@@ -3673,7 +3600,7 @@
         <v>300001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="4">
         <v>302001</v>
@@ -3695,7 +3622,7 @@
         <v>300001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="4">
         <v>304011</v>
@@ -3717,7 +3644,7 @@
         <v>300001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -3739,7 +3666,7 @@
         <v>300002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -3761,7 +3688,7 @@
         <v>300002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
@@ -3783,7 +3710,7 @@
         <v>300002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="4">
         <v>304015</v>
@@ -3805,7 +3732,7 @@
         <v>300002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="4">
         <v>302002</v>
@@ -3827,7 +3754,7 @@
         <v>300002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="4">
         <v>304017</v>
@@ -3849,7 +3776,7 @@
         <v>300002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
@@ -3871,7 +3798,7 @@
         <v>300003</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -3893,7 +3820,7 @@
         <v>300003</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
@@ -3915,7 +3842,7 @@
         <v>300003</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="5">
         <v>304021</v>
@@ -3937,7 +3864,7 @@
         <v>300003</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="4">
         <v>302003</v>
@@ -3959,7 +3886,7 @@
         <v>300003</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="4">
         <v>304023</v>
@@ -3981,7 +3908,7 @@
         <v>300003</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="4">
         <v>304024</v>
@@ -4003,7 +3930,7 @@
         <v>300003</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
@@ -4025,7 +3952,7 @@
         <v>300100</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="4">
         <v>304101</v>
@@ -4046,7 +3973,7 @@
         <v>300100</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D28" s="5">
         <v>304102</v>
@@ -4067,7 +3994,7 @@
         <v>300100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="5">
         <v>304103</v>
@@ -4088,7 +4015,7 @@
         <v>300100</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="4">
         <v>304104</v>
@@ -4109,7 +4036,7 @@
         <v>300100</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="4">
         <v>304105</v>
@@ -4130,7 +4057,7 @@
         <v>300100</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="4">
         <v>304106</v>
@@ -4151,7 +4078,7 @@
         <v>300100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="D33" s="4">
         <v>304107</v>
@@ -4172,7 +4099,7 @@
         <v>300100</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="5">
         <v>0</v>
@@ -4193,7 +4120,7 @@
         <v>300100</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="5">
         <v>304109</v>
@@ -4214,7 +4141,7 @@
         <v>300100</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" s="5">
         <v>304110</v>
@@ -4235,7 +4162,7 @@
         <v>300100</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" s="5">
         <v>304111</v>
@@ -4256,7 +4183,7 @@
         <v>300100</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" s="4">
         <v>304112</v>
@@ -4277,7 +4204,7 @@
         <v>300100</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="4">
         <v>304113</v>
@@ -4298,7 +4225,7 @@
         <v>300100</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D40" s="4">
         <v>304114</v>
@@ -4319,7 +4246,7 @@
         <v>300100</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="4">
         <v>304115</v>
@@ -4340,7 +4267,7 @@
         <v>300100</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="4">
         <v>304116</v>
@@ -4361,7 +4288,7 @@
         <v>300100</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
@@ -4382,7 +4309,7 @@
         <v>300100</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D44" s="4">
         <v>304118</v>
@@ -4403,7 +4330,7 @@
         <v>300100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="5">
         <v>304119</v>
@@ -4424,7 +4351,7 @@
         <v>300100</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="4">
         <v>304120</v>
@@ -4445,7 +4372,7 @@
         <v>300100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D47" s="5">
         <v>304121</v>
@@ -4466,7 +4393,7 @@
         <v>300100</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="4">
         <v>304122</v>
@@ -4487,7 +4414,7 @@
         <v>300100</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="5">
         <v>304123</v>
@@ -4508,7 +4435,7 @@
         <v>300100</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" s="4">
         <v>304124</v>
@@ -4529,7 +4456,7 @@
         <v>300100</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
@@ -4550,7 +4477,7 @@
         <v>300100</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D52" s="4">
         <v>304122</v>
@@ -4571,7 +4498,7 @@
         <v>300100</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D53" s="4">
         <v>304127</v>
@@ -4592,7 +4519,7 @@
         <v>300100</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D54" s="5">
         <v>304128</v>
@@ -4613,7 +4540,7 @@
         <v>300100</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D55" s="4">
         <v>304129</v>
@@ -4634,7 +4561,7 @@
         <v>300100</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="5">
         <v>304130</v>
@@ -4655,7 +4582,7 @@
         <v>300100</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D57" s="4">
         <v>304131</v>
@@ -4676,7 +4603,7 @@
         <v>300100</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" s="5">
         <v>304132</v>
@@ -4697,7 +4624,7 @@
         <v>300100</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59" s="5">
         <v>0</v>
@@ -4718,7 +4645,7 @@
         <v>300100</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D60" s="4">
         <v>304134</v>
@@ -4739,7 +4666,7 @@
         <v>300100</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D61" s="4">
         <v>304135</v>
@@ -4760,7 +4687,7 @@
         <v>300100</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D62" s="5">
         <v>0</v>
@@ -4781,7 +4708,7 @@
         <v>300100</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D63" s="4">
         <v>304137</v>
@@ -4802,7 +4729,7 @@
         <v>300100</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D64" s="5">
         <v>304138</v>
@@ -4823,7 +4750,7 @@
         <v>300100</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" s="4">
         <v>304139</v>
@@ -4844,7 +4771,7 @@
         <v>300100</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D66" s="5">
         <v>304140</v>
@@ -4865,7 +4792,7 @@
         <v>300100</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D67" s="4">
         <v>304141</v>
@@ -4886,7 +4813,7 @@
         <v>300100</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68" s="5">
         <v>304142</v>
@@ -4907,7 +4834,7 @@
         <v>300100</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69" s="4">
         <v>304143</v>
@@ -4928,7 +4855,7 @@
         <v>300100</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D70" s="5">
         <v>304144</v>
@@ -4949,7 +4876,7 @@
         <v>300100</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D71" s="4">
         <v>304145</v>
@@ -4970,7 +4897,7 @@
         <v>300100</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D72" s="5">
         <v>304146</v>
@@ -4991,7 +4918,7 @@
         <v>300100</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" s="4">
         <v>304147</v>
@@ -5012,7 +4939,7 @@
         <v>300100</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D74" s="4">
         <v>304148</v>
@@ -5033,7 +4960,7 @@
         <v>300100</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D75" s="5">
         <v>0</v>
@@ -5054,7 +4981,7 @@
         <v>300100</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D76" s="5">
         <v>304150</v>
@@ -5075,7 +5002,7 @@
         <v>300100</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D77" s="5">
         <v>304144</v>
@@ -5096,7 +5023,7 @@
         <v>300100</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="4">
         <v>304152</v>
@@ -5117,7 +5044,7 @@
         <v>300100</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D79" s="5">
         <v>304153</v>
@@ -5138,7 +5065,7 @@
         <v>300100</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="4">
         <v>304154</v>
@@ -5159,7 +5086,7 @@
         <v>300100</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D81" s="5">
         <v>304155</v>
@@ -5180,7 +5107,7 @@
         <v>300100</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D82" s="4">
         <v>304156</v>
@@ -5201,7 +5128,7 @@
         <v>300100</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D83" s="5">
         <v>304157</v>
@@ -5222,7 +5149,7 @@
         <v>300100</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -5243,7 +5170,7 @@
         <v>300100</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D85" s="4">
         <v>304159</v>
@@ -5264,7 +5191,7 @@
         <v>300100</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D86" s="5">
         <v>0</v>
@@ -5285,7 +5212,7 @@
         <v>300100</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D87" s="5">
         <v>0</v>
@@ -5306,7 +5233,7 @@
         <v>300101</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D88" s="4">
         <v>304162</v>
@@ -5327,7 +5254,7 @@
         <v>300101</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D89" s="4">
         <v>304163</v>
@@ -5348,7 +5275,7 @@
         <v>300101</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D90" s="4">
         <v>304164</v>
@@ -5369,7 +5296,7 @@
         <v>300101</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D91" s="4">
         <v>304165</v>
@@ -5390,7 +5317,7 @@
         <v>300101</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D92" s="4">
         <v>304166</v>
@@ -5411,7 +5338,7 @@
         <v>300101</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D93" s="4">
         <v>304167</v>
@@ -5432,7 +5359,7 @@
         <v>300101</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D94" s="4">
         <v>304168</v>
@@ -5453,7 +5380,7 @@
         <v>300101</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D95" s="4">
         <v>304169</v>
@@ -5474,7 +5401,7 @@
         <v>300101</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
@@ -5495,7 +5422,7 @@
         <v>300101</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D97" s="5">
         <v>304171</v>
@@ -5516,7 +5443,7 @@
         <v>300101</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D98" s="5">
         <v>0</v>
@@ -5537,7 +5464,7 @@
         <v>300100</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D99" s="4">
         <v>304173</v>
@@ -5558,7 +5485,7 @@
         <v>300100</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D100" s="4">
         <v>304174</v>
@@ -5579,7 +5506,7 @@
         <v>300100</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D101" s="4">
         <v>304175</v>
@@ -5600,7 +5527,7 @@
         <v>300100</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D102" s="4">
         <v>304176</v>
@@ -5621,7 +5548,7 @@
         <v>300100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D103" s="4">
         <v>304177</v>
@@ -5642,7 +5569,7 @@
         <v>300100</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D104" s="4">
         <v>304178</v>
@@ -5663,7 +5590,7 @@
         <v>300100</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D105" s="4">
         <v>302100</v>
@@ -5684,7 +5611,7 @@
         <v>300100</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D106" s="4">
         <v>304181</v>
@@ -5705,7 +5632,7 @@
         <v>300100</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D107" s="4">
         <v>304181</v>
@@ -5726,7 +5653,7 @@
         <v>300100</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
@@ -5747,7 +5674,7 @@
         <v>300200</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D109" s="4">
         <v>304201</v>
@@ -5768,7 +5695,7 @@
         <v>300200</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D110" s="5">
         <v>304202</v>
@@ -5789,7 +5716,7 @@
         <v>300200</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D111" s="5">
         <v>304203</v>
@@ -5810,7 +5737,7 @@
         <v>300200</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D112" s="4">
         <v>302200</v>
@@ -5831,7 +5758,7 @@
         <v>300200</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D113" s="4">
         <v>304206</v>
@@ -5852,7 +5779,7 @@
         <v>300200</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D114" s="4">
         <v>304206</v>
@@ -5873,7 +5800,7 @@
         <v>300200</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D115" s="5">
         <v>0</v>
@@ -5894,7 +5821,7 @@
         <v>300201</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D116" s="5">
         <v>304208</v>
@@ -5915,7 +5842,7 @@
         <v>300201</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D117" s="4">
         <v>304209</v>
@@ -5936,7 +5863,7 @@
         <v>300201</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D118" s="5">
         <v>302201</v>
@@ -5957,7 +5884,7 @@
         <v>300201</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D119" s="4">
         <v>304212</v>
@@ -5978,7 +5905,7 @@
         <v>300201</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D120" s="5">
         <v>304212</v>
@@ -6000,7 +5927,7 @@
         <v>300201</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
@@ -6022,7 +5949,7 @@
         <v>300202</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D122" s="5">
         <v>304214</v>
@@ -6044,7 +5971,7 @@
         <v>300202</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D123" s="4">
         <v>304215</v>
@@ -6066,7 +5993,7 @@
         <v>300202</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D124" s="5">
         <v>302202</v>
@@ -6088,7 +6015,7 @@
         <v>300202</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D125" s="4">
         <v>304218</v>
@@ -6110,7 +6037,7 @@
         <v>300202</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D126" s="5">
         <v>304218</v>
@@ -6131,7 +6058,7 @@
         <v>300202</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D127" s="5">
         <v>0</v>
@@ -6152,7 +6079,7 @@
         <v>300203</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D128" s="5">
         <v>302203</v>
@@ -6173,7 +6100,7 @@
         <v>300203</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D129" s="5">
         <v>304222</v>
@@ -6194,7 +6121,7 @@
         <v>300203</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D130" s="5">
         <v>304222</v>
@@ -6215,7 +6142,7 @@
         <v>300203</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D131" s="5">
         <v>304223</v>
@@ -6236,7 +6163,7 @@
         <v>300203</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D132" s="5">
         <v>0</v>
@@ -6257,7 +6184,7 @@
         <v>300204</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D133" s="5">
         <v>0</v>
@@ -6278,7 +6205,7 @@
         <v>300204</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D134" s="5">
         <v>0</v>
@@ -6299,7 +6226,7 @@
         <v>300204</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D135" s="5">
         <v>302204</v>
@@ -6320,7 +6247,7 @@
         <v>300204</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D136" s="5">
         <v>304229</v>
@@ -6341,7 +6268,7 @@
         <v>300204</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D137" s="5">
         <v>304229</v>
@@ -6362,7 +6289,7 @@
         <v>300204</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D138" s="5">
         <v>304230</v>
@@ -6383,7 +6310,7 @@
         <v>300204</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D139" s="5">
         <v>0</v>
@@ -6404,7 +6331,7 @@
         <v>300205</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D140" s="5">
         <v>304232</v>
@@ -6425,7 +6352,7 @@
         <v>300205</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D141" s="5">
         <v>0</v>
@@ -6446,7 +6373,7 @@
         <v>300205</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D142" s="5">
         <v>0</v>
@@ -6467,7 +6394,7 @@
         <v>300205</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D143" s="5">
         <v>302205</v>
@@ -6488,7 +6415,7 @@
         <v>300205</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D144" s="5">
         <v>304237</v>
@@ -6509,7 +6436,7 @@
         <v>300205</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D145" s="5">
         <v>304237</v>
@@ -6530,7 +6457,7 @@
         <v>300205</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D146" s="5">
         <v>0</v>
@@ -6551,7 +6478,7 @@
         <v>300206</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D147" s="5">
         <v>304239</v>
@@ -6572,7 +6499,7 @@
         <v>300206</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D148" s="5">
         <v>304240</v>
@@ -6593,7 +6520,7 @@
         <v>300206</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D149" s="5">
         <v>0</v>
@@ -6614,7 +6541,7 @@
         <v>300206</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D150" s="5">
         <v>0</v>
@@ -6635,7 +6562,7 @@
         <v>300206</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D151" s="5">
         <v>302206</v>
@@ -6656,7 +6583,7 @@
         <v>300206</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D152" s="5">
         <v>304245</v>
@@ -6677,7 +6604,7 @@
         <v>300206</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D153" s="5">
         <v>304245</v>
@@ -6698,7 +6625,7 @@
         <v>300206</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D154" s="5">
         <v>304246</v>
@@ -6719,7 +6646,7 @@
         <v>300206</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D155" s="5">
         <v>0</v>
@@ -6740,7 +6667,7 @@
         <v>300207</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D156" s="5">
         <v>304248</v>
@@ -6761,7 +6688,7 @@
         <v>300207</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D157" s="5">
         <v>304249</v>
@@ -6782,7 +6709,7 @@
         <v>300207</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D158" s="5">
         <v>0</v>
@@ -6803,7 +6730,7 @@
         <v>300207</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
@@ -6824,7 +6751,7 @@
         <v>300207</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D160" s="5">
         <v>304252</v>
@@ -6845,7 +6772,7 @@
         <v>300207</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D161" s="5">
         <v>0</v>
@@ -6866,7 +6793,7 @@
         <v>300300</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D162" s="5">
         <v>0</v>
@@ -6887,7 +6814,7 @@
         <v>300300</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D163" s="5">
         <v>0</v>
@@ -6908,7 +6835,7 @@
         <v>300300</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D164" s="5">
         <v>304303</v>
@@ -6929,7 +6856,7 @@
         <v>300300</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D165" s="4">
         <v>302300</v>
@@ -6950,7 +6877,7 @@
         <v>300300</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D166" s="4">
         <v>304306</v>
@@ -6971,7 +6898,7 @@
         <v>300300</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D167" s="4">
         <v>304306</v>
@@ -6992,7 +6919,7 @@
         <v>300300</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D168" s="5">
         <v>0</v>
@@ -7013,7 +6940,7 @@
         <v>300301</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D169" s="5">
         <v>304308</v>
@@ -7034,7 +6961,7 @@
         <v>300301</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D170" s="5">
         <v>0</v>
@@ -7055,7 +6982,7 @@
         <v>300301</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D171" s="5">
         <v>0</v>
@@ -7076,7 +7003,7 @@
         <v>300301</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D172" s="5">
         <v>302301</v>
@@ -7097,7 +7024,7 @@
         <v>300301</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D173" s="5">
         <v>304313</v>
@@ -7118,7 +7045,7 @@
         <v>300301</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D174" s="5">
         <v>304313</v>
@@ -7139,7 +7066,7 @@
         <v>300301</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D175" s="5">
         <v>0</v>
@@ -7160,7 +7087,7 @@
         <v>300302</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D176" s="5">
         <v>304315</v>
@@ -7181,7 +7108,7 @@
         <v>300302</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D177" s="5">
         <v>302302</v>
@@ -7202,7 +7129,7 @@
         <v>300302</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D178" s="5">
         <v>304318</v>
@@ -7223,7 +7150,7 @@
         <v>300302</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D179" s="5">
         <v>304318</v>
@@ -7244,7 +7171,7 @@
         <v>300302</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D180" s="5">
         <v>0</v>
@@ -7265,7 +7192,7 @@
         <v>300303</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D181" s="4">
         <v>304320</v>
@@ -7286,7 +7213,7 @@
         <v>300303</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D182" s="5">
         <v>0</v>
@@ -7307,7 +7234,7 @@
         <v>300303</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D183" s="5">
         <v>0</v>
@@ -7328,7 +7255,7 @@
         <v>300303</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D184" s="4">
         <v>304323</v>
@@ -7349,7 +7276,7 @@
         <v>300303</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D185" s="4">
         <v>302303</v>
@@ -7370,7 +7297,7 @@
         <v>300303</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D186" s="4">
         <v>304326</v>
@@ -7391,7 +7318,7 @@
         <v>300303</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D187" s="4">
         <v>304326</v>
@@ -7412,7 +7339,7 @@
         <v>300303</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D188" s="5">
         <v>0</v>
@@ -7433,7 +7360,7 @@
         <v>300400</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D189" s="4">
         <v>304401</v>
@@ -7454,7 +7381,7 @@
         <v>300400</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D190" s="5">
         <v>302400</v>
@@ -7475,7 +7402,7 @@
         <v>300400</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D191" s="5">
         <v>304404</v>
@@ -7496,7 +7423,7 @@
         <v>300400</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D192" s="4">
         <v>304404</v>
@@ -7517,7 +7444,7 @@
         <v>300400</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D193" s="4">
         <v>304405</v>
@@ -7538,7 +7465,7 @@
         <v>300400</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D194" s="4">
         <v>304406</v>
@@ -7559,7 +7486,7 @@
         <v>300400</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D195" s="5">
         <v>0</v>
@@ -7580,7 +7507,7 @@
         <v>300401</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D196" s="5">
         <v>0</v>
@@ -7601,7 +7528,7 @@
         <v>300401</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D197" s="5">
         <v>0</v>
@@ -7622,7 +7549,7 @@
         <v>300401</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D198" s="4">
         <v>304410</v>
@@ -7643,7 +7570,7 @@
         <v>300401</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D199" s="4">
         <v>302401</v>
@@ -7664,7 +7591,7 @@
         <v>300401</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D200" s="4">
         <v>304413</v>
@@ -7685,7 +7612,7 @@
         <v>300401</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D201" s="4">
         <v>304413</v>
@@ -7706,7 +7633,7 @@
         <v>300401</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D202" s="5">
         <v>0</v>
@@ -7727,7 +7654,7 @@
         <v>300402</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D203" s="4">
         <v>304415</v>
@@ -7748,7 +7675,7 @@
         <v>300402</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D204" s="4">
         <v>304416</v>
@@ -7769,7 +7696,7 @@
         <v>300402</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D205" s="4">
         <v>302402</v>
@@ -7790,7 +7717,7 @@
         <v>300402</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D206" s="4">
         <v>304419</v>
@@ -7811,7 +7738,7 @@
         <v>300402</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D207" s="4">
         <v>304419</v>
@@ -7832,7 +7759,7 @@
         <v>300402</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D208" s="5">
         <v>0</v>
@@ -7853,7 +7780,7 @@
         <v>300403</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D209" s="4">
         <v>304421</v>
@@ -7874,7 +7801,7 @@
         <v>300403</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D210" s="5">
         <v>0</v>
@@ -7895,7 +7822,7 @@
         <v>300403</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D211" s="5">
         <v>0</v>
@@ -7916,7 +7843,7 @@
         <v>300403</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D212" s="4">
         <v>302403</v>
@@ -7937,7 +7864,7 @@
         <v>300403</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D213" s="4">
         <v>304426</v>
@@ -7958,7 +7885,7 @@
         <v>300403</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D214" s="4">
         <v>304426</v>
@@ -7979,7 +7906,7 @@
         <v>300403</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D215" s="5">
         <v>0</v>
@@ -8000,7 +7927,7 @@
         <v>300404</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D216" s="5">
         <v>304428</v>
@@ -8021,7 +7948,7 @@
         <v>300404</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D217" s="5">
         <v>304429</v>
@@ -8042,7 +7969,7 @@
         <v>300404</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D218" s="5">
         <v>304430</v>
@@ -8063,7 +7990,7 @@
         <v>300404</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D219" s="5">
         <v>0</v>
@@ -8084,7 +8011,7 @@
         <v>300404</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D220" s="5">
         <v>0</v>
@@ -8105,7 +8032,7 @@
         <v>300404</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D221" s="5">
         <v>302404</v>
@@ -8126,7 +8053,7 @@
         <v>300404</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D222" s="5">
         <v>304435</v>
@@ -8147,7 +8074,7 @@
         <v>300404</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D223" s="5">
         <v>304435</v>
@@ -8168,7 +8095,7 @@
         <v>300404</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D224" s="5">
         <v>0</v>
@@ -8189,7 +8116,7 @@
         <v>300405</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D225" s="5">
         <v>304437</v>
@@ -8210,7 +8137,7 @@
         <v>300405</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D226" s="5">
         <v>0</v>
@@ -8231,7 +8158,7 @@
         <v>300405</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D227" s="5">
         <v>0</v>
@@ -8252,7 +8179,7 @@
         <v>300405</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D228" s="5">
         <v>302405</v>
@@ -8273,7 +8200,7 @@
         <v>300405</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D229" s="5">
         <v>304442</v>
@@ -8294,7 +8221,7 @@
         <v>300405</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D230" s="5">
         <v>304442</v>
@@ -8315,7 +8242,7 @@
         <v>300405</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D231" s="5">
         <v>304443</v>
@@ -8336,7 +8263,7 @@
         <v>300405</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D232" s="5">
         <v>0</v>
@@ -8357,7 +8284,7 @@
         <v>300406</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D233" s="5">
         <v>0</v>
@@ -8378,7 +8305,7 @@
         <v>300406</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D234" s="5">
         <v>0</v>
@@ -8399,7 +8326,7 @@
         <v>300406</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D235" s="5">
         <v>302406</v>
@@ -8420,7 +8347,7 @@
         <v>300406</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D236" s="5">
         <v>304449</v>
@@ -8441,7 +8368,7 @@
         <v>300406</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D237" s="5">
         <v>304449</v>
@@ -8462,7 +8389,7 @@
         <v>300406</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D238" s="5">
         <v>0</v>
@@ -8483,7 +8410,7 @@
         <v>300600</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D239" s="5">
         <v>0</v>
@@ -8504,7 +8431,7 @@
         <v>300600</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D240" s="5">
         <v>0</v>
@@ -8525,7 +8452,7 @@
         <v>300600</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D241" s="5">
         <v>302407</v>
@@ -8546,7 +8473,7 @@
         <v>300600</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D242" s="4">
         <v>304455</v>
@@ -8567,7 +8494,7 @@
         <v>300600</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D243" s="4">
         <v>304455</v>
@@ -8588,7 +8515,7 @@
         <v>300600</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D244" s="5">
         <v>0</v>
@@ -8609,7 +8536,7 @@
         <v>300500</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D245" s="4">
         <v>302500</v>
@@ -8630,7 +8557,7 @@
         <v>300500</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D246" s="4">
         <v>304503</v>
@@ -8651,7 +8578,7 @@
         <v>300500</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D247" s="4">
         <v>304503</v>
@@ -8672,7 +8599,7 @@
         <v>300500</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D248" s="4">
         <v>304504</v>
@@ -8693,7 +8620,7 @@
         <v>300500</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D249" s="4">
         <v>304505</v>
@@ -8714,7 +8641,7 @@
         <v>300500</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D250" s="5">
         <v>0</v>
@@ -8735,7 +8662,7 @@
         <v>300501</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D251" s="4">
         <v>304507</v>
@@ -8756,7 +8683,7 @@
         <v>300501</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D252" s="5">
         <v>302501</v>
@@ -8777,7 +8704,7 @@
         <v>300501</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D253" s="4">
         <v>304510</v>
@@ -8798,7 +8725,7 @@
         <v>300501</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D254" s="5">
         <v>304510</v>
@@ -8819,7 +8746,7 @@
         <v>300501</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D255" s="5">
         <v>0</v>
@@ -8840,7 +8767,7 @@
         <v>300502</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D256" s="5">
         <v>304512</v>
@@ -8861,7 +8788,7 @@
         <v>300502</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D257" s="5">
         <v>302502</v>
@@ -8882,7 +8809,7 @@
         <v>300502</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D258" s="5">
         <v>304515</v>
@@ -8903,7 +8830,7 @@
         <v>300502</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D259" s="5">
         <v>304515</v>
@@ -8924,7 +8851,7 @@
         <v>300502</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D260" s="5">
         <v>0</v>
@@ -8945,7 +8872,7 @@
         <v>300503</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D261" s="5">
         <v>0</v>
@@ -8966,7 +8893,7 @@
         <v>300504</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D262" s="5">
         <v>304518</v>
@@ -8987,7 +8914,7 @@
         <v>300504</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D263" s="5">
         <v>302503</v>
@@ -9008,7 +8935,7 @@
         <v>300504</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D264" s="5">
         <v>304521</v>
@@ -9029,7 +8956,7 @@
         <v>300504</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D265" s="5">
         <v>304521</v>
@@ -9050,7 +8977,7 @@
         <v>300504</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D266" s="5">
         <v>0</v>
@@ -9071,7 +8998,7 @@
         <v>300504</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D267" s="5">
         <v>304523</v>
@@ -9092,7 +9019,7 @@
         <v>300504</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D268" s="5">
         <v>304524</v>
@@ -9113,7 +9040,7 @@
         <v>300504</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D269" s="5">
         <v>0</v>
@@ -9134,7 +9061,7 @@
         <v>300504</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D270" s="5">
         <v>0</v>
@@ -9155,7 +9082,7 @@
         <v>300600</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D271" s="4">
         <v>304601</v>
@@ -9176,7 +9103,7 @@
         <v>300600</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D272" s="5">
         <v>304602</v>
@@ -9197,7 +9124,7 @@
         <v>300600</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D273" s="5">
         <v>302600</v>
@@ -9218,7 +9145,7 @@
         <v>300600</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D274" s="4">
         <v>304604</v>
@@ -9239,7 +9166,7 @@
         <v>300600</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D275" s="4">
         <v>304605</v>
@@ -9260,7 +9187,7 @@
         <v>300600</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D276" s="4">
         <v>304606</v>
@@ -9281,7 +9208,7 @@
         <v>300600</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D277" s="4">
         <v>302601</v>
@@ -9302,7 +9229,7 @@
         <v>300600</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D278" s="5">
         <v>304608</v>
@@ -9323,7 +9250,7 @@
         <v>300600</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D279" s="4">
         <v>304609</v>
@@ -9344,7 +9271,7 @@
         <v>300600</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D280" s="4">
         <v>304610</v>
@@ -9365,7 +9292,7 @@
         <v>300600</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D281" s="4">
         <v>304611</v>
@@ -9386,7 +9313,7 @@
         <v>300600</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D282" s="4">
         <v>302602</v>
@@ -9407,7 +9334,7 @@
         <v>300600</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D283" s="4">
         <v>304613</v>
@@ -9428,7 +9355,7 @@
         <v>300600</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D284" s="4">
         <v>304614</v>
@@ -9449,7 +9376,7 @@
         <v>300600</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D285" s="4">
         <v>304615</v>
@@ -9470,7 +9397,7 @@
         <v>300600</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D286" s="4">
         <v>304616</v>
@@ -9491,7 +9418,7 @@
         <v>300600</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D287" s="4">
         <v>304617</v>
@@ -9512,7 +9439,7 @@
         <v>300600</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D288" s="4">
         <v>302603</v>
@@ -9533,7 +9460,7 @@
         <v>300600</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D289" s="4">
         <v>304619</v>
@@ -9554,7 +9481,7 @@
         <v>300600</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D290" s="4">
         <v>304620</v>
@@ -9575,7 +9502,7 @@
         <v>300600</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D291" s="4">
         <v>304621</v>
@@ -9596,7 +9523,7 @@
         <v>300600</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D292" s="4">
         <v>304622</v>
@@ -9617,7 +9544,7 @@
         <v>300600</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D293" s="4">
         <v>304623</v>
@@ -9638,7 +9565,7 @@
         <v>300600</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D294" s="4">
         <v>304624</v>
@@ -9659,7 +9586,7 @@
         <v>300600</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D295" s="4">
         <v>0</v>
@@ -9684,7 +9611,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9733,7 +9660,7 @@
         <v>302000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C2" s="4">
         <v>304004</v>
@@ -9745,7 +9672,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G2" s="4">
         <v>304004</v>
@@ -9762,7 +9689,7 @@
         <v>302001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C3" s="4">
         <v>304010</v>
@@ -9774,7 +9701,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G3" s="4">
         <v>304010</v>
@@ -9791,7 +9718,7 @@
         <v>302002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C4" s="4">
         <v>304016</v>
@@ -9803,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G4" s="4">
         <v>304016</v>
@@ -9820,7 +9747,7 @@
         <v>302003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C5" s="4">
         <v>304022</v>
@@ -9832,7 +9759,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G5" s="4">
         <v>304022</v>
@@ -9849,7 +9776,7 @@
         <v>302100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C6" s="4">
         <v>304179</v>
@@ -9861,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G6" s="4">
         <v>304180</v>
@@ -9878,7 +9805,7 @@
         <v>302200</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C7" s="4">
         <v>304204</v>
@@ -9890,7 +9817,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G7" s="4">
         <v>304205</v>
@@ -9907,7 +9834,7 @@
         <v>302201</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C8" s="4">
         <v>304210</v>
@@ -9919,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G8" s="4">
         <v>304211</v>
@@ -9936,7 +9863,7 @@
         <v>302202</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C9" s="4">
         <v>304216</v>
@@ -9948,7 +9875,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G9" s="4">
         <v>304217</v>
@@ -9965,7 +9892,7 @@
         <v>302203</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C10" s="4">
         <v>304220</v>
@@ -9977,7 +9904,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G10" s="4">
         <v>304221</v>
@@ -9994,7 +9921,7 @@
         <v>302204</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C11" s="4">
         <v>304227</v>
@@ -10006,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G11" s="4">
         <v>304228</v>
@@ -10023,7 +9950,7 @@
         <v>302205</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C12" s="4">
         <v>304235</v>
@@ -10035,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G12" s="4">
         <v>304236</v>
@@ -10052,7 +9979,7 @@
         <v>302206</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C13" s="4">
         <v>304243</v>
@@ -10064,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G13" s="4">
         <v>304244</v>
@@ -10081,7 +10008,7 @@
         <v>302300</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C14" s="4">
         <v>304304</v>
@@ -10093,7 +10020,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G14" s="4">
         <v>304305</v>
@@ -10110,7 +10037,7 @@
         <v>302301</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C15" s="4">
         <v>304311</v>
@@ -10122,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G15" s="4">
         <v>304312</v>
@@ -10139,7 +10066,7 @@
         <v>302302</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C16" s="4">
         <v>304316</v>
@@ -10151,7 +10078,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G16" s="4">
         <v>304317</v>
@@ -10180,7 +10107,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G17" s="4">
         <v>304325</v>
@@ -10197,7 +10124,7 @@
         <v>302400</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C18" s="4">
         <v>304402</v>
@@ -10209,7 +10136,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G18" s="4">
         <v>304403</v>
@@ -10226,7 +10153,7 @@
         <v>302401</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C19" s="7">
         <v>304411</v>
@@ -10238,7 +10165,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7">
         <v>304412</v>
@@ -10255,7 +10182,7 @@
         <v>302402</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C20" s="7">
         <v>304417</v>
@@ -10267,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G20" s="7">
         <v>304418</v>
@@ -10284,7 +10211,7 @@
         <v>302403</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C21" s="7">
         <v>304424</v>
@@ -10296,7 +10223,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G21" s="7">
         <v>304425</v>
@@ -10313,7 +10240,7 @@
         <v>302404</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C22" s="7">
         <v>304433</v>
@@ -10325,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7">
         <v>304434</v>
@@ -10342,7 +10269,7 @@
         <v>302405</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C23" s="7">
         <v>304440</v>
@@ -10354,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7">
         <v>304441</v>
@@ -10371,7 +10298,7 @@
         <v>302406</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C24" s="7">
         <v>304447</v>
@@ -10383,7 +10310,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G24" s="7">
         <v>304448</v>
@@ -10400,7 +10327,7 @@
         <v>302407</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C25" s="4">
         <v>304453</v>
@@ -10412,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G25" s="4">
         <v>304454</v>
@@ -10429,7 +10356,7 @@
         <v>302500</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C26" s="7">
         <v>304501</v>
@@ -10441,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G26" s="7">
         <v>304502</v>
@@ -10458,7 +10385,7 @@
         <v>302501</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C27" s="7">
         <v>304508</v>
@@ -10470,7 +10397,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G27" s="7">
         <v>304509</v>
@@ -10487,7 +10414,7 @@
         <v>302502</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C28" s="7">
         <v>304513</v>
@@ -10499,7 +10426,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G28" s="7">
         <v>304514</v>
@@ -10516,7 +10443,7 @@
         <v>302503</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C29" s="7">
         <v>304519</v>
@@ -10528,7 +10455,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G29" s="7">
         <v>304520</v>
@@ -10545,7 +10472,7 @@
         <v>302600</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C30" s="4">
         <v>304603</v>
@@ -10557,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G30" s="4">
         <v>304603</v>
@@ -10574,7 +10501,7 @@
         <v>302601</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C31" s="4">
         <v>304607</v>
@@ -10586,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G31" s="4">
         <v>304607</v>
@@ -10603,7 +10530,7 @@
         <v>302602</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C32" s="4">
         <v>304612</v>
@@ -10615,7 +10542,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G32" s="4">
         <v>304612</v>
@@ -10632,7 +10559,7 @@
         <v>302603</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C33" s="4">
         <v>304618</v>
@@ -10644,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G33" s="4">
         <v>304618</v>
@@ -10666,8 +10593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10694,7 +10621,7 @@
         <v>300000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>301000</v>
@@ -10705,7 +10632,7 @@
         <v>300001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2">
         <v>301001</v>
@@ -10716,7 +10643,7 @@
         <v>300002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2">
         <v>301002</v>
@@ -10727,7 +10654,7 @@
         <v>300003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2">
         <v>301003</v>
@@ -10749,7 +10676,7 @@
         <v>300101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1">
         <v>301107</v>
@@ -10760,7 +10687,7 @@
         <v>300200</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4">
         <v>301200</v>
@@ -10771,7 +10698,7 @@
         <v>300201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4">
         <v>301201</v>
@@ -10782,7 +10709,7 @@
         <v>300202</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4">
         <v>301202</v>
@@ -10793,7 +10720,7 @@
         <v>300203</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4">
         <v>301203</v>
@@ -10804,7 +10731,7 @@
         <v>300204</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4">
         <v>301204</v>
@@ -10815,7 +10742,7 @@
         <v>300205</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4">
         <v>301205</v>
@@ -10826,7 +10753,7 @@
         <v>300206</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="4">
         <v>301206</v>
@@ -10837,7 +10764,7 @@
         <v>300207</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2">
         <v>301207</v>
@@ -10848,7 +10775,7 @@
         <v>300301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4">
         <v>301301</v>
@@ -10859,7 +10786,7 @@
         <v>300302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="4">
         <v>301302</v>
@@ -10870,7 +10797,7 @@
         <v>300400</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4">
         <v>301400</v>
@@ -10881,7 +10808,7 @@
         <v>300401</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4">
         <v>301401</v>
@@ -10892,7 +10819,7 @@
         <v>300402</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4">
         <v>301402</v>
@@ -10903,7 +10830,7 @@
         <v>300404</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="4">
         <v>301404</v>
@@ -10914,7 +10841,7 @@
         <v>300405</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4">
         <v>301405</v>
@@ -10925,7 +10852,7 @@
         <v>300406</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4">
         <v>301406</v>
@@ -10936,7 +10863,7 @@
         <v>300407</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4">
         <v>301407</v>
@@ -10947,7 +10874,7 @@
         <v>300500</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1">
         <v>301500</v>
@@ -10958,7 +10885,7 @@
         <v>300501</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>301501</v>
@@ -10969,7 +10896,7 @@
         <v>300502</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2">
         <v>301502</v>
@@ -10980,7 +10907,7 @@
         <v>300503</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2">
         <v>301503</v>
@@ -10991,7 +10918,7 @@
         <v>300504</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2">
         <v>301503</v>
@@ -11002,7 +10929,7 @@
         <v>300600</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1">
         <v>301600</v>
@@ -11013,7 +10940,7 @@
         <v>300700</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1">
         <v>301700</v>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QUEST_TABLE" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="444">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,1444 +275,1444 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책을 사랑하는 소녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동네 바보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험장 관리인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 광장으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구점 거리로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외각 구역으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 정육점으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임은 혼자, 같이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃 구경은 누구랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 파티를 열까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고기 구매 목적 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구두가 부러졌어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양복 가게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">낯가리는 소녀 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전구가 없었다면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이의 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">도끼 학습 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도자기 공방 반응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진은 결과? 과정?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덫 아니면 마취제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일 축하 꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘어진 여자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 구출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향수 소비 습관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일이 모자라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 정리 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람들이 좋아하는 꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩 여신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이봐!&lt;br&gt;이 다리를 지나가기 위해서는&lt;br&gt;별을 N개 모아야한다고-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 별도 없으면서&lt;br&gt;어딜 지나갈려고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하! 별을 가지고 왔군.&lt;br&gt;하지만 문제를 맞춰야&lt;br&gt;비켜줄거지롱~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람은 어디서 에너지를&lt;br&gt;얻을까~요~?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀렸어!&lt;br&gt;남들을 방해함으로써&lt;br&gt;에너지를 얻는거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 사라져주지! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 나야!&lt;br&gt;별을 N개 가져오면&lt;br&gt;지나가게 해주지-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별을 빨리 가져오도록!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지고 왔네?&lt;br&gt;그치만 문제를 맞춰야&lt;br&gt;지나갈 수 있다고~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 그림이 가장 아름다울까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀렸어, 틀렸어.&lt;br&gt;바로 내 자화상이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나중에 또 보자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제는 조금 반갑지?&lt;br&gt;별 N개를 가지고 와!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야? 별 없이 말을 걸다니!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별이네! 그럼 문제 나가신다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성을 꼬시는 최고의 방법은&lt;br&gt;뭘까~요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 틀렸다!&lt;br&gt;나 처럼 잘생기면 된다구!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에는 비켜주지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕? 또 보네!&lt;br&gt;별 N개를 가지고 오도록!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안된다. 별을 가지고 와라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충분한 별을 가지고 왔군~&lt;br&gt;그럼 문제를 맞춰라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행가기 전에 해야하는 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하! 재미있는 대답이군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만, 틀렸어-&lt;br&gt;인생 자체가 여행이라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 이제 떠나야겠다. 즐거웠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 ! 너도 인간이 되려고 왔구나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 너가 인간 세계에&lt;br&gt;잘 도착하게끔 도와줄&lt;br&gt;"티피" 라고 해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간계로 가려면&lt;br&gt;시험을 봐야 하거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 좀 멀리 있어서&lt;br&gt;내 말이 잘 안들릴까 걱정이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나한테 가까이 와서&lt;br&gt;말 좀 걸어줄래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참, 왼쪽 스틱을 누르면 짧은 거리를&lt;br&gt;순간이동 하는 방법으로&lt;br&gt;이동할 수 있어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠흠, 좋아. 이제 잘 들리겠네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 인간계로 가는&lt;br&gt;시험장은 저 앞에 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 안내해줄게!&lt;br&gt;이 앞으로 쭉 가면 되거든!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저 가있을 테니, 천천히 와!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 길을 잃으면 어떻게 하냐고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼손으로든, 오른손으로든&lt;br&gt;잡을 수 있지.&lt;br&gt;양손도 되고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도를 들고 있는 상태에서&lt;br&gt;트리거 키를 누르면&lt;br&gt;지도를 전환할 수 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 먼저 가있을게!&lt;br&gt;지도를 보고 따라와서&lt;br&gt;말을 걸어줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 문제가 생겼어.&lt;br&gt;시험장에 가는 길이&lt;br&gt;커다란 나무로 막혀 있네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 직접 도끼로&lt;br&gt;베어야 할 것 같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디긴!&lt;br&gt;바로 네 오른쪽 허리에 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼를 잡은 손으로&lt;br&gt;트리거를 누르고 있으면&lt;br&gt;도끼를 사용할 수 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 상태에서&lt;br&gt;나무를 베면 쓰러질 거야!&lt;br&gt;한 세 번 정도 휘두르면 되겠네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무를 베면 다시 말을 걸어줘 !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼는 네 오른쪽 허리에 있어.&lt;br&gt;그랩 버튼을 꾹 누르면&lt;br&gt;잡을 수 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋았어!&lt;br&gt;이제 이 앞으로 지나갈 수 있겠네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 떨어진 아이템은&lt;br&gt;그랩 버튼으로&lt;br&gt;집을 수 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템을 집은 상태에서도&lt;br&gt;물론 이동이 가능해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼, 나는 저 앞에서&lt;br&gt;기다리고 있을게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목재 주워 오는 거&lt;br&gt;잊어버리면 안 돼 !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어? 목재를 깜빡했구나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목재가 없으면&lt;br&gt;이 앞으로 나아갈 수 없어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주워오면 나한테 말을 다시 걸어줘 !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령이 아닌 자들은&lt;br&gt;들어오지 못하도록&lt;br&gt;특별한 장치가 있는 모양이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 장치를 풀려면&lt;br&gt;횃불이 필요하겠는걸…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 마침 저기 기름이 있네.&lt;br&gt;가지고 있는 목재와&lt;br&gt;조합할 수 있겠는데 !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 저기 망치가 놓인&lt;br&gt;테이블이 보여?&lt;br&gt;저기가 바로 조합대야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합대에 아이템을 올려놓을 수 있고&lt;br&gt;그 아이템들로 새로운 아이템을&lt;br&gt;만들 수도 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합은 2개에서 3개의 아이템으로&lt;br&gt;진행할 수 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 조합대 위에&lt;br&gt;기름과 목재를 올려놔볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템들을 올린 다음에&lt;br&gt;망치를 조준해서 트리거 버튼을 누르면&lt;br&gt;조합이 진행돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 횃불이 완성될거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불이 완성되면 그걸 들고&lt;br&gt;나에게 말을 걸어줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참, 아이템을 들고&lt;br&gt;말을 걸기 위해서는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템이 없는 쪽 손의&lt;br&gt;버튼을 눌러야 해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음, 아직 횃불이 없는 것 같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선, 조합대에&lt;br&gt;기름과 목재를 올려봐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불을 만들었구나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 횃불은 B 버튼으로&lt;br&gt;불러낼 수 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횃불을 잡는 중에 트리거 키를 누르면&lt;br&gt;횃불의 불을 키고 끌 수 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 버튼을 누르거나&lt;br&gt;손에서 놓으면&lt;br&gt;횃불을 다시 넣을 수 있어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불이 켜져 있는 횃불로&lt;br&gt;두개의 화로에 불은 붙인 다음 &lt; br &gt; 노크를 하면 문이 열릴거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노크는 정령만이 가지고 있는&lt;br&gt;마법으로 해야해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손에 아무것도 없는 상태에서&lt;br&gt;트리거 키를 꾹 누르고 놓으면&lt;br&gt;마법을 발사할 수 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 버튼으로 횃불을 불러낸 후&lt;br&gt;잡아서 트리거 키로 불을 켜자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화로에 불을 붙였다면&lt;br&gt;맨 손 상태에서 트리거 키를&lt;br&gt;길게 누른 후 놓아서 노크를 해볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 문이 열렸어!&lt;br&gt; 안으로 들어가보자구.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간이 되고 싶다는&lt;br&gt;그 정령이 바로 너냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반갑다!&lt;br&gt;시험장에 온 것을 환영하지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 인간 세계로&lt;br&gt;보내줄 수 는 없고… 흠…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래! 나에게 사과와 바나나를&lt;br&gt;가져와 준다면 시험을 통과시켜 주지 !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바구니에 잘 담아서 가져오라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고로 말하자면&lt;br&gt;이 시험장과 같은 "퍼즐"들은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 번 깨기 전 까지는&lt;br&gt;절대로 밖으로 나갈 수 없지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 같은 정령이&lt;br&gt;인간이 되기 위해서는&lt;br&gt;인간 세계에서 별을 모아야 해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별은 사람들을 도와주거나,&lt;br&gt;곳곳에 숨겨져 있는 퍼즐을 풀면&lt;br&gt;얻을 수 있어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 개수의 별을 모아야&lt;br&gt; 지나갈 수 있는 장소도 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다고 별이 소모되지는 않으니까&lt;br&gt;걱정하지마!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아, 정말 설레는 일이지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 걱정하지마! 분명 잘할거니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조심히 가. 안녕!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼자 할 수 있는 게임이랑,&lt;br&gt;다 같이 하는 게임이랑…</t>
+  </si>
+  <si>
+    <t>그 중 어느 게임을&lt;br&gt;해야 할지&lt;br&gt;고민이네요.</t>
+  </si>
+  <si>
+    <t>무슨 게임을 하면 좋을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 혼자&lt;br&gt;즐길 수 있는&lt;br&gt;게임이 좋겠네요.</t>
+  </si>
+  <si>
+    <t>역시 친구들과&lt;br&gt;함께 즐길 수 있는 &lt;br&gt;게임이 좋겠네요.</t>
+  </si>
+  <si>
+    <t>추천해줘서 고마워요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 꽃이 정말 이쁘게 피었어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃구경을 가고 싶은데,&lt;br&gt;누구랑 가야할 지&lt;br&gt;모르겠어.</t>
+  </si>
+  <si>
+    <t>너라면 누구와 함께 갈거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 꽃에 더욱&lt;br&gt;집중할 수 있겠네.</t>
+  </si>
+  <si>
+    <t>그러면 친구들과 함께&lt;br&gt;즐길 수 있겠네.</t>
+  </si>
+  <si>
+    <t>빨리 꽃구경을 가야겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 이번에 이사를 와서&lt;br&gt;사람들을 초대하는&lt;br&gt;파티를 열까하는데…</t>
+  </si>
+  <si>
+    <t>파티를 작게 할지&lt;br&gt;크게 할지&lt;br&gt;아직 못결정했어.</t>
+  </si>
+  <si>
+    <t>이웃들만 부를까 아니면&lt;br&gt;동네 사람들 모두 부를까?</t>
+  </si>
+  <si>
+    <t>그 편이 더 친해질 수 있겠지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 편이 신나고 재밌겠지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무나 들어갈 수 없습니다.&lt;br&gt;방문 목적에 대해&lt;br&gt;말씀해주시겠습니까?</t>
+  </si>
+  <si>
+    <t>맛있겠군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겁겠군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기를 구하고 싶으시다면…&lt;br&gt;다른 길이 있다는 것만&lt;br&gt;알려드리죠.</t>
+  </si>
+  <si>
+    <t>아야. 구두 굽이 부러졌네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디 대신 신을 구두 없나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머, 세련된 검정색 구두네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머, 예쁜 노란색 구두네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 고맙습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제는 발이 안 아파요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄송하지만 손님.&lt;br&gt;오늘은 영업하지 않습니다.</t>
+  </si>
+  <si>
+    <t>아.. 어쩌지.. 진짜 비싼 건데…&lt;br&gt;밧줄을 잘라버려야 하나?&lt;br&gt;자를 도구가…</t>
+  </si>
+  <si>
+    <t>정말 비싼 양복이거든요…&lt;br&gt;저게 말이죠..</t>
+  </si>
+  <si>
+    <t>감사합니다.&lt;br&gt;이게 무난해 보이지만&lt;br&gt;엄청 비싼거 거든요.</t>
+  </si>
+  <si>
+    <t>감사합니다.&lt;br&gt;딱봐도 눈부신게 정말&lt;br&gt;비싸보이지 않나요?</t>
+  </si>
+  <si>
+    <t>다음에 여유로울 때 오시면&lt;br&gt;무료로 재단해 드릴게요.&lt;br&gt;꼭 오세요!</t>
+  </si>
+  <si>
+    <t>제가 아직 낯을 가려서 말이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가에게 말을 걸어볼까요?&lt;br&gt;아니면 혼자만의 시간을&lt;br&gt;즐길까요?</t>
+  </si>
+  <si>
+    <t>저의 고민을 해결해 줄 &lt;br&gt;음료수를 가져다줄래요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별한 음료수를 마시면&lt;br&gt;고민이 해결될 것 같아요…</t>
+  </si>
+  <si>
+    <t>아… 목이 말라라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음이 차분해지는 레몬 향이네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음… 맛이 정말 좋아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배가 너무 고프군…&lt;br&gt;어디 먹을 만한 음식 없나…?</t>
+  </si>
+  <si>
+    <t>생선. 생선이 좋겠어.&lt;br&gt;하지만 비린 생선은 싫어...</t>
+  </si>
+  <si>
+    <t>맛있어 보이는 생선이군!&lt;br&gt;덕분에 배를 채울 수 있겠어.</t>
+  </si>
+  <si>
+    <t>어쩐지 맛있겠더라고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 감동적인 서사를&lt;br&gt;가지고 있는 생선이었다니.</t>
+  </si>
+  <si>
+    <t>빨리 먹어 치우고 싶어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전구가 고장 나서&lt;br&gt;집 안이 너무 어두워.</t>
+  </si>
+  <si>
+    <t>집 안을 찾아보면&lt;br&gt;여분이 있을 거야</t>
+  </si>
+  <si>
+    <t>그 방법도 있었네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것도 재밌는 방법이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이는 참 신기해.&lt;br&gt;몸이 쭉 늘어나잖아!</t>
+  </si>
+  <si>
+    <t>왜 그런 걸까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 거였구나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하! 재미있는 발상이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁금증을 해결해 줘서 고마워.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적힌 재료를 찾아 넣은 후&lt;br&gt;끓이는 것 잊지 말아요!</t>
+  </si>
+  <si>
+    <t>흠… 맛이 살짝 아쉬운걸요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무엇을 마지막으로 넣으면&lt;br&gt;최고의 수프가 될까요?</t>
+  </si>
+  <si>
+    <t>오! 맛있는 생각이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오! 재밌는 생각이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분에 맛있는 수프가&lt;br&gt;될 것 같아요!</t>
+  </si>
+  <si>
+    <t>요즘 일손이 부족합니다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직은 버틸 만하지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것도 나쁘지 않은 방법이네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디 일할 사람 없나...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아,&lt;br&gt;다칠 수 있으니까 말이야.</t>
+  </si>
+  <si>
+    <t>맞아,&lt;br&gt;꼬맹이 상태를 확인 해야지.</t>
+  </si>
+  <si>
+    <t>내 정신 좀 봐,&lt;br&gt;그걸 먼저 해야겠어!</t>
+  </si>
+  <si>
+    <t>사진관에 오신 것을 환영합니다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 슬럼프에 걸려서&lt;br&gt;사진을 찍지 못하고 있습니다.</t>
+  </si>
+  <si>
+    <t>역시… 결과를 더욱&lt;br&gt;생각해야 하는군요!</t>
+  </si>
+  <si>
+    <t>역시… 과정을 더욱&lt;br&gt;생각해야 하는군요!</t>
+  </si>
+  <si>
+    <t>이제 다시 카메라를&lt;br&gt;잡을 수 있을 것 같아요.</t>
+  </si>
+  <si>
+    <t>어우 추워!&lt;br&gt;이봐 아무도 없어?</t>
+  </si>
+  <si>
+    <t>너 잘 만났다.&lt;br&gt;화로에 불 좀 붙여 볼래?</t>
+  </si>
+  <si>
+    <t>나 같은 중요한 손님을&lt;br&gt;이런 추위 속에 두다니</t>
+  </si>
+  <si>
+    <t>어쩔 수 없지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 말이!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛이 없으면 가만두지 않겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 오게 젊은이.&lt;br&gt;원하는 물건이 있나 보군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 말인데…&lt;br&gt;작은 동물을 잡기 위해&lt;br&gt;어떤 도구를 사용하는 게 좋겠나?</t>
+  </si>
+  <si>
+    <t>그래. 어떤 도구가 좋겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 해놓기만 하면 된다.&lt;br&gt;이거지?</t>
+  </si>
+  <si>
+    <t>고맙네. 나는 가게 문을 닫고,&lt;br&gt;사냥을 위해 떠나야겠군.&lt;br&gt;그럼 이만.</t>
+  </si>
+  <si>
+    <t>오늘은 제 생일인데,&lt;br&gt;아무도 몰라 줘요.</t>
+  </si>
+  <si>
+    <t>제가 좋아하는 꽃이나&lt;br&gt;보러 가야겠어요…</t>
+  </si>
+  <si>
+    <t>꽃을 보면 기분이 조금&lt;br&gt;나아지거든요…</t>
+  </si>
+  <si>
+    <t>안녕하세요. 또 뵈었네요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 이쁜 꽃이에요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 화사하네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저... 주시는 건가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워요.&lt;br&gt;덕분에 최고의 생일이&lt;br&gt;될 것 같아요!</t>
+  </si>
+  <si>
+    <t>넘어져서 기분이 안 좋아...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하필 왜 거기에 돌이 있는거람…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 난 이렇게 운이&lt;br&gt;안좋은 걸까?</t>
+  </si>
+  <si>
+    <t>내가 다쳤다고 해서 주는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">꼬마야,&lt;br&gt;네 덕분에 나아졌어.&lt;br&gt;정말 고마워! </t>
+  </si>
+  <si>
+    <t>우리 아가… 제발…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 조언 감사합니다.&lt;br&gt;명심할게요!</t>
+  </si>
+  <si>
+    <t>감사합니다!&lt;br&gt;마음이 추스려지네요.</t>
+  </si>
+  <si>
+    <t>당신, 계획된 소비를 하는 편?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현명한 소비 습관이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낭만적인 소비 습관이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 나 좀 도와줘.&lt;br&gt;향수를 찾아서&lt;br&gt;테이블에 올려줄래?</t>
+  </si>
+  <si>
+    <t>향수는 항상 제자리에 두어야해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">과일은 너무 맛있어서 문제예요. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신차려 보면&lt;br&gt;모든 과일들을&lt;br&gt;다 먹어 치워버려요!</t>
+  </si>
+  <si>
+    <t>그러면 과일을&lt;br&gt;멈추지 않고&lt;br&gt;먹을 수 있겠네요.</t>
+  </si>
+  <si>
+    <t>그러면 과일을&lt;br&gt;더 먹고 싶을 때 마다&lt;br&gt;먹을 수 있겠네요.</t>
+  </si>
+  <si>
+    <t>과일을 계속 먹을 수 있겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 책을 잔뜩 사서&lt;br&gt;책장 정리를 해야겠어요.</t>
+  </si>
+  <si>
+    <t>책장 정리는 어떻게&lt;br&gt;하는게 좋을까요?</t>
+  </si>
+  <si>
+    <t>그 편이 더욱 깔끔할 것 같네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 편이 더욱 쉬울 것 같네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질 하자!&lt;br&gt;나를 찾아봐~</t>
+  </si>
+  <si>
+    <t>잘 찾는 이유가 있었구나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 느껴지는 게 있구나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에 또 같이 놀자~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 누가 무슨 꽃을&lt;br&gt;좋아하는 지 모르겠네.</t>
+  </si>
+  <si>
+    <t>나를 도와 친구들의 집에&lt;br&gt;꽃을 선물해줄래?</t>
+  </si>
+  <si>
+    <t>친구들이 좋아했으면 좋겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 정령이여...&lt;br&gt;저는 정령들의 여신이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이곳에서 인간이 되려는&lt;br&gt;정령들을 인도하고 있죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 세상은 어땠나요?&lt;br&gt;당신의 감상을 말해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랬군요. 당신의 경험은 소중하죠.&lt;br&gt;인간이 되어서도&lt;br&gt;그건 마찬가지일 거예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 이곳에서 겪은 일들은&lt;br&gt;인간이 되어서도 당신이라는&lt;br&gt;사람을 만들어 나가겠죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 인간 세상에서&lt;br&gt;많은 사람들을 도왔죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면서 어떠한 것을 느꼈는지&lt;br&gt;물어봐도 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 좋은 답변이군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 이곳에서 지내면서&lt;br&gt;별이라는 것을 모았을 거에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 이 별이라는 것은&lt;br&gt;당신이 인간의 마음을 알게 될 때&lt;br&gt;그것이 형체화 된 것이랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇기 때문에 그 별의 다른 이름은&lt;br&gt;마음의 조각이라고 하죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어때요, 참 흥미롭지 않나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후, 좋습니다.&lt;br&gt;사실은 비밀 같은 건 아니거든요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 인간이 되기 위한 시련을&lt;br&gt;모두 마쳤습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 곧 당신은 진짜 인간이 되어&lt;br&gt;사람들과 함께 살아가게 될 거에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 인간성을&lt;br&gt;가지게 될 지 정하는 것이&lt;br&gt;제가 해야 하는 일이랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간이 된 당신이&lt;br&gt;어떻게 살아갈 건지 생각해보셨나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 좋은걸요.&lt;br&gt;어떻게 살아갈 것인지는&lt;br&gt;이제 당신의 자유죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 드리는 인간성은&lt;br&gt;그저 안내 역할을 할 뿐입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이제 작별의 시간이네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 고생하셨어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 또한 당신과 같은 정령,&lt;br&gt;아니, 인간과 만나서 참 다행입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부디, 인간이 되어&lt;br&gt;그대만의 삶을 살아가길 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕히,&lt;br&gt;이 세상에서 가장 인간다운 정령이여…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 정령들이 인간이 되기 위해서는&lt;br&gt;인간 세계를 경험해 봐야 하지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럴 땐 지도를 확인하면 돼 !&lt;br&gt;지도는 왼쪽 허리에 있어.</t>
+  </si>
+  <si>
+    <t>오, 생각보다 빨리 왔구나.&lt;br&gt;지도가 참 편리하지?</t>
+  </si>
+  <si>
+    <t>하지만, 보다시피&lt;br&gt;나는 손발이 없거든&lt;br&gt;너가 마침 도끼를 가지고 있네!</t>
+  </si>
+  <si>
+    <t>앗, 그러고 보니 나무가 쓰러지면서&lt;br&gt;뭔가가 떨어졌어 !</t>
+  </si>
+  <si>
+    <t>이건… 목재구나 !&lt;br&gt;일단 주워 놓는게 어떨까?&lt;br&gt;어디에 쓰일 지 모르니깐 말이야.</t>
+  </si>
+  <si>
+    <t>왔구나 !&lt;br&gt;여기가 바로&lt;br&gt;인간계로 가는 시험장이야.</t>
+  </si>
+  <si>
+    <t>그 말은 즉,&lt;br&gt;나에게 사과와 바나나를 주기 전까지&lt;br&gt;너는 나갈 수 없다는 말이다 !</t>
+  </si>
+  <si>
+    <t>자, 어서 사과와 바나나가 담긴&lt;br&gt;과일 바구니를 가져와라 !</t>
+  </si>
+  <si>
+    <t>오 ! 사과와 바나나를 가져왔군 !&lt;br&gt;그럼 약속대로 출구문을 열어주도록 하지!</t>
+  </si>
+  <si>
+    <t>시험은 통과다 !&lt;br&gt;그럼 잘 가라!</t>
+  </si>
+  <si>
+    <t>그래도…&lt;br&gt;들어가실 수 없습니다.</t>
+  </si>
+  <si>
+    <t>도와줘서 고마워.&lt;br&gt;덕분에 생각보다&lt;br&gt;빨리 파티를 열 수 있겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 제가 무엇을 해야 할지 알겠어요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음마저 활기차지는 오렌지 향이네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시회에 출품할 옷이 필요해!&lt;br&gt;주제는 꽃이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상에는 너무나 많은 게임들이 있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양복 정리 중에 양복이&lt;br&gt;줄에 걸려버렸거든요…&lt;br&gt;가장 비싼 양복이라.. 빨리 해결을..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 이 생선.&lt;br&gt;어디서 온 건지 생각해 봤어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고장 난 전등을&lt;br&gt;노란색 전구로 갈아주지 않을래? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제야 밝아졌네!&lt;br&gt;전구가 없었다면 어떻게 살았는지 몰라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쨌든 꼬마 네 덕분에 밝아져서 좋다.&lt;br&gt;고마워.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 손님이 이렇게 몰려오다니!&lt;br&gt;수프를 다 완성하지 못했는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나를 도와주지 않을래요?&lt;br&gt;재료를 수프에 넣으면 되는 일이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 나무 패는 일을&lt;br&gt;기피하는지 모르겠어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시, 도움을 조금 주시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무를 3개 캐서&lt;br&gt;테이블 위에 올려주시면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그나저나,&lt;br&gt;어떤 꼬맹이가 도자기를 깨더니&lt;br&gt;갑자기 우는 거 있지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라,&lt;br&gt;도자기가 어디 갔지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐,&lt;br&gt;그 도자기가 아니면 안 된다구!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런!&lt;br&gt;도자기가 여기 있었네~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진을 찍을 때&lt;br&gt;무엇을 더 중요시 해야 하는지&lt;br&gt;잊어버렸어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무토막을 화로에 넣고 불을 붙이라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 작은 동물을 찾는 사람들이 많던데.&lt;br&gt;자네도 그런가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 말 하기 뭐 하지만..&lt;br&gt;사실 작은 동물을 잡아 본 적이 없네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 동물이라… 어떤 물건이 좋을까…&lt;br&gt;아. 도구상자는&lt;br&gt;동물 박제를 알맞은 자리에…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 동물은 쉽게 잠들 수 있다.&lt;br&gt;이 말인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 기분이 안좋다고 해서 주는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 고양이가 저기 위로 올라갔어요!&lt;br&gt;구해주세요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 고맙습니다!&lt;br&gt;어쩌다 저기를 올라갔는지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 집으로 가자.&lt;br&gt;나비야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐응.&lt;br&gt;오늘 향수를 살 것 같지는 않고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책장 정리를 당장 시작해야 겠어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗! 들켰네.&lt;br&gt;너 정말 숨바꼭질 잘한다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 숨바꼭질 잘하고 싶은데…&lt;br&gt;비법이 뭐야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 또 너구나!&lt;br&gt;마침 잘됐다.&lt;br&gt;친구들한테 선물을 주고 싶거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또한 당신이 인간 세상에서 해왔던 일들,&lt;br&gt;겪었던 일들을 바탕으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스스로를 통해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 같은 그림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공감 가득&lt;br&gt;따듯한 모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 설레!</t>
+  </si>
+  <si>
+    <t>혼자서 하는 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼자 집중해서&lt;br&gt;구경해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수의 이웃들만&lt;br&gt;초대해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼자서 먹을&lt;br&gt;고기를 사려구요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색 구두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색 양복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활기차지는 주스</t>
+  </si>
+  <si>
+    <t>바다나 양식장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸이 유연해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘드시겠어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도자기를&lt;br&gt;치워야 해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진은 결과물이&lt;br&gt;중요해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난로에&lt;br&gt;가까이 붙어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마취제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소독약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이에게 눈을&lt;br&gt;때면 안돼요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살 물품을 미리&lt;br&gt;정해놔요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리 미리&lt;br&gt;사놔요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리화 해서&lt;br&gt;정리해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루트를 정해서&lt;br&gt;찾아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람들과 만나&lt;br&gt;좋았어요.</t>
+  </si>
+  <si>
+    <t>빨리 인간이&lt;br&gt;되고 싶었어요.</t>
+  </si>
+  <si>
+    <t>계획적인 사람이&lt;br&gt;되고 싶어요.</t>
+  </si>
+  <si>
+    <t>사람들을 통해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미가 깊은 그림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제를 해결해&lt;br&gt;멋진 모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 기분&lt;br&gt;만끽하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 걱정돼.</t>
+  </si>
+  <si>
+    <t>다같이 하는 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구들과 함께&lt;br&gt;구경해요.</t>
+  </si>
+  <si>
+    <t>동네 모든 사람을&lt;br&gt;초대해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기 파티를&lt;br&gt;열거에요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색 구두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색 양복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고요해지는 주스</t>
+  </si>
+  <si>
+    <t>먼 해양에서&lt;br&gt;가족을 떠나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반딧불이를&lt;br&gt;이용해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸이 액체라서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신기한 맛 양념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우는 아이를&lt;br&gt;달래줘요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃다발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤리팝 사탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾아서&lt;br&gt;다행이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고 싶을 때&lt;br&gt;사요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 먹을때마다&lt;br&gt;사요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느낌대로&lt;br&gt;정리해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 탐험이&lt;br&gt;좋았어요.</t>
+  </si>
+  <si>
+    <t>사람들을 더&lt;br&gt;도우고 싶었어요.</t>
+  </si>
+  <si>
+    <t>그럴 거 같긴&lt;br&gt;했어요.</t>
+  </si>
+  <si>
+    <t>자유로운 사람이&lt;br&gt;되고 싶어요.</t>
+  </si>
+  <si>
+    <t>훈련생을 육성해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아요&lt;br&gt;아직도 추워요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양초를&lt;br&gt;이용해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알차게&lt;br&gt;계획 짜기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찍는 과정이&lt;br&gt;중요해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감으로&lt;br&gt;찾아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각도&lt;br&gt;못했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동은 좌측 스틱으로,&lt;br&gt;말을 걸 때는 나를 조준해서&lt;br&gt;X나 A 버튼을 누르면 돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>집 주인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>궁금한 사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책을 사랑하는 소녀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동네 바보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시험장 관리인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 광장으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도구점 거리로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외각 구역으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형 정육점으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임은 혼자, 같이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃 구경은 누구랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 파티를 열까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">고기 구매 목적 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구두가 부러졌어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양복 가게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">낯가리는 소녀 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전구가 없었다면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이의 이유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">도끼 학습 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도자기 공방 반응</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진은 결과? 과정?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덫 아니면 마취제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생일 축하 꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘어진 여자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이 구출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>향수 소비 습관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일이 모자라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 정리 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숨바꼭질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람들이 좋아하는 꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔딩 여신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이봐!&lt;br&gt;이 다리를 지나가기 위해서는&lt;br&gt;별을 N개 모아야한다고-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응? 별도 없으면서&lt;br&gt;어딜 지나갈려고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하! 별을 가지고 왔군.&lt;br&gt;하지만 문제를 맞춰야&lt;br&gt;비켜줄거지롱~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람은 어디서 에너지를&lt;br&gt;얻을까~요~?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>틀렸어!&lt;br&gt;남들을 방해함으로써&lt;br&gt;에너지를 얻는거야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">하지만 사라져주지! </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>또 나야!&lt;br&gt;별을 N개 가져오면&lt;br&gt;지나가게 해주지-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별을 빨리 가져오도록!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지고 왔네?&lt;br&gt;그치만 문제를 맞춰야&lt;br&gt;지나갈 수 있다고~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 그림이 가장 아름다울까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>틀렸어, 틀렸어.&lt;br&gt;바로 내 자화상이다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나중에 또 보자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제는 조금 반갑지?&lt;br&gt;별 N개를 가지고 와!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐야? 별 없이 말을 걸다니!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별이네! 그럼 문제 나가신다~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이성을 꼬시는 최고의 방법은&lt;br&gt;뭘까~요~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너는 틀렸다!&lt;br&gt;나 처럼 잘생기면 된다구!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번에는 비켜주지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕? 또 보네!&lt;br&gt;별 N개를 가지고 오도록!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안된다. 별을 가지고 와라!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충분한 별을 가지고 왔군~&lt;br&gt;그럼 문제를 맞춰라!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행가기 전에 해야하는 것은?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하! 재미있는 대답이군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만, 틀렸어-&lt;br&gt;인생 자체가 여행이라고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난 이제 떠나야겠다. 즐거웠어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕 ! 너도 인간이 되려고 왔구나!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 너가 인간 세계에&lt;br&gt;잘 도착하게끔 도와줄&lt;br&gt;"티피" 라고 해!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간계로 가려면&lt;br&gt;시험을 봐야 하거든.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금은 좀 멀리 있어서&lt;br&gt;내 말이 잘 안들릴까 걱정이네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나한테 가까이 와서&lt;br&gt;말 좀 걸어줄래?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참, 왼쪽 스틱을 누르면 짧은 거리를&lt;br&gt;순간이동 하는 방법으로&lt;br&gt;이동할 수 있어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠흠, 좋아. 이제 잘 들리겠네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선 인간계로 가는&lt;br&gt;시험장은 저 앞에 있어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 안내해줄게!&lt;br&gt;이 앞으로 쭉 가면 되거든!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먼저 가있을 테니, 천천히 와!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응? 길을 잃으면 어떻게 하냐고?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼손으로든, 오른손으로든&lt;br&gt;잡을 수 있지.&lt;br&gt;양손도 되고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도를 들고 있는 상태에서&lt;br&gt;트리거 키를 누르면&lt;br&gt;지도를 전환할 수 있지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무튼 먼저 가있을게!&lt;br&gt;지도를 보고 따라와서&lt;br&gt;말을 걸어줘!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런데 문제가 생겼어.&lt;br&gt;시험장에 가는 길이&lt;br&gt;커다란 나무로 막혀 있네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리가 직접 도끼로&lt;br&gt;베어야 할 것 같아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디긴!&lt;br&gt;바로 네 오른쪽 허리에 있지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도끼를 잡은 손으로&lt;br&gt;트리거를 누르고 있으면&lt;br&gt;도끼를 사용할 수 있어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 상태에서&lt;br&gt;나무를 베면 쓰러질 거야!&lt;br&gt;한 세 번 정도 휘두르면 되겠네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무를 베면 다시 말을 걸어줘 !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도끼는 네 오른쪽 허리에 있어.&lt;br&gt;그랩 버튼을 꾹 누르면&lt;br&gt;잡을 수 있지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋았어!&lt;br&gt;이제 이 앞으로 지나갈 수 있겠네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이렇게 떨어진 아이템은&lt;br&gt;그랩 버튼으로&lt;br&gt;집을 수 있지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템을 집은 상태에서도&lt;br&gt;물론 이동이 가능해!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼, 나는 저 앞에서&lt;br&gt;기다리고 있을게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목재 주워 오는 거&lt;br&gt;잊어버리면 안 돼 !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어? 목재를 깜빡했구나!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목재가 없으면&lt;br&gt;이 앞으로 나아갈 수 없어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주워오면 나한테 말을 다시 걸어줘 !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정령이 아닌 자들은&lt;br&gt;들어오지 못하도록&lt;br&gt;특별한 장치가 있는 모양이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 장치를 풀려면&lt;br&gt;횃불이 필요하겠는걸…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오, 마침 저기 기름이 있네.&lt;br&gt;가지고 있는 목재와&lt;br&gt;조합할 수 있겠는데 !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 저기 망치가 놓인&lt;br&gt;테이블이 보여?&lt;br&gt;저기가 바로 조합대야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합대에 아이템을 올려놓을 수 있고&lt;br&gt;그 아이템들로 새로운 아이템을&lt;br&gt;만들 수도 있지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합은 2개에서 3개의 아이템으로&lt;br&gt;진행할 수 있어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 조합대 위에&lt;br&gt;기름과 목재를 올려놔볼까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템들을 올린 다음에&lt;br&gt;망치를 조준해서 트리거 버튼을 누르면&lt;br&gt;조합이 진행돼!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러면 횃불이 완성될거야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불이 완성되면 그걸 들고&lt;br&gt;나에게 말을 걸어줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참, 아이템을 들고&lt;br&gt;말을 걸기 위해서는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템이 없는 쪽 손의&lt;br&gt;버튼을 눌러야 해!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음, 아직 횃불이 없는 것 같은데?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선, 조합대에&lt;br&gt;기름과 목재를 올려봐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불을 만들었구나!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 횃불은 B 버튼으로&lt;br&gt;불러낼 수 있어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>횃불을 잡는 중에 트리거 키를 누르면&lt;br&gt;횃불의 불을 키고 끌 수 있지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 버튼을 누르거나&lt;br&gt;손에서 놓으면&lt;br&gt;횃불을 다시 넣을 수 있어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불이 켜져 있는 횃불로&lt;br&gt;두개의 화로에 불은 붙인 다음 &lt; br &gt; 노크를 하면 문이 열릴거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노크는 정령만이 가지고 있는&lt;br&gt;마법으로 해야해!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손에 아무것도 없는 상태에서&lt;br&gt;트리거 키를 꾹 누르고 놓으면&lt;br&gt;마법을 발사할 수 있어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 버튼으로 횃불을 불러낸 후&lt;br&gt;잡아서 트리거 키로 불을 켜자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화로에 불을 붙였다면&lt;br&gt;맨 손 상태에서 트리거 키를&lt;br&gt;길게 누른 후 놓아서 노크를 해볼까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드디어 문이 열렸어!&lt;br&gt; 안으로 들어가보자구.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간이 되고 싶다는&lt;br&gt;그 정령이 바로 너냐?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반갑다!&lt;br&gt;시험장에 온 것을 환영하지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로 인간 세계로&lt;br&gt;보내줄 수 는 없고… 흠…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래! 나에게 사과와 바나나를&lt;br&gt;가져와 준다면 시험을 통과시켜 주지 !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바구니에 잘 담아서 가져오라고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고로 말하자면&lt;br&gt;이 시험장과 같은 "퍼즐"들은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 번 깨기 전 까지는&lt;br&gt;절대로 밖으로 나갈 수 없지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 같은 정령이&lt;br&gt;인간이 되기 위해서는&lt;br&gt;인간 세계에서 별을 모아야 해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별은 사람들을 도와주거나,&lt;br&gt;곳곳에 숨겨져 있는 퍼즐을 풀면&lt;br&gt;얻을 수 있어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 개수의 별을 모아야&lt;br&gt; 지나갈 수 있는 장소도 있지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇다고 별이 소모되지는 않으니까&lt;br&gt;걱정하지마!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아, 정말 설레는 일이지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너무 걱정하지마! 분명 잘할거니까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조심히 가. 안녕!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼자 할 수 있는 게임이랑,&lt;br&gt;다 같이 하는 게임이랑…</t>
-  </si>
-  <si>
-    <t>그 중 어느 게임을&lt;br&gt;해야 할지&lt;br&gt;고민이네요.</t>
-  </si>
-  <si>
-    <t>무슨 게임을 하면 좋을까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역시 혼자&lt;br&gt;즐길 수 있는&lt;br&gt;게임이 좋겠네요.</t>
-  </si>
-  <si>
-    <t>역시 친구들과&lt;br&gt;함께 즐길 수 있는 &lt;br&gt;게임이 좋겠네요.</t>
-  </si>
-  <si>
-    <t>추천해줘서 고마워요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즘 꽃이 정말 이쁘게 피었어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃구경을 가고 싶은데,&lt;br&gt;누구랑 가야할 지&lt;br&gt;모르겠어.</t>
-  </si>
-  <si>
-    <t>너라면 누구와 함께 갈거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러면 꽃에 더욱&lt;br&gt;집중할 수 있겠네.</t>
-  </si>
-  <si>
-    <t>그러면 친구들과 함께&lt;br&gt;즐길 수 있겠네.</t>
-  </si>
-  <si>
-    <t>빨리 꽃구경을 가야겠어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 이번에 이사를 와서&lt;br&gt;사람들을 초대하는&lt;br&gt;파티를 열까하는데…</t>
-  </si>
-  <si>
-    <t>파티를 작게 할지&lt;br&gt;크게 할지&lt;br&gt;아직 못결정했어.</t>
-  </si>
-  <si>
-    <t>이웃들만 부를까 아니면&lt;br&gt;동네 사람들 모두 부를까?</t>
-  </si>
-  <si>
-    <t>그 편이 더 친해질 수 있겠지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 편이 신나고 재밌겠지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무나 들어갈 수 없습니다.&lt;br&gt;방문 목적에 대해&lt;br&gt;말씀해주시겠습니까?</t>
-  </si>
-  <si>
-    <t>맛있겠군요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겁겠군요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기를 구하고 싶으시다면…&lt;br&gt;다른 길이 있다는 것만&lt;br&gt;알려드리죠.</t>
-  </si>
-  <si>
-    <t>아야. 구두 굽이 부러졌네…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디 대신 신을 구두 없나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아파라…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어머, 세련된 검정색 구두네요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어머, 예쁜 노란색 구두네요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 고맙습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제는 발이 안 아파요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죄송하지만 손님.&lt;br&gt;오늘은 영업하지 않습니다.</t>
-  </si>
-  <si>
-    <t>아.. 어쩌지.. 진짜 비싼 건데…&lt;br&gt;밧줄을 잘라버려야 하나?&lt;br&gt;자를 도구가…</t>
-  </si>
-  <si>
-    <t>정말 비싼 양복이거든요…&lt;br&gt;저게 말이죠..</t>
-  </si>
-  <si>
-    <t>감사합니다.&lt;br&gt;이게 무난해 보이지만&lt;br&gt;엄청 비싼거 거든요.</t>
-  </si>
-  <si>
-    <t>감사합니다.&lt;br&gt;딱봐도 눈부신게 정말&lt;br&gt;비싸보이지 않나요?</t>
-  </si>
-  <si>
-    <t>다음에 여유로울 때 오시면&lt;br&gt;무료로 재단해 드릴게요.&lt;br&gt;꼭 오세요!</t>
-  </si>
-  <si>
-    <t>제가 아직 낯을 가려서 말이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누군가에게 말을 걸어볼까요?&lt;br&gt;아니면 혼자만의 시간을&lt;br&gt;즐길까요?</t>
-  </si>
-  <si>
-    <t>저의 고민을 해결해 줄 &lt;br&gt;음료수를 가져다줄래요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별한 음료수를 마시면&lt;br&gt;고민이 해결될 것 같아요…</t>
-  </si>
-  <si>
-    <t>아… 목이 말라라.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음이 차분해지는 레몬 향이네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음… 맛이 정말 좋아요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배가 너무 고프군…&lt;br&gt;어디 먹을 만한 음식 없나…?</t>
-  </si>
-  <si>
-    <t>생선. 생선이 좋겠어.&lt;br&gt;하지만 비린 생선은 싫어...</t>
-  </si>
-  <si>
-    <t>맛있어 보이는 생선이군!&lt;br&gt;덕분에 배를 채울 수 있겠어.</t>
-  </si>
-  <si>
-    <t>어쩐지 맛있겠더라고.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런 감동적인 서사를&lt;br&gt;가지고 있는 생선이었다니.</t>
-  </si>
-  <si>
-    <t>빨리 먹어 치우고 싶어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전구가 고장 나서&lt;br&gt;집 안이 너무 어두워.</t>
-  </si>
-  <si>
-    <t>집 안을 찾아보면&lt;br&gt;여분이 있을 거야</t>
-  </si>
-  <si>
-    <t>그 방법도 있었네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그것도 재밌는 방법이네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이는 참 신기해.&lt;br&gt;몸이 쭉 늘어나잖아!</t>
-  </si>
-  <si>
-    <t>왜 그런 걸까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런 거였구나!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하! 재미있는 발상이네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁금증을 해결해 줘서 고마워.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적힌 재료를 찾아 넣은 후&lt;br&gt;끓이는 것 잊지 말아요!</t>
-  </si>
-  <si>
-    <t>흠… 맛이 살짝 아쉬운걸요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무엇을 마지막으로 넣으면&lt;br&gt;최고의 수프가 될까요?</t>
-  </si>
-  <si>
-    <t>오! 맛있는 생각이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오! 재밌는 생각이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덕분에 맛있는 수프가&lt;br&gt;될 것 같아요!</t>
-  </si>
-  <si>
-    <t>요즘 일손이 부족합니다…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직은 버틸 만하지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그것도 나쁘지 않은 방법이네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디 일할 사람 없나...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아,&lt;br&gt;다칠 수 있으니까 말이야.</t>
-  </si>
-  <si>
-    <t>맞아,&lt;br&gt;꼬맹이 상태를 확인 해야지.</t>
-  </si>
-  <si>
-    <t>내 정신 좀 봐,&lt;br&gt;그걸 먼저 해야겠어!</t>
-  </si>
-  <si>
-    <t>사진관에 오신 것을 환영합니다…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즘 슬럼프에 걸려서&lt;br&gt;사진을 찍지 못하고 있습니다.</t>
-  </si>
-  <si>
-    <t>역시… 결과를 더욱&lt;br&gt;생각해야 하는군요!</t>
-  </si>
-  <si>
-    <t>역시… 과정을 더욱&lt;br&gt;생각해야 하는군요!</t>
-  </si>
-  <si>
-    <t>이제 다시 카메라를&lt;br&gt;잡을 수 있을 것 같아요.</t>
-  </si>
-  <si>
-    <t>어우 추워!&lt;br&gt;이봐 아무도 없어?</t>
-  </si>
-  <si>
-    <t>너 잘 만났다.&lt;br&gt;화로에 불 좀 붙여 볼래?</t>
-  </si>
-  <si>
-    <t>나 같은 중요한 손님을&lt;br&gt;이런 추위 속에 두다니</t>
-  </si>
-  <si>
-    <t>어쩔 수 없지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 말이!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛이 없으면 가만두지 않겠어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서 오게 젊은이.&lt;br&gt;원하는 물건이 있나 보군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래서 말인데…&lt;br&gt;작은 동물을 잡기 위해&lt;br&gt;어떤 도구를 사용하는 게 좋겠나?</t>
-  </si>
-  <si>
-    <t>그래. 어떤 도구가 좋겠나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치 해놓기만 하면 된다.&lt;br&gt;이거지?</t>
-  </si>
-  <si>
-    <t>고맙네. 나는 가게 문을 닫고,&lt;br&gt;사냥을 위해 떠나야겠군.&lt;br&gt;그럼 이만.</t>
-  </si>
-  <si>
-    <t>오늘은 제 생일인데,&lt;br&gt;아무도 몰라 줘요.</t>
-  </si>
-  <si>
-    <t>제가 좋아하는 꽃이나&lt;br&gt;보러 가야겠어요…</t>
-  </si>
-  <si>
-    <t>꽃을 보면 기분이 조금&lt;br&gt;나아지거든요…</t>
-  </si>
-  <si>
-    <t>안녕하세요. 또 뵈었네요…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 이쁜 꽃이에요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 화사하네요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저... 주시는 건가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워요.&lt;br&gt;덕분에 최고의 생일이&lt;br&gt;될 것 같아요!</t>
-  </si>
-  <si>
-    <t>넘어져서 기분이 안 좋아...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하필 왜 거기에 돌이 있는거람…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 난 이렇게 운이&lt;br&gt;안좋은 걸까?</t>
-  </si>
-  <si>
-    <t>내가 다쳤다고 해서 주는 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">꼬마야,&lt;br&gt;네 덕분에 나아졌어.&lt;br&gt;정말 고마워! </t>
-  </si>
-  <si>
-    <t>우리 아가… 제발…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은 조언 감사합니다.&lt;br&gt;명심할게요!</t>
-  </si>
-  <si>
-    <t>감사합니다!&lt;br&gt;마음이 추스려지네요.</t>
-  </si>
-  <si>
-    <t>당신, 계획된 소비를 하는 편?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현명한 소비 습관이네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낭만적인 소비 습관이네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러면 나 좀 도와줘.&lt;br&gt;향수를 찾아서&lt;br&gt;테이블에 올려줄래?</t>
-  </si>
-  <si>
-    <t>향수는 항상 제자리에 두어야해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">과일은 너무 맛있어서 문제예요. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신차려 보면&lt;br&gt;모든 과일들을&lt;br&gt;다 먹어 치워버려요!</t>
-  </si>
-  <si>
-    <t>그러면 과일을&lt;br&gt;멈추지 않고&lt;br&gt;먹을 수 있겠네요.</t>
-  </si>
-  <si>
-    <t>그러면 과일을&lt;br&gt;더 먹고 싶을 때 마다&lt;br&gt;먹을 수 있겠네요.</t>
-  </si>
-  <si>
-    <t>과일을 계속 먹을 수 있겠다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번에 책을 잔뜩 사서&lt;br&gt;책장 정리를 해야겠어요.</t>
-  </si>
-  <si>
-    <t>책장 정리는 어떻게&lt;br&gt;하는게 좋을까요?</t>
-  </si>
-  <si>
-    <t>그 편이 더욱 깔끔할 것 같네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 편이 더욱 쉬울 것 같네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숨바꼭질 하자!&lt;br&gt;나를 찾아봐~</t>
-  </si>
-  <si>
-    <t>잘 찾는 이유가 있었구나!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭔가 느껴지는 게 있구나!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음에 또 같이 놀자~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근데 누가 무슨 꽃을&lt;br&gt;좋아하는 지 모르겠네.</t>
-  </si>
-  <si>
-    <t>나를 도와 친구들의 집에&lt;br&gt;꽃을 선물해줄래?</t>
-  </si>
-  <si>
-    <t>친구들이 좋아했으면 좋겠다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요, 정령이여...&lt;br&gt;저는 정령들의 여신이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이곳에서 인간이 되려는&lt;br&gt;정령들을 인도하고 있죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 세상은 어땠나요?&lt;br&gt;당신의 감상을 말해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랬군요. 당신의 경험은 소중하죠.&lt;br&gt;인간이 되어서도&lt;br&gt;그건 마찬가지일 거예요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신이 이곳에서 겪은 일들은&lt;br&gt;인간이 되어서도 당신이라는&lt;br&gt;사람을 만들어 나가겠죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 인간 세상에서&lt;br&gt;많은 사람들을 도왔죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러면서 어떠한 것을 느꼈는지&lt;br&gt;물어봐도 될까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 좋은 답변이군요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 이곳에서 지내면서&lt;br&gt;별이라는 것을 모았을 거에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사실 이 별이라는 것은&lt;br&gt;당신이 인간의 마음을 알게 될 때&lt;br&gt;그것이 형체화 된 것이랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇기 때문에 그 별의 다른 이름은&lt;br&gt;마음의 조각이라고 하죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어때요, 참 흥미롭지 않나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후후, 좋습니다.&lt;br&gt;사실은 비밀 같은 건 아니거든요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 인간이 되기 위한 시련을&lt;br&gt;모두 마쳤습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 곧 당신은 진짜 인간이 되어&lt;br&gt;사람들과 함께 살아가게 될 거에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 인간성을&lt;br&gt;가지게 될 지 정하는 것이&lt;br&gt;제가 해야 하는 일이랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간이 된 당신이&lt;br&gt;어떻게 살아갈 건지 생각해보셨나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 좋은걸요.&lt;br&gt;어떻게 살아갈 것인지는&lt;br&gt;이제 당신의 자유죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제가 드리는 인간성은&lt;br&gt;그저 안내 역할을 할 뿐입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 이제 작별의 시간이네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 고생하셨어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저 또한 당신과 같은 정령,&lt;br&gt;아니, 인간과 만나서 참 다행입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부디, 인간이 되어&lt;br&gt;그대만의 삶을 살아가길 바랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕히,&lt;br&gt;이 세상에서 가장 인간다운 정령이여…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 정령들이 인간이 되기 위해서는&lt;br&gt;인간 세계를 경험해 봐야 하지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럴 땐 지도를 확인하면 돼 !&lt;br&gt;지도는 왼쪽 허리에 있어.</t>
-  </si>
-  <si>
-    <t>오, 생각보다 빨리 왔구나.&lt;br&gt;지도가 참 편리하지?</t>
-  </si>
-  <si>
-    <t>하지만, 보다시피&lt;br&gt;나는 손발이 없거든&lt;br&gt;너가 마침 도끼를 가지고 있네!</t>
-  </si>
-  <si>
-    <t>앗, 그러고 보니 나무가 쓰러지면서&lt;br&gt;뭔가가 떨어졌어 !</t>
-  </si>
-  <si>
-    <t>이건… 목재구나 !&lt;br&gt;일단 주워 놓는게 어떨까?&lt;br&gt;어디에 쓰일 지 모르니깐 말이야.</t>
-  </si>
-  <si>
-    <t>왔구나 !&lt;br&gt;여기가 바로&lt;br&gt;인간계로 가는 시험장이야.</t>
-  </si>
-  <si>
-    <t>그 말은 즉,&lt;br&gt;나에게 사과와 바나나를 주기 전까지&lt;br&gt;너는 나갈 수 없다는 말이다 !</t>
-  </si>
-  <si>
-    <t>자, 어서 사과와 바나나가 담긴&lt;br&gt;과일 바구니를 가져와라 !</t>
-  </si>
-  <si>
-    <t>오 ! 사과와 바나나를 가져왔군 !&lt;br&gt;그럼 약속대로 출구문을 열어주도록 하지!</t>
-  </si>
-  <si>
-    <t>시험은 통과다 !&lt;br&gt;그럼 잘 가라!</t>
-  </si>
-  <si>
-    <t>그래도…&lt;br&gt;들어가실 수 없습니다.</t>
-  </si>
-  <si>
-    <t>도와줘서 고마워.&lt;br&gt;덕분에 생각보다&lt;br&gt;빨리 파티를 열 수 있겠어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 제가 무엇을 해야 할지 알겠어요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음마저 활기차지는 오렌지 향이네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전시회에 출품할 옷이 필요해!&lt;br&gt;주제는 꽃이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세상에는 너무나 많은 게임들이 있어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양복 정리 중에 양복이&lt;br&gt;줄에 걸려버렸거든요…&lt;br&gt;가장 비싼 양복이라.. 빨리 해결을..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런데 이 생선.&lt;br&gt;어디서 온 건지 생각해 봤어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">고장 난 전등을&lt;br&gt;노란색 전구로 갈아주지 않을래? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제야 밝아졌네!&lt;br&gt;전구가 없었다면 어떻게 살았는지 몰라.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어쨌든 꼬마 네 덕분에 밝아져서 좋다.&lt;br&gt;고마워.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑자기 손님이 이렇게 몰려오다니!&lt;br&gt;수프를 다 완성하지 못했는데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나를 도와주지 않을래요?&lt;br&gt;재료를 수프에 넣으면 되는 일이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 나무 패는 일을&lt;br&gt;기피하는지 모르겠어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시, 도움을 조금 주시겠습니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무를 3개 캐서&lt;br&gt;테이블 위에 올려주시면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그나저나,&lt;br&gt;어떤 꼬맹이가 도자기를 깨더니&lt;br&gt;갑자기 우는 거 있지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라,&lt;br&gt;도자기가 어디 갔지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐,&lt;br&gt;그 도자기가 아니면 안 된다구!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런!&lt;br&gt;도자기가 여기 있었네~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진을 찍을 때&lt;br&gt;무엇을 더 중요시 해야 하는지&lt;br&gt;잊어버렸어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무토막을 화로에 넣고 불을 붙이라고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즘 작은 동물을 찾는 사람들이 많던데.&lt;br&gt;자네도 그런가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런 말 하기 뭐 하지만..&lt;br&gt;사실 작은 동물을 잡아 본 적이 없네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은 동물이라… 어떤 물건이 좋을까…&lt;br&gt;아. 도구상자는&lt;br&gt;동물 박제를 알맞은 자리에…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은 동물은 쉽게 잠들 수 있다.&lt;br&gt;이 말인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 기분이 안좋다고 해서 주는 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저희 고양이가 저기 위로 올라갔어요!&lt;br&gt;구해주세요…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 고맙습니다!&lt;br&gt;어쩌다 저기를 올라갔는지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 집으로 가자.&lt;br&gt;나비야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흐응.&lt;br&gt;오늘 향수를 살 것 같지는 않고.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책장 정리를 당장 시작해야 겠어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앗! 들켰네.&lt;br&gt;너 정말 숨바꼭질 잘한다~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 숨바꼭질 잘하고 싶은데…&lt;br&gt;비법이 뭐야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕 또 너구나!&lt;br&gt;마침 잘됐다.&lt;br&gt;친구들한테 선물을 주고 싶거든.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>또한 당신이 인간 세상에서 해왔던 일들,&lt;br&gt;겪었던 일들을 바탕으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스스로를 통해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 같은 그림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공감 가득&lt;br&gt;따듯한 모습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너무 설레!</t>
-  </si>
-  <si>
-    <t>혼자서 하는 게임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼자 집중해서&lt;br&gt;구경해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소수의 이웃들만&lt;br&gt;초대해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼자서 먹을&lt;br&gt;고기를 사려구요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색 구두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은색 양복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활기차지는 주스</t>
-  </si>
-  <si>
-    <t>바다나 양식장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸이 유연해서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘드시겠어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도자기를&lt;br&gt;치워야 해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진은 결과물이&lt;br&gt;중요해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난로에&lt;br&gt;가까이 붙어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마취제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소독약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이에게 눈을&lt;br&gt;때면 안돼요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>살 물품을 미리&lt;br&gt;정해놔요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미리 미리&lt;br&gt;사놔요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리화 해서&lt;br&gt;정리해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루트를 정해서&lt;br&gt;찾아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람들과 만나&lt;br&gt;좋았어요.</t>
-  </si>
-  <si>
-    <t>빨리 인간이&lt;br&gt;되고 싶었어요.</t>
-  </si>
-  <si>
-    <t>계획적인 사람이&lt;br&gt;되고 싶어요.</t>
-  </si>
-  <si>
-    <t>사람들을 통해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의미가 깊은 그림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제를 해결해&lt;br&gt;멋진 모습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 기분&lt;br&gt;만끽하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조금 걱정돼.</t>
-  </si>
-  <si>
-    <t>다같이 하는 게임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구들과 함께&lt;br&gt;구경해요.</t>
-  </si>
-  <si>
-    <t>동네 모든 사람을&lt;br&gt;초대해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기 파티를&lt;br&gt;열거에요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노란색 구두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노란색 양복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고요해지는 주스</t>
-  </si>
-  <si>
-    <t>먼 해양에서&lt;br&gt;가족을 떠나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반딧불이를&lt;br&gt;이용해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸이 액체라서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신기한 맛 양념</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우는 아이를&lt;br&gt;달래줘요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃다발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롤리팝 사탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찾아서&lt;br&gt;다행이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사고 싶을 때&lt;br&gt;사요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다 먹을때마다&lt;br&gt;사요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>느낌대로&lt;br&gt;정리해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러가지 탐험이&lt;br&gt;좋았어요.</t>
-  </si>
-  <si>
-    <t>사람들을 더&lt;br&gt;도우고 싶었어요.</t>
-  </si>
-  <si>
-    <t>그럴 거 같긴&lt;br&gt;했어요.</t>
-  </si>
-  <si>
-    <t>자유로운 사람이&lt;br&gt;되고 싶어요.</t>
-  </si>
-  <si>
-    <t>훈련생을 육성해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아요&lt;br&gt;아직도 추워요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양초를&lt;br&gt;이용해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알차게&lt;br&gt;계획 짜기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찍는 과정이&lt;br&gt;중요해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감으로&lt;br&gt;찾아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생각도&lt;br&gt;못했어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동은 좌측 스틱으로,&lt;br&gt;말을 걸 때는 나를 조준해서&lt;br&gt;X나 A 버튼을 누르면 돼!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2066,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD21"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2126,7 +2126,7 @@
         <v>301000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>300000</v>
@@ -2161,7 +2161,7 @@
         <v>301001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2">
         <v>300001</v>
@@ -2196,7 +2196,7 @@
         <v>301002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2">
         <v>300002</v>
@@ -2231,7 +2231,7 @@
         <v>301003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2">
         <v>300003</v>
@@ -2546,7 +2546,7 @@
         <v>301200</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2">
         <v>300200</v>
@@ -2581,7 +2581,7 @@
         <v>301201</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4">
         <v>300201</v>
@@ -2616,7 +2616,7 @@
         <v>301202</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2">
         <v>300202</v>
@@ -2651,7 +2651,7 @@
         <v>301203</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4">
         <v>300203</v>
@@ -2686,7 +2686,7 @@
         <v>301204</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2">
         <v>300204</v>
@@ -2721,7 +2721,7 @@
         <v>301205</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4">
         <v>300205</v>
@@ -2756,7 +2756,7 @@
         <v>301206</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2">
         <v>300206</v>
@@ -2826,7 +2826,7 @@
         <v>301301</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="4">
         <v>300301</v>
@@ -2861,7 +2861,7 @@
         <v>301302</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="4">
         <v>300302</v>
@@ -2896,7 +2896,7 @@
         <v>301400</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="4">
         <v>300400</v>
@@ -2931,7 +2931,7 @@
         <v>301401</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="4">
         <v>300401</v>
@@ -2966,7 +2966,7 @@
         <v>301402</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="4">
         <v>300402</v>
@@ -3001,7 +3001,7 @@
         <v>301404</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27" s="4">
         <v>300404</v>
@@ -3036,7 +3036,7 @@
         <v>301405</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4">
         <v>300405</v>
@@ -3071,7 +3071,7 @@
         <v>301406</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4">
         <v>300406</v>
@@ -3106,7 +3106,7 @@
         <v>301407</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" s="4">
         <v>300407</v>
@@ -3141,7 +3141,7 @@
         <v>301500</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2">
         <v>300500</v>
@@ -3176,7 +3176,7 @@
         <v>301501</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2">
         <v>300501</v>
@@ -3211,7 +3211,7 @@
         <v>301502</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2">
         <v>300502</v>
@@ -3246,7 +3246,7 @@
         <v>301503</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="2">
         <v>300503</v>
@@ -3281,7 +3281,7 @@
         <v>301504</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" s="2">
         <v>300504</v>
@@ -3316,7 +3316,7 @@
         <v>301600</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4">
         <v>300600</v>
@@ -3357,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A121" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3402,7 +3402,7 @@
         <v>300000</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>300000</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>300000</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4">
         <v>304003</v>
@@ -3468,7 +3468,7 @@
         <v>300000</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4">
         <v>302000</v>
@@ -3490,7 +3490,7 @@
         <v>300000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="4">
         <v>304005</v>
@@ -3512,7 +3512,7 @@
         <v>300000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>300001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>300001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>300001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="4">
         <v>304009</v>
@@ -3600,7 +3600,7 @@
         <v>300001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="4">
         <v>302001</v>
@@ -3622,7 +3622,7 @@
         <v>300001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="4">
         <v>304011</v>
@@ -3644,7 +3644,7 @@
         <v>300001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>300002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>300002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>300002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="4">
         <v>304015</v>
@@ -3732,7 +3732,7 @@
         <v>300002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4">
         <v>302002</v>
@@ -3754,7 +3754,7 @@
         <v>300002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" s="4">
         <v>304017</v>
@@ -3776,7 +3776,7 @@
         <v>300002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>300003</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>300003</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>300003</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D22" s="5">
         <v>304021</v>
@@ -3864,7 +3864,7 @@
         <v>300003</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4">
         <v>302003</v>
@@ -3886,7 +3886,7 @@
         <v>300003</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" s="4">
         <v>304023</v>
@@ -3908,7 +3908,7 @@
         <v>300003</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D25" s="4">
         <v>304024</v>
@@ -3930,7 +3930,7 @@
         <v>300003</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>300100</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D27" s="4">
         <v>304101</v>
@@ -3973,7 +3973,7 @@
         <v>300100</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D28" s="5">
         <v>304102</v>
@@ -3994,7 +3994,7 @@
         <v>300100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D29" s="5">
         <v>304103</v>
@@ -4015,7 +4015,7 @@
         <v>300100</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4">
         <v>304104</v>
@@ -4036,7 +4036,7 @@
         <v>300100</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="4">
         <v>304105</v>
@@ -4057,7 +4057,7 @@
         <v>300100</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" s="4">
         <v>304106</v>
@@ -4078,7 +4078,7 @@
         <v>300100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D33" s="4">
         <v>304107</v>
@@ -4099,7 +4099,7 @@
         <v>300100</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="5">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>300100</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" s="5">
         <v>304109</v>
@@ -4141,7 +4141,7 @@
         <v>300100</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D36" s="5">
         <v>304110</v>
@@ -4162,7 +4162,7 @@
         <v>300100</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D37" s="5">
         <v>304111</v>
@@ -4183,7 +4183,7 @@
         <v>300100</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D38" s="4">
         <v>304112</v>
@@ -4204,7 +4204,7 @@
         <v>300100</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" s="4">
         <v>304113</v>
@@ -4225,7 +4225,7 @@
         <v>300100</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D40" s="4">
         <v>304114</v>
@@ -4246,7 +4246,7 @@
         <v>300100</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="4">
         <v>304115</v>
@@ -4267,7 +4267,7 @@
         <v>300100</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="4">
         <v>304116</v>
@@ -4288,7 +4288,7 @@
         <v>300100</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>300100</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D44" s="4">
         <v>304118</v>
@@ -4330,7 +4330,7 @@
         <v>300100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="5">
         <v>304119</v>
@@ -4351,7 +4351,7 @@
         <v>300100</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="4">
         <v>304120</v>
@@ -4372,7 +4372,7 @@
         <v>300100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D47" s="5">
         <v>304121</v>
@@ -4393,7 +4393,7 @@
         <v>300100</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="4">
         <v>304122</v>
@@ -4414,7 +4414,7 @@
         <v>300100</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="5">
         <v>304123</v>
@@ -4435,7 +4435,7 @@
         <v>300100</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" s="4">
         <v>304124</v>
@@ -4456,7 +4456,7 @@
         <v>300100</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>300100</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" s="4">
         <v>304122</v>
@@ -4498,7 +4498,7 @@
         <v>300100</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53" s="4">
         <v>304127</v>
@@ -4519,7 +4519,7 @@
         <v>300100</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D54" s="5">
         <v>304128</v>
@@ -4540,7 +4540,7 @@
         <v>300100</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D55" s="4">
         <v>304129</v>
@@ -4561,7 +4561,7 @@
         <v>300100</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" s="5">
         <v>304130</v>
@@ -4582,7 +4582,7 @@
         <v>300100</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D57" s="4">
         <v>304131</v>
@@ -4603,7 +4603,7 @@
         <v>300100</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D58" s="5">
         <v>304132</v>
@@ -4624,7 +4624,7 @@
         <v>300100</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D59" s="5">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>300100</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D60" s="4">
         <v>304134</v>
@@ -4666,7 +4666,7 @@
         <v>300100</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" s="4">
         <v>304135</v>
@@ -4687,7 +4687,7 @@
         <v>300100</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D62" s="5">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>300100</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D63" s="4">
         <v>304137</v>
@@ -4729,7 +4729,7 @@
         <v>300100</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D64" s="5">
         <v>304138</v>
@@ -4750,7 +4750,7 @@
         <v>300100</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" s="4">
         <v>304139</v>
@@ -4771,7 +4771,7 @@
         <v>300100</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D66" s="5">
         <v>304140</v>
@@ -4792,7 +4792,7 @@
         <v>300100</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D67" s="4">
         <v>304141</v>
@@ -4813,7 +4813,7 @@
         <v>300100</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D68" s="5">
         <v>304142</v>
@@ -4834,7 +4834,7 @@
         <v>300100</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D69" s="4">
         <v>304143</v>
@@ -4855,7 +4855,7 @@
         <v>300100</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D70" s="5">
         <v>304144</v>
@@ -4876,7 +4876,7 @@
         <v>300100</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D71" s="4">
         <v>304145</v>
@@ -4897,7 +4897,7 @@
         <v>300100</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D72" s="5">
         <v>304146</v>
@@ -4918,7 +4918,7 @@
         <v>300100</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D73" s="4">
         <v>304147</v>
@@ -4939,7 +4939,7 @@
         <v>300100</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D74" s="4">
         <v>304148</v>
@@ -4960,7 +4960,7 @@
         <v>300100</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D75" s="5">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>300100</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D76" s="5">
         <v>304150</v>
@@ -5002,7 +5002,7 @@
         <v>300100</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D77" s="5">
         <v>304144</v>
@@ -5023,7 +5023,7 @@
         <v>300100</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D78" s="4">
         <v>304152</v>
@@ -5044,7 +5044,7 @@
         <v>300100</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79" s="5">
         <v>304153</v>
@@ -5065,7 +5065,7 @@
         <v>300100</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D80" s="4">
         <v>304154</v>
@@ -5086,7 +5086,7 @@
         <v>300100</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D81" s="5">
         <v>304155</v>
@@ -5107,7 +5107,7 @@
         <v>300100</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D82" s="4">
         <v>304156</v>
@@ -5128,7 +5128,7 @@
         <v>300100</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D83" s="5">
         <v>304157</v>
@@ -5149,7 +5149,7 @@
         <v>300100</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>300100</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D85" s="4">
         <v>304159</v>
@@ -5191,7 +5191,7 @@
         <v>300100</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D86" s="5">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>300100</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D87" s="5">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>300101</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D88" s="4">
         <v>304162</v>
@@ -5254,7 +5254,7 @@
         <v>300101</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D89" s="4">
         <v>304163</v>
@@ -5275,7 +5275,7 @@
         <v>300101</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D90" s="4">
         <v>304164</v>
@@ -5296,7 +5296,7 @@
         <v>300101</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D91" s="4">
         <v>304165</v>
@@ -5317,7 +5317,7 @@
         <v>300101</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D92" s="4">
         <v>304166</v>
@@ -5338,7 +5338,7 @@
         <v>300101</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D93" s="4">
         <v>304167</v>
@@ -5359,7 +5359,7 @@
         <v>300101</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D94" s="4">
         <v>304168</v>
@@ -5380,7 +5380,7 @@
         <v>300101</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D95" s="4">
         <v>304169</v>
@@ -5401,7 +5401,7 @@
         <v>300101</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>300101</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D97" s="5">
         <v>304171</v>
@@ -5443,7 +5443,7 @@
         <v>300101</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D98" s="5">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>300100</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D100" s="4">
         <v>304174</v>
@@ -5506,7 +5506,7 @@
         <v>300100</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D101" s="4">
         <v>304175</v>
@@ -5527,7 +5527,7 @@
         <v>300100</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D102" s="4">
         <v>304176</v>
@@ -5548,7 +5548,7 @@
         <v>300100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D103" s="4">
         <v>304177</v>
@@ -5611,7 +5611,7 @@
         <v>300100</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D106" s="4">
         <v>304181</v>
@@ -5632,7 +5632,7 @@
         <v>300100</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D107" s="4">
         <v>304181</v>
@@ -5653,7 +5653,7 @@
         <v>300100</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
@@ -5674,7 +5674,7 @@
         <v>300200</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D109" s="4">
         <v>304201</v>
@@ -5695,7 +5695,7 @@
         <v>300200</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D110" s="5">
         <v>304202</v>
@@ -5716,7 +5716,7 @@
         <v>300200</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D111" s="5">
         <v>304203</v>
@@ -5737,7 +5737,7 @@
         <v>300200</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D112" s="4">
         <v>302200</v>
@@ -5758,7 +5758,7 @@
         <v>300200</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D113" s="4">
         <v>304206</v>
@@ -5779,7 +5779,7 @@
         <v>300200</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D114" s="4">
         <v>304206</v>
@@ -5800,7 +5800,7 @@
         <v>300200</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D115" s="5">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>300201</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D116" s="5">
         <v>304208</v>
@@ -5842,7 +5842,7 @@
         <v>300201</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D117" s="4">
         <v>304209</v>
@@ -5863,7 +5863,7 @@
         <v>300201</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D118" s="5">
         <v>302201</v>
@@ -5884,7 +5884,7 @@
         <v>300201</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D119" s="4">
         <v>304212</v>
@@ -5905,7 +5905,7 @@
         <v>300201</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D120" s="5">
         <v>304212</v>
@@ -5927,7 +5927,7 @@
         <v>300201</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>300202</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D122" s="5">
         <v>304214</v>
@@ -5971,7 +5971,7 @@
         <v>300202</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D123" s="4">
         <v>304215</v>
@@ -5993,7 +5993,7 @@
         <v>300202</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D124" s="5">
         <v>302202</v>
@@ -6015,7 +6015,7 @@
         <v>300202</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D125" s="4">
         <v>304218</v>
@@ -6037,7 +6037,7 @@
         <v>300202</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D126" s="5">
         <v>304218</v>
@@ -6058,7 +6058,7 @@
         <v>300202</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D127" s="5">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>300203</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D128" s="5">
         <v>302203</v>
@@ -6100,7 +6100,7 @@
         <v>300203</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D129" s="5">
         <v>304222</v>
@@ -6121,7 +6121,7 @@
         <v>300203</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D130" s="5">
         <v>304222</v>
@@ -6142,7 +6142,7 @@
         <v>300203</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D131" s="5">
         <v>304223</v>
@@ -6163,7 +6163,7 @@
         <v>300203</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D132" s="5">
         <v>0</v>
@@ -6184,7 +6184,7 @@
         <v>300204</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D133" s="5">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>300204</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D134" s="5">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>300204</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D135" s="5">
         <v>302204</v>
@@ -6247,7 +6247,7 @@
         <v>300204</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D136" s="5">
         <v>304229</v>
@@ -6268,7 +6268,7 @@
         <v>300204</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D137" s="5">
         <v>304229</v>
@@ -6289,7 +6289,7 @@
         <v>300204</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D138" s="5">
         <v>304230</v>
@@ -6310,7 +6310,7 @@
         <v>300204</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D139" s="5">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>300205</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D140" s="5">
         <v>304232</v>
@@ -6352,7 +6352,7 @@
         <v>300205</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D141" s="5">
         <v>0</v>
@@ -6373,7 +6373,7 @@
         <v>300205</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D142" s="5">
         <v>0</v>
@@ -6394,7 +6394,7 @@
         <v>300205</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D143" s="5">
         <v>302205</v>
@@ -6415,7 +6415,7 @@
         <v>300205</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D144" s="5">
         <v>304237</v>
@@ -6436,7 +6436,7 @@
         <v>300205</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D145" s="5">
         <v>304237</v>
@@ -6457,7 +6457,7 @@
         <v>300205</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D146" s="5">
         <v>0</v>
@@ -6478,7 +6478,7 @@
         <v>300206</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D147" s="5">
         <v>304239</v>
@@ -6499,7 +6499,7 @@
         <v>300206</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D148" s="5">
         <v>304240</v>
@@ -6520,7 +6520,7 @@
         <v>300206</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D149" s="5">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>300206</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D150" s="5">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>300206</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D151" s="5">
         <v>302206</v>
@@ -6583,7 +6583,7 @@
         <v>300206</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D152" s="5">
         <v>304245</v>
@@ -6604,7 +6604,7 @@
         <v>300206</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D153" s="5">
         <v>304245</v>
@@ -6625,7 +6625,7 @@
         <v>300206</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D154" s="5">
         <v>304246</v>
@@ -6646,7 +6646,7 @@
         <v>300206</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D155" s="5">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         <v>300207</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D156" s="5">
         <v>304248</v>
@@ -6793,7 +6793,7 @@
         <v>300300</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D162" s="5">
         <v>0</v>
@@ -6814,7 +6814,7 @@
         <v>300300</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D163" s="5">
         <v>0</v>
@@ -6835,7 +6835,7 @@
         <v>300300</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D164" s="5">
         <v>304303</v>
@@ -6856,7 +6856,7 @@
         <v>300300</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D165" s="4">
         <v>302300</v>
@@ -6877,7 +6877,7 @@
         <v>300300</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D166" s="4">
         <v>304306</v>
@@ -6898,7 +6898,7 @@
         <v>300300</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D167" s="4">
         <v>304306</v>
@@ -6919,7 +6919,7 @@
         <v>300300</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D168" s="5">
         <v>0</v>
@@ -6940,7 +6940,7 @@
         <v>300301</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D169" s="5">
         <v>304308</v>
@@ -6961,7 +6961,7 @@
         <v>300301</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D170" s="5">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>300301</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D171" s="5">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>300301</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D172" s="5">
         <v>302301</v>
@@ -7024,7 +7024,7 @@
         <v>300301</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D173" s="5">
         <v>304313</v>
@@ -7045,7 +7045,7 @@
         <v>300301</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D174" s="5">
         <v>304313</v>
@@ -7066,7 +7066,7 @@
         <v>300301</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D175" s="5">
         <v>0</v>
@@ -7087,7 +7087,7 @@
         <v>300302</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D176" s="5">
         <v>304315</v>
@@ -7108,7 +7108,7 @@
         <v>300302</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D177" s="5">
         <v>302302</v>
@@ -7129,7 +7129,7 @@
         <v>300302</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D178" s="5">
         <v>304318</v>
@@ -7150,7 +7150,7 @@
         <v>300302</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D179" s="5">
         <v>304318</v>
@@ -7171,7 +7171,7 @@
         <v>300302</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D180" s="5">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>300303</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D181" s="4">
         <v>304320</v>
@@ -7213,7 +7213,7 @@
         <v>300303</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D182" s="5">
         <v>0</v>
@@ -7234,7 +7234,7 @@
         <v>300303</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D183" s="5">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>300303</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D184" s="4">
         <v>304323</v>
@@ -7276,7 +7276,7 @@
         <v>300303</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D185" s="4">
         <v>302303</v>
@@ -7297,7 +7297,7 @@
         <v>300303</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D186" s="4">
         <v>304326</v>
@@ -7318,7 +7318,7 @@
         <v>300303</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D187" s="4">
         <v>304326</v>
@@ -7339,7 +7339,7 @@
         <v>300303</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D188" s="5">
         <v>0</v>
@@ -7360,7 +7360,7 @@
         <v>300400</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D189" s="4">
         <v>304401</v>
@@ -7381,7 +7381,7 @@
         <v>300400</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D190" s="5">
         <v>302400</v>
@@ -7402,7 +7402,7 @@
         <v>300400</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D191" s="5">
         <v>304404</v>
@@ -7423,7 +7423,7 @@
         <v>300400</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D192" s="4">
         <v>304404</v>
@@ -7444,7 +7444,7 @@
         <v>300400</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D193" s="4">
         <v>304405</v>
@@ -7465,7 +7465,7 @@
         <v>300400</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D194" s="4">
         <v>304406</v>
@@ -7486,7 +7486,7 @@
         <v>300400</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D195" s="5">
         <v>0</v>
@@ -7507,7 +7507,7 @@
         <v>300401</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D196" s="5">
         <v>0</v>
@@ -7528,7 +7528,7 @@
         <v>300401</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D197" s="5">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>300401</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D198" s="4">
         <v>304410</v>
@@ -7570,7 +7570,7 @@
         <v>300401</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D199" s="4">
         <v>302401</v>
@@ -7591,7 +7591,7 @@
         <v>300401</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D200" s="4">
         <v>304413</v>
@@ -7612,7 +7612,7 @@
         <v>300401</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D201" s="4">
         <v>304413</v>
@@ -7633,7 +7633,7 @@
         <v>300401</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D202" s="5">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>300402</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D203" s="4">
         <v>304415</v>
@@ -7675,7 +7675,7 @@
         <v>300402</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D204" s="4">
         <v>304416</v>
@@ -7696,7 +7696,7 @@
         <v>300402</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D205" s="4">
         <v>302402</v>
@@ -7717,7 +7717,7 @@
         <v>300402</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D206" s="4">
         <v>304419</v>
@@ -7738,7 +7738,7 @@
         <v>300402</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D207" s="4">
         <v>304419</v>
@@ -7759,7 +7759,7 @@
         <v>300402</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D208" s="5">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>300403</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D209" s="4">
         <v>304421</v>
@@ -7801,7 +7801,7 @@
         <v>300403</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D210" s="5">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>300403</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D211" s="5">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>300403</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D212" s="4">
         <v>302403</v>
@@ -7864,7 +7864,7 @@
         <v>300403</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D213" s="4">
         <v>304426</v>
@@ -7885,7 +7885,7 @@
         <v>300403</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D214" s="4">
         <v>304426</v>
@@ -7906,7 +7906,7 @@
         <v>300403</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D215" s="5">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         <v>300404</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D216" s="5">
         <v>304428</v>
@@ -7948,7 +7948,7 @@
         <v>300404</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D217" s="5">
         <v>304429</v>
@@ -7969,7 +7969,7 @@
         <v>300404</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D218" s="5">
         <v>304430</v>
@@ -7990,7 +7990,7 @@
         <v>300404</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D219" s="5">
         <v>0</v>
@@ -8011,7 +8011,7 @@
         <v>300404</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D220" s="5">
         <v>0</v>
@@ -8032,7 +8032,7 @@
         <v>300404</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D221" s="5">
         <v>302404</v>
@@ -8053,7 +8053,7 @@
         <v>300404</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D222" s="5">
         <v>304435</v>
@@ -8074,7 +8074,7 @@
         <v>300404</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D223" s="5">
         <v>304435</v>
@@ -8095,7 +8095,7 @@
         <v>300404</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D224" s="5">
         <v>0</v>
@@ -8116,7 +8116,7 @@
         <v>300405</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D225" s="5">
         <v>304437</v>
@@ -8137,7 +8137,7 @@
         <v>300405</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D226" s="5">
         <v>0</v>
@@ -8158,7 +8158,7 @@
         <v>300405</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D227" s="5">
         <v>0</v>
@@ -8179,7 +8179,7 @@
         <v>300405</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D228" s="5">
         <v>302405</v>
@@ -8200,7 +8200,7 @@
         <v>300405</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D229" s="5">
         <v>304442</v>
@@ -8221,7 +8221,7 @@
         <v>300405</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D230" s="5">
         <v>304442</v>
@@ -8242,7 +8242,7 @@
         <v>300405</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D231" s="5">
         <v>304443</v>
@@ -8263,7 +8263,7 @@
         <v>300405</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D232" s="5">
         <v>0</v>
@@ -8284,7 +8284,7 @@
         <v>300406</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D233" s="5">
         <v>0</v>
@@ -8305,7 +8305,7 @@
         <v>300406</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D234" s="5">
         <v>0</v>
@@ -8326,7 +8326,7 @@
         <v>300406</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D235" s="5">
         <v>302406</v>
@@ -8347,7 +8347,7 @@
         <v>300406</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D236" s="5">
         <v>304449</v>
@@ -8368,7 +8368,7 @@
         <v>300406</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D237" s="5">
         <v>304449</v>
@@ -8389,7 +8389,7 @@
         <v>300406</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D238" s="5">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>300600</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D239" s="5">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>300600</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D240" s="5">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>300600</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D241" s="5">
         <v>302407</v>
@@ -8473,7 +8473,7 @@
         <v>300600</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D242" s="4">
         <v>304455</v>
@@ -8494,7 +8494,7 @@
         <v>300600</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D243" s="4">
         <v>304455</v>
@@ -8515,7 +8515,7 @@
         <v>300600</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D244" s="5">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>300500</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D245" s="4">
         <v>302500</v>
@@ -8557,7 +8557,7 @@
         <v>300500</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D246" s="4">
         <v>304503</v>
@@ -8578,7 +8578,7 @@
         <v>300500</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D247" s="4">
         <v>304503</v>
@@ -8599,7 +8599,7 @@
         <v>300500</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D248" s="4">
         <v>304504</v>
@@ -8620,7 +8620,7 @@
         <v>300500</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D249" s="4">
         <v>304505</v>
@@ -8641,7 +8641,7 @@
         <v>300500</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D250" s="5">
         <v>0</v>
@@ -8662,7 +8662,7 @@
         <v>300501</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D251" s="4">
         <v>304507</v>
@@ -8683,7 +8683,7 @@
         <v>300501</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D252" s="5">
         <v>302501</v>
@@ -8704,7 +8704,7 @@
         <v>300501</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D253" s="4">
         <v>304510</v>
@@ -8725,7 +8725,7 @@
         <v>300501</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D254" s="5">
         <v>304510</v>
@@ -8746,7 +8746,7 @@
         <v>300501</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D255" s="5">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>300502</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D256" s="5">
         <v>304512</v>
@@ -8788,7 +8788,7 @@
         <v>300502</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D257" s="5">
         <v>302502</v>
@@ -8809,7 +8809,7 @@
         <v>300502</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D258" s="5">
         <v>304515</v>
@@ -8830,7 +8830,7 @@
         <v>300502</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D259" s="5">
         <v>304515</v>
@@ -8851,7 +8851,7 @@
         <v>300502</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D260" s="5">
         <v>0</v>
@@ -8872,7 +8872,7 @@
         <v>300503</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D261" s="5">
         <v>0</v>
@@ -8893,7 +8893,7 @@
         <v>300504</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D262" s="5">
         <v>304518</v>
@@ -8914,7 +8914,7 @@
         <v>300504</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D263" s="5">
         <v>302503</v>
@@ -8935,7 +8935,7 @@
         <v>300504</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D264" s="5">
         <v>304521</v>
@@ -8956,7 +8956,7 @@
         <v>300504</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D265" s="5">
         <v>304521</v>
@@ -8977,7 +8977,7 @@
         <v>300504</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D266" s="5">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>300504</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D267" s="5">
         <v>304523</v>
@@ -9019,7 +9019,7 @@
         <v>300504</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D268" s="5">
         <v>304524</v>
@@ -9040,7 +9040,7 @@
         <v>300504</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D269" s="5">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>300504</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D270" s="5">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>300600</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D271" s="4">
         <v>304601</v>
@@ -9103,7 +9103,7 @@
         <v>300600</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D272" s="5">
         <v>304602</v>
@@ -9124,7 +9124,7 @@
         <v>300600</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D273" s="5">
         <v>302600</v>
@@ -9145,7 +9145,7 @@
         <v>300600</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D274" s="4">
         <v>304604</v>
@@ -9166,7 +9166,7 @@
         <v>300600</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D275" s="4">
         <v>304605</v>
@@ -9187,7 +9187,7 @@
         <v>300600</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D276" s="4">
         <v>304606</v>
@@ -9208,7 +9208,7 @@
         <v>300600</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D277" s="4">
         <v>302601</v>
@@ -9229,7 +9229,7 @@
         <v>300600</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D278" s="5">
         <v>304608</v>
@@ -9250,7 +9250,7 @@
         <v>300600</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D279" s="4">
         <v>304609</v>
@@ -9271,7 +9271,7 @@
         <v>300600</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D280" s="4">
         <v>304610</v>
@@ -9292,7 +9292,7 @@
         <v>300600</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D281" s="4">
         <v>304611</v>
@@ -9313,7 +9313,7 @@
         <v>300600</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D282" s="4">
         <v>302602</v>
@@ -9334,7 +9334,7 @@
         <v>300600</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D283" s="4">
         <v>304613</v>
@@ -9355,7 +9355,7 @@
         <v>300600</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D284" s="4">
         <v>304614</v>
@@ -9376,7 +9376,7 @@
         <v>300600</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D285" s="4">
         <v>304615</v>
@@ -9397,7 +9397,7 @@
         <v>300600</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D286" s="4">
         <v>304616</v>
@@ -9418,7 +9418,7 @@
         <v>300600</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D287" s="4">
         <v>304617</v>
@@ -9439,7 +9439,7 @@
         <v>300600</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D288" s="4">
         <v>302603</v>
@@ -9460,7 +9460,7 @@
         <v>300600</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D289" s="4">
         <v>304619</v>
@@ -9481,7 +9481,7 @@
         <v>300600</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D290" s="4">
         <v>304620</v>
@@ -9502,7 +9502,7 @@
         <v>300600</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D291" s="4">
         <v>304621</v>
@@ -9523,7 +9523,7 @@
         <v>300600</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D292" s="4">
         <v>304622</v>
@@ -9544,7 +9544,7 @@
         <v>300600</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D293" s="4">
         <v>304623</v>
@@ -9565,7 +9565,7 @@
         <v>300600</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D294" s="4">
         <v>304624</v>
@@ -9586,7 +9586,7 @@
         <v>300600</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D295" s="4">
         <v>0</v>
@@ -9660,7 +9660,7 @@
         <v>302000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C2" s="4">
         <v>304004</v>
@@ -9672,7 +9672,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G2" s="4">
         <v>304004</v>
@@ -9689,7 +9689,7 @@
         <v>302001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C3" s="4">
         <v>304010</v>
@@ -9701,7 +9701,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G3" s="4">
         <v>304010</v>
@@ -9718,7 +9718,7 @@
         <v>302002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C4" s="4">
         <v>304016</v>
@@ -9730,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G4" s="4">
         <v>304016</v>
@@ -9747,7 +9747,7 @@
         <v>302003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C5" s="4">
         <v>304022</v>
@@ -9759,7 +9759,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G5" s="4">
         <v>304022</v>
@@ -9776,7 +9776,7 @@
         <v>302100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C6" s="4">
         <v>304179</v>
@@ -9788,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G6" s="4">
         <v>304180</v>
@@ -9805,7 +9805,7 @@
         <v>302200</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C7" s="4">
         <v>304204</v>
@@ -9817,7 +9817,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G7" s="4">
         <v>304205</v>
@@ -9834,7 +9834,7 @@
         <v>302201</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C8" s="4">
         <v>304210</v>
@@ -9846,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G8" s="4">
         <v>304211</v>
@@ -9863,7 +9863,7 @@
         <v>302202</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C9" s="4">
         <v>304216</v>
@@ -9875,7 +9875,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G9" s="4">
         <v>304217</v>
@@ -9892,7 +9892,7 @@
         <v>302203</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C10" s="4">
         <v>304220</v>
@@ -9904,7 +9904,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G10" s="4">
         <v>304221</v>
@@ -9921,7 +9921,7 @@
         <v>302204</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C11" s="4">
         <v>304227</v>
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G11" s="4">
         <v>304228</v>
@@ -9950,7 +9950,7 @@
         <v>302205</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C12" s="4">
         <v>304235</v>
@@ -9962,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G12" s="4">
         <v>304236</v>
@@ -9979,7 +9979,7 @@
         <v>302206</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C13" s="4">
         <v>304243</v>
@@ -9991,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G13" s="4">
         <v>304244</v>
@@ -10008,7 +10008,7 @@
         <v>302300</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C14" s="4">
         <v>304304</v>
@@ -10020,7 +10020,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G14" s="4">
         <v>304305</v>
@@ -10037,7 +10037,7 @@
         <v>302301</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C15" s="4">
         <v>304311</v>
@@ -10049,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G15" s="4">
         <v>304312</v>
@@ -10066,7 +10066,7 @@
         <v>302302</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C16" s="4">
         <v>304316</v>
@@ -10078,7 +10078,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G16" s="4">
         <v>304317</v>
@@ -10107,7 +10107,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G17" s="4">
         <v>304325</v>
@@ -10124,7 +10124,7 @@
         <v>302400</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C18" s="4">
         <v>304402</v>
@@ -10136,7 +10136,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G18" s="4">
         <v>304403</v>
@@ -10153,7 +10153,7 @@
         <v>302401</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C19" s="7">
         <v>304411</v>
@@ -10165,7 +10165,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7">
         <v>304412</v>
@@ -10182,7 +10182,7 @@
         <v>302402</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C20" s="7">
         <v>304417</v>
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G20" s="7">
         <v>304418</v>
@@ -10211,7 +10211,7 @@
         <v>302403</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C21" s="7">
         <v>304424</v>
@@ -10223,7 +10223,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G21" s="7">
         <v>304425</v>
@@ -10240,7 +10240,7 @@
         <v>302404</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C22" s="7">
         <v>304433</v>
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7">
         <v>304434</v>
@@ -10269,7 +10269,7 @@
         <v>302405</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C23" s="7">
         <v>304440</v>
@@ -10281,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7">
         <v>304441</v>
@@ -10298,7 +10298,7 @@
         <v>302406</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C24" s="7">
         <v>304447</v>
@@ -10310,7 +10310,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G24" s="7">
         <v>304448</v>
@@ -10327,7 +10327,7 @@
         <v>302407</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C25" s="4">
         <v>304453</v>
@@ -10339,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G25" s="4">
         <v>304454</v>
@@ -10356,7 +10356,7 @@
         <v>302500</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C26" s="7">
         <v>304501</v>
@@ -10368,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G26" s="7">
         <v>304502</v>
@@ -10385,7 +10385,7 @@
         <v>302501</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C27" s="7">
         <v>304508</v>
@@ -10397,7 +10397,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G27" s="7">
         <v>304509</v>
@@ -10414,7 +10414,7 @@
         <v>302502</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C28" s="7">
         <v>304513</v>
@@ -10426,7 +10426,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G28" s="7">
         <v>304514</v>
@@ -10443,7 +10443,7 @@
         <v>302503</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C29" s="7">
         <v>304519</v>
@@ -10455,7 +10455,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G29" s="7">
         <v>304520</v>
@@ -10472,7 +10472,7 @@
         <v>302600</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C30" s="4">
         <v>304603</v>
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G30" s="4">
         <v>304603</v>
@@ -10501,7 +10501,7 @@
         <v>302601</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C31" s="4">
         <v>304607</v>
@@ -10513,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G31" s="4">
         <v>304607</v>
@@ -10530,7 +10530,7 @@
         <v>302602</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C32" s="4">
         <v>304612</v>
@@ -10542,7 +10542,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G32" s="4">
         <v>304612</v>
@@ -10559,7 +10559,7 @@
         <v>302603</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C33" s="4">
         <v>304618</v>
@@ -10571,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G33" s="4">
         <v>304618</v>
@@ -10591,10 +10591,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10676,7 +10676,7 @@
         <v>300101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1">
         <v>301107</v>
@@ -10775,7 +10775,7 @@
         <v>300301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>442</v>
       </c>
       <c r="C16" s="4">
         <v>301301</v>
@@ -10786,7 +10786,7 @@
         <v>300302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>443</v>
       </c>
       <c r="C17" s="4">
         <v>301302</v>
@@ -10830,7 +10830,7 @@
         <v>300404</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4">
         <v>301404</v>
@@ -10896,7 +10896,7 @@
         <v>300502</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2">
         <v>301502</v>
@@ -10907,7 +10907,7 @@
         <v>300503</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2">
         <v>301503</v>
@@ -10915,34 +10915,23 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>300504</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="2">
-        <v>301503</v>
+        <v>300600</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1">
+        <v>301600</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>300600</v>
+        <v>300700</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1">
-        <v>301600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>300700</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="1">
         <v>301700</v>
       </c>
     </row>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="12290"/>
   </bookViews>
   <sheets>
     <sheet name="QUEST_TABLE" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="CHOICE_TABLE" sheetId="3" r:id="rId3"/>
     <sheet name="NPC_TABLE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1719,7 +1714,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1844,7 +1839,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1879,7 +1874,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2056,7 +2051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2066,14 +2061,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
@@ -2082,11 +2077,11 @@
     <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2121,7 +2116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>301000</v>
       </c>
@@ -2156,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>301001</v>
       </c>
@@ -2191,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>301002</v>
       </c>
@@ -2226,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>301003</v>
       </c>
@@ -2261,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>301100</v>
       </c>
@@ -2296,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>301101</v>
       </c>
@@ -2331,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>301102</v>
       </c>
@@ -2366,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>301103</v>
       </c>
@@ -2401,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>301104</v>
       </c>
@@ -2436,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>301105</v>
       </c>
@@ -2471,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>301106</v>
       </c>
@@ -2506,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>301107</v>
       </c>
@@ -2541,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>301200</v>
       </c>
@@ -2576,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>301201</v>
       </c>
@@ -2611,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>301202</v>
       </c>
@@ -2646,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>301203</v>
       </c>
@@ -2681,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>301204</v>
       </c>
@@ -2698,10 +2693,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="2">
-        <v>103200</v>
+        <v>103011</v>
       </c>
       <c r="G18" s="2">
-        <v>103201</v>
+        <v>103012</v>
       </c>
       <c r="H18" s="2">
         <v>304224</v>
@@ -2716,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>301205</v>
       </c>
@@ -2733,10 +2728,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="2">
-        <v>106030</v>
+        <v>106002</v>
       </c>
       <c r="G19" s="2">
-        <v>106031</v>
+        <v>106003</v>
       </c>
       <c r="H19" s="2">
         <v>304231</v>
@@ -2751,7 +2746,7 @@
         <v>402013</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>301206</v>
       </c>
@@ -2786,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>301207</v>
       </c>
@@ -2821,7 +2816,7 @@
         <v>402006</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>301301</v>
       </c>
@@ -2856,7 +2851,7 @@
         <v>402008</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>301302</v>
       </c>
@@ -2891,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>301400</v>
       </c>
@@ -2926,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>301401</v>
       </c>
@@ -2961,7 +2956,7 @@
         <v>403003</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>301402</v>
       </c>
@@ -2996,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>301404</v>
       </c>
@@ -3013,10 +3008,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>106024</v>
+        <v>106000</v>
       </c>
       <c r="G27" s="2">
-        <v>106025</v>
+        <v>106001</v>
       </c>
       <c r="H27" s="4">
         <v>304427</v>
@@ -3031,7 +3026,7 @@
         <v>403002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>301405</v>
       </c>
@@ -3048,10 +3043,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>103202</v>
+        <v>103013</v>
       </c>
       <c r="G28" s="2">
-        <v>103203</v>
+        <v>103014</v>
       </c>
       <c r="H28" s="4">
         <v>304436</v>
@@ -3066,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>301406</v>
       </c>
@@ -3083,10 +3078,10 @@
         <v>2</v>
       </c>
       <c r="F29" s="2">
-        <v>103204</v>
+        <v>103015</v>
       </c>
       <c r="G29" s="2">
-        <v>103205</v>
+        <v>103016</v>
       </c>
       <c r="H29" s="4">
         <v>304444</v>
@@ -3101,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>301407</v>
       </c>
@@ -3136,7 +3131,7 @@
         <v>402012</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>301500</v>
       </c>
@@ -3171,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>301501</v>
       </c>
@@ -3206,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>301502</v>
       </c>
@@ -3241,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>301503</v>
       </c>
@@ -3276,7 +3271,7 @@
         <v>402011</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>301504</v>
       </c>
@@ -3311,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>301600</v>
       </c>
@@ -3357,23 +3352,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3394,7 +3390,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>304000</v>
       </c>
@@ -3416,7 +3412,7 @@
       <c r="K2" s="4"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>304001</v>
       </c>
@@ -3438,7 +3434,7 @@
       <c r="K3" s="4"/>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>304002</v>
       </c>
@@ -3460,7 +3456,7 @@
       <c r="K4" s="4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>304003</v>
       </c>
@@ -3482,7 +3478,7 @@
       <c r="K5" s="4"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>304004</v>
       </c>
@@ -3504,7 +3500,7 @@
       <c r="K6" s="4"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>304005</v>
       </c>
@@ -3526,7 +3522,7 @@
       <c r="K7" s="4"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>304006</v>
       </c>
@@ -3548,7 +3544,7 @@
       <c r="K8" s="4"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>304007</v>
       </c>
@@ -3570,7 +3566,7 @@
       <c r="K9" s="4"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>304008</v>
       </c>
@@ -3592,7 +3588,7 @@
       <c r="K10" s="4"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>304009</v>
       </c>
@@ -3614,7 +3610,7 @@
       <c r="K11" s="4"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>304010</v>
       </c>
@@ -3636,7 +3632,7 @@
       <c r="K12" s="4"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>304011</v>
       </c>
@@ -3658,7 +3654,7 @@
       <c r="K13" s="4"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>304012</v>
       </c>
@@ -3680,7 +3676,7 @@
       <c r="K14" s="4"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>304013</v>
       </c>
@@ -3702,7 +3698,7 @@
       <c r="K15" s="4"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>304014</v>
       </c>
@@ -3724,7 +3720,7 @@
       <c r="K16" s="4"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>304015</v>
       </c>
@@ -3746,7 +3742,7 @@
       <c r="K17" s="4"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>304016</v>
       </c>
@@ -3768,7 +3764,7 @@
       <c r="K18" s="4"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>304017</v>
       </c>
@@ -3790,7 +3786,7 @@
       <c r="K19" s="4"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>304018</v>
       </c>
@@ -3812,7 +3808,7 @@
       <c r="K20" s="4"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>304019</v>
       </c>
@@ -3834,7 +3830,7 @@
       <c r="K21" s="4"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>304020</v>
       </c>
@@ -3856,7 +3852,7 @@
       <c r="K22" s="4"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>304021</v>
       </c>
@@ -3878,7 +3874,7 @@
       <c r="K23" s="4"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>304022</v>
       </c>
@@ -3900,7 +3896,7 @@
       <c r="K24" s="4"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>304023</v>
       </c>
@@ -3922,7 +3918,7 @@
       <c r="K25" s="4"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>304024</v>
       </c>
@@ -3944,7 +3940,7 @@
       <c r="K26" s="4"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>304100</v>
       </c>
@@ -3965,7 +3961,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>304101</v>
       </c>
@@ -3986,7 +3982,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>304102</v>
       </c>
@@ -4007,7 +4003,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>304103</v>
       </c>
@@ -4028,7 +4024,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>304104</v>
       </c>
@@ -4049,7 +4045,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>304105</v>
       </c>
@@ -4070,7 +4066,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>304106</v>
       </c>
@@ -4091,7 +4087,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>304107</v>
       </c>
@@ -4112,7 +4108,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>304108</v>
       </c>
@@ -4133,7 +4129,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>304109</v>
       </c>
@@ -4154,7 +4150,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>304110</v>
       </c>
@@ -4175,7 +4171,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>304111</v>
       </c>
@@ -4196,7 +4192,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>304112</v>
       </c>
@@ -4217,7 +4213,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>304113</v>
       </c>
@@ -4238,7 +4234,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>304114</v>
       </c>
@@ -4259,7 +4255,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>304115</v>
       </c>
@@ -4280,7 +4276,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>304116</v>
       </c>
@@ -4301,7 +4297,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>304117</v>
       </c>
@@ -4322,7 +4318,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>304118</v>
       </c>
@@ -4343,7 +4339,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>304119</v>
       </c>
@@ -4364,7 +4360,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>304120</v>
       </c>
@@ -4385,7 +4381,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>304121</v>
       </c>
@@ -4406,7 +4402,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <v>304122</v>
       </c>
@@ -4427,7 +4423,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
         <v>304123</v>
       </c>
@@ -4448,7 +4444,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>304124</v>
       </c>
@@ -4469,7 +4465,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
         <v>304125</v>
       </c>
@@ -4490,7 +4486,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
         <v>304126</v>
       </c>
@@ -4511,7 +4507,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
         <v>304127</v>
       </c>
@@ -4532,7 +4528,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
         <v>304128</v>
       </c>
@@ -4553,7 +4549,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
         <v>304129</v>
       </c>
@@ -4574,7 +4570,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
         <v>304130</v>
       </c>
@@ -4595,7 +4591,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
         <v>304131</v>
       </c>
@@ -4616,7 +4612,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
         <v>304132</v>
       </c>
@@ -4637,7 +4633,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
         <v>304133</v>
       </c>
@@ -4658,7 +4654,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
         <v>304134</v>
       </c>
@@ -4679,7 +4675,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
         <v>304135</v>
       </c>
@@ -4700,7 +4696,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="4">
         <v>304136</v>
       </c>
@@ -4721,7 +4717,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="4">
         <v>304137</v>
       </c>
@@ -4742,7 +4738,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
         <v>304138</v>
       </c>
@@ -4763,7 +4759,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="4">
         <v>304139</v>
       </c>
@@ -4784,7 +4780,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="4">
         <v>304140</v>
       </c>
@@ -4805,7 +4801,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="4">
         <v>304141</v>
       </c>
@@ -4826,7 +4822,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="4">
         <v>304142</v>
       </c>
@@ -4847,7 +4843,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="4">
         <v>304143</v>
       </c>
@@ -4868,7 +4864,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="4">
         <v>304144</v>
       </c>
@@ -4889,7 +4885,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="4">
         <v>304145</v>
       </c>
@@ -4910,7 +4906,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="4">
         <v>304146</v>
       </c>
@@ -4931,7 +4927,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="4">
         <v>304147</v>
       </c>
@@ -4952,7 +4948,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="4">
         <v>304148</v>
       </c>
@@ -4973,7 +4969,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="4">
         <v>304149</v>
       </c>
@@ -4994,7 +4990,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="4">
         <v>304150</v>
       </c>
@@ -5015,7 +5011,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
         <v>304151</v>
       </c>
@@ -5036,7 +5032,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="4">
         <v>304152</v>
       </c>
@@ -5057,7 +5053,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="4">
         <v>304153</v>
       </c>
@@ -5078,7 +5074,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="4">
         <v>304154</v>
       </c>
@@ -5099,7 +5095,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="4">
         <v>304155</v>
       </c>
@@ -5120,7 +5116,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="4">
         <v>304156</v>
       </c>
@@ -5141,7 +5137,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="4">
         <v>304157</v>
       </c>
@@ -5162,7 +5158,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="4">
         <v>304158</v>
       </c>
@@ -5183,7 +5179,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="4">
         <v>304159</v>
       </c>
@@ -5204,7 +5200,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="4">
         <v>304160</v>
       </c>
@@ -5225,7 +5221,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="4">
         <v>304161</v>
       </c>
@@ -5246,7 +5242,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="4">
         <v>304162</v>
       </c>
@@ -5267,7 +5263,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="4">
         <v>304163</v>
       </c>
@@ -5288,7 +5284,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="4">
         <v>304164</v>
       </c>
@@ -5309,7 +5305,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="4">
         <v>304165</v>
       </c>
@@ -5330,7 +5326,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="4">
         <v>304166</v>
       </c>
@@ -5351,7 +5347,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="4">
         <v>304167</v>
       </c>
@@ -5372,7 +5368,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="4">
         <v>304168</v>
       </c>
@@ -5393,7 +5389,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="4">
         <v>304169</v>
       </c>
@@ -5414,7 +5410,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="4">
         <v>304170</v>
       </c>
@@ -5435,7 +5431,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="4">
         <v>304171</v>
       </c>
@@ -5456,7 +5452,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="4">
         <v>304172</v>
       </c>
@@ -5477,7 +5473,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="4">
         <v>304173</v>
       </c>
@@ -5498,7 +5494,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="4">
         <v>304174</v>
       </c>
@@ -5519,7 +5515,7 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="4">
         <v>304175</v>
       </c>
@@ -5540,7 +5536,7 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="4">
         <v>304176</v>
       </c>
@@ -5561,7 +5557,7 @@
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="4">
         <v>304177</v>
       </c>
@@ -5582,7 +5578,7 @@
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="4">
         <v>304178</v>
       </c>
@@ -5603,7 +5599,7 @@
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="4">
         <v>304179</v>
       </c>
@@ -5624,7 +5620,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="4">
         <v>304180</v>
       </c>
@@ -5645,7 +5641,7 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="4">
         <v>304181</v>
       </c>
@@ -5666,7 +5662,7 @@
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="4">
         <v>304200</v>
       </c>
@@ -5687,7 +5683,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="4">
         <v>304201</v>
       </c>
@@ -5708,7 +5704,7 @@
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="4">
         <v>304202</v>
       </c>
@@ -5729,7 +5725,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="4">
         <v>304203</v>
       </c>
@@ -5750,7 +5746,7 @@
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="4">
         <v>304204</v>
       </c>
@@ -5771,7 +5767,7 @@
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="4">
         <v>304205</v>
       </c>
@@ -5792,7 +5788,7 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="4">
         <v>304206</v>
       </c>
@@ -5813,7 +5809,7 @@
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="4">
         <v>304207</v>
       </c>
@@ -5834,7 +5830,7 @@
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="4">
         <v>304208</v>
       </c>
@@ -5855,7 +5851,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="4">
         <v>304209</v>
       </c>
@@ -5876,7 +5872,7 @@
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="4">
         <v>304210</v>
       </c>
@@ -5897,7 +5893,7 @@
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
     </row>
-    <row r="120" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="4">
         <v>304211</v>
       </c>
@@ -5919,7 +5915,7 @@
       <c r="K120" s="4"/>
       <c r="L120"/>
     </row>
-    <row r="121" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="4">
         <v>304212</v>
       </c>
@@ -5941,7 +5937,7 @@
       <c r="K121" s="4"/>
       <c r="L121"/>
     </row>
-    <row r="122" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="4">
         <v>304213</v>
       </c>
@@ -5963,7 +5959,7 @@
       <c r="K122" s="4"/>
       <c r="L122"/>
     </row>
-    <row r="123" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="4">
         <v>304214</v>
       </c>
@@ -5985,7 +5981,7 @@
       <c r="K123" s="4"/>
       <c r="L123"/>
     </row>
-    <row r="124" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A124" s="4">
         <v>304215</v>
       </c>
@@ -6007,7 +6003,7 @@
       <c r="K124" s="4"/>
       <c r="L124"/>
     </row>
-    <row r="125" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A125" s="4">
         <v>304216</v>
       </c>
@@ -6029,7 +6025,7 @@
       <c r="K125" s="4"/>
       <c r="L125"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="4">
         <v>304217</v>
       </c>
@@ -6050,7 +6046,7 @@
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="4">
         <v>304218</v>
       </c>
@@ -6071,7 +6067,7 @@
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="4">
         <v>304219</v>
       </c>
@@ -6092,7 +6088,7 @@
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129" s="4">
         <v>304220</v>
       </c>
@@ -6113,7 +6109,7 @@
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" s="4">
         <v>304221</v>
       </c>
@@ -6134,7 +6130,7 @@
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" s="4">
         <v>304222</v>
       </c>
@@ -6155,7 +6151,7 @@
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132" s="4">
         <v>304223</v>
       </c>
@@ -6176,7 +6172,7 @@
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133" s="4">
         <v>304224</v>
       </c>
@@ -6197,7 +6193,7 @@
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134" s="4">
         <v>304225</v>
       </c>
@@ -6218,7 +6214,7 @@
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135" s="4">
         <v>304226</v>
       </c>
@@ -6239,7 +6235,7 @@
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136" s="4">
         <v>304227</v>
       </c>
@@ -6260,7 +6256,7 @@
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137" s="4">
         <v>304228</v>
       </c>
@@ -6281,7 +6277,7 @@
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138" s="4">
         <v>304229</v>
       </c>
@@ -6302,7 +6298,7 @@
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139" s="4">
         <v>304230</v>
       </c>
@@ -6323,7 +6319,7 @@
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140" s="4">
         <v>304231</v>
       </c>
@@ -6344,7 +6340,7 @@
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" s="4">
         <v>304232</v>
       </c>
@@ -6365,7 +6361,7 @@
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142" s="4">
         <v>304233</v>
       </c>
@@ -6386,7 +6382,7 @@
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143" s="4">
         <v>304234</v>
       </c>
@@ -6407,7 +6403,7 @@
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" s="4">
         <v>304235</v>
       </c>
@@ -6428,7 +6424,7 @@
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="4">
         <v>304236</v>
       </c>
@@ -6449,7 +6445,7 @@
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="4">
         <v>304237</v>
       </c>
@@ -6470,7 +6466,7 @@
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="4">
         <v>304238</v>
       </c>
@@ -6491,7 +6487,7 @@
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="4">
         <v>304239</v>
       </c>
@@ -6512,7 +6508,7 @@
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="4">
         <v>304240</v>
       </c>
@@ -6533,7 +6529,7 @@
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="4">
         <v>304241</v>
       </c>
@@ -6554,7 +6550,7 @@
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="4">
         <v>304242</v>
       </c>
@@ -6575,7 +6571,7 @@
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="4">
         <v>304243</v>
       </c>
@@ -6596,7 +6592,7 @@
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="4">
         <v>304244</v>
       </c>
@@ -6617,7 +6613,7 @@
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="4">
         <v>304245</v>
       </c>
@@ -6638,7 +6634,7 @@
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="4">
         <v>304246</v>
       </c>
@@ -6659,7 +6655,7 @@
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="4">
         <v>304247</v>
       </c>
@@ -6680,7 +6676,7 @@
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="4">
         <v>304248</v>
       </c>
@@ -6701,7 +6697,7 @@
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="4">
         <v>304249</v>
       </c>
@@ -6722,7 +6718,7 @@
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="4">
         <v>304250</v>
       </c>
@@ -6743,7 +6739,7 @@
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="4">
         <v>304251</v>
       </c>
@@ -6764,7 +6760,7 @@
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161" s="4">
         <v>304252</v>
       </c>
@@ -6785,7 +6781,7 @@
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="4">
         <v>304300</v>
       </c>
@@ -6806,7 +6802,7 @@
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A163" s="4">
         <v>304301</v>
       </c>
@@ -6827,7 +6823,7 @@
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" s="4">
         <v>304302</v>
       </c>
@@ -6848,7 +6844,7 @@
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A165" s="4">
         <v>304303</v>
       </c>
@@ -6869,7 +6865,7 @@
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" s="4">
         <v>304304</v>
       </c>
@@ -6890,7 +6886,7 @@
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A167" s="4">
         <v>304305</v>
       </c>
@@ -6911,7 +6907,7 @@
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" s="4">
         <v>304306</v>
       </c>
@@ -6932,7 +6928,7 @@
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A169" s="4">
         <v>304307</v>
       </c>
@@ -6953,7 +6949,7 @@
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170" s="4">
         <v>304308</v>
       </c>
@@ -6974,7 +6970,7 @@
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A171" s="4">
         <v>304309</v>
       </c>
@@ -6995,7 +6991,7 @@
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" s="4">
         <v>304310</v>
       </c>
@@ -7016,7 +7012,7 @@
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A173" s="4">
         <v>304311</v>
       </c>
@@ -7037,7 +7033,7 @@
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A174" s="4">
         <v>304312</v>
       </c>
@@ -7058,7 +7054,7 @@
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A175" s="4">
         <v>304313</v>
       </c>
@@ -7079,7 +7075,7 @@
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A176" s="4">
         <v>304314</v>
       </c>
@@ -7100,7 +7096,7 @@
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A177" s="4">
         <v>304315</v>
       </c>
@@ -7121,7 +7117,7 @@
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A178" s="4">
         <v>304316</v>
       </c>
@@ -7142,7 +7138,7 @@
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A179" s="4">
         <v>304317</v>
       </c>
@@ -7163,7 +7159,7 @@
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A180" s="4">
         <v>304318</v>
       </c>
@@ -7184,7 +7180,7 @@
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A181" s="4">
         <v>304319</v>
       </c>
@@ -7205,7 +7201,7 @@
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A182" s="4">
         <v>304320</v>
       </c>
@@ -7226,7 +7222,7 @@
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A183" s="4">
         <v>304321</v>
       </c>
@@ -7247,7 +7243,7 @@
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A184" s="4">
         <v>304322</v>
       </c>
@@ -7268,7 +7264,7 @@
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A185" s="4">
         <v>304323</v>
       </c>
@@ -7289,7 +7285,7 @@
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A186" s="4">
         <v>304324</v>
       </c>
@@ -7310,7 +7306,7 @@
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A187" s="4">
         <v>304325</v>
       </c>
@@ -7331,7 +7327,7 @@
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A188" s="4">
         <v>304326</v>
       </c>
@@ -7352,7 +7348,7 @@
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A189" s="4">
         <v>304400</v>
       </c>
@@ -7373,7 +7369,7 @@
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A190" s="4">
         <v>304401</v>
       </c>
@@ -7394,7 +7390,7 @@
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A191" s="4">
         <v>304402</v>
       </c>
@@ -7415,7 +7411,7 @@
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A192" s="4">
         <v>304403</v>
       </c>
@@ -7436,7 +7432,7 @@
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193" s="4">
         <v>304404</v>
       </c>
@@ -7457,7 +7453,7 @@
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194" s="4">
         <v>304405</v>
       </c>
@@ -7478,7 +7474,7 @@
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195" s="4">
         <v>304406</v>
       </c>
@@ -7499,7 +7495,7 @@
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196" s="4">
         <v>304407</v>
       </c>
@@ -7520,7 +7516,7 @@
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197" s="4">
         <v>304408</v>
       </c>
@@ -7541,7 +7537,7 @@
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198" s="4">
         <v>304409</v>
       </c>
@@ -7562,7 +7558,7 @@
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199" s="4">
         <v>304410</v>
       </c>
@@ -7583,7 +7579,7 @@
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200" s="4">
         <v>304411</v>
       </c>
@@ -7604,7 +7600,7 @@
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201" s="4">
         <v>304412</v>
       </c>
@@ -7625,7 +7621,7 @@
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202" s="4">
         <v>304413</v>
       </c>
@@ -7646,7 +7642,7 @@
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203" s="4">
         <v>304414</v>
       </c>
@@ -7667,7 +7663,7 @@
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204" s="4">
         <v>304415</v>
       </c>
@@ -7688,7 +7684,7 @@
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205" s="4">
         <v>304416</v>
       </c>
@@ -7709,7 +7705,7 @@
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A206" s="4">
         <v>304417</v>
       </c>
@@ -7730,7 +7726,7 @@
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207" s="4">
         <v>304418</v>
       </c>
@@ -7751,7 +7747,7 @@
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208" s="4">
         <v>304419</v>
       </c>
@@ -7772,7 +7768,7 @@
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A209" s="4">
         <v>304420</v>
       </c>
@@ -7793,7 +7789,7 @@
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A210" s="4">
         <v>304421</v>
       </c>
@@ -7814,7 +7810,7 @@
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A211" s="4">
         <v>304422</v>
       </c>
@@ -7835,7 +7831,7 @@
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A212" s="4">
         <v>304423</v>
       </c>
@@ -7856,7 +7852,7 @@
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A213" s="4">
         <v>304424</v>
       </c>
@@ -7877,7 +7873,7 @@
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A214" s="4">
         <v>304425</v>
       </c>
@@ -7898,7 +7894,7 @@
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A215" s="4">
         <v>304426</v>
       </c>
@@ -7919,7 +7915,7 @@
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A216" s="4">
         <v>304427</v>
       </c>
@@ -7940,7 +7936,7 @@
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A217" s="4">
         <v>304428</v>
       </c>
@@ -7961,7 +7957,7 @@
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A218" s="4">
         <v>304429</v>
       </c>
@@ -7982,7 +7978,7 @@
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A219" s="4">
         <v>304430</v>
       </c>
@@ -8003,7 +7999,7 @@
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A220" s="4">
         <v>304431</v>
       </c>
@@ -8024,7 +8020,7 @@
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A221" s="4">
         <v>304432</v>
       </c>
@@ -8045,7 +8041,7 @@
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A222" s="4">
         <v>304433</v>
       </c>
@@ -8066,7 +8062,7 @@
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A223" s="4">
         <v>304434</v>
       </c>
@@ -8087,7 +8083,7 @@
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A224" s="4">
         <v>304435</v>
       </c>
@@ -8108,7 +8104,7 @@
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A225" s="4">
         <v>304436</v>
       </c>
@@ -8129,7 +8125,7 @@
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A226" s="4">
         <v>304437</v>
       </c>
@@ -8150,7 +8146,7 @@
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A227" s="4">
         <v>304438</v>
       </c>
@@ -8171,7 +8167,7 @@
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A228" s="4">
         <v>304439</v>
       </c>
@@ -8192,7 +8188,7 @@
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A229" s="4">
         <v>304440</v>
       </c>
@@ -8213,7 +8209,7 @@
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A230" s="4">
         <v>304441</v>
       </c>
@@ -8234,7 +8230,7 @@
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A231" s="4">
         <v>304442</v>
       </c>
@@ -8255,7 +8251,7 @@
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A232" s="4">
         <v>304443</v>
       </c>
@@ -8276,7 +8272,7 @@
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A233" s="4">
         <v>304444</v>
       </c>
@@ -8297,7 +8293,7 @@
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A234" s="4">
         <v>304445</v>
       </c>
@@ -8318,7 +8314,7 @@
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A235" s="4">
         <v>304446</v>
       </c>
@@ -8339,7 +8335,7 @@
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A236" s="4">
         <v>304447</v>
       </c>
@@ -8360,7 +8356,7 @@
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A237" s="4">
         <v>304448</v>
       </c>
@@ -8381,7 +8377,7 @@
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A238" s="4">
         <v>304449</v>
       </c>
@@ -8402,7 +8398,7 @@
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A239" s="4">
         <v>304450</v>
       </c>
@@ -8423,7 +8419,7 @@
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A240" s="4">
         <v>304451</v>
       </c>
@@ -8444,7 +8440,7 @@
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A241" s="4">
         <v>304452</v>
       </c>
@@ -8465,7 +8461,7 @@
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A242" s="4">
         <v>304453</v>
       </c>
@@ -8486,7 +8482,7 @@
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A243" s="4">
         <v>304454</v>
       </c>
@@ -8507,7 +8503,7 @@
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A244" s="4">
         <v>304455</v>
       </c>
@@ -8528,7 +8524,7 @@
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A245" s="4">
         <v>304500</v>
       </c>
@@ -8549,7 +8545,7 @@
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A246" s="4">
         <v>304501</v>
       </c>
@@ -8570,7 +8566,7 @@
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A247" s="4">
         <v>304502</v>
       </c>
@@ -8591,7 +8587,7 @@
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A248" s="4">
         <v>304503</v>
       </c>
@@ -8612,7 +8608,7 @@
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A249" s="4">
         <v>304504</v>
       </c>
@@ -8633,7 +8629,7 @@
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A250" s="4">
         <v>304505</v>
       </c>
@@ -8654,7 +8650,7 @@
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A251" s="4">
         <v>304506</v>
       </c>
@@ -8675,7 +8671,7 @@
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A252" s="4">
         <v>304507</v>
       </c>
@@ -8696,7 +8692,7 @@
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A253" s="4">
         <v>304508</v>
       </c>
@@ -8717,7 +8713,7 @@
       <c r="J253" s="4"/>
       <c r="K253" s="4"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A254" s="4">
         <v>304509</v>
       </c>
@@ -8738,7 +8734,7 @@
       <c r="J254" s="4"/>
       <c r="K254" s="4"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A255" s="4">
         <v>304510</v>
       </c>
@@ -8759,7 +8755,7 @@
       <c r="J255" s="4"/>
       <c r="K255" s="4"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A256" s="4">
         <v>304511</v>
       </c>
@@ -8780,7 +8776,7 @@
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A257" s="4">
         <v>304512</v>
       </c>
@@ -8801,7 +8797,7 @@
       <c r="J257" s="4"/>
       <c r="K257" s="4"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A258" s="4">
         <v>304513</v>
       </c>
@@ -8822,7 +8818,7 @@
       <c r="J258" s="4"/>
       <c r="K258" s="4"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A259" s="4">
         <v>304514</v>
       </c>
@@ -8843,7 +8839,7 @@
       <c r="J259" s="4"/>
       <c r="K259" s="4"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A260" s="4">
         <v>304515</v>
       </c>
@@ -8864,7 +8860,7 @@
       <c r="J260" s="4"/>
       <c r="K260" s="4"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A261" s="4">
         <v>304516</v>
       </c>
@@ -8885,7 +8881,7 @@
       <c r="J261" s="4"/>
       <c r="K261" s="4"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A262" s="4">
         <v>304517</v>
       </c>
@@ -8906,7 +8902,7 @@
       <c r="J262" s="4"/>
       <c r="K262" s="4"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A263" s="4">
         <v>304518</v>
       </c>
@@ -8927,7 +8923,7 @@
       <c r="J263" s="4"/>
       <c r="K263" s="4"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A264" s="4">
         <v>304519</v>
       </c>
@@ -8948,7 +8944,7 @@
       <c r="J264" s="4"/>
       <c r="K264" s="4"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A265" s="4">
         <v>304520</v>
       </c>
@@ -8969,7 +8965,7 @@
       <c r="J265" s="4"/>
       <c r="K265" s="4"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A266" s="4">
         <v>304521</v>
       </c>
@@ -8990,7 +8986,7 @@
       <c r="J266" s="4"/>
       <c r="K266" s="4"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A267" s="4">
         <v>304522</v>
       </c>
@@ -9011,7 +9007,7 @@
       <c r="J267" s="4"/>
       <c r="K267" s="4"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A268" s="4">
         <v>304523</v>
       </c>
@@ -9032,7 +9028,7 @@
       <c r="J268" s="4"/>
       <c r="K268" s="4"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A269" s="4">
         <v>304524</v>
       </c>
@@ -9053,7 +9049,7 @@
       <c r="J269" s="4"/>
       <c r="K269" s="4"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A270" s="4">
         <v>304525</v>
       </c>
@@ -9074,7 +9070,7 @@
       <c r="J270" s="4"/>
       <c r="K270" s="4"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A271" s="4">
         <v>304600</v>
       </c>
@@ -9095,7 +9091,7 @@
       <c r="J271" s="4"/>
       <c r="K271" s="4"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A272" s="4">
         <v>304601</v>
       </c>
@@ -9116,7 +9112,7 @@
       <c r="J272" s="4"/>
       <c r="K272" s="4"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A273" s="4">
         <v>304602</v>
       </c>
@@ -9137,7 +9133,7 @@
       <c r="J273" s="4"/>
       <c r="K273" s="4"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A274" s="4">
         <v>304603</v>
       </c>
@@ -9158,7 +9154,7 @@
       <c r="J274" s="4"/>
       <c r="K274" s="4"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A275" s="4">
         <v>304604</v>
       </c>
@@ -9179,7 +9175,7 @@
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A276" s="4">
         <v>304605</v>
       </c>
@@ -9200,7 +9196,7 @@
       <c r="J276" s="4"/>
       <c r="K276" s="4"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A277" s="4">
         <v>304606</v>
       </c>
@@ -9221,7 +9217,7 @@
       <c r="J277" s="4"/>
       <c r="K277" s="4"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A278" s="4">
         <v>304607</v>
       </c>
@@ -9242,7 +9238,7 @@
       <c r="J278" s="4"/>
       <c r="K278" s="4"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A279" s="4">
         <v>304608</v>
       </c>
@@ -9263,7 +9259,7 @@
       <c r="J279" s="4"/>
       <c r="K279" s="4"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A280" s="4">
         <v>304609</v>
       </c>
@@ -9284,7 +9280,7 @@
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A281" s="4">
         <v>304610</v>
       </c>
@@ -9305,7 +9301,7 @@
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A282" s="4">
         <v>304611</v>
       </c>
@@ -9326,7 +9322,7 @@
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A283" s="4">
         <v>304612</v>
       </c>
@@ -9347,7 +9343,7 @@
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A284" s="4">
         <v>304613</v>
       </c>
@@ -9368,7 +9364,7 @@
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A285" s="4">
         <v>304614</v>
       </c>
@@ -9389,7 +9385,7 @@
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A286" s="4">
         <v>304615</v>
       </c>
@@ -9410,7 +9406,7 @@
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A287" s="4">
         <v>304616</v>
       </c>
@@ -9431,7 +9427,7 @@
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A288" s="4">
         <v>304617</v>
       </c>
@@ -9452,7 +9448,7 @@
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A289" s="4">
         <v>304618</v>
       </c>
@@ -9473,7 +9469,7 @@
       <c r="J289" s="4"/>
       <c r="K289" s="4"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A290" s="4">
         <v>304619</v>
       </c>
@@ -9494,7 +9490,7 @@
       <c r="J290" s="4"/>
       <c r="K290" s="4"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A291" s="4">
         <v>304620</v>
       </c>
@@ -9515,7 +9511,7 @@
       <c r="J291" s="4"/>
       <c r="K291" s="4"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A292" s="4">
         <v>304621</v>
       </c>
@@ -9536,7 +9532,7 @@
       <c r="J292" s="4"/>
       <c r="K292" s="4"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A293" s="4">
         <v>304622</v>
       </c>
@@ -9557,7 +9553,7 @@
       <c r="J293" s="4"/>
       <c r="K293" s="4"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A294" s="4">
         <v>304623</v>
       </c>
@@ -9578,7 +9574,7 @@
       <c r="J294" s="4"/>
       <c r="K294" s="4"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A295" s="4">
         <v>304624</v>
       </c>
@@ -9614,19 +9610,19 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9655,7 +9651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>302000</v>
       </c>
@@ -9684,7 +9680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>302001</v>
       </c>
@@ -9713,7 +9709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>302002</v>
       </c>
@@ -9742,7 +9738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>302003</v>
       </c>
@@ -9771,7 +9767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>302100</v>
       </c>
@@ -9800,7 +9796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>302200</v>
       </c>
@@ -9829,7 +9825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>302201</v>
       </c>
@@ -9858,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>302202</v>
       </c>
@@ -9887,7 +9883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>302203</v>
       </c>
@@ -9916,7 +9912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>302204</v>
       </c>
@@ -9945,7 +9941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>302205</v>
       </c>
@@ -9974,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>302206</v>
       </c>
@@ -10003,7 +9999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>302300</v>
       </c>
@@ -10032,7 +10028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>302301</v>
       </c>
@@ -10061,7 +10057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>302302</v>
       </c>
@@ -10090,7 +10086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>302303</v>
       </c>
@@ -10119,7 +10115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>302400</v>
       </c>
@@ -10148,7 +10144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>302401</v>
       </c>
@@ -10177,7 +10173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>302402</v>
       </c>
@@ -10206,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>302403</v>
       </c>
@@ -10235,7 +10231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>302404</v>
       </c>
@@ -10264,7 +10260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>302405</v>
       </c>
@@ -10293,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>302406</v>
       </c>
@@ -10322,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>302407</v>
       </c>
@@ -10351,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>302500</v>
       </c>
@@ -10380,7 +10376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>302501</v>
       </c>
@@ -10409,7 +10405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>302502</v>
       </c>
@@ -10438,7 +10434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>302503</v>
       </c>
@@ -10467,7 +10463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>302600</v>
       </c>
@@ -10496,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>302601</v>
       </c>
@@ -10525,7 +10521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>302602</v>
       </c>
@@ -10554,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>302603</v>
       </c>
@@ -10593,19 +10589,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10616,7 +10612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>300000</v>
       </c>
@@ -10627,7 +10623,7 @@
         <v>301000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>300001</v>
       </c>
@@ -10638,7 +10634,7 @@
         <v>301001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>300002</v>
       </c>
@@ -10649,7 +10645,7 @@
         <v>301002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>300003</v>
       </c>
@@ -10660,7 +10656,7 @@
         <v>301003</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>300100</v>
       </c>
@@ -10671,7 +10667,7 @@
         <v>301100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>300101</v>
       </c>
@@ -10682,7 +10678,7 @@
         <v>301107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>300200</v>
       </c>
@@ -10693,7 +10689,7 @@
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>300201</v>
       </c>
@@ -10704,7 +10700,7 @@
         <v>301201</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>300202</v>
       </c>
@@ -10715,7 +10711,7 @@
         <v>301202</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>300203</v>
       </c>
@@ -10726,7 +10722,7 @@
         <v>301203</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>300204</v>
       </c>
@@ -10737,7 +10733,7 @@
         <v>301204</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>300205</v>
       </c>
@@ -10748,7 +10744,7 @@
         <v>301205</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>300206</v>
       </c>
@@ -10759,7 +10755,7 @@
         <v>301206</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>300207</v>
       </c>
@@ -10770,7 +10766,7 @@
         <v>301207</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>300301</v>
       </c>
@@ -10781,7 +10777,7 @@
         <v>301301</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>300302</v>
       </c>
@@ -10792,7 +10788,7 @@
         <v>301302</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>300400</v>
       </c>
@@ -10803,7 +10799,7 @@
         <v>301400</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>300401</v>
       </c>
@@ -10814,7 +10810,7 @@
         <v>301401</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>300402</v>
       </c>
@@ -10825,7 +10821,7 @@
         <v>301402</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>300404</v>
       </c>
@@ -10836,7 +10832,7 @@
         <v>301404</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>300405</v>
       </c>
@@ -10847,7 +10843,7 @@
         <v>301405</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>300406</v>
       </c>
@@ -10858,7 +10854,7 @@
         <v>301406</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>300407</v>
       </c>
@@ -10869,7 +10865,7 @@
         <v>301407</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>300500</v>
       </c>
@@ -10880,7 +10876,7 @@
         <v>301500</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>300501</v>
       </c>
@@ -10891,7 +10887,7 @@
         <v>301501</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>300502</v>
       </c>
@@ -10902,7 +10898,7 @@
         <v>301502</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>300503</v>
       </c>
@@ -10913,7 +10909,7 @@
         <v>301503</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>300600</v>
       </c>
@@ -10924,7 +10920,7 @@
         <v>301600</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>300700</v>
       </c>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="12290"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="QUEST_TABLE" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,8 @@
     <sheet name="CHOICE_TABLE" sheetId="3" r:id="rId3"/>
     <sheet name="NPC_TABLE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1714,7 +1720,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1839,7 +1845,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1874,7 +1880,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2051,7 +2057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2061,14 +2067,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
@@ -2077,11 +2083,11 @@
     <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>301000</v>
       </c>
@@ -2151,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>301001</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>301002</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>301003</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>301100</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>301101</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>301102</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>301103</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>301104</v>
       </c>
@@ -2431,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>301105</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>301106</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>301107</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>301200</v>
       </c>
@@ -2571,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>301201</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>301202</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>301203</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>301204</v>
       </c>
@@ -2693,10 +2699,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="2">
-        <v>103011</v>
+        <v>103200</v>
       </c>
       <c r="G18" s="2">
-        <v>103012</v>
+        <v>103201</v>
       </c>
       <c r="H18" s="2">
         <v>304224</v>
@@ -2711,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>301205</v>
       </c>
@@ -2728,10 +2734,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="2">
-        <v>106002</v>
+        <v>106030</v>
       </c>
       <c r="G19" s="2">
-        <v>106003</v>
+        <v>106031</v>
       </c>
       <c r="H19" s="2">
         <v>304231</v>
@@ -2746,7 +2752,7 @@
         <v>402013</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>301206</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>301207</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>402006</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>301301</v>
       </c>
@@ -2851,7 +2857,7 @@
         <v>402008</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>301302</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>301400</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>301401</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>403003</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>301402</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>301404</v>
       </c>
@@ -3008,10 +3014,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>106000</v>
+        <v>106024</v>
       </c>
       <c r="G27" s="2">
-        <v>106001</v>
+        <v>106025</v>
       </c>
       <c r="H27" s="4">
         <v>304427</v>
@@ -3026,7 +3032,7 @@
         <v>403002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>301405</v>
       </c>
@@ -3043,10 +3049,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>103013</v>
+        <v>103202</v>
       </c>
       <c r="G28" s="2">
-        <v>103014</v>
+        <v>103203</v>
       </c>
       <c r="H28" s="4">
         <v>304436</v>
@@ -3061,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>301406</v>
       </c>
@@ -3078,10 +3084,10 @@
         <v>2</v>
       </c>
       <c r="F29" s="2">
-        <v>103015</v>
+        <v>103204</v>
       </c>
       <c r="G29" s="2">
-        <v>103016</v>
+        <v>103205</v>
       </c>
       <c r="H29" s="4">
         <v>304444</v>
@@ -3096,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>301407</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>402012</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>301500</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>301501</v>
       </c>
@@ -3201,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>301502</v>
       </c>
@@ -3236,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>301503</v>
       </c>
@@ -3247,10 +3253,10 @@
         <v>300503</v>
       </c>
       <c r="D34" s="2">
-        <v>300504</v>
+        <v>300503</v>
       </c>
       <c r="E34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3271,7 +3277,7 @@
         <v>402011</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>301504</v>
       </c>
@@ -3279,13 +3285,13 @@
         <v>91</v>
       </c>
       <c r="C35" s="2">
-        <v>300504</v>
+        <v>300503</v>
       </c>
       <c r="D35" s="2">
-        <v>300504</v>
+        <v>300503</v>
       </c>
       <c r="E35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3306,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>301600</v>
       </c>
@@ -3352,24 +3358,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView topLeftCell="A253" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3390,7 +3395,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>304000</v>
       </c>
@@ -3412,7 +3417,7 @@
       <c r="K2" s="4"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>304001</v>
       </c>
@@ -3434,7 +3439,7 @@
       <c r="K3" s="4"/>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>304002</v>
       </c>
@@ -3456,7 +3461,7 @@
       <c r="K4" s="4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>304003</v>
       </c>
@@ -3478,7 +3483,7 @@
       <c r="K5" s="4"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>304004</v>
       </c>
@@ -3500,7 +3505,7 @@
       <c r="K6" s="4"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>304005</v>
       </c>
@@ -3522,7 +3527,7 @@
       <c r="K7" s="4"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>304006</v>
       </c>
@@ -3544,7 +3549,7 @@
       <c r="K8" s="4"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>304007</v>
       </c>
@@ -3566,7 +3571,7 @@
       <c r="K9" s="4"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>304008</v>
       </c>
@@ -3588,7 +3593,7 @@
       <c r="K10" s="4"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>304009</v>
       </c>
@@ -3610,7 +3615,7 @@
       <c r="K11" s="4"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>304010</v>
       </c>
@@ -3632,7 +3637,7 @@
       <c r="K12" s="4"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>304011</v>
       </c>
@@ -3654,7 +3659,7 @@
       <c r="K13" s="4"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>304012</v>
       </c>
@@ -3676,7 +3681,7 @@
       <c r="K14" s="4"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>304013</v>
       </c>
@@ -3698,7 +3703,7 @@
       <c r="K15" s="4"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>304014</v>
       </c>
@@ -3720,7 +3725,7 @@
       <c r="K16" s="4"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>304015</v>
       </c>
@@ -3742,7 +3747,7 @@
       <c r="K17" s="4"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>304016</v>
       </c>
@@ -3764,7 +3769,7 @@
       <c r="K18" s="4"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>304017</v>
       </c>
@@ -3786,7 +3791,7 @@
       <c r="K19" s="4"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>304018</v>
       </c>
@@ -3808,7 +3813,7 @@
       <c r="K20" s="4"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>304019</v>
       </c>
@@ -3830,7 +3835,7 @@
       <c r="K21" s="4"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>304020</v>
       </c>
@@ -3852,7 +3857,7 @@
       <c r="K22" s="4"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>304021</v>
       </c>
@@ -3874,7 +3879,7 @@
       <c r="K23" s="4"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>304022</v>
       </c>
@@ -3896,7 +3901,7 @@
       <c r="K24" s="4"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>304023</v>
       </c>
@@ -3918,7 +3923,7 @@
       <c r="K25" s="4"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>304024</v>
       </c>
@@ -3940,7 +3945,7 @@
       <c r="K26" s="4"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>304100</v>
       </c>
@@ -3961,7 +3966,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>304101</v>
       </c>
@@ -3982,7 +3987,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>304102</v>
       </c>
@@ -4003,7 +4008,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>304103</v>
       </c>
@@ -4024,7 +4029,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>304104</v>
       </c>
@@ -4045,7 +4050,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>304105</v>
       </c>
@@ -4066,7 +4071,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>304106</v>
       </c>
@@ -4087,7 +4092,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>304107</v>
       </c>
@@ -4108,7 +4113,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>304108</v>
       </c>
@@ -4129,7 +4134,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>304109</v>
       </c>
@@ -4150,7 +4155,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>304110</v>
       </c>
@@ -4171,7 +4176,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>304111</v>
       </c>
@@ -4192,7 +4197,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>304112</v>
       </c>
@@ -4213,7 +4218,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>304113</v>
       </c>
@@ -4234,7 +4239,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>304114</v>
       </c>
@@ -4255,7 +4260,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>304115</v>
       </c>
@@ -4276,7 +4281,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>304116</v>
       </c>
@@ -4297,7 +4302,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>304117</v>
       </c>
@@ -4318,7 +4323,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>304118</v>
       </c>
@@ -4339,7 +4344,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>304119</v>
       </c>
@@ -4360,7 +4365,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>304120</v>
       </c>
@@ -4381,7 +4386,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>304121</v>
       </c>
@@ -4402,7 +4407,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>304122</v>
       </c>
@@ -4423,7 +4428,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>304123</v>
       </c>
@@ -4444,7 +4449,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>304124</v>
       </c>
@@ -4465,7 +4470,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>304125</v>
       </c>
@@ -4486,7 +4491,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>304126</v>
       </c>
@@ -4507,7 +4512,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>304127</v>
       </c>
@@ -4528,7 +4533,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>304128</v>
       </c>
@@ -4549,7 +4554,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>304129</v>
       </c>
@@ -4570,7 +4575,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>304130</v>
       </c>
@@ -4591,7 +4596,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>304131</v>
       </c>
@@ -4612,7 +4617,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>304132</v>
       </c>
@@ -4633,7 +4638,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>304133</v>
       </c>
@@ -4654,7 +4659,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>304134</v>
       </c>
@@ -4675,7 +4680,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>304135</v>
       </c>
@@ -4696,7 +4701,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>304136</v>
       </c>
@@ -4717,7 +4722,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>304137</v>
       </c>
@@ -4738,7 +4743,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>304138</v>
       </c>
@@ -4759,7 +4764,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>304139</v>
       </c>
@@ -4780,7 +4785,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>304140</v>
       </c>
@@ -4801,7 +4806,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>304141</v>
       </c>
@@ -4822,7 +4827,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>304142</v>
       </c>
@@ -4843,7 +4848,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>304143</v>
       </c>
@@ -4864,7 +4869,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>304144</v>
       </c>
@@ -4885,7 +4890,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>304145</v>
       </c>
@@ -4906,7 +4911,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>304146</v>
       </c>
@@ -4927,7 +4932,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>304147</v>
       </c>
@@ -4948,7 +4953,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>304148</v>
       </c>
@@ -4969,7 +4974,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>304149</v>
       </c>
@@ -4990,7 +4995,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>304150</v>
       </c>
@@ -5011,7 +5016,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>304151</v>
       </c>
@@ -5032,7 +5037,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>304152</v>
       </c>
@@ -5053,7 +5058,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>304153</v>
       </c>
@@ -5074,7 +5079,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>304154</v>
       </c>
@@ -5095,7 +5100,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>304155</v>
       </c>
@@ -5116,7 +5121,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>304156</v>
       </c>
@@ -5137,7 +5142,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>304157</v>
       </c>
@@ -5158,7 +5163,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>304158</v>
       </c>
@@ -5179,7 +5184,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>304159</v>
       </c>
@@ -5200,7 +5205,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>304160</v>
       </c>
@@ -5221,7 +5226,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>304161</v>
       </c>
@@ -5242,7 +5247,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>304162</v>
       </c>
@@ -5263,7 +5268,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>304163</v>
       </c>
@@ -5284,7 +5289,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>304164</v>
       </c>
@@ -5305,7 +5310,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>304165</v>
       </c>
@@ -5326,7 +5331,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>304166</v>
       </c>
@@ -5347,7 +5352,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>304167</v>
       </c>
@@ -5368,7 +5373,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>304168</v>
       </c>
@@ -5389,7 +5394,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>304169</v>
       </c>
@@ -5410,7 +5415,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>304170</v>
       </c>
@@ -5431,7 +5436,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>304171</v>
       </c>
@@ -5452,7 +5457,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>304172</v>
       </c>
@@ -5473,7 +5478,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>304173</v>
       </c>
@@ -5494,7 +5499,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>304174</v>
       </c>
@@ -5515,7 +5520,7 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>304175</v>
       </c>
@@ -5536,7 +5541,7 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>304176</v>
       </c>
@@ -5557,7 +5562,7 @@
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>304177</v>
       </c>
@@ -5578,7 +5583,7 @@
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>304178</v>
       </c>
@@ -5599,7 +5604,7 @@
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>304179</v>
       </c>
@@ -5620,7 +5625,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>304180</v>
       </c>
@@ -5641,7 +5646,7 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>304181</v>
       </c>
@@ -5662,7 +5667,7 @@
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>304200</v>
       </c>
@@ -5683,7 +5688,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>304201</v>
       </c>
@@ -5704,7 +5709,7 @@
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>304202</v>
       </c>
@@ -5725,7 +5730,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>304203</v>
       </c>
@@ -5746,7 +5751,7 @@
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>304204</v>
       </c>
@@ -5767,7 +5772,7 @@
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>304205</v>
       </c>
@@ -5788,7 +5793,7 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>304206</v>
       </c>
@@ -5809,7 +5814,7 @@
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>304207</v>
       </c>
@@ -5830,7 +5835,7 @@
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>304208</v>
       </c>
@@ -5851,7 +5856,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>304209</v>
       </c>
@@ -5872,7 +5877,7 @@
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>304210</v>
       </c>
@@ -5893,7 +5898,7 @@
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
     </row>
-    <row r="120" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>304211</v>
       </c>
@@ -5915,7 +5920,7 @@
       <c r="K120" s="4"/>
       <c r="L120"/>
     </row>
-    <row r="121" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>304212</v>
       </c>
@@ -5937,7 +5942,7 @@
       <c r="K121" s="4"/>
       <c r="L121"/>
     </row>
-    <row r="122" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>304213</v>
       </c>
@@ -5959,7 +5964,7 @@
       <c r="K122" s="4"/>
       <c r="L122"/>
     </row>
-    <row r="123" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>304214</v>
       </c>
@@ -5981,7 +5986,7 @@
       <c r="K123" s="4"/>
       <c r="L123"/>
     </row>
-    <row r="124" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>304215</v>
       </c>
@@ -6003,7 +6008,7 @@
       <c r="K124" s="4"/>
       <c r="L124"/>
     </row>
-    <row r="125" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>304216</v>
       </c>
@@ -6025,7 +6030,7 @@
       <c r="K125" s="4"/>
       <c r="L125"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>304217</v>
       </c>
@@ -6046,7 +6051,7 @@
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>304218</v>
       </c>
@@ -6067,7 +6072,7 @@
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>304219</v>
       </c>
@@ -6088,7 +6093,7 @@
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>304220</v>
       </c>
@@ -6109,7 +6114,7 @@
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>304221</v>
       </c>
@@ -6130,7 +6135,7 @@
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>304222</v>
       </c>
@@ -6151,7 +6156,7 @@
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>304223</v>
       </c>
@@ -6172,7 +6177,7 @@
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>304224</v>
       </c>
@@ -6193,7 +6198,7 @@
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>304225</v>
       </c>
@@ -6214,7 +6219,7 @@
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>304226</v>
       </c>
@@ -6235,7 +6240,7 @@
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>304227</v>
       </c>
@@ -6256,7 +6261,7 @@
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>304228</v>
       </c>
@@ -6277,7 +6282,7 @@
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>304229</v>
       </c>
@@ -6298,7 +6303,7 @@
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>304230</v>
       </c>
@@ -6319,7 +6324,7 @@
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>304231</v>
       </c>
@@ -6340,7 +6345,7 @@
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>304232</v>
       </c>
@@ -6361,7 +6366,7 @@
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>304233</v>
       </c>
@@ -6382,7 +6387,7 @@
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>304234</v>
       </c>
@@ -6403,7 +6408,7 @@
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>304235</v>
       </c>
@@ -6424,7 +6429,7 @@
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>304236</v>
       </c>
@@ -6445,7 +6450,7 @@
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>304237</v>
       </c>
@@ -6466,7 +6471,7 @@
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>304238</v>
       </c>
@@ -6487,7 +6492,7 @@
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>304239</v>
       </c>
@@ -6508,7 +6513,7 @@
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>304240</v>
       </c>
@@ -6529,7 +6534,7 @@
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>304241</v>
       </c>
@@ -6550,7 +6555,7 @@
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>304242</v>
       </c>
@@ -6571,7 +6576,7 @@
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>304243</v>
       </c>
@@ -6592,7 +6597,7 @@
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>304244</v>
       </c>
@@ -6613,7 +6618,7 @@
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>304245</v>
       </c>
@@ -6634,7 +6639,7 @@
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>304246</v>
       </c>
@@ -6655,7 +6660,7 @@
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>304247</v>
       </c>
@@ -6676,7 +6681,7 @@
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>304248</v>
       </c>
@@ -6697,7 +6702,7 @@
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>304249</v>
       </c>
@@ -6718,7 +6723,7 @@
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>304250</v>
       </c>
@@ -6739,7 +6744,7 @@
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>304251</v>
       </c>
@@ -6760,7 +6765,7 @@
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>304252</v>
       </c>
@@ -6781,7 +6786,7 @@
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>304300</v>
       </c>
@@ -6802,7 +6807,7 @@
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>304301</v>
       </c>
@@ -6823,7 +6828,7 @@
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>304302</v>
       </c>
@@ -6844,7 +6849,7 @@
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>304303</v>
       </c>
@@ -6865,7 +6870,7 @@
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>304304</v>
       </c>
@@ -6886,7 +6891,7 @@
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>304305</v>
       </c>
@@ -6907,7 +6912,7 @@
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>304306</v>
       </c>
@@ -6928,7 +6933,7 @@
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>304307</v>
       </c>
@@ -6949,7 +6954,7 @@
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>304308</v>
       </c>
@@ -6970,7 +6975,7 @@
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>304309</v>
       </c>
@@ -6991,7 +6996,7 @@
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>304310</v>
       </c>
@@ -7012,7 +7017,7 @@
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>304311</v>
       </c>
@@ -7033,7 +7038,7 @@
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>304312</v>
       </c>
@@ -7054,7 +7059,7 @@
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>304313</v>
       </c>
@@ -7075,7 +7080,7 @@
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>304314</v>
       </c>
@@ -7096,7 +7101,7 @@
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>304315</v>
       </c>
@@ -7117,7 +7122,7 @@
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>304316</v>
       </c>
@@ -7138,7 +7143,7 @@
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>304317</v>
       </c>
@@ -7159,7 +7164,7 @@
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>304318</v>
       </c>
@@ -7180,7 +7185,7 @@
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>304319</v>
       </c>
@@ -7201,7 +7206,7 @@
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>304320</v>
       </c>
@@ -7222,7 +7227,7 @@
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>304321</v>
       </c>
@@ -7243,7 +7248,7 @@
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>304322</v>
       </c>
@@ -7264,7 +7269,7 @@
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>304323</v>
       </c>
@@ -7285,7 +7290,7 @@
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>304324</v>
       </c>
@@ -7306,7 +7311,7 @@
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>304325</v>
       </c>
@@ -7327,7 +7332,7 @@
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>304326</v>
       </c>
@@ -7348,7 +7353,7 @@
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>304400</v>
       </c>
@@ -7369,7 +7374,7 @@
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>304401</v>
       </c>
@@ -7390,7 +7395,7 @@
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>304402</v>
       </c>
@@ -7411,7 +7416,7 @@
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>304403</v>
       </c>
@@ -7432,7 +7437,7 @@
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>304404</v>
       </c>
@@ -7453,7 +7458,7 @@
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>304405</v>
       </c>
@@ -7474,7 +7479,7 @@
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>304406</v>
       </c>
@@ -7495,7 +7500,7 @@
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>304407</v>
       </c>
@@ -7516,7 +7521,7 @@
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>304408</v>
       </c>
@@ -7537,7 +7542,7 @@
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>304409</v>
       </c>
@@ -7558,7 +7563,7 @@
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>304410</v>
       </c>
@@ -7579,7 +7584,7 @@
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>304411</v>
       </c>
@@ -7600,7 +7605,7 @@
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>304412</v>
       </c>
@@ -7621,7 +7626,7 @@
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>304413</v>
       </c>
@@ -7642,7 +7647,7 @@
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>304414</v>
       </c>
@@ -7663,7 +7668,7 @@
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>304415</v>
       </c>
@@ -7684,7 +7689,7 @@
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>304416</v>
       </c>
@@ -7705,7 +7710,7 @@
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>304417</v>
       </c>
@@ -7726,7 +7731,7 @@
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>304418</v>
       </c>
@@ -7747,7 +7752,7 @@
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>304419</v>
       </c>
@@ -7768,7 +7773,7 @@
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>304420</v>
       </c>
@@ -7789,7 +7794,7 @@
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>304421</v>
       </c>
@@ -7810,7 +7815,7 @@
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>304422</v>
       </c>
@@ -7831,7 +7836,7 @@
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>304423</v>
       </c>
@@ -7852,7 +7857,7 @@
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>304424</v>
       </c>
@@ -7873,7 +7878,7 @@
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>304425</v>
       </c>
@@ -7894,7 +7899,7 @@
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>304426</v>
       </c>
@@ -7915,7 +7920,7 @@
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>304427</v>
       </c>
@@ -7936,7 +7941,7 @@
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>304428</v>
       </c>
@@ -7957,7 +7962,7 @@
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>304429</v>
       </c>
@@ -7978,7 +7983,7 @@
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>304430</v>
       </c>
@@ -7999,7 +8004,7 @@
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>304431</v>
       </c>
@@ -8020,7 +8025,7 @@
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>304432</v>
       </c>
@@ -8041,7 +8046,7 @@
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>304433</v>
       </c>
@@ -8062,7 +8067,7 @@
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>304434</v>
       </c>
@@ -8083,7 +8088,7 @@
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>304435</v>
       </c>
@@ -8104,7 +8109,7 @@
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>304436</v>
       </c>
@@ -8125,7 +8130,7 @@
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>304437</v>
       </c>
@@ -8146,7 +8151,7 @@
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>304438</v>
       </c>
@@ -8167,7 +8172,7 @@
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>304439</v>
       </c>
@@ -8188,7 +8193,7 @@
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>304440</v>
       </c>
@@ -8209,7 +8214,7 @@
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>304441</v>
       </c>
@@ -8230,7 +8235,7 @@
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>304442</v>
       </c>
@@ -8251,7 +8256,7 @@
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>304443</v>
       </c>
@@ -8272,7 +8277,7 @@
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>304444</v>
       </c>
@@ -8293,7 +8298,7 @@
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>304445</v>
       </c>
@@ -8314,7 +8319,7 @@
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>304446</v>
       </c>
@@ -8335,7 +8340,7 @@
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>304447</v>
       </c>
@@ -8356,7 +8361,7 @@
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>304448</v>
       </c>
@@ -8377,7 +8382,7 @@
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>304449</v>
       </c>
@@ -8398,7 +8403,7 @@
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>304450</v>
       </c>
@@ -8419,7 +8424,7 @@
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>304451</v>
       </c>
@@ -8440,7 +8445,7 @@
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>304452</v>
       </c>
@@ -8461,7 +8466,7 @@
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>304453</v>
       </c>
@@ -8482,7 +8487,7 @@
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>304454</v>
       </c>
@@ -8503,7 +8508,7 @@
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>304455</v>
       </c>
@@ -8524,7 +8529,7 @@
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>304500</v>
       </c>
@@ -8545,7 +8550,7 @@
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>304501</v>
       </c>
@@ -8566,7 +8571,7 @@
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>304502</v>
       </c>
@@ -8587,7 +8592,7 @@
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>304503</v>
       </c>
@@ -8608,7 +8613,7 @@
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>304504</v>
       </c>
@@ -8629,7 +8634,7 @@
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>304505</v>
       </c>
@@ -8650,7 +8655,7 @@
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>304506</v>
       </c>
@@ -8671,7 +8676,7 @@
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>304507</v>
       </c>
@@ -8692,7 +8697,7 @@
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>304508</v>
       </c>
@@ -8713,7 +8718,7 @@
       <c r="J253" s="4"/>
       <c r="K253" s="4"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>304509</v>
       </c>
@@ -8734,7 +8739,7 @@
       <c r="J254" s="4"/>
       <c r="K254" s="4"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>304510</v>
       </c>
@@ -8755,7 +8760,7 @@
       <c r="J255" s="4"/>
       <c r="K255" s="4"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>304511</v>
       </c>
@@ -8776,7 +8781,7 @@
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>304512</v>
       </c>
@@ -8797,7 +8802,7 @@
       <c r="J257" s="4"/>
       <c r="K257" s="4"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>304513</v>
       </c>
@@ -8818,7 +8823,7 @@
       <c r="J258" s="4"/>
       <c r="K258" s="4"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>304514</v>
       </c>
@@ -8839,7 +8844,7 @@
       <c r="J259" s="4"/>
       <c r="K259" s="4"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>304515</v>
       </c>
@@ -8860,7 +8865,7 @@
       <c r="J260" s="4"/>
       <c r="K260" s="4"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>304516</v>
       </c>
@@ -8881,7 +8886,7 @@
       <c r="J261" s="4"/>
       <c r="K261" s="4"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>304517</v>
       </c>
@@ -8902,7 +8907,7 @@
       <c r="J262" s="4"/>
       <c r="K262" s="4"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>304518</v>
       </c>
@@ -8923,7 +8928,7 @@
       <c r="J263" s="4"/>
       <c r="K263" s="4"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>304519</v>
       </c>
@@ -8944,7 +8949,7 @@
       <c r="J264" s="4"/>
       <c r="K264" s="4"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>304520</v>
       </c>
@@ -8965,7 +8970,7 @@
       <c r="J265" s="4"/>
       <c r="K265" s="4"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>304521</v>
       </c>
@@ -8986,7 +8991,7 @@
       <c r="J266" s="4"/>
       <c r="K266" s="4"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>304522</v>
       </c>
@@ -9007,7 +9012,7 @@
       <c r="J267" s="4"/>
       <c r="K267" s="4"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>304523</v>
       </c>
@@ -9028,7 +9033,7 @@
       <c r="J268" s="4"/>
       <c r="K268" s="4"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>304524</v>
       </c>
@@ -9049,7 +9054,7 @@
       <c r="J269" s="4"/>
       <c r="K269" s="4"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>304525</v>
       </c>
@@ -9070,7 +9075,7 @@
       <c r="J270" s="4"/>
       <c r="K270" s="4"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>304600</v>
       </c>
@@ -9091,7 +9096,7 @@
       <c r="J271" s="4"/>
       <c r="K271" s="4"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>304601</v>
       </c>
@@ -9112,7 +9117,7 @@
       <c r="J272" s="4"/>
       <c r="K272" s="4"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>304602</v>
       </c>
@@ -9133,7 +9138,7 @@
       <c r="J273" s="4"/>
       <c r="K273" s="4"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>304603</v>
       </c>
@@ -9154,7 +9159,7 @@
       <c r="J274" s="4"/>
       <c r="K274" s="4"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>304604</v>
       </c>
@@ -9175,7 +9180,7 @@
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>304605</v>
       </c>
@@ -9196,7 +9201,7 @@
       <c r="J276" s="4"/>
       <c r="K276" s="4"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>304606</v>
       </c>
@@ -9217,7 +9222,7 @@
       <c r="J277" s="4"/>
       <c r="K277" s="4"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>304607</v>
       </c>
@@ -9238,7 +9243,7 @@
       <c r="J278" s="4"/>
       <c r="K278" s="4"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>304608</v>
       </c>
@@ -9259,7 +9264,7 @@
       <c r="J279" s="4"/>
       <c r="K279" s="4"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>304609</v>
       </c>
@@ -9280,7 +9285,7 @@
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>304610</v>
       </c>
@@ -9301,7 +9306,7 @@
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>304611</v>
       </c>
@@ -9322,7 +9327,7 @@
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>304612</v>
       </c>
@@ -9343,7 +9348,7 @@
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>304613</v>
       </c>
@@ -9364,7 +9369,7 @@
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>304614</v>
       </c>
@@ -9385,7 +9390,7 @@
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>304615</v>
       </c>
@@ -9406,7 +9411,7 @@
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>304616</v>
       </c>
@@ -9427,7 +9432,7 @@
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>304617</v>
       </c>
@@ -9448,7 +9453,7 @@
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>304618</v>
       </c>
@@ -9469,7 +9474,7 @@
       <c r="J289" s="4"/>
       <c r="K289" s="4"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>304619</v>
       </c>
@@ -9490,7 +9495,7 @@
       <c r="J290" s="4"/>
       <c r="K290" s="4"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>304620</v>
       </c>
@@ -9511,7 +9516,7 @@
       <c r="J291" s="4"/>
       <c r="K291" s="4"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>304621</v>
       </c>
@@ -9532,7 +9537,7 @@
       <c r="J292" s="4"/>
       <c r="K292" s="4"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>304622</v>
       </c>
@@ -9553,7 +9558,7 @@
       <c r="J293" s="4"/>
       <c r="K293" s="4"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>304623</v>
       </c>
@@ -9574,7 +9579,7 @@
       <c r="J294" s="4"/>
       <c r="K294" s="4"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>304624</v>
       </c>
@@ -9610,19 +9615,19 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9651,7 +9656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>302000</v>
       </c>
@@ -9680,7 +9685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>302001</v>
       </c>
@@ -9709,7 +9714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>302002</v>
       </c>
@@ -9738,7 +9743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>302003</v>
       </c>
@@ -9767,7 +9772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>302100</v>
       </c>
@@ -9796,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>302200</v>
       </c>
@@ -9825,7 +9830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>302201</v>
       </c>
@@ -9854,7 +9859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>302202</v>
       </c>
@@ -9883,7 +9888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>302203</v>
       </c>
@@ -9912,7 +9917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>302204</v>
       </c>
@@ -9941,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>302205</v>
       </c>
@@ -9970,7 +9975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>302206</v>
       </c>
@@ -9999,7 +10004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>302300</v>
       </c>
@@ -10028,7 +10033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>302301</v>
       </c>
@@ -10057,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>302302</v>
       </c>
@@ -10086,7 +10091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>302303</v>
       </c>
@@ -10115,7 +10120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>302400</v>
       </c>
@@ -10144,7 +10149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>302401</v>
       </c>
@@ -10173,7 +10178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>302402</v>
       </c>
@@ -10202,7 +10207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>302403</v>
       </c>
@@ -10231,7 +10236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>302404</v>
       </c>
@@ -10260,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>302405</v>
       </c>
@@ -10289,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>302406</v>
       </c>
@@ -10318,7 +10323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>302407</v>
       </c>
@@ -10347,7 +10352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>302500</v>
       </c>
@@ -10376,7 +10381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>302501</v>
       </c>
@@ -10405,7 +10410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>302502</v>
       </c>
@@ -10434,7 +10439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>302503</v>
       </c>
@@ -10463,7 +10468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>302600</v>
       </c>
@@ -10492,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>302601</v>
       </c>
@@ -10521,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>302602</v>
       </c>
@@ -10550,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>302603</v>
       </c>
@@ -10593,15 +10598,15 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10612,7 +10617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>300000</v>
       </c>
@@ -10623,7 +10628,7 @@
         <v>301000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>300001</v>
       </c>
@@ -10634,7 +10639,7 @@
         <v>301001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>300002</v>
       </c>
@@ -10645,7 +10650,7 @@
         <v>301002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>300003</v>
       </c>
@@ -10656,7 +10661,7 @@
         <v>301003</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>300100</v>
       </c>
@@ -10667,7 +10672,7 @@
         <v>301100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>300101</v>
       </c>
@@ -10678,7 +10683,7 @@
         <v>301107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>300200</v>
       </c>
@@ -10689,7 +10694,7 @@
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>300201</v>
       </c>
@@ -10700,7 +10705,7 @@
         <v>301201</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>300202</v>
       </c>
@@ -10711,7 +10716,7 @@
         <v>301202</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>300203</v>
       </c>
@@ -10722,7 +10727,7 @@
         <v>301203</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>300204</v>
       </c>
@@ -10733,7 +10738,7 @@
         <v>301204</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>300205</v>
       </c>
@@ -10744,7 +10749,7 @@
         <v>301205</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>300206</v>
       </c>
@@ -10755,7 +10760,7 @@
         <v>301206</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>300207</v>
       </c>
@@ -10766,7 +10771,7 @@
         <v>301207</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>300301</v>
       </c>
@@ -10777,7 +10782,7 @@
         <v>301301</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>300302</v>
       </c>
@@ -10788,7 +10793,7 @@
         <v>301302</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>300400</v>
       </c>
@@ -10799,7 +10804,7 @@
         <v>301400</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>300401</v>
       </c>
@@ -10810,7 +10815,7 @@
         <v>301401</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>300402</v>
       </c>
@@ -10821,7 +10826,7 @@
         <v>301402</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>300404</v>
       </c>
@@ -10832,7 +10837,7 @@
         <v>301404</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>300405</v>
       </c>
@@ -10843,7 +10848,7 @@
         <v>301405</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>300406</v>
       </c>
@@ -10854,7 +10859,7 @@
         <v>301406</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>300407</v>
       </c>
@@ -10865,7 +10870,7 @@
         <v>301407</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>300500</v>
       </c>
@@ -10876,7 +10881,7 @@
         <v>301500</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>300501</v>
       </c>
@@ -10887,7 +10892,7 @@
         <v>301501</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>300502</v>
       </c>
@@ -10898,7 +10903,7 @@
         <v>301502</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>300503</v>
       </c>
@@ -10909,7 +10914,7 @@
         <v>301503</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>300600</v>
       </c>
@@ -10920,7 +10925,7 @@
         <v>301600</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>300700</v>
       </c>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="QUEST_TABLE" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="NPC_TABLE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="443">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REWARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꼬마 정령</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -864,24 +859,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>죄송하지만 손님.&lt;br&gt;오늘은 영업하지 않습니다.</t>
-  </si>
-  <si>
-    <t>아.. 어쩌지.. 진짜 비싼 건데…&lt;br&gt;밧줄을 잘라버려야 하나?&lt;br&gt;자를 도구가…</t>
-  </si>
-  <si>
-    <t>정말 비싼 양복이거든요…&lt;br&gt;저게 말이죠..</t>
-  </si>
-  <si>
-    <t>감사합니다.&lt;br&gt;이게 무난해 보이지만&lt;br&gt;엄청 비싼거 거든요.</t>
-  </si>
-  <si>
-    <t>감사합니다.&lt;br&gt;딱봐도 눈부신게 정말&lt;br&gt;비싸보이지 않나요?</t>
-  </si>
-  <si>
-    <t>다음에 여유로울 때 오시면&lt;br&gt;무료로 재단해 드릴게요.&lt;br&gt;꼭 오세요!</t>
-  </si>
-  <si>
     <t>제가 아직 낯을 가려서 말이에요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1345,10 +1322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>양복 정리 중에 양복이&lt;br&gt;줄에 걸려버렸거든요…&lt;br&gt;가장 비싼 양복이라.. 빨리 해결을..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그런데 이 생선.&lt;br&gt;어디서 온 건지 생각해 봤어?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1714,6 +1687,34 @@
   </si>
   <si>
     <t>궁금한 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서오세요. 양복점입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 취향을 맞추기가 쉽지 않네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난하지만&lt;br&gt;세련된 취향이군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누에 확 띄는 것을&lt;br&gt;좋아하시는군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 참고점이 될 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 양복을 들이려고 합니다만.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2065,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2083,11 +2084,10 @@
     <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2118,16 +2118,13 @@
       <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>301000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>300000</v>
@@ -2153,16 +2150,13 @@
       <c r="J2" s="2">
         <v>304002</v>
       </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>301001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2">
         <v>300001</v>
@@ -2188,16 +2182,13 @@
       <c r="J3" s="2">
         <v>304008</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>301002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>300002</v>
@@ -2223,16 +2214,13 @@
       <c r="J4" s="2">
         <v>304014</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>301003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2">
         <v>300003</v>
@@ -2258,16 +2246,13 @@
       <c r="J5" s="2">
         <v>304020</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>301100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>300100</v>
@@ -2293,16 +2278,13 @@
       <c r="J6" s="1">
         <v>304108</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>301101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>300100</v>
@@ -2328,16 +2310,13 @@
       <c r="J7" s="1">
         <v>304117</v>
       </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>301102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>300100</v>
@@ -2363,16 +2342,13 @@
       <c r="J8" s="1">
         <v>304126</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>301103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>300100</v>
@@ -2398,16 +2374,13 @@
       <c r="J9" s="1">
         <v>304136</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>301104</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>300100</v>
@@ -2433,16 +2406,13 @@
       <c r="J10" s="1">
         <v>304151</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>301105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2">
         <v>300100</v>
@@ -2468,16 +2438,13 @@
       <c r="J11" s="1">
         <v>304160</v>
       </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>301106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2">
         <v>300101</v>
@@ -2503,16 +2470,13 @@
       <c r="J12" s="1">
         <v>304170</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>301107</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2">
         <v>300100</v>
@@ -2538,16 +2502,13 @@
       <c r="J13" s="1">
         <v>304181</v>
       </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>301200</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2">
         <v>300200</v>
@@ -2573,16 +2534,13 @@
       <c r="J14" s="2">
         <v>304206</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>301201</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4">
         <v>300201</v>
@@ -2608,16 +2566,13 @@
       <c r="J15" s="2">
         <v>304212</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>301202</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2">
         <v>300202</v>
@@ -2643,16 +2598,13 @@
       <c r="J16" s="2">
         <v>304218</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>301203</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4">
         <v>300203</v>
@@ -2678,16 +2630,13 @@
       <c r="J17" s="2">
         <v>304223</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>301204</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2">
         <v>300204</v>
@@ -2713,16 +2662,13 @@
       <c r="J18" s="2">
         <v>304226</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>301205</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4">
         <v>300205</v>
@@ -2731,33 +2677,30 @@
         <v>300205</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2">
-        <v>106030</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>106031</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
         <v>304231</v>
       </c>
       <c r="I19" s="2">
-        <v>304233</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>304234</v>
-      </c>
-      <c r="K19" s="2">
-        <v>402013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>304237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>301206</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2">
         <v>300206</v>
@@ -2783,16 +2726,13 @@
       <c r="J20" s="2">
         <v>304242</v>
       </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>301207</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2">
         <v>300207</v>
@@ -2818,16 +2758,13 @@
       <c r="J21" s="2">
         <v>304251</v>
       </c>
-      <c r="K21" s="2">
-        <v>402006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>301301</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="4">
         <v>300301</v>
@@ -2853,16 +2790,13 @@
       <c r="J22" s="2">
         <v>304310</v>
       </c>
-      <c r="K22" s="2">
-        <v>402008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>301302</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="4">
         <v>300302</v>
@@ -2888,16 +2822,13 @@
       <c r="J23" s="4">
         <v>304318</v>
       </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>301400</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="4">
         <v>300400</v>
@@ -2923,16 +2854,13 @@
       <c r="J24" s="4">
         <v>304406</v>
       </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>301401</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="4">
         <v>300401</v>
@@ -2958,16 +2886,13 @@
       <c r="J25" s="4">
         <v>304409</v>
       </c>
-      <c r="K25" s="4">
-        <v>403003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>301402</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4">
         <v>300402</v>
@@ -2993,16 +2918,13 @@
       <c r="J26" s="4">
         <v>304419</v>
       </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>301404</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4">
         <v>300404</v>
@@ -3028,16 +2950,13 @@
       <c r="J27" s="4">
         <v>304432</v>
       </c>
-      <c r="K27" s="4">
-        <v>403002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>301405</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="4">
         <v>300405</v>
@@ -3063,16 +2982,13 @@
       <c r="J28" s="4">
         <v>304439</v>
       </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>301406</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="4">
         <v>300406</v>
@@ -3098,16 +3014,13 @@
       <c r="J29" s="4">
         <v>304446</v>
       </c>
-      <c r="K29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>301407</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="4">
         <v>300407</v>
@@ -3133,16 +3046,13 @@
       <c r="J30" s="4">
         <v>304452</v>
       </c>
-      <c r="K30" s="4">
-        <v>402012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>301500</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2">
         <v>300500</v>
@@ -3168,16 +3078,13 @@
       <c r="J31" s="4">
         <v>304505</v>
       </c>
-      <c r="K31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>301501</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2">
         <v>300501</v>
@@ -3203,16 +3110,13 @@
       <c r="J32" s="1">
         <v>304510</v>
       </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>301502</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="2">
         <v>300502</v>
@@ -3238,16 +3142,13 @@
       <c r="J33" s="1">
         <v>304515</v>
       </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>301503</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="2">
         <v>300503</v>
@@ -3273,16 +3174,13 @@
       <c r="J34" s="1">
         <v>304517</v>
       </c>
-      <c r="K34" s="1">
-        <v>402011</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>301504</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="2">
         <v>300503</v>
@@ -3308,16 +3206,13 @@
       <c r="J35" s="1">
         <v>304525</v>
       </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>301600</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="4">
         <v>300600</v>
@@ -3342,9 +3237,6 @@
       </c>
       <c r="J36" s="1">
         <v>304624</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3358,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C266" sqref="C266"/>
+    <sheetView topLeftCell="A73" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3403,7 +3295,7 @@
         <v>300000</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -3425,7 +3317,7 @@
         <v>300000</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -3447,7 +3339,7 @@
         <v>300000</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4">
         <v>304003</v>
@@ -3469,7 +3361,7 @@
         <v>300000</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4">
         <v>302000</v>
@@ -3491,7 +3383,7 @@
         <v>300000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4">
         <v>304005</v>
@@ -3513,7 +3405,7 @@
         <v>300000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -3535,7 +3427,7 @@
         <v>300001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -3557,7 +3449,7 @@
         <v>300001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -3579,7 +3471,7 @@
         <v>300001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="4">
         <v>304009</v>
@@ -3601,7 +3493,7 @@
         <v>300001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="4">
         <v>302001</v>
@@ -3623,7 +3515,7 @@
         <v>300001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="4">
         <v>304011</v>
@@ -3645,7 +3537,7 @@
         <v>300001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -3667,7 +3559,7 @@
         <v>300002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -3689,7 +3581,7 @@
         <v>300002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
@@ -3711,7 +3603,7 @@
         <v>300002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="4">
         <v>304015</v>
@@ -3733,7 +3625,7 @@
         <v>300002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4">
         <v>302002</v>
@@ -3755,7 +3647,7 @@
         <v>300002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="4">
         <v>304017</v>
@@ -3777,7 +3669,7 @@
         <v>300002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
@@ -3799,7 +3691,7 @@
         <v>300003</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -3821,7 +3713,7 @@
         <v>300003</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
@@ -3843,7 +3735,7 @@
         <v>300003</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" s="5">
         <v>304021</v>
@@ -3865,7 +3757,7 @@
         <v>300003</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="4">
         <v>302003</v>
@@ -3887,7 +3779,7 @@
         <v>300003</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" s="4">
         <v>304023</v>
@@ -3909,7 +3801,7 @@
         <v>300003</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="4">
         <v>304024</v>
@@ -3931,7 +3823,7 @@
         <v>300003</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
@@ -3953,7 +3845,7 @@
         <v>300100</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="4">
         <v>304101</v>
@@ -3974,7 +3866,7 @@
         <v>300100</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D28" s="5">
         <v>304102</v>
@@ -3995,7 +3887,7 @@
         <v>300100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D29" s="5">
         <v>304103</v>
@@ -4016,7 +3908,7 @@
         <v>300100</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="4">
         <v>304104</v>
@@ -4037,7 +3929,7 @@
         <v>300100</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="4">
         <v>304105</v>
@@ -4058,7 +3950,7 @@
         <v>300100</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4">
         <v>304106</v>
@@ -4079,7 +3971,7 @@
         <v>300100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D33" s="4">
         <v>304107</v>
@@ -4100,7 +3992,7 @@
         <v>300100</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" s="5">
         <v>0</v>
@@ -4121,7 +4013,7 @@
         <v>300100</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="5">
         <v>304109</v>
@@ -4142,7 +4034,7 @@
         <v>300100</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="5">
         <v>304110</v>
@@ -4163,7 +4055,7 @@
         <v>300100</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" s="5">
         <v>304111</v>
@@ -4184,7 +4076,7 @@
         <v>300100</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="4">
         <v>304112</v>
@@ -4205,7 +4097,7 @@
         <v>300100</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="4">
         <v>304113</v>
@@ -4226,7 +4118,7 @@
         <v>300100</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D40" s="4">
         <v>304114</v>
@@ -4247,7 +4139,7 @@
         <v>300100</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="4">
         <v>304115</v>
@@ -4268,7 +4160,7 @@
         <v>300100</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4">
         <v>304116</v>
@@ -4289,7 +4181,7 @@
         <v>300100</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
@@ -4310,7 +4202,7 @@
         <v>300100</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D44" s="4">
         <v>304118</v>
@@ -4331,7 +4223,7 @@
         <v>300100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="5">
         <v>304119</v>
@@ -4352,7 +4244,7 @@
         <v>300100</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="4">
         <v>304120</v>
@@ -4373,7 +4265,7 @@
         <v>300100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D47" s="5">
         <v>304121</v>
@@ -4394,7 +4286,7 @@
         <v>300100</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" s="4">
         <v>304122</v>
@@ -4415,7 +4307,7 @@
         <v>300100</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49" s="5">
         <v>304123</v>
@@ -4436,7 +4328,7 @@
         <v>300100</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D50" s="4">
         <v>304124</v>
@@ -4457,7 +4349,7 @@
         <v>300100</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
@@ -4478,7 +4370,7 @@
         <v>300100</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" s="4">
         <v>304122</v>
@@ -4499,7 +4391,7 @@
         <v>300100</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53" s="4">
         <v>304127</v>
@@ -4520,7 +4412,7 @@
         <v>300100</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D54" s="5">
         <v>304128</v>
@@ -4541,7 +4433,7 @@
         <v>300100</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D55" s="4">
         <v>304129</v>
@@ -4562,7 +4454,7 @@
         <v>300100</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D56" s="5">
         <v>304130</v>
@@ -4583,7 +4475,7 @@
         <v>300100</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" s="4">
         <v>304131</v>
@@ -4604,7 +4496,7 @@
         <v>300100</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" s="5">
         <v>304132</v>
@@ -4625,7 +4517,7 @@
         <v>300100</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" s="5">
         <v>0</v>
@@ -4646,7 +4538,7 @@
         <v>300100</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D60" s="4">
         <v>304134</v>
@@ -4667,7 +4559,7 @@
         <v>300100</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D61" s="4">
         <v>304135</v>
@@ -4688,7 +4580,7 @@
         <v>300100</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" s="5">
         <v>0</v>
@@ -4709,7 +4601,7 @@
         <v>300100</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D63" s="4">
         <v>304137</v>
@@ -4730,7 +4622,7 @@
         <v>300100</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D64" s="5">
         <v>304138</v>
@@ -4751,7 +4643,7 @@
         <v>300100</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D65" s="4">
         <v>304139</v>
@@ -4772,7 +4664,7 @@
         <v>300100</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" s="5">
         <v>304140</v>
@@ -4793,7 +4685,7 @@
         <v>300100</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" s="4">
         <v>304141</v>
@@ -4814,7 +4706,7 @@
         <v>300100</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" s="5">
         <v>304142</v>
@@ -4835,7 +4727,7 @@
         <v>300100</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" s="4">
         <v>304143</v>
@@ -4856,7 +4748,7 @@
         <v>300100</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D70" s="5">
         <v>304144</v>
@@ -4877,7 +4769,7 @@
         <v>300100</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" s="4">
         <v>304145</v>
@@ -4898,7 +4790,7 @@
         <v>300100</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" s="5">
         <v>304146</v>
@@ -4919,7 +4811,7 @@
         <v>300100</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D73" s="4">
         <v>304147</v>
@@ -4940,7 +4832,7 @@
         <v>300100</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" s="4">
         <v>304148</v>
@@ -4961,7 +4853,7 @@
         <v>300100</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D75" s="5">
         <v>0</v>
@@ -4982,7 +4874,7 @@
         <v>300100</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D76" s="5">
         <v>304150</v>
@@ -5003,7 +4895,7 @@
         <v>300100</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" s="5">
         <v>304144</v>
@@ -5024,7 +4916,7 @@
         <v>300100</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" s="4">
         <v>304152</v>
@@ -5045,7 +4937,7 @@
         <v>300100</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79" s="5">
         <v>304153</v>
@@ -5066,7 +4958,7 @@
         <v>300100</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" s="4">
         <v>304154</v>
@@ -5087,7 +4979,7 @@
         <v>300100</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D81" s="5">
         <v>304155</v>
@@ -5108,7 +5000,7 @@
         <v>300100</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D82" s="4">
         <v>304156</v>
@@ -5129,7 +5021,7 @@
         <v>300100</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" s="5">
         <v>304157</v>
@@ -5150,7 +5042,7 @@
         <v>300100</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -5171,7 +5063,7 @@
         <v>300100</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D85" s="4">
         <v>304159</v>
@@ -5192,7 +5084,7 @@
         <v>300100</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D86" s="5">
         <v>0</v>
@@ -5213,7 +5105,7 @@
         <v>300100</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D87" s="5">
         <v>0</v>
@@ -5234,7 +5126,7 @@
         <v>300101</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D88" s="4">
         <v>304162</v>
@@ -5255,7 +5147,7 @@
         <v>300101</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D89" s="4">
         <v>304163</v>
@@ -5276,7 +5168,7 @@
         <v>300101</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D90" s="4">
         <v>304164</v>
@@ -5297,7 +5189,7 @@
         <v>300101</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D91" s="4">
         <v>304165</v>
@@ -5318,7 +5210,7 @@
         <v>300101</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D92" s="4">
         <v>304166</v>
@@ -5339,7 +5231,7 @@
         <v>300101</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D93" s="4">
         <v>304167</v>
@@ -5360,7 +5252,7 @@
         <v>300101</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D94" s="4">
         <v>304168</v>
@@ -5381,7 +5273,7 @@
         <v>300101</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D95" s="4">
         <v>304169</v>
@@ -5402,7 +5294,7 @@
         <v>300101</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
@@ -5423,7 +5315,7 @@
         <v>300101</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D97" s="5">
         <v>304171</v>
@@ -5444,7 +5336,7 @@
         <v>300101</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D98" s="5">
         <v>0</v>
@@ -5465,7 +5357,7 @@
         <v>300100</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" s="4">
         <v>304173</v>
@@ -5486,7 +5378,7 @@
         <v>300100</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D100" s="4">
         <v>304174</v>
@@ -5507,7 +5399,7 @@
         <v>300100</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D101" s="4">
         <v>304175</v>
@@ -5528,7 +5420,7 @@
         <v>300100</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D102" s="4">
         <v>304176</v>
@@ -5549,7 +5441,7 @@
         <v>300100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D103" s="4">
         <v>304177</v>
@@ -5570,7 +5462,7 @@
         <v>300100</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D104" s="4">
         <v>304178</v>
@@ -5591,7 +5483,7 @@
         <v>300100</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D105" s="4">
         <v>302100</v>
@@ -5612,7 +5504,7 @@
         <v>300100</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D106" s="4">
         <v>304181</v>
@@ -5633,7 +5525,7 @@
         <v>300100</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D107" s="4">
         <v>304181</v>
@@ -5654,7 +5546,7 @@
         <v>300100</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
@@ -5675,7 +5567,7 @@
         <v>300200</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D109" s="4">
         <v>304201</v>
@@ -5696,7 +5588,7 @@
         <v>300200</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D110" s="5">
         <v>304202</v>
@@ -5717,7 +5609,7 @@
         <v>300200</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D111" s="5">
         <v>304203</v>
@@ -5738,7 +5630,7 @@
         <v>300200</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D112" s="4">
         <v>302200</v>
@@ -5759,7 +5651,7 @@
         <v>300200</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D113" s="4">
         <v>304206</v>
@@ -5780,7 +5672,7 @@
         <v>300200</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D114" s="4">
         <v>304206</v>
@@ -5801,7 +5693,7 @@
         <v>300200</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D115" s="5">
         <v>0</v>
@@ -5822,7 +5714,7 @@
         <v>300201</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D116" s="5">
         <v>304208</v>
@@ -5843,7 +5735,7 @@
         <v>300201</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D117" s="4">
         <v>304209</v>
@@ -5864,7 +5756,7 @@
         <v>300201</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D118" s="5">
         <v>302201</v>
@@ -5885,7 +5777,7 @@
         <v>300201</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D119" s="4">
         <v>304212</v>
@@ -5906,7 +5798,7 @@
         <v>300201</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D120" s="5">
         <v>304212</v>
@@ -5928,7 +5820,7 @@
         <v>300201</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
@@ -5950,7 +5842,7 @@
         <v>300202</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D122" s="5">
         <v>304214</v>
@@ -5972,7 +5864,7 @@
         <v>300202</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D123" s="4">
         <v>304215</v>
@@ -5994,7 +5886,7 @@
         <v>300202</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D124" s="5">
         <v>302202</v>
@@ -6016,7 +5908,7 @@
         <v>300202</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D125" s="4">
         <v>304218</v>
@@ -6038,7 +5930,7 @@
         <v>300202</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D126" s="5">
         <v>304218</v>
@@ -6059,7 +5951,7 @@
         <v>300202</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D127" s="5">
         <v>0</v>
@@ -6080,7 +5972,7 @@
         <v>300203</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D128" s="5">
         <v>302203</v>
@@ -6101,7 +5993,7 @@
         <v>300203</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D129" s="5">
         <v>304222</v>
@@ -6122,7 +6014,7 @@
         <v>300203</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D130" s="5">
         <v>304222</v>
@@ -6143,7 +6035,7 @@
         <v>300203</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D131" s="5">
         <v>304223</v>
@@ -6164,7 +6056,7 @@
         <v>300203</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D132" s="5">
         <v>0</v>
@@ -6185,7 +6077,7 @@
         <v>300204</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D133" s="5">
         <v>0</v>
@@ -6206,7 +6098,7 @@
         <v>300204</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D134" s="5">
         <v>0</v>
@@ -6227,7 +6119,7 @@
         <v>300204</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D135" s="5">
         <v>302204</v>
@@ -6248,7 +6140,7 @@
         <v>300204</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D136" s="5">
         <v>304229</v>
@@ -6269,7 +6161,7 @@
         <v>300204</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D137" s="5">
         <v>304229</v>
@@ -6290,7 +6182,7 @@
         <v>300204</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D138" s="5">
         <v>304230</v>
@@ -6311,7 +6203,7 @@
         <v>300204</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D139" s="5">
         <v>0</v>
@@ -6332,7 +6224,7 @@
         <v>300205</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>213</v>
+        <v>436</v>
       </c>
       <c r="D140" s="5">
         <v>304232</v>
@@ -6353,10 +6245,10 @@
         <v>300205</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="D141" s="5">
-        <v>0</v>
+        <v>304232</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="4"/>
@@ -6374,10 +6266,10 @@
         <v>300205</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>214</v>
+        <v>442</v>
       </c>
       <c r="D142" s="5">
-        <v>0</v>
+        <v>304233</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="4"/>
@@ -6395,7 +6287,7 @@
         <v>300205</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>215</v>
+        <v>438</v>
       </c>
       <c r="D143" s="5">
         <v>302205</v>
@@ -6416,7 +6308,7 @@
         <v>300205</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>216</v>
+        <v>439</v>
       </c>
       <c r="D144" s="5">
         <v>304237</v>
@@ -6437,7 +6329,7 @@
         <v>300205</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>217</v>
+        <v>440</v>
       </c>
       <c r="D145" s="5">
         <v>304237</v>
@@ -6458,7 +6350,7 @@
         <v>300205</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>218</v>
+        <v>441</v>
       </c>
       <c r="D146" s="5">
         <v>0</v>
@@ -6479,7 +6371,7 @@
         <v>300206</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D147" s="5">
         <v>304239</v>
@@ -6500,7 +6392,7 @@
         <v>300206</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D148" s="5">
         <v>304240</v>
@@ -6521,7 +6413,7 @@
         <v>300206</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D149" s="5">
         <v>0</v>
@@ -6542,7 +6434,7 @@
         <v>300206</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D150" s="5">
         <v>0</v>
@@ -6563,7 +6455,7 @@
         <v>300206</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D151" s="5">
         <v>302206</v>
@@ -6584,7 +6476,7 @@
         <v>300206</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D152" s="5">
         <v>304245</v>
@@ -6605,7 +6497,7 @@
         <v>300206</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D153" s="5">
         <v>304245</v>
@@ -6626,7 +6518,7 @@
         <v>300206</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D154" s="5">
         <v>304246</v>
@@ -6647,7 +6539,7 @@
         <v>300206</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D155" s="5">
         <v>0</v>
@@ -6668,7 +6560,7 @@
         <v>300207</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D156" s="5">
         <v>304248</v>
@@ -6689,7 +6581,7 @@
         <v>300207</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D157" s="5">
         <v>304249</v>
@@ -6710,7 +6602,7 @@
         <v>300207</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D158" s="5">
         <v>0</v>
@@ -6731,7 +6623,7 @@
         <v>300207</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
@@ -6752,7 +6644,7 @@
         <v>300207</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D160" s="5">
         <v>304252</v>
@@ -6773,7 +6665,7 @@
         <v>300207</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D161" s="5">
         <v>0</v>
@@ -6794,7 +6686,7 @@
         <v>300300</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D162" s="5">
         <v>0</v>
@@ -6815,7 +6707,7 @@
         <v>300300</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D163" s="5">
         <v>0</v>
@@ -6836,7 +6728,7 @@
         <v>300300</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D164" s="5">
         <v>304303</v>
@@ -6857,7 +6749,7 @@
         <v>300300</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D165" s="4">
         <v>302300</v>
@@ -6878,7 +6770,7 @@
         <v>300300</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D166" s="4">
         <v>304306</v>
@@ -6899,7 +6791,7 @@
         <v>300300</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D167" s="4">
         <v>304306</v>
@@ -6920,7 +6812,7 @@
         <v>300300</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D168" s="5">
         <v>0</v>
@@ -6941,7 +6833,7 @@
         <v>300301</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D169" s="5">
         <v>304308</v>
@@ -6962,7 +6854,7 @@
         <v>300301</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D170" s="5">
         <v>0</v>
@@ -6983,7 +6875,7 @@
         <v>300301</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D171" s="5">
         <v>0</v>
@@ -7004,7 +6896,7 @@
         <v>300301</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D172" s="5">
         <v>302301</v>
@@ -7025,7 +6917,7 @@
         <v>300301</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D173" s="5">
         <v>304313</v>
@@ -7046,7 +6938,7 @@
         <v>300301</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D174" s="5">
         <v>304313</v>
@@ -7067,7 +6959,7 @@
         <v>300301</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D175" s="5">
         <v>0</v>
@@ -7088,7 +6980,7 @@
         <v>300302</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D176" s="5">
         <v>304315</v>
@@ -7109,7 +7001,7 @@
         <v>300302</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D177" s="5">
         <v>302302</v>
@@ -7130,7 +7022,7 @@
         <v>300302</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D178" s="5">
         <v>304318</v>
@@ -7151,7 +7043,7 @@
         <v>300302</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D179" s="5">
         <v>304318</v>
@@ -7172,7 +7064,7 @@
         <v>300302</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D180" s="5">
         <v>0</v>
@@ -7193,7 +7085,7 @@
         <v>300303</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D181" s="4">
         <v>304320</v>
@@ -7214,7 +7106,7 @@
         <v>300303</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D182" s="5">
         <v>0</v>
@@ -7235,7 +7127,7 @@
         <v>300303</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D183" s="5">
         <v>0</v>
@@ -7256,7 +7148,7 @@
         <v>300303</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D184" s="4">
         <v>304323</v>
@@ -7277,7 +7169,7 @@
         <v>300303</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D185" s="4">
         <v>302303</v>
@@ -7298,7 +7190,7 @@
         <v>300303</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D186" s="4">
         <v>304326</v>
@@ -7319,7 +7211,7 @@
         <v>300303</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D187" s="4">
         <v>304326</v>
@@ -7340,7 +7232,7 @@
         <v>300303</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D188" s="5">
         <v>0</v>
@@ -7361,7 +7253,7 @@
         <v>300400</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D189" s="4">
         <v>304401</v>
@@ -7382,7 +7274,7 @@
         <v>300400</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D190" s="5">
         <v>302400</v>
@@ -7403,7 +7295,7 @@
         <v>300400</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D191" s="5">
         <v>304404</v>
@@ -7424,7 +7316,7 @@
         <v>300400</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D192" s="4">
         <v>304404</v>
@@ -7445,7 +7337,7 @@
         <v>300400</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D193" s="4">
         <v>304405</v>
@@ -7466,7 +7358,7 @@
         <v>300400</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D194" s="4">
         <v>304406</v>
@@ -7487,7 +7379,7 @@
         <v>300400</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D195" s="5">
         <v>0</v>
@@ -7508,7 +7400,7 @@
         <v>300401</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D196" s="5">
         <v>0</v>
@@ -7529,7 +7421,7 @@
         <v>300401</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D197" s="5">
         <v>0</v>
@@ -7550,7 +7442,7 @@
         <v>300401</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D198" s="4">
         <v>304410</v>
@@ -7571,7 +7463,7 @@
         <v>300401</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D199" s="4">
         <v>302401</v>
@@ -7592,7 +7484,7 @@
         <v>300401</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D200" s="4">
         <v>304413</v>
@@ -7613,7 +7505,7 @@
         <v>300401</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D201" s="4">
         <v>304413</v>
@@ -7634,7 +7526,7 @@
         <v>300401</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D202" s="5">
         <v>0</v>
@@ -7655,7 +7547,7 @@
         <v>300402</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D203" s="4">
         <v>304415</v>
@@ -7676,7 +7568,7 @@
         <v>300402</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D204" s="4">
         <v>304416</v>
@@ -7697,7 +7589,7 @@
         <v>300402</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D205" s="4">
         <v>302402</v>
@@ -7718,7 +7610,7 @@
         <v>300402</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D206" s="4">
         <v>304419</v>
@@ -7739,7 +7631,7 @@
         <v>300402</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D207" s="4">
         <v>304419</v>
@@ -7760,7 +7652,7 @@
         <v>300402</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D208" s="5">
         <v>0</v>
@@ -7781,7 +7673,7 @@
         <v>300403</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D209" s="4">
         <v>304421</v>
@@ -7802,7 +7694,7 @@
         <v>300403</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D210" s="5">
         <v>0</v>
@@ -7823,7 +7715,7 @@
         <v>300403</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D211" s="5">
         <v>0</v>
@@ -7844,7 +7736,7 @@
         <v>300403</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D212" s="4">
         <v>302403</v>
@@ -7865,7 +7757,7 @@
         <v>300403</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D213" s="4">
         <v>304426</v>
@@ -7886,7 +7778,7 @@
         <v>300403</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D214" s="4">
         <v>304426</v>
@@ -7907,7 +7799,7 @@
         <v>300403</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D215" s="5">
         <v>0</v>
@@ -7928,7 +7820,7 @@
         <v>300404</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D216" s="5">
         <v>304428</v>
@@ -7949,7 +7841,7 @@
         <v>300404</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D217" s="5">
         <v>304429</v>
@@ -7970,7 +7862,7 @@
         <v>300404</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D218" s="5">
         <v>304430</v>
@@ -7991,7 +7883,7 @@
         <v>300404</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D219" s="5">
         <v>0</v>
@@ -8012,7 +7904,7 @@
         <v>300404</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D220" s="5">
         <v>0</v>
@@ -8033,7 +7925,7 @@
         <v>300404</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D221" s="5">
         <v>302404</v>
@@ -8054,7 +7946,7 @@
         <v>300404</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D222" s="5">
         <v>304435</v>
@@ -8075,7 +7967,7 @@
         <v>300404</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D223" s="5">
         <v>304435</v>
@@ -8096,7 +7988,7 @@
         <v>300404</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D224" s="5">
         <v>0</v>
@@ -8117,7 +8009,7 @@
         <v>300405</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D225" s="5">
         <v>304437</v>
@@ -8138,7 +8030,7 @@
         <v>300405</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D226" s="5">
         <v>0</v>
@@ -8159,7 +8051,7 @@
         <v>300405</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D227" s="5">
         <v>0</v>
@@ -8180,7 +8072,7 @@
         <v>300405</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D228" s="5">
         <v>302405</v>
@@ -8201,7 +8093,7 @@
         <v>300405</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D229" s="5">
         <v>304442</v>
@@ -8222,7 +8114,7 @@
         <v>300405</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D230" s="5">
         <v>304442</v>
@@ -8243,7 +8135,7 @@
         <v>300405</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D231" s="5">
         <v>304443</v>
@@ -8264,7 +8156,7 @@
         <v>300405</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D232" s="5">
         <v>0</v>
@@ -8285,7 +8177,7 @@
         <v>300406</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D233" s="5">
         <v>0</v>
@@ -8306,7 +8198,7 @@
         <v>300406</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D234" s="5">
         <v>0</v>
@@ -8327,7 +8219,7 @@
         <v>300406</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D235" s="5">
         <v>302406</v>
@@ -8348,7 +8240,7 @@
         <v>300406</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D236" s="5">
         <v>304449</v>
@@ -8369,7 +8261,7 @@
         <v>300406</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D237" s="5">
         <v>304449</v>
@@ -8390,7 +8282,7 @@
         <v>300406</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D238" s="5">
         <v>0</v>
@@ -8411,7 +8303,7 @@
         <v>300600</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D239" s="5">
         <v>0</v>
@@ -8432,7 +8324,7 @@
         <v>300600</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D240" s="5">
         <v>0</v>
@@ -8453,7 +8345,7 @@
         <v>300600</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D241" s="5">
         <v>302407</v>
@@ -8474,7 +8366,7 @@
         <v>300600</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D242" s="4">
         <v>304455</v>
@@ -8495,7 +8387,7 @@
         <v>300600</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D243" s="4">
         <v>304455</v>
@@ -8516,7 +8408,7 @@
         <v>300600</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D244" s="5">
         <v>0</v>
@@ -8537,7 +8429,7 @@
         <v>300500</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D245" s="4">
         <v>302500</v>
@@ -8558,7 +8450,7 @@
         <v>300500</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D246" s="4">
         <v>304503</v>
@@ -8579,7 +8471,7 @@
         <v>300500</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D247" s="4">
         <v>304503</v>
@@ -8600,7 +8492,7 @@
         <v>300500</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D248" s="4">
         <v>304504</v>
@@ -8621,7 +8513,7 @@
         <v>300500</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D249" s="4">
         <v>304505</v>
@@ -8642,7 +8534,7 @@
         <v>300500</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D250" s="5">
         <v>0</v>
@@ -8663,7 +8555,7 @@
         <v>300501</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D251" s="4">
         <v>304507</v>
@@ -8684,7 +8576,7 @@
         <v>300501</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D252" s="5">
         <v>302501</v>
@@ -8705,7 +8597,7 @@
         <v>300501</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D253" s="4">
         <v>304510</v>
@@ -8726,7 +8618,7 @@
         <v>300501</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D254" s="5">
         <v>304510</v>
@@ -8747,7 +8639,7 @@
         <v>300501</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D255" s="5">
         <v>0</v>
@@ -8768,7 +8660,7 @@
         <v>300502</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D256" s="5">
         <v>304512</v>
@@ -8789,7 +8681,7 @@
         <v>300502</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D257" s="5">
         <v>302502</v>
@@ -8810,7 +8702,7 @@
         <v>300502</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D258" s="5">
         <v>304515</v>
@@ -8831,7 +8723,7 @@
         <v>300502</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D259" s="5">
         <v>304515</v>
@@ -8852,7 +8744,7 @@
         <v>300502</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D260" s="5">
         <v>0</v>
@@ -8873,7 +8765,7 @@
         <v>300503</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D261" s="5">
         <v>0</v>
@@ -8894,7 +8786,7 @@
         <v>300504</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D262" s="5">
         <v>304518</v>
@@ -8915,7 +8807,7 @@
         <v>300504</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D263" s="5">
         <v>302503</v>
@@ -8936,7 +8828,7 @@
         <v>300504</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D264" s="5">
         <v>304521</v>
@@ -8957,7 +8849,7 @@
         <v>300504</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D265" s="5">
         <v>304521</v>
@@ -8978,7 +8870,7 @@
         <v>300504</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D266" s="5">
         <v>0</v>
@@ -8999,7 +8891,7 @@
         <v>300504</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D267" s="5">
         <v>304523</v>
@@ -9020,7 +8912,7 @@
         <v>300504</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D268" s="5">
         <v>304524</v>
@@ -9041,7 +8933,7 @@
         <v>300504</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D269" s="5">
         <v>0</v>
@@ -9062,7 +8954,7 @@
         <v>300504</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D270" s="5">
         <v>0</v>
@@ -9083,7 +8975,7 @@
         <v>300600</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D271" s="4">
         <v>304601</v>
@@ -9104,7 +8996,7 @@
         <v>300600</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D272" s="5">
         <v>304602</v>
@@ -9125,7 +9017,7 @@
         <v>300600</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D273" s="5">
         <v>302600</v>
@@ -9146,7 +9038,7 @@
         <v>300600</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D274" s="4">
         <v>304604</v>
@@ -9167,7 +9059,7 @@
         <v>300600</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D275" s="4">
         <v>304605</v>
@@ -9188,7 +9080,7 @@
         <v>300600</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D276" s="4">
         <v>304606</v>
@@ -9209,7 +9101,7 @@
         <v>300600</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D277" s="4">
         <v>302601</v>
@@ -9230,7 +9122,7 @@
         <v>300600</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D278" s="5">
         <v>304608</v>
@@ -9251,7 +9143,7 @@
         <v>300600</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D279" s="4">
         <v>304609</v>
@@ -9272,7 +9164,7 @@
         <v>300600</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D280" s="4">
         <v>304610</v>
@@ -9293,7 +9185,7 @@
         <v>300600</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D281" s="4">
         <v>304611</v>
@@ -9314,7 +9206,7 @@
         <v>300600</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D282" s="4">
         <v>302602</v>
@@ -9335,7 +9227,7 @@
         <v>300600</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D283" s="4">
         <v>304613</v>
@@ -9356,7 +9248,7 @@
         <v>300600</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D284" s="4">
         <v>304614</v>
@@ -9377,7 +9269,7 @@
         <v>300600</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D285" s="4">
         <v>304615</v>
@@ -9398,7 +9290,7 @@
         <v>300600</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D286" s="4">
         <v>304616</v>
@@ -9419,7 +9311,7 @@
         <v>300600</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D287" s="4">
         <v>304617</v>
@@ -9440,7 +9332,7 @@
         <v>300600</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D288" s="4">
         <v>302603</v>
@@ -9461,7 +9353,7 @@
         <v>300600</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D289" s="4">
         <v>304619</v>
@@ -9482,7 +9374,7 @@
         <v>300600</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D290" s="4">
         <v>304620</v>
@@ -9503,7 +9395,7 @@
         <v>300600</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D291" s="4">
         <v>304621</v>
@@ -9524,7 +9416,7 @@
         <v>300600</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D292" s="4">
         <v>304622</v>
@@ -9545,7 +9437,7 @@
         <v>300600</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D293" s="4">
         <v>304623</v>
@@ -9566,7 +9458,7 @@
         <v>300600</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D294" s="4">
         <v>304624</v>
@@ -9587,7 +9479,7 @@
         <v>300600</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D295" s="4">
         <v>0</v>
@@ -9661,7 +9553,7 @@
         <v>302000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C2" s="4">
         <v>304004</v>
@@ -9673,7 +9565,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G2" s="4">
         <v>304004</v>
@@ -9690,7 +9582,7 @@
         <v>302001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C3" s="4">
         <v>304010</v>
@@ -9702,7 +9594,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G3" s="4">
         <v>304010</v>
@@ -9719,7 +9611,7 @@
         <v>302002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C4" s="4">
         <v>304016</v>
@@ -9731,7 +9623,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G4" s="4">
         <v>304016</v>
@@ -9748,7 +9640,7 @@
         <v>302003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C5" s="4">
         <v>304022</v>
@@ -9760,7 +9652,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G5" s="4">
         <v>304022</v>
@@ -9777,7 +9669,7 @@
         <v>302100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C6" s="4">
         <v>304179</v>
@@ -9789,7 +9681,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G6" s="4">
         <v>304180</v>
@@ -9806,7 +9698,7 @@
         <v>302200</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C7" s="4">
         <v>304204</v>
@@ -9818,7 +9710,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G7" s="4">
         <v>304205</v>
@@ -9835,7 +9727,7 @@
         <v>302201</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C8" s="4">
         <v>304210</v>
@@ -9847,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G8" s="4">
         <v>304211</v>
@@ -9864,7 +9756,7 @@
         <v>302202</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C9" s="4">
         <v>304216</v>
@@ -9876,7 +9768,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G9" s="4">
         <v>304217</v>
@@ -9893,7 +9785,7 @@
         <v>302203</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C10" s="4">
         <v>304220</v>
@@ -9905,7 +9797,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G10" s="4">
         <v>304221</v>
@@ -9922,7 +9814,7 @@
         <v>302204</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C11" s="4">
         <v>304227</v>
@@ -9934,7 +9826,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G11" s="4">
         <v>304228</v>
@@ -9951,7 +9843,7 @@
         <v>302205</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C12" s="4">
         <v>304235</v>
@@ -9963,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G12" s="4">
         <v>304236</v>
@@ -9980,7 +9872,7 @@
         <v>302206</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C13" s="4">
         <v>304243</v>
@@ -9992,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G13" s="4">
         <v>304244</v>
@@ -10009,7 +9901,7 @@
         <v>302300</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C14" s="4">
         <v>304304</v>
@@ -10021,7 +9913,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G14" s="4">
         <v>304305</v>
@@ -10038,7 +9930,7 @@
         <v>302301</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C15" s="4">
         <v>304311</v>
@@ -10050,7 +9942,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G15" s="4">
         <v>304312</v>
@@ -10067,7 +9959,7 @@
         <v>302302</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C16" s="4">
         <v>304316</v>
@@ -10079,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G16" s="4">
         <v>304317</v>
@@ -10108,7 +10000,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G17" s="4">
         <v>304325</v>
@@ -10125,7 +10017,7 @@
         <v>302400</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C18" s="4">
         <v>304402</v>
@@ -10137,7 +10029,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G18" s="4">
         <v>304403</v>
@@ -10154,7 +10046,7 @@
         <v>302401</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C19" s="7">
         <v>304411</v>
@@ -10166,7 +10058,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G19" s="7">
         <v>304412</v>
@@ -10183,7 +10075,7 @@
         <v>302402</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C20" s="7">
         <v>304417</v>
@@ -10195,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7">
         <v>304418</v>
@@ -10212,7 +10104,7 @@
         <v>302403</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C21" s="7">
         <v>304424</v>
@@ -10224,7 +10116,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G21" s="7">
         <v>304425</v>
@@ -10241,7 +10133,7 @@
         <v>302404</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C22" s="7">
         <v>304433</v>
@@ -10253,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7">
         <v>304434</v>
@@ -10270,7 +10162,7 @@
         <v>302405</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C23" s="7">
         <v>304440</v>
@@ -10282,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7">
         <v>304441</v>
@@ -10299,7 +10191,7 @@
         <v>302406</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C24" s="7">
         <v>304447</v>
@@ -10311,7 +10203,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G24" s="7">
         <v>304448</v>
@@ -10328,7 +10220,7 @@
         <v>302407</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C25" s="4">
         <v>304453</v>
@@ -10340,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G25" s="4">
         <v>304454</v>
@@ -10357,7 +10249,7 @@
         <v>302500</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C26" s="7">
         <v>304501</v>
@@ -10369,7 +10261,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7">
         <v>304502</v>
@@ -10386,7 +10278,7 @@
         <v>302501</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C27" s="7">
         <v>304508</v>
@@ -10398,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G27" s="7">
         <v>304509</v>
@@ -10415,7 +10307,7 @@
         <v>302502</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C28" s="7">
         <v>304513</v>
@@ -10427,7 +10319,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G28" s="7">
         <v>304514</v>
@@ -10444,7 +10336,7 @@
         <v>302503</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C29" s="7">
         <v>304519</v>
@@ -10456,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G29" s="7">
         <v>304520</v>
@@ -10473,7 +10365,7 @@
         <v>302600</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C30" s="4">
         <v>304603</v>
@@ -10485,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G30" s="4">
         <v>304603</v>
@@ -10502,7 +10394,7 @@
         <v>302601</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C31" s="4">
         <v>304607</v>
@@ -10514,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G31" s="4">
         <v>304607</v>
@@ -10531,7 +10423,7 @@
         <v>302602</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C32" s="4">
         <v>304612</v>
@@ -10543,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G32" s="4">
         <v>304612</v>
@@ -10560,7 +10452,7 @@
         <v>302603</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C33" s="4">
         <v>304618</v>
@@ -10572,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G33" s="4">
         <v>304618</v>
@@ -10622,7 +10514,7 @@
         <v>300000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>301000</v>
@@ -10633,7 +10525,7 @@
         <v>300001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2">
         <v>301001</v>
@@ -10644,7 +10536,7 @@
         <v>300002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
         <v>301002</v>
@@ -10655,7 +10547,7 @@
         <v>300003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2">
         <v>301003</v>
@@ -10666,7 +10558,7 @@
         <v>300100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>301100</v>
@@ -10677,7 +10569,7 @@
         <v>300101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1">
         <v>301107</v>
@@ -10688,7 +10580,7 @@
         <v>300200</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4">
         <v>301200</v>
@@ -10699,7 +10591,7 @@
         <v>300201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4">
         <v>301201</v>
@@ -10710,7 +10602,7 @@
         <v>300202</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4">
         <v>301202</v>
@@ -10721,7 +10613,7 @@
         <v>300203</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4">
         <v>301203</v>
@@ -10732,7 +10624,7 @@
         <v>300204</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4">
         <v>301204</v>
@@ -10743,7 +10635,7 @@
         <v>300205</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4">
         <v>301205</v>
@@ -10754,7 +10646,7 @@
         <v>300206</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4">
         <v>301206</v>
@@ -10765,7 +10657,7 @@
         <v>300207</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2">
         <v>301207</v>
@@ -10776,7 +10668,7 @@
         <v>300301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C16" s="4">
         <v>301301</v>
@@ -10787,7 +10679,7 @@
         <v>300302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C17" s="4">
         <v>301302</v>
@@ -10798,7 +10690,7 @@
         <v>300400</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4">
         <v>301400</v>
@@ -10809,7 +10701,7 @@
         <v>300401</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4">
         <v>301401</v>
@@ -10820,7 +10712,7 @@
         <v>300402</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4">
         <v>301402</v>
@@ -10831,7 +10723,7 @@
         <v>300404</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4">
         <v>301404</v>
@@ -10842,7 +10734,7 @@
         <v>300405</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4">
         <v>301405</v>
@@ -10853,7 +10745,7 @@
         <v>300406</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4">
         <v>301406</v>
@@ -10864,7 +10756,7 @@
         <v>300407</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4">
         <v>301407</v>
@@ -10875,7 +10767,7 @@
         <v>300500</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1">
         <v>301500</v>
@@ -10886,7 +10778,7 @@
         <v>300501</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1">
         <v>301501</v>
@@ -10897,7 +10789,7 @@
         <v>300502</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2">
         <v>301502</v>
@@ -10908,7 +10800,7 @@
         <v>300503</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2">
         <v>301503</v>
@@ -10919,7 +10811,7 @@
         <v>300600</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1">
         <v>301600</v>
@@ -10930,7 +10822,7 @@
         <v>300700</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1">
         <v>301700</v>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\OneDrive\바탕 화면\기업협약 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8400" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DIALOGUE_TABLE" sheetId="5" r:id="rId1"/>
@@ -1706,43 +1706,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어떤 색의 양복을 선호하시나요?</t>
-  </si>
-  <si>
-    <t>무난하지만&lt;br&gt;세련된 취향이군요.</t>
-  </si>
-  <si>
-    <t>눈에 확 띄는 것을&lt;br&gt;좋아하시는군요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋은 참고점이 될 것 같습니다. </t>
-  </si>
-  <si>
-    <t>새로운 양복을 들이려고 합니다만.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님의 취향을 맞추기가 쉽지않네요.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서오세요. 양복점입니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>또 나야!&lt;br&gt;별을 8개 가져오면&lt;br&gt;지나가게 해주지-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">이제는 조금 반갑지?&lt;br&gt;별 </t>
+      <t xml:space="preserve">또 나야!&lt;br&gt;별을 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -1757,6 +1729,34 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>개 가져오면&lt;br&gt;지나가게 해주지-</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이제는 조금 반갑지?&lt;br&gt;별 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>개를 가지고 와!</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1770,11 +1770,11 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>13</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -1788,6 +1788,30 @@
       <t>개를 가지고 오도록!</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 색의 양복을 선호하시나요?</t>
+  </si>
+  <si>
+    <t>무난하지만&lt;br&gt;세련된 취향이군요.</t>
+  </si>
+  <si>
+    <t>눈에 확 띄는 것을&lt;br&gt;좋아하시는군요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">좋은 참고점이 될 것 같습니다. </t>
+  </si>
+  <si>
+    <t>새로운 양복을 들이려고 합니다만.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 취향을 맞추기가 쉽지않네요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서오세요. 양복점입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1827,18 +1851,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1863,7 +1887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1888,10 +1912,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2177,7 +2204,7 @@
   <dimension ref="A1:L295"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2347,7 +2374,7 @@
         <v>300001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -2473,7 +2500,7 @@
         <v>300002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -2599,7 +2626,7 @@
         <v>300003</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -5118,8 +5145,8 @@
       <c r="B140" s="4">
         <v>300205</v>
       </c>
-      <c r="C140" s="8" t="s">
-        <v>440</v>
+      <c r="C140" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="D140" s="5">
         <v>304232</v>
@@ -5139,8 +5166,8 @@
       <c r="B141" s="4">
         <v>300205</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>438</v>
+      <c r="C141" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="D141" s="5">
         <v>304232</v>
@@ -5160,8 +5187,8 @@
       <c r="B142" s="4">
         <v>300205</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>439</v>
+      <c r="C142" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="D142" s="5">
         <v>304233</v>
@@ -5181,8 +5208,8 @@
       <c r="B143" s="4">
         <v>300205</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>434</v>
+      <c r="C143" s="10" t="s">
+        <v>437</v>
       </c>
       <c r="D143" s="5">
         <v>302205</v>
@@ -5202,8 +5229,8 @@
       <c r="B144" s="4">
         <v>300205</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>435</v>
+      <c r="C144" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="D144" s="5">
         <v>304237</v>
@@ -5223,8 +5250,8 @@
       <c r="B145" s="4">
         <v>300205</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>436</v>
+      <c r="C145" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="D145" s="5">
         <v>304237</v>
@@ -5244,8 +5271,8 @@
       <c r="B146" s="4">
         <v>300205</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>437</v>
+      <c r="C146" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="D146" s="5">
         <v>0</v>
@@ -7195,7 +7222,7 @@
         <v>304450</v>
       </c>
       <c r="B239" s="4">
-        <v>300407</v>
+        <v>300600</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>387</v>
@@ -7216,7 +7243,7 @@
         <v>304451</v>
       </c>
       <c r="B240" s="4">
-        <v>300407</v>
+        <v>300600</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>388</v>
@@ -7237,7 +7264,7 @@
         <v>304452</v>
       </c>
       <c r="B241" s="4">
-        <v>300407</v>
+        <v>300600</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>389</v>
@@ -7258,7 +7285,7 @@
         <v>304453</v>
       </c>
       <c r="B242" s="4">
-        <v>300407</v>
+        <v>300600</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>130</v>
@@ -7279,7 +7306,7 @@
         <v>304454</v>
       </c>
       <c r="B243" s="4">
-        <v>300407</v>
+        <v>300600</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>131</v>
@@ -7300,7 +7327,7 @@
         <v>304455</v>
       </c>
       <c r="B244" s="4">
-        <v>300407</v>
+        <v>300600</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>390</v>
@@ -7678,7 +7705,7 @@
         <v>304517</v>
       </c>
       <c r="B262" s="4">
-        <v>300503</v>
+        <v>300504</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>401</v>
@@ -7699,7 +7726,7 @@
         <v>304518</v>
       </c>
       <c r="B263" s="4">
-        <v>300503</v>
+        <v>300504</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>402</v>
@@ -7720,7 +7747,7 @@
         <v>304519</v>
       </c>
       <c r="B264" s="4">
-        <v>300503</v>
+        <v>300504</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>403</v>
@@ -7741,7 +7768,7 @@
         <v>304520</v>
       </c>
       <c r="B265" s="4">
-        <v>300503</v>
+        <v>300504</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>404</v>
@@ -7762,7 +7789,7 @@
         <v>304521</v>
       </c>
       <c r="B266" s="4">
-        <v>300503</v>
+        <v>300504</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>405</v>
@@ -7783,7 +7810,7 @@
         <v>304522</v>
       </c>
       <c r="B267" s="4">
-        <v>300503</v>
+        <v>300504</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>406</v>
@@ -7804,7 +7831,7 @@
         <v>304523</v>
       </c>
       <c r="B268" s="4">
-        <v>300503</v>
+        <v>300504</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>139</v>
@@ -7825,7 +7852,7 @@
         <v>304524</v>
       </c>
       <c r="B269" s="4">
-        <v>300503</v>
+        <v>300504</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>140</v>
@@ -7846,7 +7873,7 @@
         <v>304525</v>
       </c>
       <c r="B270" s="4">
-        <v>300503</v>
+        <v>300504</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>407</v>
@@ -8398,8 +8425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8721,8 +8748,8 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
-        <v>100004</v>
+      <c r="F10" s="8">
+        <v>100005</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -8783,7 +8810,7 @@
         <v>300101</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>101003</v>
@@ -8977,11 +9004,11 @@
       <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="2">
-        <v>103200</v>
-      </c>
-      <c r="G18" s="2">
-        <v>103201</v>
+      <c r="F18" s="8">
+        <v>103011</v>
+      </c>
+      <c r="G18" s="8">
+        <v>103012</v>
       </c>
       <c r="H18" s="2">
         <v>304224</v>
@@ -9265,11 +9292,11 @@
       <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="F27" s="2">
-        <v>106024</v>
-      </c>
-      <c r="G27" s="2">
-        <v>106025</v>
+      <c r="F27" s="8">
+        <v>106000</v>
+      </c>
+      <c r="G27" s="8">
+        <v>106001</v>
       </c>
       <c r="H27" s="4">
         <v>304427</v>
@@ -9297,11 +9324,11 @@
       <c r="E28" s="2">
         <v>2</v>
       </c>
-      <c r="F28" s="2">
-        <v>103202</v>
-      </c>
-      <c r="G28" s="2">
-        <v>103203</v>
+      <c r="F28" s="8">
+        <v>103013</v>
+      </c>
+      <c r="G28" s="8">
+        <v>103014</v>
       </c>
       <c r="H28" s="4">
         <v>304436</v>
@@ -9329,11 +9356,11 @@
       <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F29" s="2">
-        <v>103204</v>
-      </c>
-      <c r="G29" s="2">
-        <v>103205</v>
+      <c r="F29" s="8">
+        <v>103015</v>
+      </c>
+      <c r="G29" s="8">
+        <v>103016</v>
       </c>
       <c r="H29" s="4">
         <v>304444</v>
@@ -10564,7 +10591,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10649,7 +10676,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="1">
-        <v>301106</v>
+        <v>301107</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1">

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="DIALOGUE_TABLE" sheetId="5" r:id="rId1"/>
@@ -1079,10 +1079,6 @@
   </si>
   <si>
     <t>참, 아이템을 들고&lt;br&gt;말을 걸기 위해서는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템이 없는 쪽 손의&lt;br&gt;버튼을 눌러야 해!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1812,6 +1808,10 @@
   <si>
     <t>어서오세요. 양복점입니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>똑같이 X나 A 버튼을&lt;br&gt;누르면 돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1887,7 +1887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1919,6 +1919,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2203,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2248,7 +2251,7 @@
         <v>300000</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -2374,7 +2377,7 @@
         <v>300001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -2500,7 +2503,7 @@
         <v>300002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -2626,7 +2629,7 @@
         <v>300003</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -3780,8 +3783,8 @@
       <c r="B75" s="4">
         <v>300100</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>284</v>
+      <c r="C75" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="D75" s="5">
         <v>0</v>
@@ -3802,7 +3805,7 @@
         <v>300100</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D76" s="5">
         <v>304150</v>
@@ -3823,7 +3826,7 @@
         <v>300100</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D77" s="5">
         <v>304144</v>
@@ -3844,7 +3847,7 @@
         <v>300100</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D78" s="4">
         <v>304152</v>
@@ -3865,7 +3868,7 @@
         <v>300100</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D79" s="5">
         <v>304153</v>
@@ -3886,7 +3889,7 @@
         <v>300100</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D80" s="4">
         <v>304154</v>
@@ -3907,7 +3910,7 @@
         <v>300100</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D81" s="5">
         <v>304155</v>
@@ -3928,7 +3931,7 @@
         <v>300100</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D82" s="4">
         <v>304156</v>
@@ -3949,7 +3952,7 @@
         <v>300100</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D83" s="5">
         <v>304157</v>
@@ -3970,7 +3973,7 @@
         <v>300100</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -3991,7 +3994,7 @@
         <v>300100</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D85" s="4">
         <v>304159</v>
@@ -4012,7 +4015,7 @@
         <v>300100</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D86" s="5">
         <v>0</v>
@@ -4033,7 +4036,7 @@
         <v>300100</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D87" s="5">
         <v>0</v>
@@ -4054,7 +4057,7 @@
         <v>300101</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D88" s="4">
         <v>304162</v>
@@ -4075,7 +4078,7 @@
         <v>300101</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D89" s="4">
         <v>304163</v>
@@ -4096,7 +4099,7 @@
         <v>300101</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D90" s="4">
         <v>304164</v>
@@ -4117,7 +4120,7 @@
         <v>300101</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D91" s="4">
         <v>304165</v>
@@ -4138,7 +4141,7 @@
         <v>300101</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D92" s="4">
         <v>304166</v>
@@ -4159,7 +4162,7 @@
         <v>300101</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D93" s="4">
         <v>304167</v>
@@ -4180,7 +4183,7 @@
         <v>300101</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D94" s="4">
         <v>304168</v>
@@ -4306,7 +4309,7 @@
         <v>300100</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D100" s="4">
         <v>304174</v>
@@ -4327,7 +4330,7 @@
         <v>300100</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D101" s="4">
         <v>304175</v>
@@ -4348,7 +4351,7 @@
         <v>300100</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D102" s="4">
         <v>304176</v>
@@ -4369,7 +4372,7 @@
         <v>300100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D103" s="4">
         <v>304177</v>
@@ -4390,7 +4393,7 @@
         <v>300100</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D104" s="4">
         <v>304178</v>
@@ -4432,7 +4435,7 @@
         <v>300100</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D106" s="4">
         <v>304181</v>
@@ -4453,7 +4456,7 @@
         <v>300100</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D107" s="4">
         <v>304181</v>
@@ -4474,7 +4477,7 @@
         <v>300100</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
@@ -4495,7 +4498,7 @@
         <v>300200</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D109" s="4">
         <v>304201</v>
@@ -4558,7 +4561,7 @@
         <v>300200</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D112" s="4">
         <v>302200</v>
@@ -4621,7 +4624,7 @@
         <v>300200</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="5">
         <v>0</v>
@@ -4642,7 +4645,7 @@
         <v>300201</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D116" s="5">
         <v>304208</v>
@@ -4684,7 +4687,7 @@
         <v>300201</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D118" s="5">
         <v>302201</v>
@@ -4747,7 +4750,7 @@
         <v>300201</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
@@ -4831,7 +4834,7 @@
         <v>300202</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D125" s="4">
         <v>304218</v>
@@ -4852,7 +4855,7 @@
         <v>300202</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D126" s="5">
         <v>304218</v>
@@ -4873,7 +4876,7 @@
         <v>300202</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D127" s="5">
         <v>0</v>
@@ -4915,7 +4918,7 @@
         <v>300203</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D129" s="5">
         <v>304222</v>
@@ -4936,7 +4939,7 @@
         <v>300203</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D130" s="5">
         <v>304222</v>
@@ -4999,7 +5002,7 @@
         <v>300204</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D133" s="5">
         <v>0</v>
@@ -5020,7 +5023,7 @@
         <v>300204</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D134" s="5">
         <v>0</v>
@@ -5041,7 +5044,7 @@
         <v>300204</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D135" s="5">
         <v>302204</v>
@@ -5062,7 +5065,7 @@
         <v>300204</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D136" s="5">
         <v>304229</v>
@@ -5083,7 +5086,7 @@
         <v>300204</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D137" s="5">
         <v>304229</v>
@@ -5104,7 +5107,7 @@
         <v>300204</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D138" s="5">
         <v>304230</v>
@@ -5125,7 +5128,7 @@
         <v>300204</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D139" s="5">
         <v>0</v>
@@ -5146,7 +5149,7 @@
         <v>300205</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D140" s="5">
         <v>304232</v>
@@ -5167,7 +5170,7 @@
         <v>300205</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D141" s="5">
         <v>304232</v>
@@ -5188,7 +5191,7 @@
         <v>300205</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D142" s="5">
         <v>304233</v>
@@ -5209,7 +5212,7 @@
         <v>300205</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D143" s="5">
         <v>302205</v>
@@ -5230,7 +5233,7 @@
         <v>300205</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D144" s="5">
         <v>304237</v>
@@ -5251,7 +5254,7 @@
         <v>300205</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D145" s="5">
         <v>304237</v>
@@ -5272,7 +5275,7 @@
         <v>300205</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D146" s="5">
         <v>0</v>
@@ -5293,7 +5296,7 @@
         <v>300206</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D147" s="5">
         <v>304239</v>
@@ -5335,7 +5338,7 @@
         <v>300206</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D149" s="5">
         <v>0</v>
@@ -5377,7 +5380,7 @@
         <v>300206</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D151" s="5">
         <v>302206</v>
@@ -5398,7 +5401,7 @@
         <v>300206</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D152" s="5">
         <v>304245</v>
@@ -5419,7 +5422,7 @@
         <v>300206</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D153" s="5">
         <v>304245</v>
@@ -5440,7 +5443,7 @@
         <v>300206</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D154" s="5">
         <v>304246</v>
@@ -5461,7 +5464,7 @@
         <v>300206</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D155" s="5">
         <v>0</v>
@@ -5482,7 +5485,7 @@
         <v>300207</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D156" s="5">
         <v>304248</v>
@@ -5545,7 +5548,7 @@
         <v>300207</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
@@ -5671,7 +5674,7 @@
         <v>300300</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D165" s="4">
         <v>302300</v>
@@ -5692,7 +5695,7 @@
         <v>300300</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D166" s="4">
         <v>304306</v>
@@ -5734,7 +5737,7 @@
         <v>300300</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D168" s="5">
         <v>0</v>
@@ -5776,7 +5779,7 @@
         <v>300301</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D170" s="5">
         <v>0</v>
@@ -5818,7 +5821,7 @@
         <v>300301</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D172" s="5">
         <v>302301</v>
@@ -5839,7 +5842,7 @@
         <v>300301</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D173" s="5">
         <v>304313</v>
@@ -5860,7 +5863,7 @@
         <v>300301</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D174" s="5">
         <v>304313</v>
@@ -5881,7 +5884,7 @@
         <v>300301</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D175" s="5">
         <v>0</v>
@@ -5923,7 +5926,7 @@
         <v>300302</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D177" s="5">
         <v>302302</v>
@@ -5944,7 +5947,7 @@
         <v>300302</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D178" s="5">
         <v>304318</v>
@@ -5965,7 +5968,7 @@
         <v>300302</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D179" s="5">
         <v>304318</v>
@@ -5986,7 +5989,7 @@
         <v>300302</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D180" s="5">
         <v>0</v>
@@ -6007,7 +6010,7 @@
         <v>300303</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D181" s="4">
         <v>304320</v>
@@ -6028,7 +6031,7 @@
         <v>300303</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D182" s="5">
         <v>0</v>
@@ -6070,7 +6073,7 @@
         <v>300303</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D184" s="4">
         <v>304323</v>
@@ -6112,7 +6115,7 @@
         <v>300303</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D186" s="4">
         <v>304326</v>
@@ -6133,7 +6136,7 @@
         <v>300303</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D187" s="4">
         <v>304326</v>
@@ -6175,7 +6178,7 @@
         <v>300400</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D189" s="4">
         <v>304401</v>
@@ -6196,7 +6199,7 @@
         <v>300400</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D190" s="5">
         <v>302400</v>
@@ -6217,7 +6220,7 @@
         <v>300400</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D191" s="5">
         <v>304404</v>
@@ -6238,7 +6241,7 @@
         <v>300400</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D192" s="4">
         <v>304404</v>
@@ -6259,7 +6262,7 @@
         <v>300400</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D193" s="4">
         <v>304405</v>
@@ -6280,7 +6283,7 @@
         <v>300400</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D194" s="4">
         <v>304406</v>
@@ -6301,7 +6304,7 @@
         <v>300400</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D195" s="5">
         <v>0</v>
@@ -6322,7 +6325,7 @@
         <v>300401</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D196" s="5">
         <v>0</v>
@@ -6343,7 +6346,7 @@
         <v>300401</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D197" s="5">
         <v>0</v>
@@ -6364,7 +6367,7 @@
         <v>300401</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D198" s="4">
         <v>304410</v>
@@ -6385,7 +6388,7 @@
         <v>300401</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D199" s="4">
         <v>302401</v>
@@ -6469,7 +6472,7 @@
         <v>300402</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D203" s="4">
         <v>304415</v>
@@ -6511,7 +6514,7 @@
         <v>300402</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D205" s="4">
         <v>302402</v>
@@ -6637,7 +6640,7 @@
         <v>300403</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D211" s="5">
         <v>0</v>
@@ -6679,7 +6682,7 @@
         <v>300403</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D213" s="4">
         <v>304426</v>
@@ -6700,7 +6703,7 @@
         <v>300403</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D214" s="4">
         <v>304426</v>
@@ -6721,7 +6724,7 @@
         <v>300403</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D215" s="5">
         <v>0</v>
@@ -6742,7 +6745,7 @@
         <v>300404</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D216" s="5">
         <v>304428</v>
@@ -6763,7 +6766,7 @@
         <v>300404</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D217" s="5">
         <v>304429</v>
@@ -6784,7 +6787,7 @@
         <v>300404</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D218" s="5">
         <v>304430</v>
@@ -6826,7 +6829,7 @@
         <v>300404</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D220" s="5">
         <v>0</v>
@@ -6847,7 +6850,7 @@
         <v>300404</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D221" s="5">
         <v>302404</v>
@@ -6868,7 +6871,7 @@
         <v>300404</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D222" s="5">
         <v>304435</v>
@@ -6994,7 +6997,7 @@
         <v>300405</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D228" s="5">
         <v>302405</v>
@@ -7015,7 +7018,7 @@
         <v>300405</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D229" s="5">
         <v>304442</v>
@@ -7036,7 +7039,7 @@
         <v>300405</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D230" s="5">
         <v>304442</v>
@@ -7057,7 +7060,7 @@
         <v>300405</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D231" s="5">
         <v>304443</v>
@@ -7099,7 +7102,7 @@
         <v>300406</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D233" s="5">
         <v>0</v>
@@ -7120,7 +7123,7 @@
         <v>300406</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D234" s="5">
         <v>0</v>
@@ -7162,7 +7165,7 @@
         <v>300406</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D236" s="5">
         <v>304449</v>
@@ -7183,7 +7186,7 @@
         <v>300406</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D237" s="5">
         <v>304449</v>
@@ -7225,7 +7228,7 @@
         <v>300600</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D239" s="5">
         <v>0</v>
@@ -7246,7 +7249,7 @@
         <v>300600</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D240" s="5">
         <v>0</v>
@@ -7267,7 +7270,7 @@
         <v>300600</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D241" s="5">
         <v>302407</v>
@@ -7330,7 +7333,7 @@
         <v>300600</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D244" s="5">
         <v>0</v>
@@ -7351,7 +7354,7 @@
         <v>300500</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D245" s="4">
         <v>302500</v>
@@ -7372,7 +7375,7 @@
         <v>300500</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D246" s="4">
         <v>304503</v>
@@ -7393,7 +7396,7 @@
         <v>300500</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D247" s="4">
         <v>304503</v>
@@ -7414,7 +7417,7 @@
         <v>300500</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D248" s="4">
         <v>304504</v>
@@ -7456,7 +7459,7 @@
         <v>300500</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D250" s="5">
         <v>0</v>
@@ -7477,7 +7480,7 @@
         <v>300501</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D251" s="4">
         <v>304507</v>
@@ -7561,7 +7564,7 @@
         <v>300501</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D255" s="5">
         <v>0</v>
@@ -7624,7 +7627,7 @@
         <v>300502</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D258" s="5">
         <v>304515</v>
@@ -7645,7 +7648,7 @@
         <v>300502</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D259" s="5">
         <v>304515</v>
@@ -7666,7 +7669,7 @@
         <v>300502</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D260" s="5">
         <v>0</v>
@@ -7708,7 +7711,7 @@
         <v>300504</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D262" s="5">
         <v>304518</v>
@@ -7729,7 +7732,7 @@
         <v>300504</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D263" s="5">
         <v>302503</v>
@@ -7750,7 +7753,7 @@
         <v>300504</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D264" s="5">
         <v>304521</v>
@@ -7771,7 +7774,7 @@
         <v>300504</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D265" s="5">
         <v>304521</v>
@@ -7792,7 +7795,7 @@
         <v>300504</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D266" s="5">
         <v>0</v>
@@ -7813,7 +7816,7 @@
         <v>300504</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D267" s="5">
         <v>304523</v>
@@ -7876,7 +7879,7 @@
         <v>300504</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D270" s="5">
         <v>0</v>
@@ -7897,7 +7900,7 @@
         <v>300600</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D271" s="4">
         <v>304601</v>
@@ -7918,7 +7921,7 @@
         <v>300600</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D272" s="5">
         <v>304602</v>
@@ -7939,7 +7942,7 @@
         <v>300600</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D273" s="5">
         <v>302600</v>
@@ -7960,7 +7963,7 @@
         <v>300600</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D274" s="4">
         <v>304604</v>
@@ -7981,7 +7984,7 @@
         <v>300600</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D275" s="4">
         <v>304605</v>
@@ -8002,7 +8005,7 @@
         <v>300600</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D276" s="4">
         <v>304606</v>
@@ -8023,7 +8026,7 @@
         <v>300600</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D277" s="4">
         <v>302601</v>
@@ -8044,7 +8047,7 @@
         <v>300600</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D278" s="5">
         <v>304608</v>
@@ -8065,7 +8068,7 @@
         <v>300600</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D279" s="4">
         <v>304609</v>
@@ -8086,7 +8089,7 @@
         <v>300600</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D280" s="4">
         <v>304610</v>
@@ -8107,7 +8110,7 @@
         <v>300600</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D281" s="4">
         <v>304611</v>
@@ -8128,7 +8131,7 @@
         <v>300600</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D282" s="4">
         <v>302602</v>
@@ -8149,7 +8152,7 @@
         <v>300600</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D283" s="4">
         <v>304613</v>
@@ -8170,7 +8173,7 @@
         <v>300600</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D284" s="4">
         <v>304614</v>
@@ -8191,7 +8194,7 @@
         <v>300600</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D285" s="4">
         <v>304615</v>
@@ -8212,7 +8215,7 @@
         <v>300600</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D286" s="4">
         <v>304616</v>
@@ -8233,7 +8236,7 @@
         <v>300600</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D287" s="4">
         <v>304617</v>
@@ -8254,7 +8257,7 @@
         <v>300600</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D288" s="4">
         <v>302603</v>
@@ -8275,7 +8278,7 @@
         <v>300600</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D289" s="4">
         <v>304619</v>
@@ -8296,7 +8299,7 @@
         <v>300600</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D290" s="4">
         <v>304620</v>
@@ -8317,7 +8320,7 @@
         <v>300600</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D291" s="4">
         <v>304621</v>
@@ -8338,7 +8341,7 @@
         <v>300600</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D292" s="4">
         <v>304622</v>
@@ -8359,7 +8362,7 @@
         <v>300600</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D293" s="4">
         <v>304623</v>
@@ -8380,7 +8383,7 @@
         <v>300600</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D294" s="4">
         <v>304624</v>
@@ -8401,7 +8404,7 @@
         <v>300600</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D295" s="4">
         <v>0</v>
@@ -8425,8 +8428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\OneDrive\바탕 화면\기업협약 프로젝트\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12290" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DIALOGUE_TABLE" sheetId="5" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="CHOICE_TABLE" sheetId="3" r:id="rId3"/>
     <sheet name="NPC_TABLE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1817,7 +1812,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1984,7 +1979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2019,7 +2014,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2196,7 +2191,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2206,19 +2201,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -8428,14 +8424,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
@@ -9614,14 +9610,14 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -10593,14 +10589,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -10679,7 +10675,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="1">
-        <v>301107</v>
+        <v>301106</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1">

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\OneDrive\문서\카카오톡 받은 파일\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12290" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="DIALOGUE_TABLE" sheetId="5" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="CHOICE_TABLE" sheetId="3" r:id="rId3"/>
     <sheet name="NPC_TABLE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -504,15 +509,6 @@
     <t>그러면 나 좀 도와줘.&lt;br&gt;향수를 찾아서&lt;br&gt;테이블에 올려줄래?</t>
   </si>
   <si>
-    <t>정신차려 보면&lt;br&gt;모든 과일들을&lt;br&gt;다 먹어 치워버려요!</t>
-  </si>
-  <si>
-    <t>그러면 과일을&lt;br&gt;멈추지 않고&lt;br&gt;먹을 수 있겠네요.</t>
-  </si>
-  <si>
-    <t>그러면 과일을&lt;br&gt;더 먹고 싶을 때 마다&lt;br&gt;먹을 수 있겠네요.</t>
-  </si>
-  <si>
     <t>이번에 책을 잔뜩 사서&lt;br&gt;책장 정리를 해야겠어요.</t>
   </si>
   <si>
@@ -1101,10 +1097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불이 켜져 있는 횃불로&lt;br&gt;두개의 화로에 불은 붙인 다음 &lt; br &gt; 노크를 하면 문이 열릴거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노크는 정령만이 가지고 있는&lt;br&gt;마법으로 해야해!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1365,307 +1357,319 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>아직은 버틸 만하지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것도 나쁘지 않은 방법이네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무를 3개 캐서&lt;br&gt;테이블 위에 올려주시면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라,&lt;br&gt;도자기가 어디 갔지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐,&lt;br&gt;그 도자기가 아니면 안 된다구!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런!&lt;br&gt;도자기가 여기 있었네~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그나저나,&lt;br&gt;어떤 꼬맹이가 도자기를 깨더니&lt;br&gt;갑자기 우는 거 있지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진관에 오신 것을 환영합니다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진을 찍을 때&lt;br&gt;무엇을 더 중요시 해야 하는지&lt;br&gt;잊어버렸어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무토막을 화로에 넣고 불을 붙이라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩔 수 없지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 말이!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛이 없으면 가만두지 않겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 오게 젊은이.&lt;br&gt;원하는 물건이 있나 보군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 작은 동물을 찾는 사람들이 많던데.&lt;br&gt;자네도 그런가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 말 하기 뭐 하지만..&lt;br&gt;사실 작은 동물을 잡아 본 적이 없네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 동물이라… 어떤 물건이 좋을까…&lt;br&gt;아. 도구상자는&lt;br&gt;동물 박제를 알맞은 자리에…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래. 어떤 도구가 좋겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 동물은 쉽게 잠들 수 있다.&lt;br&gt;이 말인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요. 또 뵈었네요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 이쁜 꽃이에요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 화사하네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저... 주시는 건가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘어져서 기분이 안 좋아...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하필 왜 거기에 돌이 있는거람…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 다쳤다고 해서 주는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 기분이 안좋다고 해서 주는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 고양이가 저기 위로 올라갔어요!&lt;br&gt;구해주세요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 아가… 제발…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 고맙습니다!&lt;br&gt;어쩌다 저기를 올라갔는지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 집으로 가자.&lt;br&gt;나비야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신, 계획된 소비를 하는 편?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현명한 소비 습관이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낭만적인 소비 습관이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐응.&lt;br&gt;오늘 향수를 살 것 같지는 않고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향수는 항상 제자리에 두어야해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 편이 더욱 깔끔할 것 같네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 편이 더욱 쉬울 것 같네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책장 정리를 당장 시작해야 겠어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗! 들켰네.&lt;br&gt;너 정말 숨바꼭질 잘한다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 숨바꼭질 잘하고 싶은데…&lt;br&gt;비법이 뭐야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 찾는 이유가 있었구나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 느껴지는 게 있구나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에 또 같이 놀자~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 또 너구나!&lt;br&gt;마침 잘됐다.&lt;br&gt;친구들한테 선물을 주고 싶거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구들이 좋아했으면 좋겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 정령이여...&lt;br&gt;저는 정령들의 여신이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이곳에서 인간이 되려는&lt;br&gt;정령들을 인도하고 있죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 세상은 어땠나요?&lt;br&gt;당신의 감상을 말해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랬군요. 당신의 경험은 소중하죠.&lt;br&gt;인간이 되어서도&lt;br&gt;그건 마찬가지일 거예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 이곳에서 겪은 일들은&lt;br&gt;인간이 되어서도 당신이라는&lt;br&gt;사람을 만들어 나가겠죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 인간 세상에서&lt;br&gt;많은 사람들을 도왔죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면서 어떠한 것을 느꼈는지&lt;br&gt;물어봐도 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 좋은 답변이군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 이곳에서 지내면서&lt;br&gt;별이라는 것을 모았을 거에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 이 별이라는 것은&lt;br&gt;당신이 인간의 마음을 알게 될 때&lt;br&gt;그것이 형체화 된 것이랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇기 때문에 그 별의 다른 이름은&lt;br&gt;마음의 조각이라고 하죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어때요, 참 흥미롭지 않나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후, 좋습니다.&lt;br&gt;사실은 비밀 같은 건 아니거든요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 인간이 되기 위한 시련을&lt;br&gt;모두 마쳤습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 곧 당신은 진짜 인간이 되어&lt;br&gt;사람들과 함께 살아가게 될 거에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또한 당신이 인간 세상에서 해왔던 일들,&lt;br&gt;겪었던 일들을 바탕으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 인간성을&lt;br&gt;가지게 될 지 정하는 것이&lt;br&gt;제가 해야 하는 일이랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간이 된 당신이&lt;br&gt;어떻게 살아갈 건지 생각해보셨나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 좋은걸요.&lt;br&gt;어떻게 살아갈 것인지는&lt;br&gt;이제 당신의 자유죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 드리는 인간성은&lt;br&gt;그저 안내 역할을 할 뿐입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이제 작별의 시간이네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 고생하셨어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 또한 당신과 같은 정령,&lt;br&gt;아니, 인간과 만나서 참 다행입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부디, 인간이 되어&lt;br&gt;그대만의 삶을 살아가길 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕히,&lt;br&gt;이 세상에서 가장 인간다운 정령이여…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 색의 양복을 선호하시나요?</t>
+  </si>
+  <si>
+    <t>무난하지만&lt;br&gt;세련된 취향이군요.</t>
+  </si>
+  <si>
+    <t>눈에 확 띄는 것을&lt;br&gt;좋아하시는군요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">좋은 참고점이 될 것 같습니다. </t>
+  </si>
+  <si>
+    <t>새로운 양복을 들이려고 합니다만.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 취향을 맞추기가 쉽지않네요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서오세요. 양복점입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>똑같이 X나 A 버튼을&lt;br&gt;누르면 돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>왜 나무 패는 일을&lt;br&gt;기피하는지 모르겠어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직은 버틸 만하지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그것도 나쁘지 않은 방법이네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시, 도움을 조금 주시겠습니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무를 3개 캐서&lt;br&gt;테이블 위에 올려주시면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디 일할 사람 없나...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라,&lt;br&gt;도자기가 어디 갔지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐,&lt;br&gt;그 도자기가 아니면 안 된다구!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런!&lt;br&gt;도자기가 여기 있었네~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그나저나,&lt;br&gt;어떤 꼬맹이가 도자기를 깨더니&lt;br&gt;갑자기 우는 거 있지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진관에 오신 것을 환영합니다…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진을 찍을 때&lt;br&gt;무엇을 더 중요시 해야 하는지&lt;br&gt;잊어버렸어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무토막을 화로에 넣고 불을 붙이라고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어쩔 수 없지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 말이!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛이 없으면 가만두지 않겠어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서 오게 젊은이.&lt;br&gt;원하는 물건이 있나 보군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즘 작은 동물을 찾는 사람들이 많던데.&lt;br&gt;자네도 그런가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런 말 하기 뭐 하지만..&lt;br&gt;사실 작은 동물을 잡아 본 적이 없네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은 동물이라… 어떤 물건이 좋을까…&lt;br&gt;아. 도구상자는&lt;br&gt;동물 박제를 알맞은 자리에…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래. 어떤 도구가 좋겠나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은 동물은 쉽게 잠들 수 있다.&lt;br&gt;이 말인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요. 또 뵈었네요…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 이쁜 꽃이에요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 화사하네요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저... 주시는 건가요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘어져서 기분이 안 좋아...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하필 왜 거기에 돌이 있는거람…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 다쳤다고 해서 주는 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 기분이 안좋다고 해서 주는 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저희 고양이가 저기 위로 올라갔어요!&lt;br&gt;구해주세요…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 아가… 제발…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 고맙습니다!&lt;br&gt;어쩌다 저기를 올라갔는지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 집으로 가자.&lt;br&gt;나비야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신, 계획된 소비를 하는 편?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현명한 소비 습관이네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낭만적인 소비 습관이네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흐응.&lt;br&gt;오늘 향수를 살 것 같지는 않고.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>향수는 항상 제자리에 두어야해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">과일은 너무 맛있어서 문제예요. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일을 계속 먹을 수 있겠다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 편이 더욱 깔끔할 것 같네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 편이 더욱 쉬울 것 같네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책장 정리를 당장 시작해야 겠어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앗! 들켰네.&lt;br&gt;너 정말 숨바꼭질 잘한다~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 숨바꼭질 잘하고 싶은데…&lt;br&gt;비법이 뭐야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘 찾는 이유가 있었구나!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭔가 느껴지는 게 있구나!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음에 또 같이 놀자~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕 또 너구나!&lt;br&gt;마침 잘됐다.&lt;br&gt;친구들한테 선물을 주고 싶거든.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구들이 좋아했으면 좋겠다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요, 정령이여...&lt;br&gt;저는 정령들의 여신이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이곳에서 인간이 되려는&lt;br&gt;정령들을 인도하고 있죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 세상은 어땠나요?&lt;br&gt;당신의 감상을 말해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랬군요. 당신의 경험은 소중하죠.&lt;br&gt;인간이 되어서도&lt;br&gt;그건 마찬가지일 거예요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신이 이곳에서 겪은 일들은&lt;br&gt;인간이 되어서도 당신이라는&lt;br&gt;사람을 만들어 나가겠죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 인간 세상에서&lt;br&gt;많은 사람들을 도왔죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러면서 어떠한 것을 느꼈는지&lt;br&gt;물어봐도 될까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 좋은 답변이군요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 이곳에서 지내면서&lt;br&gt;별이라는 것을 모았을 거에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사실 이 별이라는 것은&lt;br&gt;당신이 인간의 마음을 알게 될 때&lt;br&gt;그것이 형체화 된 것이랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇기 때문에 그 별의 다른 이름은&lt;br&gt;마음의 조각이라고 하죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어때요, 참 흥미롭지 않나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후후, 좋습니다.&lt;br&gt;사실은 비밀 같은 건 아니거든요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 인간이 되기 위한 시련을&lt;br&gt;모두 마쳤습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 곧 당신은 진짜 인간이 되어&lt;br&gt;사람들과 함께 살아가게 될 거에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>또한 당신이 인간 세상에서 해왔던 일들,&lt;br&gt;겪었던 일들을 바탕으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 인간성을&lt;br&gt;가지게 될 지 정하는 것이&lt;br&gt;제가 해야 하는 일이랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간이 된 당신이&lt;br&gt;어떻게 살아갈 건지 생각해보셨나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 좋은걸요.&lt;br&gt;어떻게 살아갈 것인지는&lt;br&gt;이제 당신의 자유죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제가 드리는 인간성은&lt;br&gt;그저 안내 역할을 할 뿐입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 이제 작별의 시간이네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 고생하셨어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저 또한 당신과 같은 정령,&lt;br&gt;아니, 인간과 만나서 참 다행입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부디, 인간이 되어&lt;br&gt;그대만의 삶을 살아가길 바랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕히,&lt;br&gt;이 세상에서 가장 인간다운 정령이여…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1675,13 +1679,105 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>1개 모아야한다고-</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">또 나야!&lt;br&gt;별을 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3개 가져오면&lt;br&gt;지나가게 해주지-</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이제는 조금 반갑지?&lt;br&gt;별 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5개를 가지고 와!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">안녕? 또 보네!&lt;br&gt;별 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7개를 가지고 오도록!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일은 너무 맛있어서 문제야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신차려 보면&lt;br&gt;모든 과일들을&lt;br&gt;다 먹어 치워버린다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 과일을&lt;br&gt;더 먹고 싶을 때 마다&lt;br&gt;먹을 수 있겠구만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 과일을 계속 먹을 수 있겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 과일을&lt;br&gt;멈추지 않고&lt;br&gt;먹을 수 있겠구만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시, 도움을 조금 주시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디 일할 사람 없나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>불이 켜져 있는 횃불로&lt;br&gt;두개의 화로에 불은 붙인 다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1692,128 +1788,16 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>개 모아야한다고-</t>
+      <t>노크를 하면 문이 열릴거야.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">또 나야!&lt;br&gt;별을 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개 가져오면&lt;br&gt;지나가게 해주지-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">이제는 조금 반갑지?&lt;br&gt;별 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개를 가지고 와!</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">안녕? 또 보네!&lt;br&gt;별 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개를 가지고 오도록!</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 색의 양복을 선호하시나요?</t>
-  </si>
-  <si>
-    <t>무난하지만&lt;br&gt;세련된 취향이군요.</t>
-  </si>
-  <si>
-    <t>눈에 확 띄는 것을&lt;br&gt;좋아하시는군요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋은 참고점이 될 것 같습니다. </t>
-  </si>
-  <si>
-    <t>새로운 양복을 들이려고 합니다만.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님의 취향을 맞추기가 쉽지않네요.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서오세요. 양복점입니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>똑같이 X나 A 버튼을&lt;br&gt;누르면 돼!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1826,14 +1810,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1859,6 +1835,36 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1882,7 +1888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1907,16 +1913,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1979,7 +2000,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2014,7 +2035,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2191,7 +2212,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2201,35 +2222,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2246,7 +2266,7 @@
       <c r="B2" s="2">
         <v>300000</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>432</v>
       </c>
       <c r="D2" s="5">
@@ -2267,8 +2287,8 @@
       <c r="B3" s="2">
         <v>300000</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>221</v>
+      <c r="C3" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -2288,8 +2308,8 @@
       <c r="B4" s="2">
         <v>300000</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>222</v>
+      <c r="C4" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="D4" s="4">
         <v>304003</v>
@@ -2309,8 +2329,8 @@
       <c r="B5" s="2">
         <v>300000</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>223</v>
+      <c r="C5" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="D5" s="4">
         <v>302000</v>
@@ -2330,8 +2350,8 @@
       <c r="B6" s="2">
         <v>300000</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>224</v>
+      <c r="C6" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D6" s="4">
         <v>304005</v>
@@ -2351,8 +2371,8 @@
       <c r="B7" s="2">
         <v>300000</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>225</v>
+      <c r="C7" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -2372,7 +2392,7 @@
       <c r="B8" s="2">
         <v>300001</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="12" t="s">
         <v>433</v>
       </c>
       <c r="D8" s="5">
@@ -2393,8 +2413,8 @@
       <c r="B9" s="2">
         <v>300001</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>226</v>
+      <c r="C9" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -2414,8 +2434,8 @@
       <c r="B10" s="2">
         <v>300001</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>227</v>
+      <c r="C10" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="D10" s="4">
         <v>304009</v>
@@ -2435,8 +2455,8 @@
       <c r="B11" s="2">
         <v>300001</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>228</v>
+      <c r="C11" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="D11" s="4">
         <v>302001</v>
@@ -2456,8 +2476,8 @@
       <c r="B12" s="2">
         <v>300001</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>229</v>
+      <c r="C12" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D12" s="4">
         <v>304011</v>
@@ -2477,8 +2497,8 @@
       <c r="B13" s="2">
         <v>300001</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>230</v>
+      <c r="C13" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -2498,7 +2518,7 @@
       <c r="B14" s="2">
         <v>300002</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="12" t="s">
         <v>434</v>
       </c>
       <c r="D14" s="5">
@@ -2519,8 +2539,8 @@
       <c r="B15" s="2">
         <v>300002</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>231</v>
+      <c r="C15" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
@@ -2540,8 +2560,8 @@
       <c r="B16" s="2">
         <v>300002</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>232</v>
+      <c r="C16" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D16" s="4">
         <v>304015</v>
@@ -2561,8 +2581,8 @@
       <c r="B17" s="2">
         <v>300002</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>233</v>
+      <c r="C17" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="D17" s="4">
         <v>302002</v>
@@ -2582,8 +2602,8 @@
       <c r="B18" s="2">
         <v>300002</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>234</v>
+      <c r="C18" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="D18" s="4">
         <v>304017</v>
@@ -2603,8 +2623,8 @@
       <c r="B19" s="2">
         <v>300002</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>235</v>
+      <c r="C19" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
@@ -2624,7 +2644,7 @@
       <c r="B20" s="2">
         <v>300003</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="12" t="s">
         <v>435</v>
       </c>
       <c r="D20" s="5">
@@ -2645,8 +2665,8 @@
       <c r="B21" s="2">
         <v>300003</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>236</v>
+      <c r="C21" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
@@ -2667,7 +2687,7 @@
         <v>300003</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D22" s="5">
         <v>304021</v>
@@ -2688,7 +2708,7 @@
         <v>300003</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D23" s="4">
         <v>302003</v>
@@ -2709,7 +2729,7 @@
         <v>300003</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D24" s="4">
         <v>304023</v>
@@ -2730,7 +2750,7 @@
         <v>300003</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D25" s="4">
         <v>304024</v>
@@ -2751,7 +2771,7 @@
         <v>300003</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
@@ -2772,7 +2792,7 @@
         <v>300100</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D27" s="4">
         <v>304101</v>
@@ -2793,7 +2813,7 @@
         <v>300100</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D28" s="5">
         <v>304102</v>
@@ -2814,7 +2834,7 @@
         <v>300100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D29" s="5">
         <v>304103</v>
@@ -2835,7 +2855,7 @@
         <v>300100</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D30" s="4">
         <v>304104</v>
@@ -2856,7 +2876,7 @@
         <v>300100</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D31" s="4">
         <v>304105</v>
@@ -2877,7 +2897,7 @@
         <v>300100</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D32" s="4">
         <v>304106</v>
@@ -2898,7 +2918,7 @@
         <v>300100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D33" s="4">
         <v>304107</v>
@@ -2919,7 +2939,7 @@
         <v>300100</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D34" s="5">
         <v>0</v>
@@ -2940,7 +2960,7 @@
         <v>300100</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D35" s="5">
         <v>304109</v>
@@ -2961,7 +2981,7 @@
         <v>300100</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D36" s="5">
         <v>304110</v>
@@ -2982,7 +3002,7 @@
         <v>300100</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D37" s="5">
         <v>304111</v>
@@ -3003,7 +3023,7 @@
         <v>300100</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D38" s="4">
         <v>304112</v>
@@ -3024,7 +3044,7 @@
         <v>300100</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D39" s="4">
         <v>304113</v>
@@ -3045,7 +3065,7 @@
         <v>300100</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D40" s="4">
         <v>304114</v>
@@ -3066,7 +3086,7 @@
         <v>300100</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D41" s="4">
         <v>304115</v>
@@ -3087,7 +3107,7 @@
         <v>300100</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D42" s="4">
         <v>304116</v>
@@ -3108,7 +3128,7 @@
         <v>300100</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
@@ -3129,7 +3149,7 @@
         <v>300100</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D44" s="4">
         <v>304118</v>
@@ -3150,7 +3170,7 @@
         <v>300100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D45" s="5">
         <v>304119</v>
@@ -3171,7 +3191,7 @@
         <v>300100</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D46" s="4">
         <v>304120</v>
@@ -3192,7 +3212,7 @@
         <v>300100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D47" s="5">
         <v>304121</v>
@@ -3213,7 +3233,7 @@
         <v>300100</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D48" s="4">
         <v>304122</v>
@@ -3234,7 +3254,7 @@
         <v>300100</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D49" s="5">
         <v>304123</v>
@@ -3255,7 +3275,7 @@
         <v>300100</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D50" s="4">
         <v>304124</v>
@@ -3276,7 +3296,7 @@
         <v>300100</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
@@ -3297,7 +3317,7 @@
         <v>300100</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D52" s="4">
         <v>304122</v>
@@ -3318,7 +3338,7 @@
         <v>300100</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D53" s="4">
         <v>304127</v>
@@ -3339,7 +3359,7 @@
         <v>300100</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D54" s="5">
         <v>304128</v>
@@ -3360,7 +3380,7 @@
         <v>300100</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D55" s="4">
         <v>304129</v>
@@ -3381,7 +3401,7 @@
         <v>300100</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D56" s="5">
         <v>304130</v>
@@ -3402,7 +3422,7 @@
         <v>300100</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D57" s="4">
         <v>304131</v>
@@ -3423,7 +3443,7 @@
         <v>300100</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D58" s="5">
         <v>304132</v>
@@ -3444,7 +3464,7 @@
         <v>300100</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D59" s="5">
         <v>0</v>
@@ -3465,7 +3485,7 @@
         <v>300100</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D60" s="4">
         <v>304134</v>
@@ -3486,7 +3506,7 @@
         <v>300100</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D61" s="4">
         <v>304135</v>
@@ -3507,7 +3527,7 @@
         <v>300100</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D62" s="5">
         <v>0</v>
@@ -3528,7 +3548,7 @@
         <v>300100</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D63" s="4">
         <v>304137</v>
@@ -3549,7 +3569,7 @@
         <v>300100</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D64" s="5">
         <v>304138</v>
@@ -3570,7 +3590,7 @@
         <v>300100</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D65" s="4">
         <v>304139</v>
@@ -3591,7 +3611,7 @@
         <v>300100</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D66" s="5">
         <v>304140</v>
@@ -3612,7 +3632,7 @@
         <v>300100</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D67" s="4">
         <v>304141</v>
@@ -3633,7 +3653,7 @@
         <v>300100</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D68" s="5">
         <v>304142</v>
@@ -3654,7 +3674,7 @@
         <v>300100</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D69" s="4">
         <v>304143</v>
@@ -3675,7 +3695,7 @@
         <v>300100</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D70" s="5">
         <v>304144</v>
@@ -3696,7 +3716,7 @@
         <v>300100</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D71" s="4">
         <v>304145</v>
@@ -3717,7 +3737,7 @@
         <v>300100</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D72" s="5">
         <v>304146</v>
@@ -3738,7 +3758,7 @@
         <v>300100</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D73" s="4">
         <v>304147</v>
@@ -3759,7 +3779,7 @@
         <v>300100</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D74" s="4">
         <v>304148</v>
@@ -3780,7 +3800,7 @@
         <v>300100</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D75" s="5">
         <v>0</v>
@@ -3801,7 +3821,7 @@
         <v>300100</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D76" s="5">
         <v>304150</v>
@@ -3822,7 +3842,7 @@
         <v>300100</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D77" s="5">
         <v>304144</v>
@@ -3843,7 +3863,7 @@
         <v>300100</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D78" s="4">
         <v>304152</v>
@@ -3864,7 +3884,7 @@
         <v>300100</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D79" s="5">
         <v>304153</v>
@@ -3885,7 +3905,7 @@
         <v>300100</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D80" s="4">
         <v>304154</v>
@@ -3906,7 +3926,7 @@
         <v>300100</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D81" s="5">
         <v>304155</v>
@@ -3927,7 +3947,7 @@
         <v>300100</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>290</v>
+        <v>443</v>
       </c>
       <c r="D82" s="4">
         <v>304156</v>
@@ -3948,7 +3968,7 @@
         <v>300100</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D83" s="5">
         <v>304157</v>
@@ -3969,7 +3989,7 @@
         <v>300100</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -3990,7 +4010,7 @@
         <v>300100</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D85" s="4">
         <v>304159</v>
@@ -4011,7 +4031,7 @@
         <v>300100</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D86" s="5">
         <v>0</v>
@@ -4032,7 +4052,7 @@
         <v>300100</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D87" s="5">
         <v>0</v>
@@ -4053,7 +4073,7 @@
         <v>300101</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D88" s="4">
         <v>304162</v>
@@ -4074,7 +4094,7 @@
         <v>300101</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D89" s="4">
         <v>304163</v>
@@ -4095,7 +4115,7 @@
         <v>300101</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D90" s="4">
         <v>304164</v>
@@ -4116,7 +4136,7 @@
         <v>300101</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D91" s="4">
         <v>304165</v>
@@ -4137,7 +4157,7 @@
         <v>300101</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D92" s="4">
         <v>304166</v>
@@ -4158,7 +4178,7 @@
         <v>300101</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D93" s="4">
         <v>304167</v>
@@ -4179,7 +4199,7 @@
         <v>300101</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D94" s="4">
         <v>304168</v>
@@ -4200,7 +4220,7 @@
         <v>300101</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D95" s="4">
         <v>304169</v>
@@ -4221,7 +4241,7 @@
         <v>300101</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
@@ -4242,7 +4262,7 @@
         <v>300101</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D97" s="5">
         <v>304171</v>
@@ -4263,7 +4283,7 @@
         <v>300101</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D98" s="5">
         <v>0</v>
@@ -4305,7 +4325,7 @@
         <v>300100</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D100" s="4">
         <v>304174</v>
@@ -4326,7 +4346,7 @@
         <v>300100</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D101" s="4">
         <v>304175</v>
@@ -4347,7 +4367,7 @@
         <v>300100</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D102" s="4">
         <v>304176</v>
@@ -4368,7 +4388,7 @@
         <v>300100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D103" s="4">
         <v>304177</v>
@@ -4389,7 +4409,7 @@
         <v>300100</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D104" s="4">
         <v>304178</v>
@@ -4431,7 +4451,7 @@
         <v>300100</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D106" s="4">
         <v>304181</v>
@@ -4452,7 +4472,7 @@
         <v>300100</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D107" s="4">
         <v>304181</v>
@@ -4473,7 +4493,7 @@
         <v>300100</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
@@ -4494,7 +4514,7 @@
         <v>300200</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D109" s="4">
         <v>304201</v>
@@ -4557,7 +4577,7 @@
         <v>300200</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D112" s="4">
         <v>302200</v>
@@ -4620,7 +4640,7 @@
         <v>300200</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D115" s="5">
         <v>0</v>
@@ -4641,7 +4661,7 @@
         <v>300201</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D116" s="5">
         <v>304208</v>
@@ -4683,7 +4703,7 @@
         <v>300201</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D118" s="5">
         <v>302201</v>
@@ -4746,7 +4766,7 @@
         <v>300201</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
@@ -4830,7 +4850,7 @@
         <v>300202</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D125" s="4">
         <v>304218</v>
@@ -4851,7 +4871,7 @@
         <v>300202</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D126" s="5">
         <v>304218</v>
@@ -4872,7 +4892,7 @@
         <v>300202</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D127" s="5">
         <v>0</v>
@@ -4914,7 +4934,7 @@
         <v>300203</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D129" s="5">
         <v>304222</v>
@@ -4935,7 +4955,7 @@
         <v>300203</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D130" s="5">
         <v>304222</v>
@@ -4956,7 +4976,7 @@
         <v>300203</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D131" s="5">
         <v>304223</v>
@@ -4998,7 +5018,7 @@
         <v>300204</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D133" s="5">
         <v>0</v>
@@ -5019,7 +5039,7 @@
         <v>300204</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D134" s="5">
         <v>0</v>
@@ -5040,7 +5060,7 @@
         <v>300204</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D135" s="5">
         <v>302204</v>
@@ -5061,7 +5081,7 @@
         <v>300204</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D136" s="5">
         <v>304229</v>
@@ -5082,7 +5102,7 @@
         <v>300204</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D137" s="5">
         <v>304229</v>
@@ -5103,7 +5123,7 @@
         <v>300204</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D138" s="5">
         <v>304230</v>
@@ -5124,7 +5144,7 @@
         <v>300204</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D139" s="5">
         <v>0</v>
@@ -5145,7 +5165,7 @@
         <v>300205</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D140" s="5">
         <v>304232</v>
@@ -5166,7 +5186,7 @@
         <v>300205</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D141" s="5">
         <v>304232</v>
@@ -5187,7 +5207,7 @@
         <v>300205</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D142" s="5">
         <v>304233</v>
@@ -5208,7 +5228,7 @@
         <v>300205</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D143" s="5">
         <v>302205</v>
@@ -5229,7 +5249,7 @@
         <v>300205</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D144" s="5">
         <v>304237</v>
@@ -5250,7 +5270,7 @@
         <v>300205</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D145" s="5">
         <v>304237</v>
@@ -5271,7 +5291,7 @@
         <v>300205</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D146" s="5">
         <v>0</v>
@@ -5292,7 +5312,7 @@
         <v>300206</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D147" s="5">
         <v>304239</v>
@@ -5334,7 +5354,7 @@
         <v>300206</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D149" s="5">
         <v>0</v>
@@ -5376,7 +5396,7 @@
         <v>300206</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D151" s="5">
         <v>302206</v>
@@ -5397,7 +5417,7 @@
         <v>300206</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D152" s="5">
         <v>304245</v>
@@ -5418,7 +5438,7 @@
         <v>300206</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D153" s="5">
         <v>304245</v>
@@ -5439,7 +5459,7 @@
         <v>300206</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D154" s="5">
         <v>304246</v>
@@ -5460,7 +5480,7 @@
         <v>300206</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D155" s="5">
         <v>0</v>
@@ -5481,7 +5501,7 @@
         <v>300207</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D156" s="5">
         <v>304248</v>
@@ -5544,7 +5564,7 @@
         <v>300207</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
@@ -5670,7 +5690,7 @@
         <v>300300</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D165" s="4">
         <v>302300</v>
@@ -5691,7 +5711,7 @@
         <v>300300</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D166" s="4">
         <v>304306</v>
@@ -5733,7 +5753,7 @@
         <v>300300</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D168" s="5">
         <v>0</v>
@@ -5775,7 +5795,7 @@
         <v>300301</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D170" s="5">
         <v>0</v>
@@ -5817,7 +5837,7 @@
         <v>300301</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D172" s="5">
         <v>302301</v>
@@ -5838,7 +5858,7 @@
         <v>300301</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D173" s="5">
         <v>304313</v>
@@ -5859,7 +5879,7 @@
         <v>300301</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D174" s="5">
         <v>304313</v>
@@ -5880,7 +5900,7 @@
         <v>300301</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D175" s="5">
         <v>0</v>
@@ -5922,7 +5942,7 @@
         <v>300302</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D177" s="5">
         <v>302302</v>
@@ -5943,7 +5963,7 @@
         <v>300302</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D178" s="5">
         <v>304318</v>
@@ -5964,7 +5984,7 @@
         <v>300302</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D179" s="5">
         <v>304318</v>
@@ -5985,7 +6005,7 @@
         <v>300302</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D180" s="5">
         <v>0</v>
@@ -6006,7 +6026,7 @@
         <v>300303</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D181" s="4">
         <v>304320</v>
@@ -6027,7 +6047,7 @@
         <v>300303</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D182" s="5">
         <v>0</v>
@@ -6069,7 +6089,7 @@
         <v>300303</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D184" s="4">
         <v>304323</v>
@@ -6111,7 +6131,7 @@
         <v>300303</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D186" s="4">
         <v>304326</v>
@@ -6132,7 +6152,7 @@
         <v>300303</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D187" s="4">
         <v>304326</v>
@@ -6174,7 +6194,7 @@
         <v>300400</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D189" s="4">
         <v>304401</v>
@@ -6195,7 +6215,7 @@
         <v>300400</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>356</v>
+        <v>431</v>
       </c>
       <c r="D190" s="5">
         <v>302400</v>
@@ -6216,7 +6236,7 @@
         <v>300400</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D191" s="5">
         <v>304404</v>
@@ -6237,7 +6257,7 @@
         <v>300400</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D192" s="4">
         <v>304404</v>
@@ -6258,7 +6278,7 @@
         <v>300400</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="D193" s="4">
         <v>304405</v>
@@ -6272,17 +6292,17 @@
       <c r="K193" s="4"/>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="4">
+      <c r="A194" s="7">
         <v>304405</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="7">
         <v>300400</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D194" s="4">
-        <v>304406</v>
+        <v>354</v>
+      </c>
+      <c r="D194" s="15">
+        <v>0</v>
       </c>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -6293,16 +6313,16 @@
       <c r="K194" s="4"/>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="4">
+      <c r="A195" s="7">
         <v>304406</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="7">
         <v>300400</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D195" s="5">
+      <c r="C195" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D195" s="16">
         <v>0</v>
       </c>
       <c r="E195" s="4"/>
@@ -6321,7 +6341,7 @@
         <v>300401</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D196" s="5">
         <v>0</v>
@@ -6342,7 +6362,7 @@
         <v>300401</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D197" s="5">
         <v>0</v>
@@ -6363,7 +6383,7 @@
         <v>300401</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D198" s="4">
         <v>304410</v>
@@ -6384,7 +6404,7 @@
         <v>300401</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D199" s="4">
         <v>302401</v>
@@ -6468,7 +6488,7 @@
         <v>300402</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D203" s="4">
         <v>304415</v>
@@ -6510,7 +6530,7 @@
         <v>300402</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D205" s="4">
         <v>302402</v>
@@ -6636,7 +6656,7 @@
         <v>300403</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D211" s="5">
         <v>0</v>
@@ -6678,7 +6698,7 @@
         <v>300403</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D213" s="4">
         <v>304426</v>
@@ -6699,7 +6719,7 @@
         <v>300403</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D214" s="4">
         <v>304426</v>
@@ -6720,7 +6740,7 @@
         <v>300403</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D215" s="5">
         <v>0</v>
@@ -6741,7 +6761,7 @@
         <v>300404</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D216" s="5">
         <v>304428</v>
@@ -6762,7 +6782,7 @@
         <v>300404</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D217" s="5">
         <v>304429</v>
@@ -6783,7 +6803,7 @@
         <v>300404</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D218" s="5">
         <v>304430</v>
@@ -6825,7 +6845,7 @@
         <v>300404</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D220" s="5">
         <v>0</v>
@@ -6846,7 +6866,7 @@
         <v>300404</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D221" s="5">
         <v>302404</v>
@@ -6867,7 +6887,7 @@
         <v>300404</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D222" s="5">
         <v>304435</v>
@@ -6993,7 +7013,7 @@
         <v>300405</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D228" s="5">
         <v>302405</v>
@@ -7014,7 +7034,7 @@
         <v>300405</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D229" s="5">
         <v>304442</v>
@@ -7035,7 +7055,7 @@
         <v>300405</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D230" s="5">
         <v>304442</v>
@@ -7056,7 +7076,7 @@
         <v>300405</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D231" s="5">
         <v>304443</v>
@@ -7098,7 +7118,7 @@
         <v>300406</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D233" s="5">
         <v>0</v>
@@ -7119,7 +7139,7 @@
         <v>300406</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D234" s="5">
         <v>0</v>
@@ -7161,7 +7181,7 @@
         <v>300406</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D236" s="5">
         <v>304449</v>
@@ -7182,7 +7202,7 @@
         <v>300406</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D237" s="5">
         <v>304449</v>
@@ -7224,7 +7244,7 @@
         <v>300600</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D239" s="5">
         <v>0</v>
@@ -7245,7 +7265,7 @@
         <v>300600</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D240" s="5">
         <v>0</v>
@@ -7266,7 +7286,7 @@
         <v>300600</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D241" s="5">
         <v>302407</v>
@@ -7329,7 +7349,7 @@
         <v>300600</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D244" s="5">
         <v>0</v>
@@ -7350,7 +7370,7 @@
         <v>300500</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D245" s="4">
         <v>302500</v>
@@ -7371,7 +7391,7 @@
         <v>300500</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D246" s="4">
         <v>304503</v>
@@ -7392,7 +7412,7 @@
         <v>300500</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D247" s="4">
         <v>304503</v>
@@ -7413,7 +7433,7 @@
         <v>300500</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D248" s="4">
         <v>304504</v>
@@ -7455,7 +7475,7 @@
         <v>300500</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D250" s="5">
         <v>0</v>
@@ -7475,8 +7495,8 @@
       <c r="B251" s="4">
         <v>300501</v>
       </c>
-      <c r="C251" s="4" t="s">
-        <v>395</v>
+      <c r="C251" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D251" s="4">
         <v>304507</v>
@@ -7496,8 +7516,8 @@
       <c r="B252" s="4">
         <v>300501</v>
       </c>
-      <c r="C252" s="4" t="s">
-        <v>133</v>
+      <c r="C252" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="D252" s="5">
         <v>302501</v>
@@ -7517,8 +7537,8 @@
       <c r="B253" s="4">
         <v>300501</v>
       </c>
-      <c r="C253" s="4" t="s">
-        <v>134</v>
+      <c r="C253" s="13" t="s">
+        <v>440</v>
       </c>
       <c r="D253" s="4">
         <v>304510</v>
@@ -7538,8 +7558,8 @@
       <c r="B254" s="4">
         <v>300501</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>135</v>
+      <c r="C254" s="14" t="s">
+        <v>438</v>
       </c>
       <c r="D254" s="5">
         <v>304510</v>
@@ -7559,8 +7579,8 @@
       <c r="B255" s="4">
         <v>300501</v>
       </c>
-      <c r="C255" s="4" t="s">
-        <v>396</v>
+      <c r="C255" s="13" t="s">
+        <v>439</v>
       </c>
       <c r="D255" s="5">
         <v>0</v>
@@ -7581,7 +7601,7 @@
         <v>300502</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D256" s="5">
         <v>304512</v>
@@ -7602,7 +7622,7 @@
         <v>300502</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D257" s="5">
         <v>302502</v>
@@ -7623,7 +7643,7 @@
         <v>300502</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D258" s="5">
         <v>304515</v>
@@ -7644,7 +7664,7 @@
         <v>300502</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D259" s="5">
         <v>304515</v>
@@ -7665,7 +7685,7 @@
         <v>300502</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D260" s="5">
         <v>0</v>
@@ -7686,7 +7706,7 @@
         <v>300503</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D261" s="5">
         <v>0</v>
@@ -7707,7 +7727,7 @@
         <v>300504</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D262" s="5">
         <v>304518</v>
@@ -7728,7 +7748,7 @@
         <v>300504</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D263" s="5">
         <v>302503</v>
@@ -7749,7 +7769,7 @@
         <v>300504</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D264" s="5">
         <v>304521</v>
@@ -7770,7 +7790,7 @@
         <v>300504</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D265" s="5">
         <v>304521</v>
@@ -7791,7 +7811,7 @@
         <v>300504</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D266" s="5">
         <v>0</v>
@@ -7812,7 +7832,7 @@
         <v>300504</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D267" s="5">
         <v>304523</v>
@@ -7833,7 +7853,7 @@
         <v>300504</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D268" s="5">
         <v>304524</v>
@@ -7854,7 +7874,7 @@
         <v>300504</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D269" s="5">
         <v>0</v>
@@ -7875,7 +7895,7 @@
         <v>300504</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D270" s="5">
         <v>0</v>
@@ -7896,7 +7916,7 @@
         <v>300600</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D271" s="4">
         <v>304601</v>
@@ -7917,7 +7937,7 @@
         <v>300600</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D272" s="5">
         <v>304602</v>
@@ -7938,7 +7958,7 @@
         <v>300600</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D273" s="5">
         <v>302600</v>
@@ -7959,7 +7979,7 @@
         <v>300600</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D274" s="4">
         <v>304604</v>
@@ -7980,7 +8000,7 @@
         <v>300600</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D275" s="4">
         <v>304605</v>
@@ -8001,7 +8021,7 @@
         <v>300600</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D276" s="4">
         <v>304606</v>
@@ -8022,7 +8042,7 @@
         <v>300600</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D277" s="4">
         <v>302601</v>
@@ -8043,7 +8063,7 @@
         <v>300600</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D278" s="5">
         <v>304608</v>
@@ -8064,7 +8084,7 @@
         <v>300600</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D279" s="4">
         <v>304609</v>
@@ -8085,7 +8105,7 @@
         <v>300600</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D280" s="4">
         <v>304610</v>
@@ -8106,7 +8126,7 @@
         <v>300600</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D281" s="4">
         <v>304611</v>
@@ -8127,7 +8147,7 @@
         <v>300600</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D282" s="4">
         <v>302602</v>
@@ -8148,7 +8168,7 @@
         <v>300600</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D283" s="4">
         <v>304613</v>
@@ -8169,7 +8189,7 @@
         <v>300600</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D284" s="4">
         <v>304614</v>
@@ -8190,7 +8210,7 @@
         <v>300600</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D285" s="4">
         <v>304615</v>
@@ -8211,7 +8231,7 @@
         <v>300600</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D286" s="4">
         <v>304616</v>
@@ -8232,7 +8252,7 @@
         <v>300600</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D287" s="4">
         <v>304617</v>
@@ -8253,7 +8273,7 @@
         <v>300600</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D288" s="4">
         <v>302603</v>
@@ -8274,7 +8294,7 @@
         <v>300600</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D289" s="4">
         <v>304619</v>
@@ -8295,7 +8315,7 @@
         <v>300600</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D290" s="4">
         <v>304620</v>
@@ -8316,7 +8336,7 @@
         <v>300600</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D291" s="4">
         <v>304621</v>
@@ -8337,7 +8357,7 @@
         <v>300600</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D292" s="4">
         <v>304622</v>
@@ -8358,7 +8378,7 @@
         <v>300600</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D293" s="4">
         <v>304623</v>
@@ -8379,7 +8399,7 @@
         <v>300600</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D294" s="4">
         <v>304624</v>
@@ -8400,7 +8420,7 @@
         <v>300600</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D295" s="4">
         <v>0</v>
@@ -8424,14 +8444,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
@@ -9610,14 +9630,14 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -9656,7 +9676,7 @@
         <v>302000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4">
         <v>304004</v>
@@ -9668,7 +9688,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G2" s="4">
         <v>304004</v>
@@ -9685,7 +9705,7 @@
         <v>302001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4">
         <v>304010</v>
@@ -9697,7 +9717,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G3" s="4">
         <v>304010</v>
@@ -9714,7 +9734,7 @@
         <v>302002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4">
         <v>304016</v>
@@ -9726,7 +9746,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G4" s="4">
         <v>304016</v>
@@ -9743,7 +9763,7 @@
         <v>302003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C5" s="4">
         <v>304022</v>
@@ -9755,7 +9775,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G5" s="4">
         <v>304022</v>
@@ -9772,7 +9792,7 @@
         <v>302100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4">
         <v>304179</v>
@@ -9784,7 +9804,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G6" s="4">
         <v>304180</v>
@@ -9801,7 +9821,7 @@
         <v>302200</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4">
         <v>304204</v>
@@ -9813,7 +9833,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G7" s="4">
         <v>304205</v>
@@ -9830,7 +9850,7 @@
         <v>302201</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" s="4">
         <v>304210</v>
@@ -9842,7 +9862,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G8" s="4">
         <v>304211</v>
@@ -9859,7 +9879,7 @@
         <v>302202</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="4">
         <v>304216</v>
@@ -9871,7 +9891,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G9" s="4">
         <v>304217</v>
@@ -9888,7 +9908,7 @@
         <v>302203</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C10" s="4">
         <v>304220</v>
@@ -9900,7 +9920,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G10" s="4">
         <v>304221</v>
@@ -9917,7 +9937,7 @@
         <v>302204</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C11" s="4">
         <v>304227</v>
@@ -9929,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G11" s="4">
         <v>304228</v>
@@ -9946,7 +9966,7 @@
         <v>302205</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C12" s="4">
         <v>304235</v>
@@ -9958,7 +9978,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G12" s="4">
         <v>304236</v>
@@ -9975,7 +9995,7 @@
         <v>302206</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C13" s="4">
         <v>304243</v>
@@ -9987,7 +10007,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G13" s="4">
         <v>304244</v>
@@ -10004,7 +10024,7 @@
         <v>302300</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4">
         <v>304304</v>
@@ -10016,7 +10036,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G14" s="4">
         <v>304305</v>
@@ -10033,7 +10053,7 @@
         <v>302301</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C15" s="4">
         <v>304311</v>
@@ -10045,7 +10065,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G15" s="4">
         <v>304312</v>
@@ -10062,7 +10082,7 @@
         <v>302302</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" s="4">
         <v>304316</v>
@@ -10074,7 +10094,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G16" s="4">
         <v>304317</v>
@@ -10103,7 +10123,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G17" s="4">
         <v>304325</v>
@@ -10120,7 +10140,7 @@
         <v>302400</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C18" s="4">
         <v>304402</v>
@@ -10132,7 +10152,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G18" s="4">
         <v>304403</v>
@@ -10149,7 +10169,7 @@
         <v>302401</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" s="7">
         <v>304411</v>
@@ -10161,7 +10181,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G19" s="7">
         <v>304412</v>
@@ -10178,7 +10198,7 @@
         <v>302402</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C20" s="7">
         <v>304417</v>
@@ -10190,7 +10210,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7">
         <v>304418</v>
@@ -10207,7 +10227,7 @@
         <v>302403</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C21" s="7">
         <v>304424</v>
@@ -10219,7 +10239,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G21" s="7">
         <v>304425</v>
@@ -10236,7 +10256,7 @@
         <v>302404</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C22" s="7">
         <v>304433</v>
@@ -10248,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G22" s="7">
         <v>304434</v>
@@ -10265,7 +10285,7 @@
         <v>302405</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C23" s="7">
         <v>304440</v>
@@ -10277,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G23" s="7">
         <v>304441</v>
@@ -10294,7 +10314,7 @@
         <v>302406</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C24" s="7">
         <v>304447</v>
@@ -10306,7 +10326,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G24" s="7">
         <v>304448</v>
@@ -10323,7 +10343,7 @@
         <v>302407</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C25" s="4">
         <v>304453</v>
@@ -10335,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G25" s="4">
         <v>304454</v>
@@ -10352,7 +10372,7 @@
         <v>302500</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C26" s="7">
         <v>304501</v>
@@ -10364,7 +10384,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G26" s="7">
         <v>304502</v>
@@ -10381,7 +10401,7 @@
         <v>302501</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C27" s="7">
         <v>304508</v>
@@ -10393,7 +10413,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G27" s="7">
         <v>304509</v>
@@ -10410,7 +10430,7 @@
         <v>302502</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C28" s="7">
         <v>304513</v>
@@ -10422,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7">
         <v>304514</v>
@@ -10439,7 +10459,7 @@
         <v>302503</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C29" s="7">
         <v>304519</v>
@@ -10451,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7">
         <v>304520</v>
@@ -10468,7 +10488,7 @@
         <v>302600</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C30" s="4">
         <v>304603</v>
@@ -10480,7 +10500,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G30" s="4">
         <v>304603</v>
@@ -10497,7 +10517,7 @@
         <v>302601</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C31" s="4">
         <v>304607</v>
@@ -10509,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G31" s="4">
         <v>304607</v>
@@ -10526,7 +10546,7 @@
         <v>302602</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C32" s="4">
         <v>304612</v>
@@ -10538,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G32" s="4">
         <v>304612</v>
@@ -10555,7 +10575,7 @@
         <v>302603</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C33" s="4">
         <v>304618</v>
@@ -10567,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G33" s="4">
         <v>304618</v>
@@ -10589,14 +10609,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -10675,7 +10695,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="1">
-        <v>301106</v>
+        <v>301107</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1">
@@ -10771,7 +10791,7 @@
         <v>300301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C16" s="4">
         <v>301301</v>
@@ -10782,7 +10802,7 @@
         <v>300302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C17" s="4">
         <v>301302</v>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\OneDrive\문서\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20880" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DIALOGUE_TABLE" sheetId="5" r:id="rId1"/>
@@ -2222,7 +2222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
@@ -10609,8 +10609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10695,7 +10695,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="1">
-        <v>301107</v>
+        <v>301106</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1">

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\OneDrive\문서\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="8790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DIALOGUE_TABLE" sheetId="5" r:id="rId1"/>
@@ -524,9 +524,6 @@
     <t>나를 도와 친구들의 집에&lt;br&gt;꽃을 선물해줄래?</t>
   </si>
   <si>
-    <t>그럴 땐 지도를 확인하면 돼 !&lt;br&gt;지도는 왼쪽 허리에 있어.</t>
-  </si>
-  <si>
     <t>오, 생각보다 빨리 왔구나.&lt;br&gt;지도가 참 편리하지?</t>
   </si>
   <si>
@@ -977,10 +974,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어디긴!&lt;br&gt;바로 네 오른쪽 허리에 있지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도끼를 잡은 손으로&lt;br&gt;트리거를 누르고 있으면&lt;br&gt;도끼를 사용할 수 있어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -990,10 +983,6 @@
   </si>
   <si>
     <t>나무를 베면 다시 말을 걸어줘 !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도끼는 네 오른쪽 허리에 있어.&lt;br&gt;그랩 버튼을 꾹 누르면&lt;br&gt;잡을 수 있지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1790,6 +1779,18 @@
       </rPr>
       <t>노크를 하면 문이 열릴거야.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼는 네 왼쪽 허리에 있어.&lt;br&gt;그랩 버튼을 꾹 누르면&lt;br&gt;잡을 수 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디긴!&lt;br&gt;바로 네 왼쪽 허리에 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럴 땐 지도를 확인하면 돼 !&lt;br&gt;지도는 오른쪽 허리에 있어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2222,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2240,16 +2241,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2267,7 +2268,7 @@
         <v>300000</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -2288,7 +2289,7 @@
         <v>300000</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -2309,7 +2310,7 @@
         <v>300000</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="4">
         <v>304003</v>
@@ -2330,7 +2331,7 @@
         <v>300000</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="4">
         <v>302000</v>
@@ -2351,7 +2352,7 @@
         <v>300000</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" s="4">
         <v>304005</v>
@@ -2372,7 +2373,7 @@
         <v>300000</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -2393,7 +2394,7 @@
         <v>300001</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -2414,7 +2415,7 @@
         <v>300001</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -2435,7 +2436,7 @@
         <v>300001</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10" s="4">
         <v>304009</v>
@@ -2456,7 +2457,7 @@
         <v>300001</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" s="4">
         <v>302001</v>
@@ -2477,7 +2478,7 @@
         <v>300001</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D12" s="4">
         <v>304011</v>
@@ -2498,7 +2499,7 @@
         <v>300001</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -2519,7 +2520,7 @@
         <v>300002</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -2540,7 +2541,7 @@
         <v>300002</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
@@ -2561,7 +2562,7 @@
         <v>300002</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D16" s="4">
         <v>304015</v>
@@ -2582,7 +2583,7 @@
         <v>300002</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="4">
         <v>302002</v>
@@ -2603,7 +2604,7 @@
         <v>300002</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="4">
         <v>304017</v>
@@ -2624,7 +2625,7 @@
         <v>300002</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
@@ -2645,7 +2646,7 @@
         <v>300003</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -2666,7 +2667,7 @@
         <v>300003</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
@@ -2687,7 +2688,7 @@
         <v>300003</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="5">
         <v>304021</v>
@@ -2708,7 +2709,7 @@
         <v>300003</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D23" s="4">
         <v>302003</v>
@@ -2729,7 +2730,7 @@
         <v>300003</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D24" s="4">
         <v>304023</v>
@@ -2750,7 +2751,7 @@
         <v>300003</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D25" s="4">
         <v>304024</v>
@@ -2771,7 +2772,7 @@
         <v>300003</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
@@ -2792,7 +2793,7 @@
         <v>300100</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D27" s="4">
         <v>304101</v>
@@ -2813,7 +2814,7 @@
         <v>300100</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D28" s="5">
         <v>304102</v>
@@ -2834,7 +2835,7 @@
         <v>300100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D29" s="5">
         <v>304103</v>
@@ -2855,7 +2856,7 @@
         <v>300100</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D30" s="4">
         <v>304104</v>
@@ -2876,7 +2877,7 @@
         <v>300100</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D31" s="4">
         <v>304105</v>
@@ -2897,7 +2898,7 @@
         <v>300100</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D32" s="4">
         <v>304106</v>
@@ -2918,7 +2919,7 @@
         <v>300100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D33" s="4">
         <v>304107</v>
@@ -2939,7 +2940,7 @@
         <v>300100</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" s="5">
         <v>0</v>
@@ -2960,7 +2961,7 @@
         <v>300100</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D35" s="5">
         <v>304109</v>
@@ -2981,7 +2982,7 @@
         <v>300100</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D36" s="5">
         <v>304110</v>
@@ -3002,7 +3003,7 @@
         <v>300100</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D37" s="5">
         <v>304111</v>
@@ -3023,7 +3024,7 @@
         <v>300100</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D38" s="4">
         <v>304112</v>
@@ -3044,7 +3045,7 @@
         <v>300100</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D39" s="4">
         <v>304113</v>
@@ -3064,8 +3065,8 @@
       <c r="B40" s="4">
         <v>300100</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>138</v>
+      <c r="C40" s="15" t="s">
+        <v>443</v>
       </c>
       <c r="D40" s="4">
         <v>304114</v>
@@ -3086,7 +3087,7 @@
         <v>300100</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D41" s="4">
         <v>304115</v>
@@ -3107,7 +3108,7 @@
         <v>300100</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D42" s="4">
         <v>304116</v>
@@ -3128,7 +3129,7 @@
         <v>300100</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
@@ -3149,7 +3150,7 @@
         <v>300100</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="4">
         <v>304118</v>
@@ -3170,7 +3171,7 @@
         <v>300100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D45" s="5">
         <v>304119</v>
@@ -3191,7 +3192,7 @@
         <v>300100</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D46" s="4">
         <v>304120</v>
@@ -3212,7 +3213,7 @@
         <v>300100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="5">
         <v>304121</v>
@@ -3232,8 +3233,8 @@
       <c r="B48" s="4">
         <v>300100</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>257</v>
+      <c r="C48" s="15" t="s">
+        <v>442</v>
       </c>
       <c r="D48" s="4">
         <v>304122</v>
@@ -3254,7 +3255,7 @@
         <v>300100</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D49" s="5">
         <v>304123</v>
@@ -3275,7 +3276,7 @@
         <v>300100</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D50" s="4">
         <v>304124</v>
@@ -3296,7 +3297,7 @@
         <v>300100</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
@@ -3316,8 +3317,8 @@
       <c r="B52" s="4">
         <v>300100</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>261</v>
+      <c r="C52" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D52" s="4">
         <v>304122</v>
@@ -3338,7 +3339,7 @@
         <v>300100</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D53" s="4">
         <v>304127</v>
@@ -3359,7 +3360,7 @@
         <v>300100</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" s="5">
         <v>304128</v>
@@ -3380,7 +3381,7 @@
         <v>300100</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55" s="4">
         <v>304129</v>
@@ -3401,7 +3402,7 @@
         <v>300100</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D56" s="5">
         <v>304130</v>
@@ -3422,7 +3423,7 @@
         <v>300100</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D57" s="4">
         <v>304131</v>
@@ -3443,7 +3444,7 @@
         <v>300100</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D58" s="5">
         <v>304132</v>
@@ -3464,7 +3465,7 @@
         <v>300100</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D59" s="5">
         <v>0</v>
@@ -3485,7 +3486,7 @@
         <v>300100</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D60" s="4">
         <v>304134</v>
@@ -3506,7 +3507,7 @@
         <v>300100</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D61" s="4">
         <v>304135</v>
@@ -3527,7 +3528,7 @@
         <v>300100</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D62" s="5">
         <v>0</v>
@@ -3548,7 +3549,7 @@
         <v>300100</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D63" s="4">
         <v>304137</v>
@@ -3569,7 +3570,7 @@
         <v>300100</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D64" s="5">
         <v>304138</v>
@@ -3590,7 +3591,7 @@
         <v>300100</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D65" s="4">
         <v>304139</v>
@@ -3611,7 +3612,7 @@
         <v>300100</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D66" s="5">
         <v>304140</v>
@@ -3632,7 +3633,7 @@
         <v>300100</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D67" s="4">
         <v>304141</v>
@@ -3653,7 +3654,7 @@
         <v>300100</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D68" s="5">
         <v>304142</v>
@@ -3674,7 +3675,7 @@
         <v>300100</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D69" s="4">
         <v>304143</v>
@@ -3695,7 +3696,7 @@
         <v>300100</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D70" s="5">
         <v>304144</v>
@@ -3716,7 +3717,7 @@
         <v>300100</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D71" s="4">
         <v>304145</v>
@@ -3737,7 +3738,7 @@
         <v>300100</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D72" s="5">
         <v>304146</v>
@@ -3758,7 +3759,7 @@
         <v>300100</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D73" s="4">
         <v>304147</v>
@@ -3779,7 +3780,7 @@
         <v>300100</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D74" s="4">
         <v>304148</v>
@@ -3800,7 +3801,7 @@
         <v>300100</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D75" s="5">
         <v>0</v>
@@ -3821,7 +3822,7 @@
         <v>300100</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D76" s="5">
         <v>304150</v>
@@ -3842,7 +3843,7 @@
         <v>300100</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D77" s="5">
         <v>304144</v>
@@ -3863,7 +3864,7 @@
         <v>300100</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D78" s="4">
         <v>304152</v>
@@ -3884,7 +3885,7 @@
         <v>300100</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D79" s="5">
         <v>304153</v>
@@ -3905,7 +3906,7 @@
         <v>300100</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D80" s="4">
         <v>304154</v>
@@ -3926,7 +3927,7 @@
         <v>300100</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D81" s="5">
         <v>304155</v>
@@ -3947,7 +3948,7 @@
         <v>300100</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D82" s="4">
         <v>304156</v>
@@ -3968,7 +3969,7 @@
         <v>300100</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D83" s="5">
         <v>304157</v>
@@ -3989,7 +3990,7 @@
         <v>300100</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -4010,7 +4011,7 @@
         <v>300100</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D85" s="4">
         <v>304159</v>
@@ -4031,7 +4032,7 @@
         <v>300100</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D86" s="5">
         <v>0</v>
@@ -4052,7 +4053,7 @@
         <v>300100</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D87" s="5">
         <v>0</v>
@@ -4073,7 +4074,7 @@
         <v>300101</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D88" s="4">
         <v>304162</v>
@@ -4094,7 +4095,7 @@
         <v>300101</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D89" s="4">
         <v>304163</v>
@@ -4115,7 +4116,7 @@
         <v>300101</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D90" s="4">
         <v>304164</v>
@@ -4136,7 +4137,7 @@
         <v>300101</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D91" s="4">
         <v>304165</v>
@@ -4157,7 +4158,7 @@
         <v>300101</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D92" s="4">
         <v>304166</v>
@@ -4178,7 +4179,7 @@
         <v>300101</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D93" s="4">
         <v>304167</v>
@@ -4199,7 +4200,7 @@
         <v>300101</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D94" s="4">
         <v>304168</v>
@@ -4220,7 +4221,7 @@
         <v>300101</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" s="4">
         <v>304169</v>
@@ -4241,7 +4242,7 @@
         <v>300101</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
@@ -4262,7 +4263,7 @@
         <v>300101</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D97" s="5">
         <v>304171</v>
@@ -4283,7 +4284,7 @@
         <v>300101</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D98" s="5">
         <v>0</v>
@@ -4325,7 +4326,7 @@
         <v>300100</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D100" s="4">
         <v>304174</v>
@@ -4346,7 +4347,7 @@
         <v>300100</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D101" s="4">
         <v>304175</v>
@@ -4367,7 +4368,7 @@
         <v>300100</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D102" s="4">
         <v>304176</v>
@@ -4388,7 +4389,7 @@
         <v>300100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D103" s="4">
         <v>304177</v>
@@ -4409,7 +4410,7 @@
         <v>300100</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D104" s="4">
         <v>304178</v>
@@ -4451,7 +4452,7 @@
         <v>300100</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D106" s="4">
         <v>304181</v>
@@ -4472,7 +4473,7 @@
         <v>300100</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D107" s="4">
         <v>304181</v>
@@ -4493,7 +4494,7 @@
         <v>300100</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
@@ -4514,7 +4515,7 @@
         <v>300200</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D109" s="4">
         <v>304201</v>
@@ -4577,7 +4578,7 @@
         <v>300200</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D112" s="4">
         <v>302200</v>
@@ -4640,7 +4641,7 @@
         <v>300200</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D115" s="5">
         <v>0</v>
@@ -4661,7 +4662,7 @@
         <v>300201</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D116" s="5">
         <v>304208</v>
@@ -4703,7 +4704,7 @@
         <v>300201</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D118" s="5">
         <v>302201</v>
@@ -4766,7 +4767,7 @@
         <v>300201</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
@@ -4850,7 +4851,7 @@
         <v>300202</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D125" s="4">
         <v>304218</v>
@@ -4871,7 +4872,7 @@
         <v>300202</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D126" s="5">
         <v>304218</v>
@@ -4892,7 +4893,7 @@
         <v>300202</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D127" s="5">
         <v>0</v>
@@ -4934,7 +4935,7 @@
         <v>300203</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D129" s="5">
         <v>304222</v>
@@ -4955,7 +4956,7 @@
         <v>300203</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D130" s="5">
         <v>304222</v>
@@ -4976,7 +4977,7 @@
         <v>300203</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D131" s="5">
         <v>304223</v>
@@ -5018,7 +5019,7 @@
         <v>300204</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D133" s="5">
         <v>0</v>
@@ -5039,7 +5040,7 @@
         <v>300204</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D134" s="5">
         <v>0</v>
@@ -5060,7 +5061,7 @@
         <v>300204</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D135" s="5">
         <v>302204</v>
@@ -5081,7 +5082,7 @@
         <v>300204</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D136" s="5">
         <v>304229</v>
@@ -5102,7 +5103,7 @@
         <v>300204</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D137" s="5">
         <v>304229</v>
@@ -5123,7 +5124,7 @@
         <v>300204</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D138" s="5">
         <v>304230</v>
@@ -5144,7 +5145,7 @@
         <v>300204</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D139" s="5">
         <v>0</v>
@@ -5165,7 +5166,7 @@
         <v>300205</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D140" s="5">
         <v>304232</v>
@@ -5186,10 +5187,10 @@
         <v>300205</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="D141" s="5">
-        <v>304232</v>
+        <v>424</v>
+      </c>
+      <c r="D141" s="16">
+        <v>304233</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="4"/>
@@ -5207,10 +5208,10 @@
         <v>300205</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="D142" s="5">
-        <v>304233</v>
+        <v>425</v>
+      </c>
+      <c r="D142" s="16">
+        <v>304234</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="4"/>
@@ -5228,7 +5229,7 @@
         <v>300205</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D143" s="5">
         <v>302205</v>
@@ -5249,7 +5250,7 @@
         <v>300205</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D144" s="5">
         <v>304237</v>
@@ -5270,7 +5271,7 @@
         <v>300205</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D145" s="5">
         <v>304237</v>
@@ -5291,7 +5292,7 @@
         <v>300205</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D146" s="5">
         <v>0</v>
@@ -5312,7 +5313,7 @@
         <v>300206</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D147" s="5">
         <v>304239</v>
@@ -5354,7 +5355,7 @@
         <v>300206</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D149" s="5">
         <v>0</v>
@@ -5396,7 +5397,7 @@
         <v>300206</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D151" s="5">
         <v>302206</v>
@@ -5417,7 +5418,7 @@
         <v>300206</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D152" s="5">
         <v>304245</v>
@@ -5438,7 +5439,7 @@
         <v>300206</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D153" s="5">
         <v>304245</v>
@@ -5459,7 +5460,7 @@
         <v>300206</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D154" s="5">
         <v>304246</v>
@@ -5480,7 +5481,7 @@
         <v>300206</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D155" s="5">
         <v>0</v>
@@ -5501,7 +5502,7 @@
         <v>300207</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D156" s="5">
         <v>304248</v>
@@ -5564,7 +5565,7 @@
         <v>300207</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
@@ -5690,7 +5691,7 @@
         <v>300300</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D165" s="4">
         <v>302300</v>
@@ -5711,7 +5712,7 @@
         <v>300300</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D166" s="4">
         <v>304306</v>
@@ -5753,7 +5754,7 @@
         <v>300300</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D168" s="5">
         <v>0</v>
@@ -5795,7 +5796,7 @@
         <v>300301</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D170" s="5">
         <v>0</v>
@@ -5837,7 +5838,7 @@
         <v>300301</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D172" s="5">
         <v>302301</v>
@@ -5858,7 +5859,7 @@
         <v>300301</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D173" s="5">
         <v>304313</v>
@@ -5879,7 +5880,7 @@
         <v>300301</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D174" s="5">
         <v>304313</v>
@@ -5900,7 +5901,7 @@
         <v>300301</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D175" s="5">
         <v>0</v>
@@ -5942,7 +5943,7 @@
         <v>300302</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D177" s="5">
         <v>302302</v>
@@ -5963,7 +5964,7 @@
         <v>300302</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D178" s="5">
         <v>304318</v>
@@ -5984,7 +5985,7 @@
         <v>300302</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D179" s="5">
         <v>304318</v>
@@ -6005,7 +6006,7 @@
         <v>300302</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D180" s="5">
         <v>0</v>
@@ -6026,7 +6027,7 @@
         <v>300303</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D181" s="4">
         <v>304320</v>
@@ -6047,7 +6048,7 @@
         <v>300303</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D182" s="5">
         <v>0</v>
@@ -6089,7 +6090,7 @@
         <v>300303</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D184" s="4">
         <v>304323</v>
@@ -6131,7 +6132,7 @@
         <v>300303</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D186" s="4">
         <v>304326</v>
@@ -6152,7 +6153,7 @@
         <v>300303</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D187" s="4">
         <v>304326</v>
@@ -6194,7 +6195,7 @@
         <v>300400</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D189" s="4">
         <v>304401</v>
@@ -6215,7 +6216,7 @@
         <v>300400</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D190" s="5">
         <v>302400</v>
@@ -6236,7 +6237,7 @@
         <v>300400</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D191" s="5">
         <v>304404</v>
@@ -6257,7 +6258,7 @@
         <v>300400</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D192" s="4">
         <v>304404</v>
@@ -6278,7 +6279,7 @@
         <v>300400</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D193" s="4">
         <v>304405</v>
@@ -6299,7 +6300,7 @@
         <v>300400</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D194" s="15">
         <v>0</v>
@@ -6320,7 +6321,7 @@
         <v>300400</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D195" s="16">
         <v>0</v>
@@ -6341,7 +6342,7 @@
         <v>300401</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D196" s="5">
         <v>0</v>
@@ -6362,7 +6363,7 @@
         <v>300401</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D197" s="5">
         <v>0</v>
@@ -6383,7 +6384,7 @@
         <v>300401</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D198" s="4">
         <v>304410</v>
@@ -6404,7 +6405,7 @@
         <v>300401</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D199" s="4">
         <v>302401</v>
@@ -6488,7 +6489,7 @@
         <v>300402</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D203" s="4">
         <v>304415</v>
@@ -6530,7 +6531,7 @@
         <v>300402</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D205" s="4">
         <v>302402</v>
@@ -6656,7 +6657,7 @@
         <v>300403</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D211" s="5">
         <v>0</v>
@@ -6698,7 +6699,7 @@
         <v>300403</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D213" s="4">
         <v>304426</v>
@@ -6719,7 +6720,7 @@
         <v>300403</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D214" s="4">
         <v>304426</v>
@@ -6740,7 +6741,7 @@
         <v>300403</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D215" s="5">
         <v>0</v>
@@ -6761,7 +6762,7 @@
         <v>300404</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D216" s="5">
         <v>304428</v>
@@ -6782,7 +6783,7 @@
         <v>300404</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D217" s="5">
         <v>304429</v>
@@ -6803,7 +6804,7 @@
         <v>300404</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D218" s="5">
         <v>304430</v>
@@ -6845,7 +6846,7 @@
         <v>300404</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D220" s="5">
         <v>0</v>
@@ -6866,7 +6867,7 @@
         <v>300404</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D221" s="5">
         <v>302404</v>
@@ -6887,7 +6888,7 @@
         <v>300404</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D222" s="5">
         <v>304435</v>
@@ -7013,7 +7014,7 @@
         <v>300405</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D228" s="5">
         <v>302405</v>
@@ -7034,7 +7035,7 @@
         <v>300405</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D229" s="5">
         <v>304442</v>
@@ -7055,7 +7056,7 @@
         <v>300405</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D230" s="5">
         <v>304442</v>
@@ -7076,7 +7077,7 @@
         <v>300405</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D231" s="5">
         <v>304443</v>
@@ -7118,7 +7119,7 @@
         <v>300406</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D233" s="5">
         <v>0</v>
@@ -7139,7 +7140,7 @@
         <v>300406</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D234" s="5">
         <v>0</v>
@@ -7181,7 +7182,7 @@
         <v>300406</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D236" s="5">
         <v>304449</v>
@@ -7202,7 +7203,7 @@
         <v>300406</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D237" s="5">
         <v>304449</v>
@@ -7244,7 +7245,7 @@
         <v>300600</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D239" s="5">
         <v>0</v>
@@ -7265,7 +7266,7 @@
         <v>300600</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D240" s="5">
         <v>0</v>
@@ -7286,7 +7287,7 @@
         <v>300600</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D241" s="5">
         <v>302407</v>
@@ -7349,7 +7350,7 @@
         <v>300600</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D244" s="5">
         <v>0</v>
@@ -7370,7 +7371,7 @@
         <v>300500</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D245" s="4">
         <v>302500</v>
@@ -7391,7 +7392,7 @@
         <v>300500</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D246" s="4">
         <v>304503</v>
@@ -7412,7 +7413,7 @@
         <v>300500</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D247" s="4">
         <v>304503</v>
@@ -7433,7 +7434,7 @@
         <v>300500</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D248" s="4">
         <v>304504</v>
@@ -7475,7 +7476,7 @@
         <v>300500</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D250" s="5">
         <v>0</v>
@@ -7496,7 +7497,7 @@
         <v>300501</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D251" s="4">
         <v>304507</v>
@@ -7517,7 +7518,7 @@
         <v>300501</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D252" s="5">
         <v>302501</v>
@@ -7538,7 +7539,7 @@
         <v>300501</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D253" s="4">
         <v>304510</v>
@@ -7559,7 +7560,7 @@
         <v>300501</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D254" s="5">
         <v>304510</v>
@@ -7580,7 +7581,7 @@
         <v>300501</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D255" s="5">
         <v>0</v>
@@ -7643,7 +7644,7 @@
         <v>300502</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D258" s="5">
         <v>304515</v>
@@ -7664,7 +7665,7 @@
         <v>300502</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D259" s="5">
         <v>304515</v>
@@ -7685,7 +7686,7 @@
         <v>300502</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D260" s="5">
         <v>0</v>
@@ -7727,7 +7728,7 @@
         <v>300504</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D262" s="5">
         <v>304518</v>
@@ -7748,7 +7749,7 @@
         <v>300504</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D263" s="5">
         <v>302503</v>
@@ -7769,7 +7770,7 @@
         <v>300504</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D264" s="5">
         <v>304521</v>
@@ -7790,7 +7791,7 @@
         <v>300504</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D265" s="5">
         <v>304521</v>
@@ -7811,7 +7812,7 @@
         <v>300504</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D266" s="5">
         <v>0</v>
@@ -7832,7 +7833,7 @@
         <v>300504</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D267" s="5">
         <v>304523</v>
@@ -7895,7 +7896,7 @@
         <v>300504</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D270" s="5">
         <v>0</v>
@@ -7916,7 +7917,7 @@
         <v>300600</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D271" s="4">
         <v>304601</v>
@@ -7937,7 +7938,7 @@
         <v>300600</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D272" s="5">
         <v>304602</v>
@@ -7958,7 +7959,7 @@
         <v>300600</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D273" s="5">
         <v>302600</v>
@@ -7979,7 +7980,7 @@
         <v>300600</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D274" s="4">
         <v>304604</v>
@@ -8000,7 +8001,7 @@
         <v>300600</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D275" s="4">
         <v>304605</v>
@@ -8021,7 +8022,7 @@
         <v>300600</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D276" s="4">
         <v>304606</v>
@@ -8042,7 +8043,7 @@
         <v>300600</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D277" s="4">
         <v>302601</v>
@@ -8063,7 +8064,7 @@
         <v>300600</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D278" s="5">
         <v>304608</v>
@@ -8084,7 +8085,7 @@
         <v>300600</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D279" s="4">
         <v>304609</v>
@@ -8105,7 +8106,7 @@
         <v>300600</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D280" s="4">
         <v>304610</v>
@@ -8126,7 +8127,7 @@
         <v>300600</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D281" s="4">
         <v>304611</v>
@@ -8147,7 +8148,7 @@
         <v>300600</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D282" s="4">
         <v>302602</v>
@@ -8168,7 +8169,7 @@
         <v>300600</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D283" s="4">
         <v>304613</v>
@@ -8189,7 +8190,7 @@
         <v>300600</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D284" s="4">
         <v>304614</v>
@@ -8210,7 +8211,7 @@
         <v>300600</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D285" s="4">
         <v>304615</v>
@@ -8231,7 +8232,7 @@
         <v>300600</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D286" s="4">
         <v>304616</v>
@@ -8252,7 +8253,7 @@
         <v>300600</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D287" s="4">
         <v>304617</v>
@@ -8273,7 +8274,7 @@
         <v>300600</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D288" s="4">
         <v>302603</v>
@@ -8294,7 +8295,7 @@
         <v>300600</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D289" s="4">
         <v>304619</v>
@@ -8315,7 +8316,7 @@
         <v>300600</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D290" s="4">
         <v>304620</v>
@@ -8336,7 +8337,7 @@
         <v>300600</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D291" s="4">
         <v>304621</v>
@@ -8357,7 +8358,7 @@
         <v>300600</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D292" s="4">
         <v>304622</v>
@@ -8378,7 +8379,7 @@
         <v>300600</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D293" s="4">
         <v>304623</v>
@@ -8399,7 +8400,7 @@
         <v>300600</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D294" s="4">
         <v>304624</v>
@@ -8420,7 +8421,7 @@
         <v>300600</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D295" s="4">
         <v>0</v>
@@ -8444,8 +8445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8767,7 +8768,7 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <v>100005</v>
       </c>
       <c r="G10" s="1">
@@ -9023,10 +9024,10 @@
       <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <v>103011</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <v>103012</v>
       </c>
       <c r="H18" s="2">
@@ -9311,10 +9312,10 @@
       <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <v>106000</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="9">
         <v>106001</v>
       </c>
       <c r="H27" s="4">
@@ -9343,10 +9344,10 @@
       <c r="E28" s="2">
         <v>2</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <v>103013</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="9">
         <v>103014</v>
       </c>
       <c r="H28" s="4">
@@ -9375,10 +9376,10 @@
       <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="9">
         <v>103015</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <v>103016</v>
       </c>
       <c r="H29" s="4">
@@ -9676,7 +9677,7 @@
         <v>302000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="4">
         <v>304004</v>
@@ -9688,7 +9689,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" s="4">
         <v>304004</v>
@@ -9705,7 +9706,7 @@
         <v>302001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4">
         <v>304010</v>
@@ -9717,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G3" s="4">
         <v>304010</v>
@@ -9734,7 +9735,7 @@
         <v>302002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4">
         <v>304016</v>
@@ -9746,7 +9747,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="4">
         <v>304016</v>
@@ -9763,7 +9764,7 @@
         <v>302003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="4">
         <v>304022</v>
@@ -9775,7 +9776,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="4">
         <v>304022</v>
@@ -9792,7 +9793,7 @@
         <v>302100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4">
         <v>304179</v>
@@ -9804,7 +9805,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6" s="4">
         <v>304180</v>
@@ -9821,7 +9822,7 @@
         <v>302200</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4">
         <v>304204</v>
@@ -9833,7 +9834,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G7" s="4">
         <v>304205</v>
@@ -9850,7 +9851,7 @@
         <v>302201</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="4">
         <v>304210</v>
@@ -9862,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8" s="4">
         <v>304211</v>
@@ -9879,7 +9880,7 @@
         <v>302202</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="4">
         <v>304216</v>
@@ -9891,7 +9892,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G9" s="4">
         <v>304217</v>
@@ -9908,7 +9909,7 @@
         <v>302203</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="4">
         <v>304220</v>
@@ -9920,7 +9921,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G10" s="4">
         <v>304221</v>
@@ -9937,7 +9938,7 @@
         <v>302204</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="4">
         <v>304227</v>
@@ -9949,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G11" s="4">
         <v>304228</v>
@@ -9966,7 +9967,7 @@
         <v>302205</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="4">
         <v>304235</v>
@@ -9978,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G12" s="4">
         <v>304236</v>
@@ -9995,7 +9996,7 @@
         <v>302206</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4">
         <v>304243</v>
@@ -10007,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G13" s="4">
         <v>304244</v>
@@ -10024,7 +10025,7 @@
         <v>302300</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="4">
         <v>304304</v>
@@ -10036,7 +10037,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G14" s="4">
         <v>304305</v>
@@ -10053,7 +10054,7 @@
         <v>302301</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="4">
         <v>304311</v>
@@ -10065,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G15" s="4">
         <v>304312</v>
@@ -10082,7 +10083,7 @@
         <v>302302</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="4">
         <v>304316</v>
@@ -10094,7 +10095,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G16" s="4">
         <v>304317</v>
@@ -10123,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G17" s="4">
         <v>304325</v>
@@ -10140,7 +10141,7 @@
         <v>302400</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="4">
         <v>304402</v>
@@ -10152,7 +10153,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" s="4">
         <v>304403</v>
@@ -10169,7 +10170,7 @@
         <v>302401</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="7">
         <v>304411</v>
@@ -10181,7 +10182,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G19" s="7">
         <v>304412</v>
@@ -10198,7 +10199,7 @@
         <v>302402</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="7">
         <v>304417</v>
@@ -10210,7 +10211,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7">
         <v>304418</v>
@@ -10227,7 +10228,7 @@
         <v>302403</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="7">
         <v>304424</v>
@@ -10239,7 +10240,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G21" s="7">
         <v>304425</v>
@@ -10256,7 +10257,7 @@
         <v>302404</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="7">
         <v>304433</v>
@@ -10268,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7">
         <v>304434</v>
@@ -10285,7 +10286,7 @@
         <v>302405</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="7">
         <v>304440</v>
@@ -10297,7 +10298,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G23" s="7">
         <v>304441</v>
@@ -10314,7 +10315,7 @@
         <v>302406</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" s="7">
         <v>304447</v>
@@ -10326,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" s="7">
         <v>304448</v>
@@ -10343,7 +10344,7 @@
         <v>302407</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="4">
         <v>304453</v>
@@ -10355,7 +10356,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G25" s="4">
         <v>304454</v>
@@ -10372,7 +10373,7 @@
         <v>302500</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="7">
         <v>304501</v>
@@ -10384,7 +10385,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G26" s="7">
         <v>304502</v>
@@ -10401,7 +10402,7 @@
         <v>302501</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C27" s="7">
         <v>304508</v>
@@ -10413,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G27" s="7">
         <v>304509</v>
@@ -10430,7 +10431,7 @@
         <v>302502</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C28" s="7">
         <v>304513</v>
@@ -10442,7 +10443,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7">
         <v>304514</v>
@@ -10459,7 +10460,7 @@
         <v>302503</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="7">
         <v>304519</v>
@@ -10471,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G29" s="7">
         <v>304520</v>
@@ -10488,7 +10489,7 @@
         <v>302600</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="4">
         <v>304603</v>
@@ -10500,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G30" s="4">
         <v>304603</v>
@@ -10517,7 +10518,7 @@
         <v>302601</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="4">
         <v>304607</v>
@@ -10529,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G31" s="4">
         <v>304607</v>
@@ -10546,7 +10547,7 @@
         <v>302602</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="4">
         <v>304612</v>
@@ -10558,7 +10559,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G32" s="4">
         <v>304612</v>
@@ -10575,7 +10576,7 @@
         <v>302603</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C33" s="4">
         <v>304618</v>
@@ -10587,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G33" s="4">
         <v>304618</v>
@@ -10609,8 +10610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10694,8 +10695,8 @@
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="1">
-        <v>301107</v>
+      <c r="C7" s="8">
+        <v>301106</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1">
@@ -10791,7 +10792,7 @@
         <v>300301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="4">
         <v>301301</v>
@@ -10802,7 +10803,7 @@
         <v>300302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="4">
         <v>301302</v>

--- a/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
+++ b/Project_S/Assets/_JSH/Data/QUEST_DATA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="8790" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20880" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="DIALOGUE_TABLE" sheetId="5" r:id="rId1"/>
@@ -1674,54 +1674,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>1개 모아야한다고-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">또 나야!&lt;br&gt;별을 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3개 가져오면&lt;br&gt;지나가게 해주지-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">이제는 조금 반갑지?&lt;br&gt;별 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5개를 가지고 와!</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">안녕? 또 보네!&lt;br&gt;별 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7개를 가지고 오도록!</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1791,6 +1743,54 @@
   </si>
   <si>
     <t>그럴 땐 지도를 확인하면 돼 !&lt;br&gt;지도는 오른쪽 허리에 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>또 나야!&lt;br&gt;별을 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개 가져오면&lt;br&gt;지나가게 해주지-</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이제는 조금 반갑지?&lt;br&gt;별 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개를 가지고 와!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>안녕? 또 보네!&lt;br&gt;별 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개를 가지고 오도록!</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2223,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2394,7 +2394,7 @@
         <v>300001</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>300002</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>300003</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>300100</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D40" s="4">
         <v>304114</v>
@@ -3234,7 +3234,7 @@
         <v>300100</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D48" s="4">
         <v>304122</v>
@@ -3318,7 +3318,7 @@
         <v>300100</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D52" s="4">
         <v>304122</v>
@@ -3948,7 +3948,7 @@
         <v>300100</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D82" s="4">
         <v>304156</v>
@@ -6279,7 +6279,7 @@
         <v>300400</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D193" s="4">
         <v>304405</v>
@@ -6321,7 +6321,7 @@
         <v>300400</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D195" s="16">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>300501</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D251" s="4">
         <v>304507</v>
@@ -7518,7 +7518,7 @@
         <v>300501</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D252" s="5">
         <v>302501</v>
@@ -7539,7 +7539,7 @@
         <v>300501</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D253" s="4">
         <v>304510</v>
@@ -7560,7 +7560,7 @@
         <v>300501</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D254" s="5">
         <v>304510</v>
@@ -7581,7 +7581,7 @@
         <v>300501</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D255" s="5">
         <v>0</v>
@@ -10610,7 +10610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
